--- a/static/data/source/manufacturing_state_gdp.xlsx
+++ b/static/data/source/manufacturing_state_gdp.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C85379-96E7-4F2D-B210-6485500B6C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EEAB0-2190-4979-A3D5-7BAF91584B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
     <sheet name="TABLE_2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Geography</t>
   </si>
@@ -263,6 +263,9 @@
   <si>
     <t>2023 Q2</t>
   </si>
+  <si>
+    <t>2023 Q3</t>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +357,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -375,6 +378,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,27 +699,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="23" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -783,639 +790,669 @@
       <c r="W4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>2665597.5556260147</v>
+        <v>2704325.2024445864</v>
       </c>
       <c r="C5" s="6">
-        <v>2681758.6001641271</v>
+        <v>2720721.0458268723</v>
       </c>
       <c r="D5" s="6">
-        <v>2694995.2652143911</v>
+        <v>2734150.0223114113</v>
       </c>
       <c r="E5" s="6">
-        <v>2721083.8085402017</v>
+        <v>2760617.5980571015</v>
       </c>
       <c r="F5" s="6">
-        <v>2685478.2056530579</v>
+        <v>2724494.6923196204</v>
       </c>
       <c r="G5" s="6">
-        <v>2695867.4485704158</v>
+        <v>2735034.8773510898</v>
       </c>
       <c r="H5" s="6">
-        <v>2721571.2051215102</v>
+        <v>2761112.0758733922</v>
       </c>
       <c r="I5" s="6">
-        <v>2710643.260719548</v>
+        <v>2750025.3627291801</v>
       </c>
       <c r="J5" s="6">
-        <v>2642228.17217487</v>
+        <v>2680616.292410837</v>
       </c>
       <c r="K5" s="6">
-        <v>2374160.0524553782</v>
+        <v>2408653.493450698</v>
       </c>
       <c r="L5" s="6">
-        <v>2647794.7541824426</v>
+        <v>2686263.7495758464</v>
       </c>
       <c r="M5" s="6">
-        <v>2681194.2462278754</v>
+        <v>2720148.4925659033</v>
       </c>
       <c r="N5" s="6">
-        <v>2694559.1735363784</v>
+        <v>2733707.5947915716</v>
       </c>
       <c r="O5" s="6">
-        <v>2712926.3289162023</v>
+        <v>2752341.6009212807</v>
       </c>
       <c r="P5" s="6">
-        <v>2712721.1093030195</v>
+        <v>2752133.399735474</v>
       </c>
       <c r="Q5" s="6">
-        <v>2813637.854085458</v>
+        <v>2854516.3328559701</v>
       </c>
       <c r="R5" s="6">
-        <v>2797784.6389671187</v>
+        <v>2838432.7912523947</v>
       </c>
       <c r="S5" s="6">
-        <v>2750763.6950967046</v>
+        <v>2790728.6945544104</v>
       </c>
       <c r="T5" s="6">
-        <v>2756355.9295559251</v>
+        <v>2796402.1768676457</v>
       </c>
       <c r="U5" s="6">
-        <v>2773363.5049984148</v>
+        <v>2813656.8501413851</v>
       </c>
       <c r="V5" s="6">
-        <v>2708001.0581998248</v>
+        <v>2747344.7724619173</v>
       </c>
       <c r="W5" s="6">
-        <v>2750815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2790780.7448508618</v>
+      </c>
+      <c r="X5" s="8">
+        <v>2853137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>44132.201922210414</v>
+        <v>44740.993154075295</v>
       </c>
       <c r="C6" s="6">
-        <v>43849.33323089956</v>
+        <v>44454.222369246818</v>
       </c>
       <c r="D6" s="6">
-        <v>43958.391039597722</v>
+        <v>44564.78459954213</v>
       </c>
       <c r="E6" s="6">
-        <v>44562.043051024644</v>
+        <v>45176.763819575193</v>
       </c>
       <c r="F6" s="6">
-        <v>44232.739589604033</v>
+        <v>44842.917710128793</v>
       </c>
       <c r="G6" s="6">
-        <v>44070.00489068724</v>
+        <v>44677.938132110001</v>
       </c>
       <c r="H6" s="6">
-        <v>44408.254500477626</v>
+        <v>45020.853799510318</v>
       </c>
       <c r="I6" s="6">
-        <v>44702.625382549617</v>
+        <v>45319.285444565248</v>
       </c>
       <c r="J6" s="6">
-        <v>45077.085592884316</v>
+        <v>45698.911227493307</v>
       </c>
       <c r="K6" s="6">
-        <v>38141.690570985716</v>
+        <v>38667.84439465055</v>
       </c>
       <c r="L6" s="6">
-        <v>44038.480367860429</v>
+        <v>44645.978737415258</v>
       </c>
       <c r="M6" s="6">
-        <v>43703.21280752663</v>
+        <v>44306.086255999573</v>
       </c>
       <c r="N6" s="6">
-        <v>43462.9448227385</v>
+        <v>44062.503842380211</v>
       </c>
       <c r="O6" s="6">
-        <v>42568.329985761411</v>
+        <v>43155.548046988952</v>
       </c>
       <c r="P6" s="6">
-        <v>41985.552320530616</v>
+        <v>42564.731128848347</v>
       </c>
       <c r="Q6" s="6">
-        <v>43675.096341221644</v>
+        <v>44277.581931001572</v>
       </c>
       <c r="R6" s="6">
-        <v>45366.770397238797</v>
+        <v>45992.592151715246</v>
       </c>
       <c r="S6" s="6">
-        <v>45212.555839626555</v>
+        <v>45836.250247938267</v>
       </c>
       <c r="T6" s="6">
-        <v>46246.048979867708</v>
+        <v>46884.000133471229</v>
       </c>
       <c r="U6" s="6">
-        <v>46747.033288574887</v>
+        <v>47391.895378890338</v>
       </c>
       <c r="V6" s="6">
-        <v>46594.948766288777</v>
+        <v>47237.712893673823</v>
       </c>
       <c r="W6" s="6">
-        <v>47272.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>47924.407995898633</v>
+      </c>
+      <c r="X6" s="8">
+        <v>48860.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>1891.3751708631946</v>
+        <v>1922.9203687662416</v>
       </c>
       <c r="C7" s="6">
-        <v>1688.06254551029</v>
+        <v>1716.2168048508845</v>
       </c>
       <c r="D7" s="6">
-        <v>1604.1427138823951</v>
+        <v>1630.8973208761292</v>
       </c>
       <c r="E7" s="6">
-        <v>1673.8452075269231</v>
+        <v>1701.7623437693355</v>
       </c>
       <c r="F7" s="6">
-        <v>1728.9549879277965</v>
+        <v>1757.7912696448457</v>
       </c>
       <c r="G7" s="6">
-        <v>1861.4155329015443</v>
+        <v>1892.4610506125478</v>
       </c>
       <c r="H7" s="6">
-        <v>2053.6076661684488</v>
+        <v>2087.8586499195644</v>
       </c>
       <c r="I7" s="6">
-        <v>1995.2368131938324</v>
+        <v>2028.5142618487812</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>1670.6545178144841</v>
+        <v>1698.51843831209</v>
       </c>
       <c r="O7" s="6">
-        <v>1794.8802680156875</v>
+        <v>1824.8160809305778</v>
       </c>
       <c r="P7" s="6">
-        <v>1747.9583604798222</v>
+        <v>1777.1115889122632</v>
       </c>
       <c r="Q7" s="6">
-        <v>1785.7539569999617</v>
+        <v>1815.5375572330156</v>
       </c>
       <c r="R7" s="6">
-        <v>1752.7209340947127</v>
+        <v>1781.9535948521223</v>
       </c>
       <c r="S7" s="6">
-        <v>1752.1109492967464</v>
+        <v>1781.3334364558843</v>
       </c>
       <c r="T7" s="6">
-        <v>1706.3855504030457</v>
+        <v>1734.8454089840368</v>
       </c>
       <c r="U7" s="6">
-        <v>1647.4516345379989</v>
+        <v>1674.9285670090335</v>
       </c>
       <c r="V7" s="6">
-        <v>1807.3145735126918</v>
+        <v>1837.4577713154313</v>
       </c>
       <c r="W7" s="6">
-        <v>1836.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1867.1299653508229</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1927.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>31622.305541567199</v>
+        <v>32036.072385739419</v>
       </c>
       <c r="C8" s="6">
-        <v>32187.527945839654</v>
+        <v>32608.690528129828</v>
       </c>
       <c r="D8" s="6">
-        <v>32153.866331913534</v>
+        <v>32574.588463720247</v>
       </c>
       <c r="E8" s="6">
-        <v>33397.589789061989</v>
+        <v>33834.585608731555</v>
       </c>
       <c r="F8" s="6">
-        <v>34638.678859033622</v>
+        <v>35091.913896528204</v>
       </c>
       <c r="G8" s="6">
-        <v>34848.551704120808</v>
+        <v>35304.532854629666</v>
       </c>
       <c r="H8" s="6">
-        <v>35537.88301539042</v>
+        <v>36002.883825799741</v>
       </c>
       <c r="I8" s="6">
-        <v>36691.159179467824</v>
+        <v>37171.250206440956</v>
       </c>
       <c r="J8" s="6">
-        <v>36085.542838484034</v>
+        <v>36557.709586759061</v>
       </c>
       <c r="K8" s="6">
-        <v>34094.824261862086</v>
+        <v>34540.943151545616</v>
       </c>
       <c r="L8" s="6">
-        <v>36642.276661853386</v>
+        <v>37121.728078124441</v>
       </c>
       <c r="M8" s="6">
-        <v>38827.647179874177</v>
+        <v>39335.693407532402</v>
       </c>
       <c r="N8" s="6">
-        <v>38951.756086871341</v>
+        <v>39461.426236312072</v>
       </c>
       <c r="O8" s="6">
-        <v>39299.787903898759</v>
+        <v>39814.011928338063</v>
       </c>
       <c r="P8" s="6">
-        <v>41295.189835501733</v>
+        <v>41835.522998599801</v>
       </c>
       <c r="Q8" s="6">
-        <v>40954.768470318479</v>
+        <v>41490.647338527277</v>
       </c>
       <c r="R8" s="6">
-        <v>40907.642210821905</v>
+        <v>41442.90444835386</v>
       </c>
       <c r="S8" s="6">
-        <v>40729.382011856644</v>
+        <v>41262.311776828348</v>
       </c>
       <c r="T8" s="6">
-        <v>41195.668542154948</v>
+        <v>41734.699503823649</v>
       </c>
       <c r="U8" s="6">
-        <v>42805.5718168823</v>
+        <v>43365.667801673073</v>
       </c>
       <c r="V8" s="6">
-        <v>39816.127790556769</v>
+        <v>40337.107942411953</v>
       </c>
       <c r="W8" s="6">
-        <v>40339.199999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>40867.024369367755</v>
+      </c>
+      <c r="X8" s="8">
+        <v>41297.599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>22637.970208500064</v>
+        <v>22964.505003117079</v>
       </c>
       <c r="C9" s="6">
-        <v>22762.883066425169</v>
+        <v>23091.219630106811</v>
       </c>
       <c r="D9" s="6">
-        <v>22850.624624068067</v>
+        <v>23180.226790241471</v>
       </c>
       <c r="E9" s="6">
-        <v>23017.463250916135</v>
+        <v>23349.471932172393</v>
       </c>
       <c r="F9" s="6">
-        <v>22185.647350996165</v>
+        <v>22505.657746560824</v>
       </c>
       <c r="G9" s="6">
-        <v>22413.429621330186</v>
+        <v>22736.7255957774</v>
       </c>
       <c r="H9" s="6">
-        <v>22748.619660502925</v>
+        <v>23076.750485848468</v>
       </c>
       <c r="I9" s="6">
-        <v>23164.635666568385</v>
+        <v>23498.767193383483</v>
       </c>
       <c r="J9" s="6">
-        <v>22555.199231708855</v>
+        <v>22880.540120526992</v>
       </c>
       <c r="K9" s="6">
-        <v>20995.085180910661</v>
+        <v>21297.922659906071</v>
       </c>
       <c r="L9" s="6">
-        <v>23001.038722884459</v>
+        <v>23332.810493329456</v>
       </c>
       <c r="M9" s="6">
-        <v>23392.417936902406</v>
+        <v>23729.835042600058</v>
       </c>
       <c r="N9" s="6">
-        <v>23680.063289667662</v>
+        <v>24021.629451809982</v>
       </c>
       <c r="O9" s="6">
-        <v>24074.468074638811</v>
+        <v>24421.723213499023</v>
       </c>
       <c r="P9" s="6">
-        <v>24405.984206225516</v>
+        <v>24758.021202776279</v>
       </c>
       <c r="Q9" s="6">
-        <v>25675.427333305252</v>
+        <v>26045.775041768837</v>
       </c>
       <c r="R9" s="6">
-        <v>25376.544145570955</v>
+        <v>25742.580700719009</v>
       </c>
       <c r="S9" s="6">
-        <v>24788.502819594793</v>
+        <v>25146.057344250032</v>
       </c>
       <c r="T9" s="6">
-        <v>24936.323571879868</v>
+        <v>25296.010293836498</v>
       </c>
       <c r="U9" s="6">
-        <v>25042.218555241987</v>
+        <v>25403.432728481777</v>
       </c>
       <c r="V9" s="6">
-        <v>25085.440997430604</v>
+        <v>25447.278620173725</v>
       </c>
       <c r="W9" s="6">
-        <v>25653.599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>26023.632866464402</v>
+      </c>
+      <c r="X9" s="8">
+        <v>26374.400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>365854.42885852087</v>
+        <v>371023.63968925248</v>
       </c>
       <c r="C10" s="6">
-        <v>374906.93127009645</v>
+        <v>380204.04623378371</v>
       </c>
       <c r="D10" s="6">
-        <v>388387.44067524117</v>
+        <v>393875.02373149258</v>
       </c>
       <c r="E10" s="6">
-        <v>393415.43910771701</v>
+        <v>398974.06349052879</v>
       </c>
       <c r="F10" s="6">
-        <v>388327.79240353697</v>
+        <v>393814.53268061782</v>
       </c>
       <c r="G10" s="6">
-        <v>394773.31446945341</v>
+        <v>400351.12447220844</v>
       </c>
       <c r="H10" s="6">
-        <v>399345.1790594855</v>
+        <v>404987.58560690779</v>
       </c>
       <c r="I10" s="6">
-        <v>401531.1127813505</v>
+        <v>407204.40470661432</v>
       </c>
       <c r="J10" s="6">
-        <v>389566.37122186495</v>
+        <v>395070.6115605479</v>
       </c>
       <c r="K10" s="6">
-        <v>361072.04095659161</v>
+        <v>366173.68072793615</v>
       </c>
       <c r="L10" s="6">
-        <v>400734.63291800645</v>
+        <v>406396.67126258003</v>
       </c>
       <c r="M10" s="6">
-        <v>401625.84827170422</v>
+        <v>407300.47872859199</v>
       </c>
       <c r="N10" s="6">
-        <v>419909.79790996789</v>
+        <v>425842.76497027889</v>
       </c>
       <c r="O10" s="6">
-        <v>426664.08749999997</v>
+        <v>432692.48690757452</v>
       </c>
       <c r="P10" s="6">
-        <v>420650.13822347263</v>
+        <v>426593.56566054875</v>
       </c>
       <c r="Q10" s="6">
-        <v>436730.61053054658</v>
+        <v>442901.24131697766</v>
       </c>
       <c r="R10" s="6">
-        <v>425632.52327170421</v>
+        <v>431646.34755715117</v>
       </c>
       <c r="S10" s="6">
-        <v>417562.46298231516</v>
+        <v>423462.26420349936</v>
       </c>
       <c r="T10" s="6">
-        <v>413597.60727491957</v>
+        <v>419441.38846887904</v>
       </c>
       <c r="U10" s="6">
-        <v>408780.13215434086</v>
+        <v>414555.84653645987</v>
       </c>
       <c r="V10" s="6">
-        <v>403892.48259646306</v>
+        <v>409599.13866183505</v>
       </c>
       <c r="W10" s="6">
-        <v>410295.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>416093.03088810231</v>
+      </c>
+      <c r="X10" s="8">
+        <v>423220.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>26261.680406109455</v>
+        <v>26630.469872313057</v>
       </c>
       <c r="C11" s="6">
-        <v>26815.181468584407</v>
+        <v>27191.743680408879</v>
       </c>
       <c r="D11" s="6">
-        <v>26916.372751480609</v>
+        <v>27294.355979730026</v>
       </c>
       <c r="E11" s="6">
-        <v>27722.597771741555</v>
+        <v>28111.902716281176</v>
       </c>
       <c r="F11" s="6">
-        <v>27273.084736162447</v>
+        <v>27656.077225829446</v>
       </c>
       <c r="G11" s="6">
-        <v>27752.34495791958</v>
+        <v>28142.067638443419</v>
       </c>
       <c r="H11" s="6">
-        <v>28608.911370174115</v>
+        <v>29010.662704807601</v>
       </c>
       <c r="I11" s="6">
-        <v>28961.30111412923</v>
+        <v>29368.001013498837</v>
       </c>
       <c r="J11" s="6">
-        <v>28777.224509061765</v>
+        <v>29181.33944387946</v>
       </c>
       <c r="K11" s="6">
-        <v>27889.131164447612</v>
+        <v>28280.774716420245</v>
       </c>
       <c r="L11" s="6">
-        <v>30287.720518323913</v>
+        <v>30713.047158117988</v>
       </c>
       <c r="M11" s="6">
-        <v>30408.234759763105</v>
+        <v>30835.25376585222</v>
       </c>
       <c r="N11" s="6">
-        <v>30073.896727078416</v>
+        <v>30496.220666336365</v>
       </c>
       <c r="O11" s="6">
-        <v>30301.449988867618</v>
+        <v>30726.969429885183</v>
       </c>
       <c r="P11" s="6">
-        <v>29856.004944560718</v>
+        <v>30275.269056994104</v>
       </c>
       <c r="Q11" s="6">
-        <v>30633.499776461686</v>
+        <v>31063.682150773166</v>
       </c>
       <c r="R11" s="6">
-        <v>29959.73872200205</v>
+        <v>30380.459554790654</v>
       </c>
       <c r="S11" s="6">
-        <v>29201.821098098593</v>
+        <v>29611.898589272212</v>
       </c>
       <c r="T11" s="6">
-        <v>29840.49572783542</v>
+        <v>30259.542046294126</v>
       </c>
       <c r="U11" s="6">
-        <v>29707.7775125796</v>
+        <v>30124.960085877949</v>
       </c>
       <c r="V11" s="6">
-        <v>28158.889835685983</v>
+        <v>28554.321574660793</v>
       </c>
       <c r="W11" s="6">
-        <v>28548.400000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28949.301581092946</v>
+      </c>
+      <c r="X11" s="8">
+        <v>29661.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>35517.787930446917</v>
+        <v>35997.463105502749</v>
       </c>
       <c r="C12" s="6">
-        <v>36339.237130436944</v>
+        <v>36830.006149219087</v>
       </c>
       <c r="D12" s="6">
-        <v>37791.64973859414</v>
+        <v>38302.033894260239</v>
       </c>
       <c r="E12" s="6">
-        <v>37658.675363848684</v>
+        <v>38167.263672695473</v>
       </c>
       <c r="F12" s="6">
-        <v>36876.453604408569</v>
+        <v>37374.477844340734</v>
       </c>
       <c r="G12" s="6">
-        <v>37487.138420427058</v>
+        <v>37993.410086876924</v>
       </c>
       <c r="H12" s="6">
-        <v>37539.663298451509</v>
+        <v>38046.644324395005</v>
       </c>
       <c r="I12" s="6">
-        <v>38852.120377189109</v>
+        <v>39376.826411239243</v>
       </c>
       <c r="J12" s="6">
-        <v>36626.129343950255</v>
+        <v>37120.772902245066</v>
       </c>
       <c r="K12" s="6">
-        <v>33157.825214652024</v>
+        <v>33605.628598282077</v>
       </c>
       <c r="L12" s="6">
-        <v>36049.352993491862</v>
+        <v>36536.207066207899</v>
       </c>
       <c r="M12" s="6">
-        <v>36063.647738776999</v>
+        <v>36550.694865026111</v>
       </c>
       <c r="N12" s="6">
-        <v>37389.402254989152</v>
+        <v>37894.353974026824</v>
       </c>
       <c r="O12" s="6">
-        <v>37438.935209581832</v>
+        <v>37944.555881559696</v>
       </c>
       <c r="P12" s="6">
-        <v>37274.379420834332</v>
+        <v>37777.777732373303</v>
       </c>
       <c r="Q12" s="6">
-        <v>38163.645551944537</v>
+        <v>38679.053589087671</v>
       </c>
       <c r="R12" s="6">
-        <v>38966.810775407066</v>
+        <v>39493.06572733885</v>
       </c>
       <c r="S12" s="6">
-        <v>38669.945483787844</v>
+        <v>39192.191207695505</v>
       </c>
       <c r="T12" s="6">
-        <v>39749.032534847182</v>
+        <v>40285.851555693582</v>
       </c>
       <c r="U12" s="6">
-        <v>40714.758931436023</v>
+        <v>41264.620289807688</v>
       </c>
       <c r="V12" s="6">
-        <v>39681.88047560073</v>
+        <v>40217.792593803373</v>
       </c>
       <c r="W12" s="6">
-        <v>39995.699999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>40535.850316696225</v>
+      </c>
+      <c r="X12" s="8">
+        <v>41225.199999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>5363.0375173364491</v>
+        <v>5449.2116782235762</v>
       </c>
       <c r="C13" s="6">
-        <v>5589.6523430473489</v>
+        <v>5679.4677878872899</v>
       </c>
       <c r="D13" s="6">
-        <v>5783.4307021156774</v>
+        <v>5876.3598092107886</v>
       </c>
       <c r="E13" s="6">
-        <v>6129.0777194058965</v>
+        <v>6227.5607391077792</v>
       </c>
       <c r="F13" s="6">
-        <v>6317.9414099471296</v>
+        <v>6419.4591222093068</v>
       </c>
       <c r="G13" s="6">
-        <v>6406.9995242458126</v>
+        <v>6509.9482368030785</v>
       </c>
       <c r="H13" s="6">
-        <v>6787.6973093831166</v>
+        <v>6896.7631359974339</v>
       </c>
       <c r="I13" s="6">
-        <v>6705.4441207373347</v>
+        <v>6813.1882897110099</v>
       </c>
       <c r="J13" s="6">
-        <v>6783.1066849347317</v>
+        <v>6892.0987486472395</v>
       </c>
       <c r="K13" s="6">
-        <v>6209.4946582723223</v>
+        <v>6309.2698304541254</v>
       </c>
       <c r="L13" s="6">
-        <v>6853.2082206289033</v>
+        <v>6963.3266872419726</v>
       </c>
       <c r="M13" s="6">
-        <v>7016.6344509914352</v>
+        <v>7129.3788769088924</v>
       </c>
       <c r="N13" s="6">
-        <v>6649.8165538921903</v>
+        <v>6756.6668900557124</v>
       </c>
       <c r="O13" s="6">
-        <v>6570.533769301247</v>
+        <v>6676.1101767605905</v>
       </c>
       <c r="P13" s="6">
-        <v>6533.2687002496459</v>
+        <v>6638.2463265060715</v>
       </c>
       <c r="Q13" s="6">
-        <v>7015.5543040624034</v>
+        <v>7128.2813740029651</v>
       </c>
       <c r="R13" s="6">
-        <v>6496.5977120090101</v>
+        <v>6600.9861028498126</v>
       </c>
       <c r="S13" s="6">
-        <v>6283.700752296817</v>
+        <v>6384.6682800913868</v>
       </c>
       <c r="T13" s="6">
-        <v>6454.7960258554758</v>
+        <v>6558.5127403903953</v>
       </c>
       <c r="U13" s="6">
-        <v>6774.5735241953789</v>
+        <v>6883.428475690409</v>
       </c>
       <c r="V13" s="6">
-        <v>6300.8210811219733</v>
+        <v>6402.0637011503459</v>
       </c>
       <c r="W13" s="6">
-        <v>6425.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6528.4411607679658</v>
+      </c>
+      <c r="X13" s="8">
+        <v>6845.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1441,2911 +1478,3035 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>61834.422919984478</v>
+        <v>62699.288387211345</v>
       </c>
       <c r="C15" s="6">
-        <v>62521.017010925978</v>
+        <v>63395.485729727239</v>
       </c>
       <c r="D15" s="6">
-        <v>63106.428814781371</v>
+        <v>63989.08556913551</v>
       </c>
       <c r="E15" s="6">
-        <v>63917.693938025397</v>
+        <v>64811.69769226612</v>
       </c>
       <c r="F15" s="6">
-        <v>64101.99024664655</v>
+        <v>64998.571715783546</v>
       </c>
       <c r="G15" s="6">
-        <v>64130.297196009924</v>
+        <v>65027.274588676737</v>
       </c>
       <c r="H15" s="6">
-        <v>65099.960780585214</v>
+        <v>66010.500660124613</v>
       </c>
       <c r="I15" s="6">
-        <v>66581.558555774754</v>
+        <v>67512.821241343103</v>
       </c>
       <c r="J15" s="6">
-        <v>67547.006211721455</v>
+        <v>68491.772416828171</v>
       </c>
       <c r="K15" s="6">
-        <v>62110.26510739782</v>
+        <v>62978.98872306422</v>
       </c>
       <c r="L15" s="6">
-        <v>68174.577301862722</v>
+        <v>69128.121215864609</v>
       </c>
       <c r="M15" s="6">
-        <v>68110.736096915542</v>
+        <v>69063.38707699909</v>
       </c>
       <c r="N15" s="6">
-        <v>69199.047958609648</v>
+        <v>70166.920934829104</v>
       </c>
       <c r="O15" s="6">
-        <v>69291.79838843859</v>
+        <v>70260.968646011068</v>
       </c>
       <c r="P15" s="6">
-        <v>69435.742237328959</v>
+        <v>70406.925808170112</v>
       </c>
       <c r="Q15" s="6">
-        <v>73243.930339980827</v>
+        <v>74268.37826144023</v>
       </c>
       <c r="R15" s="6">
-        <v>73540.852170537109</v>
+        <v>74569.453077107202</v>
       </c>
       <c r="S15" s="6">
-        <v>73748.637224374674</v>
+        <v>74780.144378131736</v>
       </c>
       <c r="T15" s="6">
-        <v>75901.77220254649</v>
+        <v>76963.394816284621</v>
       </c>
       <c r="U15" s="6">
-        <v>75725.907751182531</v>
+        <v>76785.070584692832</v>
       </c>
       <c r="V15" s="6">
-        <v>74658.073257112977</v>
+        <v>75702.300507253647</v>
       </c>
       <c r="W15" s="6">
-        <v>76015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>77078.206307857414</v>
+      </c>
+      <c r="X15" s="8">
+        <v>79098.399999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>70863.133987355366</v>
+        <v>71906.036016910628</v>
       </c>
       <c r="C16" s="6">
-        <v>69295.374902176845</v>
+        <v>70315.204015819618</v>
       </c>
       <c r="D16" s="6">
-        <v>69448.481887543079</v>
+        <v>70470.564296754252</v>
       </c>
       <c r="E16" s="6">
-        <v>70158.277404955123</v>
+        <v>71190.805967815249</v>
       </c>
       <c r="F16" s="6">
-        <v>69547.260587779339</v>
+        <v>70570.796736066914</v>
       </c>
       <c r="G16" s="6">
-        <v>70558.331140912022</v>
+        <v>71596.747347031545</v>
       </c>
       <c r="H16" s="6">
-        <v>71210.2705624714</v>
+        <v>72258.281446495137</v>
       </c>
       <c r="I16" s="6">
-        <v>70976.729492627084</v>
+        <v>72021.303322120191</v>
       </c>
       <c r="J16" s="6">
-        <v>70990.840735517981</v>
+        <v>72035.622242022</v>
       </c>
       <c r="K16" s="6">
-        <v>62238.342332439926</v>
+        <v>63154.312172924809</v>
       </c>
       <c r="L16" s="6">
-        <v>70107.476930547913</v>
+        <v>71139.257856168741</v>
       </c>
       <c r="M16" s="6">
-        <v>71797.298266732658</v>
+        <v>72853.948514410396</v>
       </c>
       <c r="N16" s="6">
-        <v>71000.013043397063</v>
+        <v>72044.929539958175</v>
       </c>
       <c r="O16" s="6">
-        <v>71354.205239958537</v>
+        <v>72404.334429493581</v>
       </c>
       <c r="P16" s="6">
-        <v>72103.512237465096</v>
+        <v>73164.669076279664</v>
       </c>
       <c r="Q16" s="6">
-        <v>76356.640844781054</v>
+        <v>77480.391534684968</v>
       </c>
       <c r="R16" s="6">
-        <v>76068.771489806779</v>
+        <v>77188.285568688065</v>
       </c>
       <c r="S16" s="6">
-        <v>74859.437974057029</v>
+        <v>75961.154133103017</v>
       </c>
       <c r="T16" s="6">
-        <v>75467.632542654625</v>
+        <v>76578.299580870982</v>
       </c>
       <c r="U16" s="6">
-        <v>76697.427360596179</v>
+        <v>77826.193450313658</v>
       </c>
       <c r="V16" s="6">
-        <v>74348.6109814066</v>
+        <v>75442.809232657513</v>
       </c>
       <c r="W16" s="6">
-        <v>75552.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>76664.21310028185</v>
+      </c>
+      <c r="X16" s="8">
+        <v>78746.899999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>2226.572397120447</v>
+        <v>2262.1487695905612</v>
       </c>
       <c r="C17" s="6">
-        <v>2234.8196793333573</v>
+        <v>2270.5278276146928</v>
       </c>
       <c r="D17" s="6">
-        <v>2090.4384071726176</v>
+        <v>2123.8396186021619</v>
       </c>
       <c r="E17" s="6">
-        <v>2062.5526879409763</v>
+        <v>2095.5083388599951</v>
       </c>
       <c r="F17" s="6">
-        <v>1927.559966811122</v>
+        <v>1958.3586919845952</v>
       </c>
       <c r="G17" s="6">
-        <v>1855.5308310351827</v>
+        <v>1885.1786682490369</v>
       </c>
       <c r="H17" s="6">
-        <v>1918.4513496412499</v>
+        <v>1949.1045365166904</v>
       </c>
       <c r="I17" s="6">
-        <v>1913.5417403865667</v>
+        <v>1944.1164810871815</v>
       </c>
       <c r="J17" s="6">
-        <v>1994.4210928452896</v>
+        <v>2026.2881310575121</v>
       </c>
       <c r="K17" s="6">
-        <v>1688.3241825149528</v>
+        <v>1715.3003769765087</v>
       </c>
       <c r="L17" s="6">
-        <v>1837.7227307999954</v>
+        <v>1867.0860285990202</v>
       </c>
       <c r="M17" s="6">
-        <v>1823.7906378711364</v>
+        <v>1852.9313274459842</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6">
-        <v>1761.0423862564614</v>
+        <v>1789.1804786670855</v>
       </c>
       <c r="S17" s="6">
-        <v>1734.2548690949463</v>
+        <v>1761.9649481657298</v>
       </c>
       <c r="T17" s="6">
-        <v>1804.4536680873414</v>
+        <v>1833.2853898332692</v>
       </c>
       <c r="U17" s="6">
-        <v>1830.6597841529076</v>
+        <v>1859.9102295600776</v>
       </c>
       <c r="V17" s="6">
-        <v>1765.8012618936762</v>
+        <v>1794.0153920439338</v>
       </c>
       <c r="W17" s="6">
-        <v>1803.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1832.5196795699676</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1880.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>10005.870129033818</v>
+        <v>10147.982835051142</v>
       </c>
       <c r="C18" s="6">
-        <v>10166.274511192858</v>
+        <v>10310.665429950473</v>
       </c>
       <c r="D18" s="6">
-        <v>10259.689736056218</v>
+        <v>10405.407425021456</v>
       </c>
       <c r="E18" s="6">
-        <v>10646.471270455844</v>
+        <v>10797.682391754526</v>
       </c>
       <c r="F18" s="6">
-        <v>9996.3530487559456</v>
+        <v>10138.330584316906</v>
       </c>
       <c r="G18" s="6">
-        <v>10177.547169386062</v>
+        <v>10322.098192956073</v>
       </c>
       <c r="H18" s="6">
-        <v>10772.503285009378</v>
+        <v>10925.504430604002</v>
       </c>
       <c r="I18" s="6">
-        <v>10511.938562838583</v>
+        <v>10661.238925064761</v>
       </c>
       <c r="J18" s="6">
-        <v>10862.314955204418</v>
+        <v>11016.59168996008</v>
       </c>
       <c r="K18" s="6">
-        <v>9723.4992811778047</v>
+        <v>9861.6014928781206</v>
       </c>
       <c r="L18" s="6">
-        <v>10580.221303861355</v>
+        <v>10730.491481303592</v>
       </c>
       <c r="M18" s="6">
-        <v>10792.091838591014</v>
+        <v>10945.371199105533</v>
       </c>
       <c r="N18" s="6">
-        <v>10151.952691357228</v>
+        <v>10296.140198263032</v>
       </c>
       <c r="O18" s="6">
-        <v>10228.828524281378</v>
+        <v>10374.107893514327</v>
       </c>
       <c r="P18" s="6">
-        <v>10087.735499191023</v>
+        <v>10231.010933599993</v>
       </c>
       <c r="Q18" s="6">
-        <v>10970.144398741055</v>
+        <v>11125.95262789068</v>
       </c>
       <c r="R18" s="6">
-        <v>10567.470264265763</v>
+        <v>10717.559339543161</v>
       </c>
       <c r="S18" s="6">
-        <v>11066.239189896241</v>
+        <v>11223.412246954797</v>
       </c>
       <c r="T18" s="6">
-        <v>11397.858618219285</v>
+        <v>11559.741643898176</v>
       </c>
       <c r="U18" s="6">
-        <v>11372.171741352802</v>
+        <v>11533.68993803296</v>
       </c>
       <c r="V18" s="6">
-        <v>11356.186742439488</v>
+        <v>11517.477905246333</v>
       </c>
       <c r="W18" s="6">
-        <v>11478.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11641.832630725257</v>
+      </c>
+      <c r="X18" s="8">
+        <v>11901.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>132714.95195874356</v>
+        <v>134709.31014733252</v>
       </c>
       <c r="C19" s="6">
-        <v>130986.27736333801</v>
+        <v>132954.65809962136</v>
       </c>
       <c r="D19" s="6">
-        <v>130141.52844631975</v>
+        <v>132097.21481851605</v>
       </c>
       <c r="E19" s="6">
-        <v>131748.99993624006</v>
+        <v>133728.84239545994</v>
       </c>
       <c r="F19" s="6">
-        <v>130518.60477449601</v>
+        <v>132479.95761645868</v>
       </c>
       <c r="G19" s="6">
-        <v>129856.27265260197</v>
+        <v>131807.67237721526</v>
       </c>
       <c r="H19" s="6">
-        <v>128989.48680731363</v>
+        <v>130927.8610105159</v>
       </c>
       <c r="I19" s="6">
-        <v>125756.17972058133</v>
+        <v>127645.96578529975</v>
       </c>
       <c r="J19" s="6">
-        <v>122412.68799249883</v>
+        <v>124252.23013211336</v>
       </c>
       <c r="K19" s="6">
-        <v>110888.59878105954</v>
+        <v>112554.96403784622</v>
       </c>
       <c r="L19" s="6">
-        <v>123891.6107341772</v>
+        <v>125753.37720975859</v>
       </c>
       <c r="M19" s="6">
-        <v>125359.51501172058</v>
+        <v>127243.34024460682</v>
       </c>
       <c r="N19" s="6">
-        <v>127831.32379934365</v>
+        <v>129752.29384540628</v>
       </c>
       <c r="O19" s="6">
-        <v>129890.5523187998</v>
+        <v>131842.46717702821</v>
       </c>
       <c r="P19" s="6">
-        <v>129531.84009751523</v>
+        <v>131478.36445041394</v>
       </c>
       <c r="Q19" s="6">
-        <v>133688.24962400371</v>
+        <v>135697.23392773647</v>
       </c>
       <c r="R19" s="6">
-        <v>135153.70535396156</v>
+        <v>137184.71161974091</v>
       </c>
       <c r="S19" s="6">
-        <v>129993.39131739335</v>
+        <v>131946.85157646713</v>
       </c>
       <c r="T19" s="6">
-        <v>130230.90043319267</v>
+        <v>132187.92983231414</v>
       </c>
       <c r="U19" s="6">
-        <v>131821.23209001406</v>
+        <v>133802.16000935153</v>
       </c>
       <c r="V19" s="6">
-        <v>128512.02002812939</v>
+        <v>130443.21915597811</v>
       </c>
       <c r="W19" s="6">
-        <v>130568.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>132530.90714475629</v>
+      </c>
+      <c r="X19" s="8">
+        <v>135541.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>114892.72916652073</v>
+        <v>116540.04941743742</v>
       </c>
       <c r="C20" s="6">
-        <v>113639.14275018389</v>
+        <v>115268.48920671962</v>
       </c>
       <c r="D20" s="6">
-        <v>113520.79717941085</v>
+        <v>115148.44680920431</v>
       </c>
       <c r="E20" s="6">
-        <v>113735.57247451751</v>
+        <v>115366.301530621</v>
       </c>
       <c r="F20" s="6">
-        <v>113604.07739588078</v>
+        <v>115232.92108893731</v>
       </c>
       <c r="G20" s="6">
-        <v>113918.56979228694</v>
+        <v>115551.92264529744</v>
       </c>
       <c r="H20" s="6">
-        <v>113947.06039265826</v>
+        <v>115580.8217409956</v>
       </c>
       <c r="I20" s="6">
-        <v>113880.2170610179</v>
+        <v>115513.02001647305</v>
       </c>
       <c r="J20" s="6">
-        <v>112934.54828715541</v>
+        <v>114553.79234003121</v>
       </c>
       <c r="K20" s="6">
-        <v>93127.006275176027</v>
+        <v>94462.251807745779</v>
       </c>
       <c r="L20" s="6">
-        <v>111806.97798784546</v>
+        <v>113410.05505259364</v>
       </c>
       <c r="M20" s="6">
-        <v>113815.56531402151</v>
+        <v>115447.4412993119</v>
       </c>
       <c r="N20" s="6">
-        <v>118319.27175732951</v>
+        <v>120015.72142697805</v>
       </c>
       <c r="O20" s="6">
-        <v>117266.2153359137</v>
+        <v>118947.56638982789</v>
       </c>
       <c r="P20" s="6">
-        <v>118174.6271708291</v>
+        <v>119869.00294112599</v>
       </c>
       <c r="Q20" s="6">
-        <v>124021.77500087571</v>
+        <v>125799.98658132712</v>
       </c>
       <c r="R20" s="6">
-        <v>128001.69271428073</v>
+        <v>129836.9679496199</v>
       </c>
       <c r="S20" s="6">
-        <v>127774.86370363236</v>
+        <v>129606.88668771555</v>
       </c>
       <c r="T20" s="6">
-        <v>126892.75088444429</v>
+        <v>128712.12622475417</v>
       </c>
       <c r="U20" s="6">
-        <v>126268.14926091983</v>
+        <v>128078.56912675669</v>
       </c>
       <c r="V20" s="6">
-        <v>123155.00327419525</v>
+        <v>124920.78716989548</v>
       </c>
       <c r="W20" s="6">
-        <v>125135.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>126929.27432091562</v>
+      </c>
+      <c r="X20" s="8">
+        <v>129550.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>39059.726608949029</v>
+        <v>39627.843068259848</v>
       </c>
       <c r="C21" s="6">
-        <v>39785.082297124391</v>
+        <v>40363.748920020138</v>
       </c>
       <c r="D21" s="6">
-        <v>39903.592173563826</v>
+        <v>40483.98250057226</v>
       </c>
       <c r="E21" s="6">
-        <v>39970.935881127829</v>
+        <v>40552.305709838387</v>
       </c>
       <c r="F21" s="6">
-        <v>38168.080871928498</v>
+        <v>38723.228509820074</v>
       </c>
       <c r="G21" s="6">
-        <v>37802.017031371113</v>
+        <v>38351.840338781294</v>
       </c>
       <c r="H21" s="6">
-        <v>39072.894372997856</v>
+        <v>39641.202354987865</v>
       </c>
       <c r="I21" s="6">
-        <v>38391.932860758548</v>
+        <v>38950.336384196307</v>
       </c>
       <c r="J21" s="6">
-        <v>40129.701493373679</v>
+        <v>40713.380538387581</v>
       </c>
       <c r="K21" s="6">
-        <v>36193.668708264457</v>
+        <v>36720.098888431079</v>
       </c>
       <c r="L21" s="6">
-        <v>40119.543503964582</v>
+        <v>40703.074802911688</v>
       </c>
       <c r="M21" s="6">
-        <v>40422.402077087594</v>
+        <v>41010.338397656</v>
       </c>
       <c r="N21" s="6">
-        <v>41919.012516694223</v>
+        <v>42528.716757771363</v>
       </c>
       <c r="O21" s="6">
-        <v>40410.362978528668</v>
+        <v>40998.124192647527</v>
       </c>
       <c r="P21" s="6">
-        <v>39534.894780196693</v>
+        <v>40109.922472187878</v>
       </c>
       <c r="Q21" s="6">
-        <v>40730.903977660106</v>
+        <v>41323.32740099803</v>
       </c>
       <c r="R21" s="6">
-        <v>41822.323506392837</v>
+        <v>42430.6214237971</v>
       </c>
       <c r="S21" s="6">
-        <v>40143.62170108244</v>
+        <v>40727.503212928626</v>
       </c>
       <c r="T21" s="6">
-        <v>40513.071538109514</v>
+        <v>41102.32662912603</v>
       </c>
       <c r="U21" s="6">
-        <v>40748.586403668523</v>
+        <v>41341.267014604215</v>
       </c>
       <c r="V21" s="6">
-        <v>39994.261634585753</v>
+        <v>40575.970732042304</v>
       </c>
       <c r="W21" s="6">
-        <v>40283.199999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>40869.111652245563</v>
+      </c>
+      <c r="X21" s="8">
+        <v>41686.699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>31801.895182450487</v>
+        <v>32274.13283844947</v>
       </c>
       <c r="C22" s="6">
-        <v>32364.234228437879</v>
+        <v>32844.822256998945</v>
       </c>
       <c r="D22" s="6">
-        <v>32761.356140187527</v>
+        <v>33247.841173303648</v>
       </c>
       <c r="E22" s="6">
-        <v>32542.067943835606</v>
+        <v>33025.296688506045</v>
       </c>
       <c r="F22" s="6">
-        <v>32260.898420841902</v>
+        <v>32739.9519792313</v>
       </c>
       <c r="G22" s="6">
-        <v>32285.53079358281</v>
+        <v>32764.950126838707</v>
       </c>
       <c r="H22" s="6">
-        <v>31510.812631402525</v>
+        <v>31978.727899040041</v>
       </c>
       <c r="I22" s="6">
-        <v>31110.987166547169</v>
+        <v>31572.965283607697</v>
       </c>
       <c r="J22" s="6">
-        <v>30773.944212702165</v>
+        <v>31230.917459028358</v>
       </c>
       <c r="K22" s="6">
-        <v>26395.089365822769</v>
+        <v>26787.039438624666</v>
       </c>
       <c r="L22" s="6">
-        <v>29427.875160848795</v>
+        <v>29864.860148921416</v>
       </c>
       <c r="M22" s="6">
-        <v>30594.90891814635</v>
+        <v>31049.223605686755</v>
       </c>
       <c r="N22" s="6">
-        <v>29937.044329090586</v>
+        <v>30381.590151293942</v>
       </c>
       <c r="O22" s="6">
-        <v>31010.054517267385</v>
+        <v>31470.533849509069</v>
       </c>
       <c r="P22" s="6">
-        <v>31836.440583245654</v>
+        <v>32309.191216191553</v>
       </c>
       <c r="Q22" s="6">
-        <v>33440.548759299432</v>
+        <v>33937.119365258972</v>
       </c>
       <c r="R22" s="6">
-        <v>33185.213188204725</v>
+        <v>33677.992225426147</v>
       </c>
       <c r="S22" s="6">
-        <v>32067.444176388981</v>
+        <v>32543.62506387561</v>
       </c>
       <c r="T22" s="6">
-        <v>32508.123332619489</v>
+        <v>32990.84802168121</v>
       </c>
       <c r="U22" s="6">
-        <v>33009.482236333672</v>
+        <v>33499.651782129433</v>
       </c>
       <c r="V22" s="6">
-        <v>31846.053216510394</v>
+        <v>32318.946590867614</v>
       </c>
       <c r="W22" s="6">
-        <v>32262.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>32741.171401065814</v>
+      </c>
+      <c r="X22" s="8">
+        <v>33408.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6">
-        <v>40422.516096389998</v>
+        <v>41013.726935459141</v>
       </c>
       <c r="C23" s="6">
-        <v>41057.850962976641</v>
+        <v>41658.354070213092</v>
       </c>
       <c r="D23" s="6">
-        <v>40964.166684516669</v>
+        <v>41563.299586080022</v>
       </c>
       <c r="E23" s="6">
-        <v>41799.143157603183</v>
+        <v>42410.488241606618</v>
       </c>
       <c r="F23" s="6">
-        <v>42842.761473548155</v>
+        <v>43469.37028974398</v>
       </c>
       <c r="G23" s="6">
-        <v>44134.704492659963</v>
+        <v>44780.208983596502</v>
       </c>
       <c r="H23" s="6">
-        <v>44156.386880251135</v>
+        <v>44802.208493024678</v>
       </c>
       <c r="I23" s="6">
-        <v>44025.474351398763</v>
+        <v>44669.38126628851</v>
       </c>
       <c r="J23" s="6">
-        <v>43578.73534669006</v>
+        <v>44216.10835505135</v>
       </c>
       <c r="K23" s="6">
-        <v>35470.749692549158</v>
+        <v>35989.53708416372</v>
       </c>
       <c r="L23" s="6">
-        <v>42291.29244575755</v>
+        <v>42909.83559711789</v>
       </c>
       <c r="M23" s="6">
-        <v>41819.598240236359</v>
+        <v>42431.242495784143</v>
       </c>
       <c r="N23" s="6">
-        <v>41323.76703720801</v>
+        <v>41928.159374520917</v>
       </c>
       <c r="O23" s="6">
-        <v>41026.350135721543</v>
+        <v>41626.392518779699</v>
       </c>
       <c r="P23" s="6">
-        <v>41459.179684239687</v>
+        <v>42065.55253717614</v>
       </c>
       <c r="Q23" s="6">
-        <v>42453.70580186502</v>
+        <v>43074.624375287436</v>
       </c>
       <c r="R23" s="6">
-        <v>43626.600240051703</v>
+        <v>44264.673309826758</v>
       </c>
       <c r="S23" s="6">
-        <v>43405.685347613333</v>
+        <v>44040.52736470948</v>
       </c>
       <c r="T23" s="6">
-        <v>43390.139484812113</v>
+        <v>44024.754131534566</v>
       </c>
       <c r="U23" s="6">
-        <v>43210.952960945433</v>
+        <v>43842.94686493944</v>
       </c>
       <c r="V23" s="6">
-        <v>43428.185938509836</v>
+        <v>44063.357044304757</v>
       </c>
       <c r="W23" s="6">
-        <v>44309.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>44957.865399356124</v>
+      </c>
+      <c r="X23" s="8">
+        <v>46029.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6">
-        <v>68824.241320491987</v>
+        <v>69961.664255760523</v>
       </c>
       <c r="C24" s="6">
-        <v>67946.805957298668</v>
+        <v>69069.727968370091</v>
       </c>
       <c r="D24" s="6">
-        <v>68649.920705500117</v>
+        <v>69784.462733376466</v>
       </c>
       <c r="E24" s="6">
-        <v>70172.795966581572</v>
+        <v>71332.505772791148</v>
       </c>
       <c r="F24" s="6">
-        <v>71046.991169644927</v>
+        <v>72221.148351587064</v>
       </c>
       <c r="G24" s="6">
-        <v>70063.92658621489</v>
+        <v>71221.83716401596</v>
       </c>
       <c r="H24" s="6">
-        <v>70571.983694592709</v>
+        <v>71738.290671633455</v>
       </c>
       <c r="I24" s="6">
-        <v>67956.526437688546</v>
+        <v>69079.609094153595</v>
       </c>
       <c r="J24" s="6">
-        <v>60964.908909259684</v>
+        <v>61972.444688942916</v>
       </c>
       <c r="K24" s="6">
-        <v>54233.800255279646</v>
+        <v>55130.09445472998</v>
       </c>
       <c r="L24" s="6">
-        <v>56013.296198653981</v>
+        <v>56938.999214829018</v>
       </c>
       <c r="M24" s="6">
-        <v>55325.734219076345</v>
+        <v>56240.074251076257</v>
       </c>
       <c r="N24" s="6">
-        <v>55403.498062195402</v>
+        <v>56319.123257344247</v>
       </c>
       <c r="O24" s="6">
-        <v>57613.935302854494</v>
+        <v>58566.091260511697</v>
       </c>
       <c r="P24" s="6">
-        <v>57411.101278718961</v>
+        <v>58359.905102496035</v>
       </c>
       <c r="Q24" s="6">
-        <v>58513.403754931533</v>
+        <v>59480.424766344717</v>
       </c>
       <c r="R24" s="6">
-        <v>57731.877131585046</v>
+        <v>58685.982253351467</v>
       </c>
       <c r="S24" s="6">
-        <v>54488.476841494543</v>
+        <v>55388.979950257628</v>
       </c>
       <c r="T24" s="6">
-        <v>53616.225734509157</v>
+        <v>54502.313596618405</v>
       </c>
       <c r="U24" s="6">
-        <v>53611.041478301224</v>
+        <v>54497.043662867203</v>
       </c>
       <c r="V24" s="6">
-        <v>54561.056428405653</v>
+        <v>55462.759022774408</v>
       </c>
       <c r="W24" s="6">
-        <v>55847.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>56770.361334790658</v>
+      </c>
+      <c r="X24" s="8">
+        <v>59064.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="6">
-        <v>7413.0659742703592</v>
+        <v>7521.3074183870913</v>
       </c>
       <c r="C25" s="6">
-        <v>7396.8868348200549</v>
+        <v>7504.8920401895866</v>
       </c>
       <c r="D25" s="6">
-        <v>7409.6863318074065</v>
+        <v>7517.8784282747238</v>
       </c>
       <c r="E25" s="6">
-        <v>7336.7004360649207</v>
+        <v>7443.826833294871</v>
       </c>
       <c r="F25" s="6">
-        <v>7349.3561184793816</v>
+        <v>7456.6673069071412</v>
       </c>
       <c r="G25" s="6">
-        <v>7520.3516456474927</v>
+        <v>7630.1596151456515</v>
       </c>
       <c r="H25" s="6">
-        <v>7684.6597951761441</v>
+        <v>7796.8669003958603</v>
       </c>
       <c r="I25" s="6">
-        <v>7846.3073751063021</v>
+        <v>7960.8747678980344</v>
       </c>
       <c r="J25" s="6">
-        <v>8070.5862015307493</v>
+        <v>8188.4283883336584</v>
       </c>
       <c r="K25" s="6">
-        <v>7321.168462192627</v>
+        <v>7428.0680702252666</v>
       </c>
       <c r="L25" s="6">
-        <v>8294.7212133823068</v>
+        <v>8415.8360942964155</v>
       </c>
       <c r="M25" s="6">
-        <v>8714.2283225071005</v>
+        <v>8841.46861164859</v>
       </c>
       <c r="N25" s="6">
-        <v>8499.7288870392804</v>
+        <v>8623.8371753679003</v>
       </c>
       <c r="O25" s="6">
-        <v>8156.587316119927</v>
+        <v>8275.6852431079478</v>
       </c>
       <c r="P25" s="6">
-        <v>8181.3234226572813</v>
+        <v>8300.7825324410187</v>
       </c>
       <c r="Q25" s="6">
-        <v>8208.2167477880121</v>
+        <v>8328.0685388670936</v>
       </c>
       <c r="R25" s="6">
-        <v>8433.2146470769167</v>
+        <v>8556.3517316670514</v>
       </c>
       <c r="S25" s="6">
-        <v>8338.7284726871367</v>
+        <v>8460.4859229936264</v>
       </c>
       <c r="T25" s="6">
-        <v>8072.8872346970165</v>
+        <v>8190.7630198995257</v>
       </c>
       <c r="U25" s="6">
-        <v>8300.6176108708623</v>
+        <v>8421.8185876839507</v>
       </c>
       <c r="V25" s="6">
-        <v>7824.1599308809955</v>
+        <v>7938.403939076562</v>
       </c>
       <c r="W25" s="6">
-        <v>7948.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8064.2551719240946</v>
+      </c>
+      <c r="X25" s="8">
+        <v>8219.7999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>25714.649519239942</v>
+        <v>26102.878838668526</v>
       </c>
       <c r="C26" s="6">
-        <v>25557.114323597303</v>
+        <v>25942.965240716941</v>
       </c>
       <c r="D26" s="6">
-        <v>25697.707531907588</v>
+        <v>26085.681068102309</v>
       </c>
       <c r="E26" s="6">
-        <v>26153.623996985712</v>
+        <v>26548.480774533618</v>
       </c>
       <c r="F26" s="6">
-        <v>24030.059674342294</v>
+        <v>24392.855741471969</v>
       </c>
       <c r="G26" s="6">
-        <v>25587.711046988574</v>
+        <v>25974.023900993256</v>
       </c>
       <c r="H26" s="6">
-        <v>26616.873561058437</v>
+        <v>27018.724292105533</v>
       </c>
       <c r="I26" s="6">
-        <v>27177.47633592155</v>
+        <v>27587.790819647529</v>
       </c>
       <c r="J26" s="6">
-        <v>26424.190063338228</v>
+        <v>26823.131737307605</v>
       </c>
       <c r="K26" s="6">
-        <v>25768.762732510448</v>
+        <v>26157.809031223329</v>
       </c>
       <c r="L26" s="6">
-        <v>28002.323540072874</v>
+        <v>28425.091231394024</v>
       </c>
       <c r="M26" s="6">
-        <v>27483.19070435164</v>
+        <v>27898.120739267859</v>
       </c>
       <c r="N26" s="6">
-        <v>28755.35694717363</v>
+        <v>29189.493630591172</v>
       </c>
       <c r="O26" s="6">
-        <v>27258.393290344735</v>
+        <v>27669.929425336948</v>
       </c>
       <c r="P26" s="6">
-        <v>26716.502561191981</v>
+        <v>27119.857450360632</v>
       </c>
       <c r="Q26" s="6">
-        <v>27448.548133239216</v>
+        <v>27862.955148707078</v>
       </c>
       <c r="R26" s="6">
-        <v>26989.344416887652</v>
+        <v>27396.81856141963</v>
       </c>
       <c r="S26" s="6">
-        <v>26209.760134116794</v>
+        <v>26605.464432230652</v>
       </c>
       <c r="T26" s="6">
-        <v>26335.434278955301</v>
+        <v>26733.03595419203</v>
       </c>
       <c r="U26" s="6">
-        <v>26398.903515080987</v>
+        <v>26797.463423029665</v>
       </c>
       <c r="V26" s="6">
-        <v>26162.980019840888</v>
+        <v>26557.978050816459</v>
       </c>
       <c r="W26" s="6">
-        <v>26508.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>26909.120590138718</v>
+      </c>
+      <c r="X26" s="8">
+        <v>27367.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="6">
-        <v>58236.195219619112</v>
+        <v>59074.161721931363</v>
       </c>
       <c r="C27" s="6">
-        <v>58757.888971161723</v>
+        <v>59603.362177622657</v>
       </c>
       <c r="D27" s="6">
-        <v>58119.102733761807</v>
+        <v>58955.384380453746</v>
       </c>
       <c r="E27" s="6">
-        <v>58542.394818785848</v>
+        <v>59384.767258095788</v>
       </c>
       <c r="F27" s="6">
-        <v>57090.557940151441</v>
+        <v>57912.039751793687</v>
       </c>
       <c r="G27" s="6">
-        <v>57602.906282024698</v>
+        <v>58431.760325770803</v>
       </c>
       <c r="H27" s="6">
-        <v>58568.232127871728</v>
+        <v>59410.976342834983</v>
       </c>
       <c r="I27" s="6">
-        <v>58108.657864131339</v>
+        <v>58944.78921853791</v>
       </c>
       <c r="J27" s="6">
-        <v>57877.771272300051</v>
+        <v>58710.580376187703</v>
       </c>
       <c r="K27" s="6">
-        <v>53004.414994718078</v>
+        <v>53767.100882295905</v>
       </c>
       <c r="L27" s="6">
-        <v>58843.097118147081</v>
+        <v>59689.796393251898</v>
       </c>
       <c r="M27" s="6">
-        <v>59317.51409136234</v>
+        <v>60171.039800271479</v>
       </c>
       <c r="N27" s="6">
-        <v>59435.156307200188</v>
+        <v>60290.374781849918</v>
       </c>
       <c r="O27" s="6">
-        <v>61071.702459299624</v>
+        <v>61950.469362032185</v>
       </c>
       <c r="P27" s="6">
-        <v>59704.523997670025</v>
+        <v>60563.618431258481</v>
       </c>
       <c r="Q27" s="6">
-        <v>60769.350969996733</v>
+        <v>61643.767306573587</v>
       </c>
       <c r="R27" s="6">
-        <v>60515.925448962866</v>
+        <v>61386.695220089197</v>
       </c>
       <c r="S27" s="6">
-        <v>58473.128841236467</v>
+        <v>59314.504605390735</v>
       </c>
       <c r="T27" s="6">
-        <v>57977.272398779729</v>
+        <v>58811.513234438622</v>
       </c>
       <c r="U27" s="6">
-        <v>59744.104556269682</v>
+        <v>60603.768518518526</v>
       </c>
       <c r="V27" s="6">
-        <v>54742.661193219399</v>
+        <v>55530.358881132444</v>
       </c>
       <c r="W27" s="6">
-        <v>55681.599999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>56482.808173356607</v>
+      </c>
+      <c r="X27" s="8">
+        <v>57515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>103832.48024624163</v>
+        <v>105232.78728631785</v>
       </c>
       <c r="C28" s="6">
-        <v>105000.4101837428</v>
+        <v>106416.46817679558</v>
       </c>
       <c r="D28" s="6">
-        <v>103260.04419962088</v>
+        <v>104652.63124471888</v>
       </c>
       <c r="E28" s="6">
-        <v>101710.15605938327</v>
+        <v>103081.84098147547</v>
       </c>
       <c r="F28" s="6">
-        <v>100805.8875584167</v>
+        <v>102165.37732206694</v>
       </c>
       <c r="G28" s="6">
-        <v>101564.79138905052</v>
+        <v>102934.5158921027</v>
       </c>
       <c r="H28" s="6">
-        <v>101492.61031136803</v>
+        <v>102861.36136496588</v>
       </c>
       <c r="I28" s="6">
-        <v>101410.40408400743</v>
+        <v>102778.04648683785</v>
       </c>
       <c r="J28" s="6">
-        <v>97939.697265441719</v>
+        <v>99260.532973675668</v>
       </c>
       <c r="K28" s="6">
-        <v>79702.94748597061</v>
+        <v>80777.838485537854</v>
       </c>
       <c r="L28" s="6">
-        <v>101202.88348567032</v>
+        <v>102567.72722131947</v>
       </c>
       <c r="M28" s="6">
-        <v>102904.15138604757</v>
+        <v>104291.93878453039</v>
       </c>
       <c r="N28" s="6">
-        <v>102142.24001051032</v>
+        <v>103519.75210919727</v>
       </c>
       <c r="O28" s="6">
-        <v>107331.25748390608</v>
+        <v>108778.74978225544</v>
       </c>
       <c r="P28" s="6">
-        <v>106053.05089994558</v>
+        <v>107483.30503087424</v>
       </c>
       <c r="Q28" s="6">
-        <v>108435.02646346728</v>
+        <v>109897.40442638933</v>
       </c>
       <c r="R28" s="6">
-        <v>107887.65329104183</v>
+        <v>109342.64926226845</v>
       </c>
       <c r="S28" s="6">
-        <v>107841.53760252247</v>
+        <v>109295.91164770881</v>
       </c>
       <c r="T28" s="6">
-        <v>105974.85473245624</v>
+        <v>107404.05429314268</v>
       </c>
       <c r="U28" s="6">
-        <v>105922.72395412999</v>
+        <v>107351.2204679883</v>
       </c>
       <c r="V28" s="6">
-        <v>104508.17533454702</v>
+        <v>105917.59494312642</v>
       </c>
       <c r="W28" s="6">
-        <v>106830</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>108270.73223269418</v>
+      </c>
+      <c r="X28" s="8">
+        <v>109421.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="6">
-        <v>58808.77837440274</v>
+        <v>59635.499419702159</v>
       </c>
       <c r="C29" s="6">
-        <v>59596.908410010859</v>
+        <v>60434.708816332241</v>
       </c>
       <c r="D29" s="6">
-        <v>59211.41002302862</v>
+        <v>60043.791176676226</v>
       </c>
       <c r="E29" s="6">
-        <v>59395.307031337194</v>
+        <v>60230.273369223243</v>
       </c>
       <c r="F29" s="6">
-        <v>57567.18801395921</v>
+        <v>58376.455051387828</v>
       </c>
       <c r="G29" s="6">
-        <v>57699.114128615351</v>
+        <v>58510.235754736772</v>
       </c>
       <c r="H29" s="6">
-        <v>58815.631679060192</v>
+        <v>59642.449066629386</v>
       </c>
       <c r="I29" s="6">
-        <v>58874.455877370077</v>
+        <v>59702.100202754671</v>
       </c>
       <c r="J29" s="6">
-        <v>56303.324413378927</v>
+        <v>57094.824330560026</v>
       </c>
       <c r="K29" s="6">
-        <v>51392.360517585956</v>
+        <v>52114.823169964344</v>
       </c>
       <c r="L29" s="6">
-        <v>55320.446303754579</v>
+        <v>56098.129133748167</v>
       </c>
       <c r="M29" s="6">
-        <v>56532.339010682444</v>
+        <v>57327.058365377896</v>
       </c>
       <c r="N29" s="6">
-        <v>56944.108398851618</v>
+        <v>57744.616318254921</v>
       </c>
       <c r="O29" s="6">
-        <v>56461.521529222009</v>
+        <v>57255.245347129981</v>
       </c>
       <c r="P29" s="6">
-        <v>56209.09147433882</v>
+        <v>56999.266685310788</v>
       </c>
       <c r="Q29" s="6">
-        <v>57175.978539762415</v>
+        <v>57979.74603929247</v>
       </c>
       <c r="R29" s="6">
-        <v>56893.850831363561</v>
+        <v>57693.652240788651</v>
       </c>
       <c r="S29" s="6">
-        <v>55932.103744433065</v>
+        <v>56718.385122002386</v>
       </c>
       <c r="T29" s="6">
-        <v>56314.175479086574</v>
+        <v>57105.827938194787</v>
       </c>
       <c r="U29" s="6">
-        <v>56852.159894697332</v>
+        <v>57651.375221981405</v>
       </c>
       <c r="V29" s="6">
-        <v>55534.040965578817</v>
+        <v>56314.726462979801</v>
       </c>
       <c r="W29" s="6">
-        <v>56295.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>57087.295546388872</v>
+      </c>
+      <c r="X29" s="8">
+        <v>57983.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6">
-        <v>22067.334885002911</v>
+        <v>22384.33842675764</v>
       </c>
       <c r="C30" s="6">
-        <v>21655.417174532198</v>
+        <v>21966.503401223232</v>
       </c>
       <c r="D30" s="6">
-        <v>21276.761268489874</v>
+        <v>21582.407995397753</v>
       </c>
       <c r="E30" s="6">
-        <v>20945.244608458637</v>
+        <v>21246.129004259099</v>
       </c>
       <c r="F30" s="6">
-        <v>20981.810565644806</v>
+        <v>21283.220241819905</v>
       </c>
       <c r="G30" s="6">
-        <v>21305.617535907877</v>
+        <v>21611.67879130417</v>
       </c>
       <c r="H30" s="6">
-        <v>21690.220916914219</v>
+        <v>22001.807109263038</v>
       </c>
       <c r="I30" s="6">
-        <v>22144.211505834071</v>
+        <v>22462.319402111381</v>
       </c>
       <c r="J30" s="6">
-        <v>22415.37230882308</v>
+        <v>22737.375507155692</v>
       </c>
       <c r="K30" s="6">
-        <v>19581.951180595963</v>
+        <v>19863.251478573304</v>
       </c>
       <c r="L30" s="6">
-        <v>23123.34210639145</v>
+        <v>23455.515492218568</v>
       </c>
       <c r="M30" s="6">
-        <v>22618.908118702722</v>
+        <v>22943.835166831512</v>
       </c>
       <c r="N30" s="6">
-        <v>22374.621091477045</v>
+        <v>22696.0388869825</v>
       </c>
       <c r="O30" s="6">
-        <v>22000.811276146138</v>
+        <v>22316.859187339782</v>
       </c>
       <c r="P30" s="6">
-        <v>21917.98718035096</v>
+        <v>22232.845299852645</v>
       </c>
       <c r="Q30" s="6">
-        <v>22825.968358190668</v>
+        <v>23153.869885549346</v>
       </c>
       <c r="R30" s="6">
-        <v>22819.360052675092</v>
+        <v>23147.166649845585</v>
       </c>
       <c r="S30" s="6">
-        <v>22199.060441613328</v>
+        <v>22517.956258452596</v>
       </c>
       <c r="T30" s="6">
-        <v>22074.163467369002</v>
+        <v>22391.265103651524</v>
       </c>
       <c r="U30" s="6">
-        <v>22001.472106697696</v>
+        <v>22317.529510910157</v>
       </c>
       <c r="V30" s="6">
-        <v>21341.963216243526</v>
+        <v>21648.546587674857</v>
       </c>
       <c r="W30" s="6">
-        <v>21578.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+        <v>21888.075543489231</v>
+      </c>
+      <c r="X30" s="8">
+        <v>22139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="6">
-        <v>41202.084234606788</v>
+        <v>41804.437873223003</v>
       </c>
       <c r="C31" s="6">
-        <v>41394.619290126175</v>
+        <v>41999.787693903127</v>
       </c>
       <c r="D31" s="6">
-        <v>41164.078399352416</v>
+        <v>41765.876411874</v>
       </c>
       <c r="E31" s="6">
-        <v>41954.683301951532</v>
+        <v>42568.039558397788</v>
       </c>
       <c r="F31" s="6">
-        <v>41499.448571981629</v>
+        <v>42106.149526854766</v>
       </c>
       <c r="G31" s="6">
-        <v>42680.135344114584</v>
+        <v>43304.097342608991</v>
       </c>
       <c r="H31" s="6">
-        <v>43755.157541309592</v>
+        <v>44394.835820766537</v>
       </c>
       <c r="I31" s="6">
-        <v>44052.52187868442</v>
+        <v>44696.5474743983</v>
       </c>
       <c r="J31" s="6">
-        <v>42492.61204709029</v>
+        <v>43113.832549799074</v>
       </c>
       <c r="K31" s="6">
-        <v>40241.079543174899</v>
+        <v>40829.383779112475</v>
       </c>
       <c r="L31" s="6">
-        <v>45085.361775212485</v>
+        <v>45744.486967981677</v>
       </c>
       <c r="M31" s="6">
-        <v>45651.272838615441</v>
+        <v>46318.671364991569</v>
       </c>
       <c r="N31" s="6">
-        <v>44227.515779471025</v>
+        <v>44874.099697532729</v>
       </c>
       <c r="O31" s="6">
-        <v>45130.049955126968</v>
+        <v>45789.828466490944</v>
       </c>
       <c r="P31" s="6">
-        <v>44731.197508226716</v>
+        <v>45385.14499848766</v>
       </c>
       <c r="Q31" s="6">
-        <v>46954.747693877915</v>
+        <v>47641.202363565659</v>
       </c>
       <c r="R31" s="6">
-        <v>47256.288496665315</v>
+        <v>47947.151540422587</v>
       </c>
       <c r="S31" s="6">
-        <v>46789.359663540221</v>
+        <v>47473.396443849117</v>
       </c>
       <c r="T31" s="6">
-        <v>46984.40059830714</v>
+        <v>47671.288778464332</v>
       </c>
       <c r="U31" s="6">
-        <v>47059.159329192109</v>
+        <v>47747.140444194789</v>
       </c>
       <c r="V31" s="6">
-        <v>46654.042184173013</v>
+        <v>47336.100691353749</v>
       </c>
       <c r="W31" s="6">
-        <v>47467.199999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>48161.146463293429</v>
+      </c>
+      <c r="X31" s="8">
+        <v>49034.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6">
-        <v>5701.0249733304881</v>
+        <v>5789.3062313080172</v>
       </c>
       <c r="C32" s="6">
-        <v>5584.1008294218045</v>
+        <v>5670.5714988542049</v>
       </c>
       <c r="D32" s="6">
-        <v>5437.113700128014</v>
+        <v>5521.3082510130898</v>
       </c>
       <c r="E32" s="6">
-        <v>5437.0008934286316</v>
+        <v>5521.1936974844302</v>
       </c>
       <c r="F32" s="6">
-        <v>5153.5740612331983</v>
+        <v>5233.3779567317024</v>
       </c>
       <c r="G32" s="6">
-        <v>4914.2546484958393</v>
+        <v>4990.3526456841746</v>
       </c>
       <c r="H32" s="6">
-        <v>4840.5918737998718</v>
+        <v>4915.549191470629</v>
       </c>
       <c r="I32" s="6">
-        <v>4663.1469356731386</v>
+        <v>4735.356490891907</v>
       </c>
       <c r="J32" s="6">
-        <v>4409.2190553659057</v>
+        <v>4477.496497883194</v>
       </c>
       <c r="K32" s="6">
-        <v>3972.2059019628759</v>
+        <v>4033.7161278628664</v>
       </c>
       <c r="L32" s="6">
-        <v>4449.5474503947089</v>
+        <v>4518.4493843783575</v>
       </c>
       <c r="M32" s="6">
-        <v>4315.8715116279072</v>
+        <v>4382.7034529188622</v>
       </c>
       <c r="N32" s="6">
-        <v>4618.3062726690841</v>
+        <v>4689.8214632504296</v>
       </c>
       <c r="O32" s="6">
-        <v>4699.5834995732876</v>
+        <v>4772.3572806483771</v>
       </c>
       <c r="P32" s="6">
-        <v>4633.3659670364841</v>
+        <v>4705.1143593262468</v>
       </c>
       <c r="Q32" s="6">
-        <v>4753.1666817793894</v>
+        <v>4826.7702067608334</v>
       </c>
       <c r="R32" s="6">
-        <v>4600.2007974183916</v>
+        <v>4671.4356219008523</v>
       </c>
       <c r="S32" s="6">
-        <v>4311.7540671004908</v>
+        <v>4378.5222491228524</v>
       </c>
       <c r="T32" s="6">
-        <v>4210.5664577554935</v>
+        <v>4275.7677339168031</v>
       </c>
       <c r="U32" s="6">
-        <v>4247.792668551313</v>
+        <v>4313.5703983738786</v>
       </c>
       <c r="V32" s="6">
-        <v>4131.6581715382972</v>
+        <v>4195.6375406206707</v>
       </c>
       <c r="W32" s="6">
-        <v>4229.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4295.2991105529591</v>
+      </c>
+      <c r="X32" s="8">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6">
-        <v>14969.01925331645</v>
+        <v>15198.811832524272</v>
       </c>
       <c r="C33" s="6">
-        <v>15241.891653822864</v>
+        <v>15475.873154939722</v>
       </c>
       <c r="D33" s="6">
-        <v>15336.971461991521</v>
+        <v>15572.412553344717</v>
       </c>
       <c r="E33" s="6">
-        <v>15215.428882038859</v>
+        <v>15449.004147551479</v>
       </c>
       <c r="F33" s="6">
-        <v>15114.896945010181</v>
+        <v>15346.928923503683</v>
       </c>
       <c r="G33" s="6">
-        <v>15017.822455551272</v>
+        <v>15248.36422303425</v>
       </c>
       <c r="H33" s="6">
-        <v>15344.950187152526</v>
+        <v>15580.513761602479</v>
       </c>
       <c r="I33" s="6">
-        <v>15609.843862497932</v>
+        <v>15849.473875760163</v>
       </c>
       <c r="J33" s="6">
-        <v>15400.40232702152</v>
+        <v>15636.817158993921</v>
       </c>
       <c r="K33" s="6">
-        <v>14683.11493504706</v>
+        <v>14908.518536621148</v>
       </c>
       <c r="L33" s="6">
-        <v>16210.774845874386</v>
+        <v>16459.629877707248</v>
       </c>
       <c r="M33" s="6">
-        <v>16667.556861341989</v>
+        <v>16923.424050464102</v>
       </c>
       <c r="N33" s="6">
-        <v>18270.748703693505</v>
+        <v>18551.226829723673</v>
       </c>
       <c r="O33" s="6">
-        <v>17792.424130291183</v>
+        <v>18065.559394670865</v>
       </c>
       <c r="P33" s="6">
-        <v>18034.578438927725</v>
+        <v>18311.431065293931</v>
       </c>
       <c r="Q33" s="6">
-        <v>18736.839231848953</v>
+        <v>19024.472412114588</v>
       </c>
       <c r="R33" s="6">
-        <v>19748.807539769907</v>
+        <v>20051.975659474021</v>
       </c>
       <c r="S33" s="6">
-        <v>19096.014842846918</v>
+        <v>19389.16180385149</v>
       </c>
       <c r="T33" s="6">
-        <v>19434.445768426263</v>
+        <v>19732.788054118213</v>
       </c>
       <c r="U33" s="6">
-        <v>19483.381949413768</v>
+        <v>19782.475464765816</v>
       </c>
       <c r="V33" s="6">
-        <v>19097.876545384486</v>
+        <v>19391.052085778301</v>
       </c>
       <c r="W33" s="6">
-        <v>19326.599999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+        <v>19623.286722500805</v>
+      </c>
+      <c r="X33" s="8">
+        <v>20248.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="6">
-        <v>9104.2790072649386</v>
+        <v>9228.6135337615906</v>
       </c>
       <c r="C34" s="6">
-        <v>8958.8018460504773</v>
+        <v>9081.1496326920278</v>
       </c>
       <c r="D34" s="6">
-        <v>9064.8880006719028</v>
+        <v>9188.684575492307</v>
       </c>
       <c r="E34" s="6">
-        <v>9226.2780850795771</v>
+        <v>9352.2787179819097</v>
       </c>
       <c r="F34" s="6">
-        <v>9468.2762558266477</v>
+        <v>9597.5817883205764</v>
       </c>
       <c r="G34" s="6">
-        <v>9183.6697115021198</v>
+        <v>9309.0884540703228</v>
       </c>
       <c r="H34" s="6">
-        <v>9392.1898744383307</v>
+        <v>9520.4563170498859</v>
       </c>
       <c r="I34" s="6">
-        <v>9146.8873808423978</v>
+        <v>9271.8037976731775</v>
       </c>
       <c r="J34" s="6">
-        <v>9654.1009381430304</v>
+        <v>9785.9442250125394</v>
       </c>
       <c r="K34" s="6">
-        <v>8039.3305354218292</v>
+        <v>8149.1213661591246</v>
       </c>
       <c r="L34" s="6">
-        <v>9562.014677697056</v>
+        <v>9692.6003689260706</v>
       </c>
       <c r="M34" s="6">
-        <v>9710.0135589803886</v>
+        <v>9842.6204284720316</v>
       </c>
       <c r="N34" s="6">
-        <v>9876.2731717969182</v>
+        <v>10011.150601122959</v>
       </c>
       <c r="O34" s="6">
-        <v>9915.6641783899559</v>
+        <v>10051.079559392245</v>
       </c>
       <c r="P34" s="6">
-        <v>9928.6206021920807</v>
+        <v>10064.212925357197</v>
       </c>
       <c r="Q34" s="6">
-        <v>10404.356136564062</v>
+        <v>10546.445443439427</v>
       </c>
       <c r="R34" s="6">
-        <v>10680.788829630874</v>
+        <v>10826.653298490315</v>
       </c>
       <c r="S34" s="6">
-        <v>10534.181242178642</v>
+        <v>10678.043533276163</v>
       </c>
       <c r="T34" s="6">
-        <v>10449.573186074835</v>
+        <v>10592.280009223152</v>
       </c>
       <c r="U34" s="6">
-        <v>10487.225075378996</v>
+        <v>10630.446099577677</v>
       </c>
       <c r="V34" s="6">
-        <v>10125.923458615041</v>
+        <v>10264.210290286564</v>
       </c>
       <c r="W34" s="6">
-        <v>10353.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10494.793413536998</v>
+      </c>
+      <c r="X34" s="8">
+        <v>10894.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="6">
-        <v>10072.941144450218</v>
+        <v>10208.587965401568</v>
       </c>
       <c r="C35" s="6">
-        <v>9988.7533827907191</v>
+        <v>10123.266492935229</v>
       </c>
       <c r="D35" s="6">
-        <v>10214.316805745877</v>
+        <v>10351.867455850961</v>
       </c>
       <c r="E35" s="6">
-        <v>9958.0671927420499</v>
+        <v>10092.167068651641</v>
       </c>
       <c r="F35" s="6">
-        <v>10135.509090393611</v>
+        <v>10271.998479849924</v>
       </c>
       <c r="G35" s="6">
-        <v>10162.508952416954</v>
+        <v>10299.361934333212</v>
       </c>
       <c r="H35" s="6">
-        <v>10309.165029532674</v>
+        <v>10447.992949091145</v>
       </c>
       <c r="I35" s="6">
-        <v>9984.8677937910488</v>
+        <v>10119.328578821398</v>
       </c>
       <c r="J35" s="6">
-        <v>9990.148209611114</v>
+        <v>10124.680103129938</v>
       </c>
       <c r="K35" s="6">
-        <v>8988.46329159382</v>
+        <v>9109.506039015645</v>
       </c>
       <c r="L35" s="6">
-        <v>10168.287520672873</v>
+        <v>10305.218319425578</v>
       </c>
       <c r="M35" s="6">
-        <v>10766.26970467325</v>
+        <v>10911.253204328501</v>
       </c>
       <c r="N35" s="6">
-        <v>10814.789751925531</v>
+        <v>10960.426644673009</v>
       </c>
       <c r="O35" s="6">
-        <v>10953.674651041911</v>
+        <v>11101.181831203276</v>
       </c>
       <c r="P35" s="6">
-        <v>11201.95382507206</v>
+        <v>11352.804445861402</v>
       </c>
       <c r="Q35" s="6">
-        <v>11511.306487738033</v>
+        <v>11666.322992616415</v>
       </c>
       <c r="R35" s="6">
-        <v>11203.149390918114</v>
+        <v>11354.016111742583</v>
       </c>
       <c r="S35" s="6">
-        <v>10919.102871993573</v>
+        <v>11066.144492805855</v>
       </c>
       <c r="T35" s="6">
-        <v>10236.634034872182</v>
+        <v>10374.485218966298</v>
       </c>
       <c r="U35" s="6">
-        <v>10234.242903180078</v>
+        <v>10372.061887203941</v>
       </c>
       <c r="V35" s="6">
-        <v>10371.234823040211</v>
+        <v>10510.898602755677</v>
       </c>
       <c r="W35" s="6">
-        <v>10542.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10684.368768077773</v>
+      </c>
+      <c r="X35" s="8">
+        <v>10926.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="6">
-        <v>64106.334831653636</v>
+        <v>65112.694156447906</v>
       </c>
       <c r="C36" s="6">
-        <v>65914.206825145739</v>
+        <v>66948.94663438767</v>
       </c>
       <c r="D36" s="6">
-        <v>68078.471418628818</v>
+        <v>69147.186463870312</v>
       </c>
       <c r="E36" s="6">
-        <v>69101.01303023455</v>
+        <v>70185.78022209357</v>
       </c>
       <c r="F36" s="6">
-        <v>66432.962451303829</v>
+        <v>67475.845832675477</v>
       </c>
       <c r="G36" s="6">
-        <v>66830.233685542538</v>
+        <v>67879.353542795987</v>
       </c>
       <c r="H36" s="6">
-        <v>67755.472632530393</v>
+        <v>68819.11715172886</v>
       </c>
       <c r="I36" s="6">
-        <v>66504.931877796349</v>
+        <v>67548.945055523393</v>
       </c>
       <c r="J36" s="6">
-        <v>67633.412485199064</v>
+        <v>68695.140869778785</v>
       </c>
       <c r="K36" s="6">
-        <v>59835.956941293436</v>
+        <v>60775.27866954371</v>
       </c>
       <c r="L36" s="6">
-        <v>65090.87658607131</v>
+        <v>66112.691525007453</v>
       </c>
       <c r="M36" s="6">
-        <v>67335.171181814076</v>
+        <v>68392.21769029701</v>
       </c>
       <c r="N36" s="6">
-        <v>64674.605423238572</v>
+        <v>65689.88562005508</v>
       </c>
       <c r="O36" s="6">
-        <v>63551.306614543311</v>
+        <v>64548.952949844745</v>
       </c>
       <c r="P36" s="6">
-        <v>64485.757648122199</v>
+        <v>65498.073259302138</v>
       </c>
       <c r="Q36" s="6">
-        <v>67446.867731730468</v>
+        <v>68505.667684156972</v>
       </c>
       <c r="R36" s="6">
-        <v>64633.726788990825</v>
+        <v>65648.365261477462</v>
       </c>
       <c r="S36" s="6">
-        <v>64458.121388349071</v>
+        <v>65470.003157728541</v>
       </c>
       <c r="T36" s="6">
-        <v>64920.452984137031</v>
+        <v>65939.592565303581</v>
       </c>
       <c r="U36" s="6">
-        <v>66222.811725945678</v>
+        <v>67262.396101959544</v>
       </c>
       <c r="V36" s="6">
-        <v>62956.551274009122</v>
+        <v>63944.860972229537</v>
       </c>
       <c r="W36" s="6">
-        <v>63698.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+        <v>64698.66015823729</v>
+      </c>
+      <c r="X36" s="8">
+        <v>66670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="6">
-        <v>4306.378572786678</v>
+        <v>4370.0719016304129</v>
       </c>
       <c r="C37" s="6">
-        <v>4346.2294609172504</v>
+        <v>4410.5122028094474</v>
       </c>
       <c r="D37" s="6">
-        <v>4439.7142511182938</v>
+        <v>4505.3796762519942</v>
       </c>
       <c r="E37" s="6">
-        <v>4647.2299392568721</v>
+        <v>4715.9646173002839</v>
       </c>
       <c r="F37" s="6">
-        <v>4783.0482722733141</v>
+        <v>4853.7917662165837</v>
       </c>
       <c r="G37" s="6">
-        <v>5068.5107566372126</v>
+        <v>5143.4763726215024</v>
       </c>
       <c r="H37" s="6">
-        <v>5254.1105965235311</v>
+        <v>5331.8213198957155</v>
       </c>
       <c r="I37" s="6">
-        <v>5200.0914549330028</v>
+        <v>5277.0032102416426</v>
       </c>
       <c r="J37" s="6">
-        <v>4831.2032122807195</v>
+        <v>4902.6589400365774</v>
       </c>
       <c r="K37" s="6">
-        <v>4338.053822213772</v>
+        <v>4402.2156426320089</v>
       </c>
       <c r="L37" s="6">
-        <v>4626.8978534759672</v>
+        <v>4695.3318105762864</v>
       </c>
       <c r="M37" s="6">
-        <v>4722.3088412773059</v>
+        <v>4792.1539709716317</v>
       </c>
       <c r="N37" s="6">
-        <v>4562.7768755816624</v>
+        <v>4630.2624537919755</v>
       </c>
       <c r="O37" s="6">
-        <v>4566.3296400444315</v>
+        <v>4633.8677652826955</v>
       </c>
       <c r="P37" s="6">
-        <v>4449.6448698575978</v>
+        <v>4515.457173430872</v>
       </c>
       <c r="Q37" s="6">
-        <v>4647.6151787769313</v>
+        <v>4716.3555546908428</v>
       </c>
       <c r="R37" s="6">
-        <v>4527.4632529095652</v>
+        <v>4594.4265263239804</v>
       </c>
       <c r="S37" s="6">
-        <v>4396.0109677871287</v>
+        <v>4461.0300011673608</v>
       </c>
       <c r="T37" s="6">
-        <v>4429.3983928589296</v>
+        <v>4494.9112416825556</v>
       </c>
       <c r="U37" s="6">
-        <v>4429.9120455523416</v>
+        <v>4495.4324915366351</v>
       </c>
       <c r="V37" s="6">
-        <v>4184.5144712746041</v>
+        <v>4246.4053737499507</v>
       </c>
       <c r="W37" s="6">
-        <v>4277.3999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4340.6647223627378</v>
+      </c>
+      <c r="X37" s="8">
+        <v>4465.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="6">
-        <v>80320.365787490577</v>
+        <v>81521.303761459771</v>
       </c>
       <c r="C38" s="6">
-        <v>80189.904540567688</v>
+        <v>81388.891877683767</v>
       </c>
       <c r="D38" s="6">
-        <v>79995.864078372266</v>
+        <v>81191.950151814395</v>
       </c>
       <c r="E38" s="6">
-        <v>83820.525443858322</v>
+        <v>85073.797276184283</v>
       </c>
       <c r="F38" s="6">
-        <v>83968.326476764632</v>
+        <v>85223.808207803944</v>
       </c>
       <c r="G38" s="6">
-        <v>86009.466998241653</v>
+        <v>87295.467553970258</v>
       </c>
       <c r="H38" s="6">
-        <v>87673.260748555636</v>
+        <v>88984.138097062954</v>
       </c>
       <c r="I38" s="6">
-        <v>87757.482566189385</v>
+        <v>89069.619186589218</v>
       </c>
       <c r="J38" s="6">
-        <v>84358.05880934438</v>
+        <v>85619.367759337329</v>
       </c>
       <c r="K38" s="6">
-        <v>75501.556692288359</v>
+        <v>76630.444560720833</v>
       </c>
       <c r="L38" s="6">
-        <v>82231.045062044708</v>
+        <v>83460.551223850081</v>
       </c>
       <c r="M38" s="6">
-        <v>82528.298536046204</v>
+        <v>83762.249186884015</v>
       </c>
       <c r="N38" s="6">
-        <v>83396.113539311729</v>
+        <v>84643.039628963626</v>
       </c>
       <c r="O38" s="6">
-        <v>83456.38993820647</v>
+        <v>84704.217271467729</v>
       </c>
       <c r="P38" s="6">
-        <v>84293.653889977388</v>
+        <v>85553.999867346633</v>
       </c>
       <c r="Q38" s="6">
-        <v>85817.903648329579</v>
+        <v>87101.03997779284</v>
       </c>
       <c r="R38" s="6">
-        <v>85813.775127857327</v>
+        <v>87096.849728306246</v>
       </c>
       <c r="S38" s="6">
-        <v>83650.430400401907</v>
+        <v>84901.158997337101</v>
       </c>
       <c r="T38" s="6">
-        <v>82340.038002511923</v>
+        <v>83571.173810295862</v>
       </c>
       <c r="U38" s="6">
-        <v>83142.622382315996</v>
+        <v>84385.758310487465</v>
       </c>
       <c r="V38" s="6">
-        <v>80874.413234865598</v>
+        <v>82083.635242559132</v>
       </c>
       <c r="W38" s="6">
-        <v>82178.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+        <v>83406.916030421839</v>
+      </c>
+      <c r="X38" s="8">
+        <v>85287.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="6">
-        <v>107722.62127016445</v>
+        <v>109346.64388751425</v>
       </c>
       <c r="C39" s="6">
-        <v>108420.66556114149</v>
+        <v>110055.21187075842</v>
       </c>
       <c r="D39" s="6">
-        <v>106975.55402134782</v>
+        <v>108588.31387796592</v>
       </c>
       <c r="E39" s="6">
-        <v>105895.98323240168</v>
+        <v>107492.46751609359</v>
       </c>
       <c r="F39" s="6">
-        <v>100897.77296571122</v>
+        <v>102418.90439942916</v>
       </c>
       <c r="G39" s="6">
-        <v>101085.33906527146</v>
+        <v>102609.29823920164</v>
       </c>
       <c r="H39" s="6">
-        <v>102589.06501117771</v>
+        <v>104135.69430692308</v>
       </c>
       <c r="I39" s="6">
-        <v>102779.82826016225</v>
+        <v>104329.33349623713</v>
       </c>
       <c r="J39" s="6">
-        <v>102869.34844404327</v>
+        <v>104420.20328340126</v>
       </c>
       <c r="K39" s="6">
-        <v>93388.734684453026</v>
+        <v>94796.660109446704</v>
       </c>
       <c r="L39" s="6">
-        <v>102345.01593845442</v>
+        <v>103887.96595858275</v>
       </c>
       <c r="M39" s="6">
-        <v>102207.53851320856</v>
+        <v>103748.41592829495</v>
       </c>
       <c r="N39" s="6">
-        <v>100524.77219954028</v>
+        <v>102040.28028624524</v>
       </c>
       <c r="O39" s="6">
-        <v>98393.339249992132</v>
+        <v>99876.713925194301</v>
       </c>
       <c r="P39" s="6">
-        <v>97433.128706220668</v>
+        <v>98902.027279540853</v>
       </c>
       <c r="Q39" s="6">
-        <v>101988.00091940511</v>
+        <v>103525.56859310671</v>
       </c>
       <c r="R39" s="6">
-        <v>101646.9716474774</v>
+        <v>103179.39797533856</v>
       </c>
       <c r="S39" s="6">
-        <v>101090.66764764533</v>
+        <v>102614.70715510426</v>
       </c>
       <c r="T39" s="6">
-        <v>101385.87111115776</v>
+        <v>102914.36109610982</v>
       </c>
       <c r="U39" s="6">
-        <v>102014.64383127447</v>
+        <v>103552.61317261985</v>
       </c>
       <c r="V39" s="6">
-        <v>99862.962268705596</v>
+        <v>101368.49293113893</v>
       </c>
       <c r="W39" s="6">
-        <v>101540.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <v>103071.21965728601</v>
+      </c>
+      <c r="X39" s="8">
+        <v>105364.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="6">
-        <v>4382.3914121437019</v>
+        <v>4442.7900167397365</v>
       </c>
       <c r="C40" s="6">
-        <v>4197.963650450597</v>
+        <v>4255.8204511757667</v>
       </c>
       <c r="D40" s="6">
-        <v>4141.6883823349508</v>
+        <v>4198.7695910721404</v>
       </c>
       <c r="E40" s="6">
-        <v>4254.3291032907882</v>
+        <v>4312.9627389398165</v>
       </c>
       <c r="F40" s="6">
-        <v>4525.1087387350653</v>
+        <v>4587.4742893583107</v>
       </c>
       <c r="G40" s="6">
-        <v>4692.0406638665745</v>
+        <v>4756.7068888003196</v>
       </c>
       <c r="H40" s="6">
-        <v>4777.8063369082092</v>
+        <v>4843.6545938620966</v>
       </c>
       <c r="I40" s="6">
-        <v>4828.7156139134686</v>
+        <v>4895.2655081705852</v>
       </c>
       <c r="J40" s="6">
-        <v>4774.5145944623418</v>
+        <v>4840.3174842566759</v>
       </c>
       <c r="K40" s="6">
-        <v>4336.2168331770172</v>
+        <v>4395.9790546034274</v>
       </c>
       <c r="L40" s="6">
-        <v>4834.0816050238554</v>
+        <v>4900.7054539657229</v>
       </c>
       <c r="M40" s="6">
-        <v>4829.9782000570895</v>
+        <v>4896.5454954165007</v>
       </c>
       <c r="N40" s="6">
-        <v>4954.1174733923253</v>
+        <v>5022.3956699880428</v>
       </c>
       <c r="O40" s="6">
-        <v>4799.7212249724753</v>
+        <v>4865.8715153447583</v>
       </c>
       <c r="P40" s="6">
-        <v>4799.5859478856582</v>
+        <v>4865.7343738541249</v>
       </c>
       <c r="Q40" s="6">
-        <v>5057.3789829955558</v>
+        <v>5127.0803411717816</v>
       </c>
       <c r="R40" s="6">
-        <v>5118.5242262365946</v>
+        <v>5189.0682949382226</v>
       </c>
       <c r="S40" s="6">
-        <v>5168.8923948945894</v>
+        <v>5240.1306432841775</v>
       </c>
       <c r="T40" s="6">
-        <v>5410.8580108469605</v>
+        <v>5485.4310561976881</v>
       </c>
       <c r="U40" s="6">
-        <v>5437.3272275007139</v>
+        <v>5512.265074531686</v>
       </c>
       <c r="V40" s="6">
-        <v>5498.7881172776579</v>
+        <v>5574.5730251096056</v>
       </c>
       <c r="W40" s="6">
-        <v>5529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5605.2012913511362</v>
+      </c>
+      <c r="X40" s="8">
+        <v>5734.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="6">
-        <v>132536.51150469424</v>
+        <v>134473.48651671928</v>
       </c>
       <c r="C41" s="6">
-        <v>131946.65639177873</v>
+        <v>133875.01087651314</v>
       </c>
       <c r="D41" s="6">
-        <v>131225.72236488201</v>
+        <v>133143.54064959451</v>
       </c>
       <c r="E41" s="6">
-        <v>134070.13479827455</v>
+        <v>136029.52318125524</v>
       </c>
       <c r="F41" s="6">
-        <v>131258.49209337728</v>
+        <v>133176.78929627262</v>
       </c>
       <c r="G41" s="6">
-        <v>132508.98493275818</v>
+        <v>134445.55765350966</v>
       </c>
       <c r="H41" s="6">
-        <v>133210.25712255773</v>
+        <v>135157.0786924214</v>
       </c>
       <c r="I41" s="6">
-        <v>130936.03796498351</v>
+        <v>132849.62261295994</v>
       </c>
       <c r="J41" s="6">
-        <v>126083.49656939862</v>
+        <v>127926.16301286404</v>
       </c>
       <c r="K41" s="6">
-        <v>109336.85451915757</v>
+        <v>110934.77461447805</v>
       </c>
       <c r="L41" s="6">
-        <v>127432.29859426542</v>
+        <v>129294.67731013545</v>
       </c>
       <c r="M41" s="6">
-        <v>129925.41953818826</v>
+        <v>131824.23434940673</v>
       </c>
       <c r="N41" s="6">
-        <v>128956.74636386703</v>
+        <v>130841.40435360154</v>
       </c>
       <c r="O41" s="6">
-        <v>131448.55651865009</v>
+        <v>133369.6314470057</v>
       </c>
       <c r="P41" s="6">
-        <v>131541.62254757673</v>
+        <v>133464.05760357156</v>
       </c>
       <c r="Q41" s="6">
-        <v>137081.01745242323</v>
+        <v>139084.40883804084</v>
       </c>
       <c r="R41" s="6">
-        <v>136214.58583100734</v>
+        <v>138205.31461987138</v>
       </c>
       <c r="S41" s="6">
-        <v>131352.86891144377</v>
+        <v>133272.54539870561</v>
       </c>
       <c r="T41" s="6">
-        <v>130616.20541486933</v>
+        <v>132525.11582138151</v>
       </c>
       <c r="U41" s="6">
-        <v>130620.13778228874</v>
+        <v>132529.10565898288</v>
       </c>
       <c r="V41" s="6">
-        <v>126433.47726972849</v>
+        <v>128281.25855938636</v>
       </c>
       <c r="W41" s="6">
-        <v>129145.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+        <v>131032.91655846752</v>
+      </c>
+      <c r="X41" s="8">
+        <v>133159.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="6">
-        <v>21246.940023602972</v>
+        <v>21548.925303071457</v>
       </c>
       <c r="C42" s="6">
-        <v>21713.986422079131</v>
+        <v>22022.609887423412</v>
       </c>
       <c r="D42" s="6">
-        <v>21890.811412244562</v>
+        <v>22201.948112154045</v>
       </c>
       <c r="E42" s="6">
-        <v>22561.808203068387</v>
+        <v>22882.481859978467</v>
       </c>
       <c r="F42" s="6">
-        <v>22622.99332077269</v>
+        <v>22944.536609020211</v>
       </c>
       <c r="G42" s="6">
-        <v>22621.973568810947</v>
+        <v>22943.502363202846</v>
       </c>
       <c r="H42" s="6">
-        <v>23047.210136855836</v>
+        <v>23374.782869042945</v>
       </c>
       <c r="I42" s="6">
-        <v>22678.263877098903</v>
+        <v>23000.592732321245</v>
       </c>
       <c r="J42" s="6">
-        <v>20704.431979958175</v>
+        <v>20998.706528234688</v>
       </c>
       <c r="K42" s="6">
-        <v>18843.384649785708</v>
+        <v>19111.207911548401</v>
       </c>
       <c r="L42" s="6">
-        <v>19936.762703161556</v>
+        <v>20220.126276924315</v>
       </c>
       <c r="M42" s="6">
-        <v>19840.702068365805</v>
+        <v>20122.70032092878</v>
       </c>
       <c r="N42" s="6">
-        <v>18735.290941841446</v>
+        <v>19001.577854907995</v>
       </c>
       <c r="O42" s="6">
-        <v>19361.214695956438</v>
+        <v>19636.397937605005</v>
       </c>
       <c r="P42" s="6">
-        <v>18758.541286569081</v>
+        <v>19025.158659543857</v>
       </c>
       <c r="Q42" s="6">
-        <v>19138.704817905134</v>
+        <v>19410.72550025654</v>
       </c>
       <c r="R42" s="6">
-        <v>19638.791179941614</v>
+        <v>19917.919649091036</v>
       </c>
       <c r="S42" s="6">
-        <v>19194.791175800739</v>
+        <v>19467.609020211468</v>
       </c>
       <c r="T42" s="6">
-        <v>19588.415433031743</v>
+        <v>19866.827905713337</v>
       </c>
       <c r="U42" s="6">
-        <v>20051.586774053292</v>
+        <v>20336.582355959315</v>
       </c>
       <c r="V42" s="6">
-        <v>19453.604223689934</v>
+        <v>19730.100608658035</v>
       </c>
       <c r="W42" s="6">
-        <v>19701.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+        <v>19981.21549311361</v>
+      </c>
+      <c r="X42" s="8">
+        <v>20560.599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6">
-        <v>37586.702429830373</v>
+        <v>38083.757340290518</v>
       </c>
       <c r="C43" s="6">
-        <v>37657.112862309616</v>
+        <v>38155.098895984862</v>
       </c>
       <c r="D43" s="6">
-        <v>37597.704059905249</v>
+        <v>38094.904458367753</v>
       </c>
       <c r="E43" s="6">
-        <v>37044.32206713871</v>
+        <v>37534.20441908254</v>
       </c>
       <c r="F43" s="6">
-        <v>36113.584162803731</v>
+        <v>36591.158229747976</v>
       </c>
       <c r="G43" s="6">
-        <v>36071.04452651419</v>
+        <v>36548.056039849311</v>
       </c>
       <c r="H43" s="6">
-        <v>36904.601365187715</v>
+        <v>37392.63601950158</v>
       </c>
       <c r="I43" s="6">
-        <v>38078.108573175079</v>
+        <v>38581.661947740598</v>
       </c>
       <c r="J43" s="6">
-        <v>38440.428923641186</v>
+        <v>38948.7737030844</v>
       </c>
       <c r="K43" s="6">
-        <v>36594.355397076048</v>
+        <v>37078.287289723397</v>
       </c>
       <c r="L43" s="6">
-        <v>39146.366853446081</v>
+        <v>39664.04711304068</v>
       </c>
       <c r="M43" s="6">
-        <v>37837.172874535172</v>
+        <v>38337.540061849031</v>
       </c>
       <c r="N43" s="6">
-        <v>38876.460195608983</v>
+        <v>39390.571149545707</v>
       </c>
       <c r="O43" s="6">
-        <v>37274.989577708729</v>
+        <v>37767.922328102024</v>
       </c>
       <c r="P43" s="6">
-        <v>36606.823911160922</v>
+        <v>37090.920690210929</v>
       </c>
       <c r="Q43" s="6">
-        <v>38670.729713208704</v>
+        <v>39182.120041501308</v>
       </c>
       <c r="R43" s="6">
-        <v>38464.265788803423</v>
+        <v>38972.925792251757</v>
       </c>
       <c r="S43" s="6">
-        <v>37972.85964545871</v>
+        <v>38475.021184801662</v>
       </c>
       <c r="T43" s="6">
-        <v>38874.993311599006</v>
+        <v>39389.084867135411</v>
       </c>
       <c r="U43" s="6">
-        <v>38627.456634914161</v>
+        <v>39138.274710397483</v>
       </c>
       <c r="V43" s="6">
-        <v>35702.489919005653</v>
+        <v>36174.62758426174</v>
       </c>
       <c r="W43" s="6">
-        <v>35995.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+        <v>36471.512495718918</v>
+      </c>
+      <c r="X43" s="8">
+        <v>36887.300000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="6">
-        <v>108410.37423198776</v>
+        <v>110030.81007082296</v>
       </c>
       <c r="C44" s="6">
-        <v>107580.90198875831</v>
+        <v>109188.93950723192</v>
       </c>
       <c r="D44" s="6">
-        <v>107098.59958507921</v>
+        <v>108699.42801396509</v>
       </c>
       <c r="E44" s="6">
-        <v>108199.43559529894</v>
+        <v>109816.71848379052</v>
       </c>
       <c r="F44" s="6">
-        <v>108336.76543689323</v>
+        <v>109956.10102743142</v>
       </c>
       <c r="G44" s="6">
-        <v>110190.16897904957</v>
+        <v>111837.20783640898</v>
       </c>
       <c r="H44" s="6">
-        <v>112505.00078896272</v>
+        <v>114186.63999201993</v>
       </c>
       <c r="I44" s="6">
-        <v>112723.62989678078</v>
+        <v>114408.53700149625</v>
       </c>
       <c r="J44" s="6">
-        <v>110627.42719468575</v>
+        <v>112281.00185536161</v>
       </c>
       <c r="K44" s="6">
-        <v>97855.751926417986</v>
+        <v>99318.425296758112</v>
       </c>
       <c r="L44" s="6">
-        <v>107071.13361676036</v>
+        <v>108671.55150523692</v>
       </c>
       <c r="M44" s="6">
-        <v>110171.49212059275</v>
+        <v>111818.25181047383</v>
       </c>
       <c r="N44" s="6">
-        <v>105662.67876136946</v>
+        <v>107242.04413765586</v>
       </c>
       <c r="O44" s="6">
-        <v>105235.30829432808</v>
+        <v>106808.2856618454</v>
       </c>
       <c r="P44" s="6">
-        <v>106233.97090240163</v>
+        <v>107821.87551920199</v>
       </c>
       <c r="Q44" s="6">
-        <v>109938.58070924887</v>
+        <v>111581.85901645885</v>
       </c>
       <c r="R44" s="6">
-        <v>109507.91432600922</v>
+        <v>111144.75535960101</v>
       </c>
       <c r="S44" s="6">
-        <v>107001.91937659684</v>
+        <v>108601.3027032419</v>
       </c>
       <c r="T44" s="6">
-        <v>107466.64356055186</v>
+        <v>109072.9732309227</v>
       </c>
       <c r="U44" s="6">
-        <v>109083.8397751661</v>
+        <v>110714.34206483791</v>
       </c>
       <c r="V44" s="6">
-        <v>105598.9577148697</v>
+        <v>107177.37063740648</v>
       </c>
       <c r="W44" s="6">
-        <v>107501.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+        <v>109108.65516209476</v>
+      </c>
+      <c r="X44" s="8">
+        <v>111784.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="6">
-        <v>5836.6224889237837</v>
+        <v>5917.5705491841663</v>
       </c>
       <c r="C45" s="6">
-        <v>5893.8213224160163</v>
+        <v>5975.5626727391254</v>
       </c>
       <c r="D45" s="6">
-        <v>5823.8558876862389</v>
+        <v>5904.6268880788193</v>
       </c>
       <c r="E45" s="6">
-        <v>5686.4337389938864</v>
+        <v>5765.2988329492136</v>
       </c>
       <c r="F45" s="6">
-        <v>5567.018630475015</v>
+        <v>5644.2275574572805</v>
       </c>
       <c r="G45" s="6">
-        <v>5471.2412465182351</v>
+        <v>5547.1218378983904</v>
       </c>
       <c r="H45" s="6">
-        <v>5551.6875591198841</v>
+        <v>5628.6838596233483</v>
       </c>
       <c r="I45" s="6">
-        <v>5614.851573103022</v>
+        <v>5692.7238946991474</v>
       </c>
       <c r="J45" s="6">
-        <v>5706.0017609780716</v>
+        <v>5785.1382436390677</v>
       </c>
       <c r="K45" s="6">
-        <v>5366.9899613033476</v>
+        <v>5441.4246926276546</v>
       </c>
       <c r="L45" s="6">
-        <v>5917.8492924307848</v>
+        <v>5999.9238864352146</v>
       </c>
       <c r="M45" s="6">
-        <v>5950.0166676013678</v>
+        <v>6032.5373906176828</v>
       </c>
       <c r="N45" s="6">
-        <v>5783.3261099583115</v>
+        <v>5863.5350032596616</v>
       </c>
       <c r="O45" s="6">
-        <v>5919.1315274895778</v>
+        <v>6001.2239047995081</v>
       </c>
       <c r="P45" s="6">
-        <v>5910.2116314284103</v>
+        <v>5992.1802987870378</v>
       </c>
       <c r="Q45" s="6">
-        <v>6217.0003065821693</v>
+        <v>6303.2238230784069</v>
       </c>
       <c r="R45" s="6">
-        <v>6056.6651748826953</v>
+        <v>6140.6650050042699</v>
       </c>
       <c r="S45" s="6">
-        <v>5999.6893387919908</v>
+        <v>6082.8989715996213</v>
       </c>
       <c r="T45" s="6">
-        <v>6016.1353971547678</v>
+        <v>6099.5731201851122</v>
       </c>
       <c r="U45" s="6">
-        <v>6065.3620735423319</v>
+        <v>6149.482520866427</v>
       </c>
       <c r="V45" s="6">
-        <v>5868.9571121455137</v>
+        <v>5950.3536209793683</v>
       </c>
       <c r="W45" s="6">
-        <v>5964.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6047.1202053127899</v>
+      </c>
+      <c r="X45" s="8">
+        <v>6155.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="6">
-        <v>40580.192669311415</v>
+        <v>41162.330332581529</v>
       </c>
       <c r="C46" s="6">
-        <v>40554.943227543212</v>
+        <v>41136.718678362791</v>
       </c>
       <c r="D46" s="6">
-        <v>41050.858044771892</v>
+        <v>41639.747574502704</v>
       </c>
       <c r="E46" s="6">
-        <v>42334.634349674132</v>
+        <v>42941.940118686682</v>
       </c>
       <c r="F46" s="6">
-        <v>42832.127257013308</v>
+        <v>43446.569743215259</v>
       </c>
       <c r="G46" s="6">
-        <v>43165.104270331532</v>
+        <v>43784.323433224883</v>
       </c>
       <c r="H46" s="6">
-        <v>43682.717826579763</v>
+        <v>44309.362344709021</v>
       </c>
       <c r="I46" s="6">
-        <v>43459.023553414569</v>
+        <v>44082.459095614882</v>
       </c>
       <c r="J46" s="6">
-        <v>41096.622657976761</v>
+        <v>41686.16869777417</v>
       </c>
       <c r="K46" s="6">
-        <v>36154.833476905638</v>
+        <v>36673.487748650448</v>
       </c>
       <c r="L46" s="6">
-        <v>41082.419846982149</v>
+        <v>41671.762142276129</v>
       </c>
       <c r="M46" s="6">
-        <v>40368.334071975063</v>
+        <v>40947.43254640243</v>
       </c>
       <c r="N46" s="6">
-        <v>40124.913672428447</v>
+        <v>40700.520192449905</v>
       </c>
       <c r="O46" s="6">
-        <v>39811.268262964011</v>
+        <v>40382.375425201513</v>
       </c>
       <c r="P46" s="6">
-        <v>39357.172833663928</v>
+        <v>39921.765831361387</v>
       </c>
       <c r="Q46" s="6">
-        <v>40688.291841881546</v>
+        <v>41271.980227205502</v>
       </c>
       <c r="R46" s="6">
-        <v>41084.392459620285</v>
+        <v>41673.763052761969</v>
       </c>
       <c r="S46" s="6">
-        <v>40987.339917823745</v>
+        <v>41575.318256858693</v>
       </c>
       <c r="T46" s="6">
-        <v>40852.413213374894</v>
+        <v>41438.45597962731</v>
       </c>
       <c r="U46" s="6">
-        <v>40744.70856333238</v>
+        <v>41329.206267100497</v>
       </c>
       <c r="V46" s="6">
-        <v>40931.712241428162</v>
+        <v>41518.892581158034</v>
       </c>
       <c r="W46" s="6">
-        <v>41768.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+        <v>42367.278627153741</v>
+      </c>
+      <c r="X46" s="8">
+        <v>43293.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="6">
-        <v>5272.7958149457872</v>
+        <v>5347.0623062107888</v>
       </c>
       <c r="C47" s="6">
-        <v>5249.145605985329</v>
+        <v>5323.078987814878</v>
       </c>
       <c r="D47" s="6">
-        <v>5160.3398544583097</v>
+        <v>5233.0224213878455</v>
       </c>
       <c r="E47" s="6">
-        <v>4889.5371306660436</v>
+        <v>4958.4054842585001</v>
       </c>
       <c r="F47" s="6">
-        <v>4798.1731887658188</v>
+        <v>4865.7546957533232</v>
       </c>
       <c r="G47" s="6">
-        <v>4554.4663997428179</v>
+        <v>4618.6153353292266</v>
       </c>
       <c r="H47" s="6">
-        <v>4520.0613496215337</v>
+        <v>4583.7256955435632</v>
       </c>
       <c r="I47" s="6">
-        <v>4581.3012946780837</v>
+        <v>4645.8281954958902</v>
       </c>
       <c r="J47" s="6">
-        <v>4731.5558231288542</v>
+        <v>4798.1990351061195</v>
       </c>
       <c r="K47" s="6">
-        <v>4577.1768653008739</v>
+        <v>4641.6456741862276</v>
       </c>
       <c r="L47" s="6">
-        <v>5098.2645819329573</v>
+        <v>5170.0728285120422</v>
       </c>
       <c r="M47" s="6">
-        <v>5180.3877137095596</v>
+        <v>5253.3526515512667</v>
       </c>
       <c r="N47" s="6">
-        <v>5327.6663880527221</v>
+        <v>5402.705722621612</v>
       </c>
       <c r="O47" s="6">
-        <v>5261.205646316158</v>
+        <v>5335.3088918975609</v>
       </c>
       <c r="P47" s="6">
-        <v>5098.3167898997572</v>
+        <v>5170.1257718197594</v>
       </c>
       <c r="Q47" s="6">
-        <v>5327.6663880527221</v>
+        <v>5402.705722621612</v>
       </c>
       <c r="R47" s="6">
-        <v>5351.9430926147816</v>
+        <v>5427.3243607101313</v>
       </c>
       <c r="S47" s="6">
-        <v>5273.3178946137887</v>
+        <v>5347.5917392879619</v>
       </c>
       <c r="T47" s="6">
-        <v>5516.9202677031881</v>
+        <v>5594.6252130966222</v>
       </c>
       <c r="U47" s="6">
-        <v>5451.1382295350268</v>
+        <v>5527.9166453728958</v>
       </c>
       <c r="V47" s="6">
-        <v>5308.1406084694745</v>
+        <v>5382.9049255353639</v>
       </c>
       <c r="W47" s="6">
-        <v>5359.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5434.6834804828286</v>
+      </c>
+      <c r="X47" s="8">
+        <v>5552.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="6">
-        <v>62968.619768419696</v>
+        <v>63880.4394585993</v>
       </c>
       <c r="C48" s="6">
-        <v>62415.974698973318</v>
+        <v>63319.791789479386</v>
       </c>
       <c r="D48" s="6">
-        <v>61749.382192527708</v>
+        <v>62643.546662808985</v>
       </c>
       <c r="E48" s="6">
-        <v>61248.646511047657</v>
+        <v>62135.560057684306</v>
       </c>
       <c r="F48" s="6">
-        <v>61224.590941014489</v>
+        <v>62111.156149979201</v>
       </c>
       <c r="G48" s="6">
-        <v>61182.177172798096</v>
+        <v>62068.128207446513</v>
       </c>
       <c r="H48" s="6">
-        <v>62297.595972757437</v>
+        <v>63199.698875246373</v>
       </c>
       <c r="I48" s="6">
-        <v>62919.242545720022</v>
+        <v>63830.347226994083</v>
       </c>
       <c r="J48" s="6">
-        <v>63885.896636263671</v>
+        <v>64810.998991880791</v>
       </c>
       <c r="K48" s="6">
-        <v>54282.026821176762</v>
+        <v>55068.059944666464</v>
       </c>
       <c r="L48" s="6">
-        <v>64567.682134309187</v>
+        <v>65502.657112891262</v>
       </c>
       <c r="M48" s="6">
-        <v>65600.172521785746</v>
+        <v>66550.098519918261</v>
       </c>
       <c r="N48" s="6">
-        <v>63989.715412196318</v>
+        <v>64916.321119871245</v>
       </c>
       <c r="O48" s="6">
-        <v>62928.105124153306</v>
+        <v>63839.338140359127</v>
       </c>
       <c r="P48" s="6">
-        <v>62803.395984770781</v>
+        <v>63712.82314515108</v>
       </c>
       <c r="Q48" s="6">
-        <v>65699.560008501765</v>
+        <v>66650.925191226197</v>
       </c>
       <c r="R48" s="6">
-        <v>68391.251686950738</v>
+        <v>69381.594021807919</v>
       </c>
       <c r="S48" s="6">
-        <v>67250.511234324906</v>
+        <v>68224.335030107948</v>
       </c>
       <c r="T48" s="6">
-        <v>68706.506262648676</v>
+        <v>69701.413654364296</v>
       </c>
       <c r="U48" s="6">
-        <v>69374.364851727616</v>
+        <v>70378.943197229702</v>
       </c>
       <c r="V48" s="6">
-        <v>67429.028885623731</v>
+        <v>68405.437713603736</v>
       </c>
       <c r="W48" s="6">
-        <v>68503.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+        <v>69495.264855065907</v>
+      </c>
+      <c r="X48" s="8">
+        <v>71029.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="6">
-        <v>298738.19613002666</v>
+        <v>303266.08566276653</v>
       </c>
       <c r="C49" s="6">
-        <v>301796.22445752181</v>
+        <v>306370.46365238819</v>
       </c>
       <c r="D49" s="6">
-        <v>301694.11103358085</v>
+        <v>306266.80252443947</v>
       </c>
       <c r="E49" s="6">
-        <v>300624.60727756761</v>
+        <v>305181.08860539779</v>
       </c>
       <c r="F49" s="6">
-        <v>287790.56220540847</v>
+        <v>292152.52157689777</v>
       </c>
       <c r="G49" s="6">
-        <v>280634.56094344024</v>
+        <v>284888.05884722958</v>
       </c>
       <c r="H49" s="6">
-        <v>279879.45904535055</v>
+        <v>284121.51208529313</v>
       </c>
       <c r="I49" s="6">
-        <v>272911.56145906309</v>
+        <v>277048.00406500406</v>
       </c>
       <c r="J49" s="6">
-        <v>259709.37062164309</v>
+        <v>263645.71139100485</v>
       </c>
       <c r="K49" s="6">
-        <v>236973.01062257719</v>
+        <v>240564.74287590047</v>
       </c>
       <c r="L49" s="6">
-        <v>256981.86732427258</v>
+        <v>260876.86810500661</v>
       </c>
       <c r="M49" s="6">
-        <v>266247.31694923167</v>
+        <v>270282.75150414143</v>
       </c>
       <c r="N49" s="6">
-        <v>269195.17026668537</v>
+        <v>273275.28459255525</v>
       </c>
       <c r="O49" s="6">
-        <v>274233.66157956194</v>
+        <v>278390.14287949784</v>
       </c>
       <c r="P49" s="6">
-        <v>280556.63227780111</v>
+        <v>284808.94903905818</v>
       </c>
       <c r="Q49" s="6">
-        <v>292229.8089514735</v>
+        <v>296659.05271824665</v>
       </c>
       <c r="R49" s="6">
-        <v>285812.78641539399</v>
+        <v>290144.76920399664</v>
       </c>
       <c r="S49" s="6">
-        <v>280236.85602914391</v>
+        <v>284484.32603311358</v>
       </c>
       <c r="T49" s="6">
-        <v>281870.67081219936</v>
+        <v>286142.90408029285</v>
       </c>
       <c r="U49" s="6">
-        <v>287801.31098687591</v>
+        <v>292163.43327457662</v>
       </c>
       <c r="V49" s="6">
-        <v>283241.14044930175</v>
+        <v>287534.14553434117</v>
       </c>
       <c r="W49" s="6">
-        <v>287677.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+        <v>292037.94875127031</v>
+      </c>
+      <c r="X49" s="8">
+        <v>303326.09999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="6">
-        <v>24686.881215816786</v>
+        <v>25044.531954174185</v>
       </c>
       <c r="C50" s="6">
-        <v>25311.168282635506</v>
+        <v>25677.863368411392</v>
       </c>
       <c r="D50" s="6">
-        <v>25999.249389841814</v>
+        <v>26375.913038025021</v>
       </c>
       <c r="E50" s="6">
-        <v>26477.586991567168</v>
+        <v>26861.180546972988</v>
       </c>
       <c r="F50" s="6">
-        <v>26898.251014344336</v>
+        <v>27287.938932056655</v>
       </c>
       <c r="G50" s="6">
-        <v>26933.325966439355</v>
+        <v>27323.522031876168</v>
       </c>
       <c r="H50" s="6">
-        <v>27226.401908441359</v>
+        <v>27620.843906206985</v>
       </c>
       <c r="I50" s="6">
-        <v>27548.903145825087</v>
+        <v>27948.017374346109</v>
       </c>
       <c r="J50" s="6">
-        <v>26652.961752042262</v>
+        <v>27039.096046070543</v>
       </c>
       <c r="K50" s="6">
-        <v>25389.557269532426</v>
+        <v>25757.388014316744</v>
       </c>
       <c r="L50" s="6">
-        <v>27176.261205110895</v>
+        <v>27569.976790357614</v>
       </c>
       <c r="M50" s="6">
-        <v>28398.234871723256</v>
+        <v>28809.653778029307</v>
       </c>
       <c r="N50" s="6">
-        <v>29318.893513626732</v>
+        <v>29743.65044510386</v>
       </c>
       <c r="O50" s="6">
-        <v>29611.027846176519</v>
+        <v>30040.017068432808</v>
       </c>
       <c r="P50" s="6">
-        <v>30039.695549297518</v>
+        <v>30474.895087032335</v>
       </c>
       <c r="Q50" s="6">
-        <v>31544.858258663618</v>
+        <v>32001.863813515247</v>
       </c>
       <c r="R50" s="6">
-        <v>30654.095716867982</v>
+        <v>31098.196365749947</v>
       </c>
       <c r="S50" s="6">
-        <v>29973.547485279392</v>
+        <v>30407.788704151244</v>
       </c>
       <c r="T50" s="6">
-        <v>29936.353911916896</v>
+        <v>30370.056289577533</v>
       </c>
       <c r="U50" s="6">
-        <v>29823.83158237717</v>
+        <v>30255.903794854537</v>
       </c>
       <c r="V50" s="6">
-        <v>29625.85819504891</v>
+        <v>30055.062271712199</v>
       </c>
       <c r="W50" s="6">
-        <v>30343.599999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+        <v>30783.202347884613</v>
+      </c>
+      <c r="X50" s="8">
+        <v>31226.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="6">
-        <v>3561.3629093701084</v>
+        <v>3610.6345897061806</v>
       </c>
       <c r="C51" s="6">
-        <v>3701.7987892389924</v>
+        <v>3753.0134088252066</v>
       </c>
       <c r="D51" s="6">
-        <v>3606.3134217287306</v>
+        <v>3656.2069952366687</v>
       </c>
       <c r="E51" s="6">
-        <v>3622.3080825679945</v>
+        <v>3672.4229432168422</v>
       </c>
       <c r="F51" s="6">
-        <v>3584.4586480819776</v>
+        <v>3634.0498594189316</v>
       </c>
       <c r="G51" s="6">
-        <v>3408.3794938428377</v>
+        <v>3455.5346389820193</v>
       </c>
       <c r="H51" s="6">
-        <v>3625.0657827126956</v>
+        <v>3675.2187963168726</v>
       </c>
       <c r="I51" s="6">
-        <v>3582.2524879662169</v>
+        <v>3631.8131769389079</v>
       </c>
       <c r="J51" s="6">
-        <v>3487.0084192186164</v>
+        <v>3535.2514004966229</v>
       </c>
       <c r="K51" s="6">
-        <v>3254.7411245311991</v>
+        <v>3299.7706731466005</v>
       </c>
       <c r="L51" s="6">
-        <v>3607.7612143046986</v>
+        <v>3657.6748181141847</v>
       </c>
       <c r="M51" s="6">
-        <v>3682.0812332043824</v>
+        <v>3733.023059159992</v>
       </c>
       <c r="N51" s="6">
-        <v>3849.1978619732449</v>
+        <v>3902.4517570218068</v>
       </c>
       <c r="O51" s="6">
-        <v>3657.8134719310165</v>
+        <v>3708.4195518797283</v>
       </c>
       <c r="P51" s="6">
-        <v>3655.5383693116382</v>
+        <v>3706.1129730722037</v>
       </c>
       <c r="Q51" s="6">
-        <v>3711.0026134719315</v>
+        <v>3762.3445685465558</v>
       </c>
       <c r="R51" s="6">
-        <v>3690.0096211203968</v>
+        <v>3741.0611368225782</v>
       </c>
       <c r="S51" s="6">
-        <v>3669.5681687978031</v>
+        <v>3720.3368757186063</v>
       </c>
       <c r="T51" s="6">
-        <v>3584.2173493193159</v>
+        <v>3633.8052222726792</v>
       </c>
       <c r="U51" s="6">
-        <v>3579.9429140950301</v>
+        <v>3629.4716499676324</v>
       </c>
       <c r="V51" s="6">
-        <v>3460.0863715559758</v>
+        <v>3507.9568846075808</v>
       </c>
       <c r="W51" s="6">
-        <v>3501.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3550.3490072367849</v>
+      </c>
+      <c r="X51" s="8">
+        <v>3617.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="6">
-        <v>49834.054641252871</v>
+        <v>50575.335598833524</v>
       </c>
       <c r="C52" s="6">
-        <v>50344.515657930671</v>
+        <v>51093.389716935133</v>
       </c>
       <c r="D52" s="6">
-        <v>49920.799650622954</v>
+        <v>50663.370939164517</v>
       </c>
       <c r="E52" s="6">
-        <v>50278.741969507202</v>
+        <v>51026.637645695148</v>
       </c>
       <c r="F52" s="6">
-        <v>48292.662551676731</v>
+        <v>49011.015320644321</v>
       </c>
       <c r="G52" s="6">
-        <v>48535.739226285215</v>
+        <v>49257.707757835567</v>
       </c>
       <c r="H52" s="6">
-        <v>49592.407829436197</v>
+        <v>50330.094293625749</v>
       </c>
       <c r="I52" s="6">
-        <v>48633.446517059208</v>
+        <v>49356.868443373227</v>
       </c>
       <c r="J52" s="6">
-        <v>48105.827146879623</v>
+        <v>48821.400741469872</v>
       </c>
       <c r="K52" s="6">
-        <v>44463.013374266644</v>
+        <v>45124.400158229306</v>
       </c>
       <c r="L52" s="6">
-        <v>48874.616707945272</v>
+        <v>49601.626037919836</v>
       </c>
       <c r="M52" s="6">
-        <v>50371.206430044549</v>
+        <v>51120.477513960061</v>
       </c>
       <c r="N52" s="6">
-        <v>49051.443073199684</v>
+        <v>49781.082693209944</v>
       </c>
       <c r="O52" s="6">
-        <v>48668.716465923972</v>
+        <v>49392.663032299017</v>
       </c>
       <c r="P52" s="6">
-        <v>48441.844902956051</v>
+        <v>49162.416757587191</v>
       </c>
       <c r="Q52" s="6">
-        <v>51210.53588883971</v>
+        <v>51972.291988261597</v>
       </c>
       <c r="R52" s="6">
-        <v>50850.210465302429</v>
+        <v>51606.606728425155</v>
       </c>
       <c r="S52" s="6">
-        <v>50781.100430364728</v>
+        <v>51536.468682557061</v>
       </c>
       <c r="T52" s="6">
-        <v>51564.188619348519</v>
+        <v>52331.2052988418</v>
       </c>
       <c r="U52" s="6">
-        <v>51420.249098305852</v>
+        <v>52185.124679171691</v>
       </c>
       <c r="V52" s="6">
-        <v>49691.068362071412</v>
+        <v>50430.222400485727</v>
       </c>
       <c r="W52" s="6">
-        <v>50611.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+        <v>51364.751397845503</v>
+      </c>
+      <c r="X52" s="8">
+        <v>52580.800000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="6">
-        <v>79802.63881166467</v>
+        <v>80895.904870648359</v>
       </c>
       <c r="C53" s="6">
-        <v>79399.18528772</v>
+        <v>80486.924185563723</v>
       </c>
       <c r="D53" s="6">
-        <v>79788.592073887106</v>
+        <v>80881.66569786011</v>
       </c>
       <c r="E53" s="6">
-        <v>83210.533471367598</v>
+        <v>84350.486402107956</v>
       </c>
       <c r="F53" s="6">
-        <v>87927.896241668524</v>
+        <v>89132.475263494096</v>
       </c>
       <c r="G53" s="6">
-        <v>84300.716397771292</v>
+        <v>85455.604423506855</v>
       </c>
       <c r="H53" s="6">
-        <v>83381.435447661366</v>
+        <v>84523.72967103163</v>
       </c>
       <c r="I53" s="6">
-        <v>80516.68131535787</v>
+        <v>81619.729487384233</v>
       </c>
       <c r="J53" s="6">
-        <v>70268.805732298861</v>
+        <v>71231.461873203458</v>
       </c>
       <c r="K53" s="6">
-        <v>65659.914992613616</v>
+        <v>66559.431068348771</v>
       </c>
       <c r="L53" s="6">
-        <v>67040.397166420458</v>
+        <v>67958.825327371451</v>
       </c>
       <c r="M53" s="6">
-        <v>69035.814305156528</v>
+        <v>69981.578928457369</v>
       </c>
       <c r="N53" s="6">
-        <v>65145.64831509033</v>
+        <v>66038.119131267973</v>
       </c>
       <c r="O53" s="6">
-        <v>69632.800660703288</v>
+        <v>70586.743771957859</v>
       </c>
       <c r="P53" s="6">
-        <v>70074.49252637579</v>
+        <v>71034.486649632701</v>
       </c>
       <c r="Q53" s="6">
-        <v>70619.974176738135</v>
+        <v>71587.441192909624</v>
       </c>
       <c r="R53" s="6">
-        <v>66481.649152601516</v>
+        <v>67392.422676461196</v>
       </c>
       <c r="S53" s="6">
-        <v>68491.89340343613</v>
+        <v>69430.206515490267</v>
       </c>
       <c r="T53" s="6">
-        <v>68515.304633065418</v>
+        <v>69453.938470137335</v>
       </c>
       <c r="U53" s="6">
-        <v>70189.207551559288</v>
+        <v>71150.773227403377</v>
       </c>
       <c r="V53" s="6">
-        <v>67545.299352092043</v>
+        <v>68470.64448259343</v>
       </c>
       <c r="W53" s="6">
-        <v>67088</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>68007.080301820504</v>
+      </c>
+      <c r="X53" s="8">
+        <v>69351.100000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="6">
-        <v>10126.025469507433</v>
+        <v>10274.432587254605</v>
       </c>
       <c r="C54" s="6">
-        <v>9983.2804085651005</v>
+        <v>10129.59545345201</v>
       </c>
       <c r="D54" s="6">
-        <v>9637.8678947875324</v>
+        <v>9779.1205708548187</v>
       </c>
       <c r="E54" s="6">
-        <v>9606.4754315187965</v>
+        <v>9747.2680193701563</v>
       </c>
       <c r="F54" s="6">
-        <v>9004.0073066592486</v>
+        <v>9135.9701164092003</v>
       </c>
       <c r="G54" s="6">
-        <v>8891.5096951278247</v>
+        <v>9021.8237389003352</v>
       </c>
       <c r="H54" s="6">
-        <v>8918.6083564297096</v>
+        <v>9049.3195584190107</v>
       </c>
       <c r="I54" s="6">
-        <v>9041.5065105030571</v>
+        <v>9174.0189089121541</v>
       </c>
       <c r="J54" s="6">
-        <v>8961.4509582767078</v>
+        <v>9092.7900618129715</v>
       </c>
       <c r="K54" s="6">
-        <v>8322.3423899667214</v>
+        <v>8444.3147127422581</v>
       </c>
       <c r="L54" s="6">
-        <v>9238.8305653351035</v>
+        <v>9374.2349468157445</v>
       </c>
       <c r="M54" s="6">
-        <v>9425.7540776252299</v>
+        <v>9563.8980117350529</v>
       </c>
       <c r="N54" s="6">
-        <v>9187.9728664833237</v>
+        <v>9322.6318770852722</v>
       </c>
       <c r="O54" s="6">
-        <v>8954.3900394867796</v>
+        <v>9085.6256581355701</v>
       </c>
       <c r="P54" s="6">
-        <v>9045.6094768269322</v>
+        <v>9178.1820083463208</v>
       </c>
       <c r="Q54" s="6">
-        <v>9178.0494130488296</v>
+        <v>9312.562985430548</v>
       </c>
       <c r="R54" s="6">
-        <v>9115.4553221543301</v>
+        <v>9249.0515149930452</v>
       </c>
       <c r="S54" s="6">
-        <v>8880.2503921925327</v>
+        <v>9010.399419522857</v>
       </c>
       <c r="T54" s="6">
-        <v>9016.3162056308793</v>
+        <v>9148.4594147116968</v>
       </c>
       <c r="U54" s="6">
-        <v>8995.4197027255523</v>
+        <v>9127.2566524772265</v>
       </c>
       <c r="V54" s="6">
-        <v>8741.5128797525922</v>
+        <v>8869.6285688885164</v>
       </c>
       <c r="W54" s="6">
-        <v>8916.7000000000007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9047.3832331007943</v>
+      </c>
+      <c r="X54" s="8">
+        <v>9256.7000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="6">
-        <v>68255.169781061893</v>
+        <v>69239.441293766038</v>
       </c>
       <c r="C55" s="6">
-        <v>68724.093248139994</v>
+        <v>69715.126856840128</v>
       </c>
       <c r="D55" s="6">
-        <v>68996.218154505128</v>
+        <v>69991.175931793419</v>
       </c>
       <c r="E55" s="6">
-        <v>69759.660846926025</v>
+        <v>70765.627825365547</v>
       </c>
       <c r="F55" s="6">
-        <v>69570.327059205651</v>
+        <v>70573.563755759664</v>
       </c>
       <c r="G55" s="6">
-        <v>70752.475654936512</v>
+        <v>71772.759487850941</v>
       </c>
       <c r="H55" s="6">
-        <v>70873.269254270665</v>
+        <v>71895.294987456145</v>
       </c>
       <c r="I55" s="6">
-        <v>70648.647448767268</v>
+        <v>71667.434030325123</v>
       </c>
       <c r="J55" s="6">
-        <v>68494.721132550418</v>
+        <v>69482.447087926907</v>
       </c>
       <c r="K55" s="6">
-        <v>62833.030125556979</v>
+        <v>63739.111845195846</v>
       </c>
       <c r="L55" s="6">
-        <v>69373.528498492698</v>
+        <v>70373.927267638835</v>
       </c>
       <c r="M55" s="6">
-        <v>69951.030481826208</v>
+        <v>70959.757100020972</v>
       </c>
       <c r="N55" s="6">
-        <v>70647.290217314076</v>
+        <v>71666.057226958786</v>
       </c>
       <c r="O55" s="6">
-        <v>70614.716662437437</v>
+        <v>71633.013946166378</v>
       </c>
       <c r="P55" s="6">
-        <v>70649.326064493856</v>
+        <v>71668.122432008313</v>
       </c>
       <c r="Q55" s="6">
-        <v>72742.176965317034</v>
+        <v>73791.153222920751</v>
       </c>
       <c r="R55" s="6">
-        <v>70308.660969742486</v>
+        <v>71322.544787054328</v>
       </c>
       <c r="S55" s="6">
-        <v>68225.989304818271</v>
+        <v>69209.840021389507</v>
       </c>
       <c r="T55" s="6">
-        <v>68350.175982785382</v>
+        <v>69335.817529410575</v>
       </c>
       <c r="U55" s="6">
-        <v>68318.281043635361</v>
+        <v>69303.462650301342</v>
       </c>
       <c r="V55" s="6">
-        <v>65948.55492636087</v>
+        <v>66899.563972653385</v>
       </c>
       <c r="W55" s="6">
-        <v>66857.899999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+        <v>67822.02222810821</v>
+      </c>
+      <c r="X55" s="8">
+        <v>68873.899999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -4415,6 +4576,7 @@
       <c r="W56" s="6">
         <v>4089.3</v>
       </c>
+      <c r="X56" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4425,27 +4587,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4503,140 +4666,149 @@
       <c r="S4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>0.74582338902146172</v>
+        <v>0.74582338902147072</v>
       </c>
       <c r="C5" s="7">
-        <v>0.5261043408390782</v>
+        <v>0.52610434083907676</v>
       </c>
       <c r="D5" s="7">
-        <v>0.98612195168383665</v>
+        <v>0.986121951683818</v>
       </c>
       <c r="E5" s="7">
-        <v>-0.38369078482205504</v>
+        <v>-0.38369078482206537</v>
       </c>
       <c r="F5" s="7">
-        <v>-1.6105151546992453</v>
+        <v>-1.6105151546992202</v>
       </c>
       <c r="G5" s="7">
-        <v>-11.93335363300725</v>
+        <v>-11.933353633007258</v>
       </c>
       <c r="H5" s="7">
-        <v>-2.7108036269723002</v>
+        <v>-2.7108036269722899</v>
       </c>
       <c r="I5" s="7">
-        <v>-1.0864216224401031</v>
+        <v>-1.0864216224401069</v>
       </c>
       <c r="J5" s="7">
-        <v>1.9805632955019821</v>
+        <v>1.9805632955019621</v>
       </c>
       <c r="K5" s="7">
-        <v>14.268889585201675</v>
+        <v>14.268889585201665</v>
       </c>
       <c r="L5" s="7">
-        <v>2.4520916894339937</v>
+        <v>2.4520916894340066</v>
       </c>
       <c r="M5" s="7">
-        <v>4.9397244546498333</v>
+        <v>4.9397244546498351</v>
       </c>
       <c r="N5" s="7">
-        <v>3.8308850829676038</v>
+        <v>3.830885082967614</v>
       </c>
       <c r="O5" s="7">
-        <v>1.3947067333604353</v>
+        <v>1.3947067333604435</v>
       </c>
       <c r="P5" s="7">
-        <v>1.6085258489442253</v>
+        <v>1.6085258489441914</v>
       </c>
       <c r="Q5" s="7">
-        <v>-1.4313977553495041</v>
+        <v>-1.4313977553494934</v>
       </c>
       <c r="R5" s="7">
-        <v>-3.2090954935130416</v>
+        <v>-3.2090954935130553</v>
       </c>
       <c r="S5" s="7">
-        <v>1.8651148910685739E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.8651148910676007E-3</v>
+      </c>
+      <c r="T5" s="7">
+        <v>2.0288506281991632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>0.22781022250109237</v>
+        <v>0.22781022250109417</v>
       </c>
       <c r="C6" s="7">
-        <v>0.50324974983240633</v>
+        <v>0.50324974983242166</v>
       </c>
       <c r="D6" s="7">
-        <v>1.0233847286964322</v>
+        <v>1.0233847286964635</v>
       </c>
       <c r="E6" s="7">
-        <v>0.31547550762877374</v>
+        <v>0.31547550762876919</v>
       </c>
       <c r="F6" s="7">
-        <v>1.9088711463820993</v>
+        <v>1.9088711463820918</v>
       </c>
       <c r="G6" s="7">
-        <v>-13.452039169059134</v>
+        <v>-13.452039169059148</v>
       </c>
       <c r="H6" s="7">
-        <v>-0.83266981955622521</v>
+        <v>-0.83266981955623631</v>
       </c>
       <c r="I6" s="7">
-        <v>-2.2356910057750734</v>
+        <v>-2.235691005775069</v>
       </c>
       <c r="J6" s="7">
-        <v>-3.5808454537722318</v>
+        <v>-3.5808454537722185</v>
       </c>
       <c r="K6" s="7">
-        <v>11.605776641015035</v>
+        <v>11.605776641015051</v>
       </c>
       <c r="L6" s="7">
-        <v>-4.6616686819830715</v>
+        <v>-4.6616686819830786</v>
       </c>
       <c r="M6" s="7">
-        <v>-6.4335009942663862E-2</v>
+        <v>-6.4335009942659935E-2</v>
       </c>
       <c r="N6" s="7">
-        <v>4.380341880341879</v>
+        <v>4.3803418803418896</v>
       </c>
       <c r="O6" s="7">
-        <v>6.2117209078899869</v>
+        <v>6.2117209078899727</v>
       </c>
       <c r="P6" s="7">
-        <v>10.147530338081896</v>
+        <v>10.147530338081912</v>
       </c>
       <c r="Q6" s="7">
-        <v>7.0336122978482631</v>
+        <v>7.0336122978482605</v>
       </c>
       <c r="R6" s="7">
-        <v>2.7072201928765276</v>
+        <v>2.7072201928765209</v>
       </c>
       <c r="S6" s="7">
-        <v>4.5556906087759463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.5556906087759472</v>
+      </c>
+      <c r="T6" s="7">
+        <v>4.2152970328951573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>-8.5874122404425979</v>
+        <v>-8.5874122404425854</v>
       </c>
       <c r="C7" s="7">
-        <v>10.269346230820547</v>
+        <v>10.269346230820554</v>
       </c>
       <c r="D7" s="7">
-        <v>28.019012797074943</v>
+        <v>28.01901279707495</v>
       </c>
       <c r="E7" s="7">
-        <v>19.200796120315079</v>
+        <v>19.200796120315086</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4647,25 +4819,28 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
-        <v>4.9122314281702133</v>
+        <v>4.9122314281702062</v>
       </c>
       <c r="O7" s="7">
-        <v>-2.3828507940657415</v>
+        <v>-2.3828507940657304</v>
       </c>
       <c r="P7" s="7">
-        <v>-2.3783638681967552</v>
+        <v>-2.3783638681967481</v>
       </c>
       <c r="Q7" s="7">
-        <v>-7.7447580009459163</v>
+        <v>-7.7447580009459216</v>
       </c>
       <c r="R7" s="7">
-        <v>3.1147935964019839</v>
+        <v>3.1147935964019933</v>
       </c>
       <c r="S7" s="7">
-        <v>4.8164216277014456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.8164216277014429</v>
+      </c>
+      <c r="T7" s="7">
+        <v>11.105000481212093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4673,117 +4848,123 @@
         <v>9.5387520479853407</v>
       </c>
       <c r="C8" s="7">
-        <v>8.2672511003601308</v>
+        <v>8.2672511003601166</v>
       </c>
       <c r="D8" s="7">
-        <v>10.524447195695913</v>
+        <v>10.524447195695926</v>
       </c>
       <c r="E8" s="7">
-        <v>9.8616978387000529</v>
+        <v>9.86169783870006</v>
       </c>
       <c r="F8" s="7">
-        <v>4.1770183711064846</v>
+        <v>4.1770183711064997</v>
       </c>
       <c r="G8" s="7">
-        <v>-2.1628659023140808</v>
+        <v>-2.16286590231406</v>
       </c>
       <c r="H8" s="7">
-        <v>3.1076517585042569</v>
+        <v>3.1076517585042267</v>
       </c>
       <c r="I8" s="7">
-        <v>5.8228958915038032</v>
+        <v>5.8228958915037943</v>
       </c>
       <c r="J8" s="7">
-        <v>7.9428297953455891</v>
+        <v>7.9428297953455926</v>
       </c>
       <c r="K8" s="7">
-        <v>15.266140109890111</v>
+        <v>15.266140109890109</v>
       </c>
       <c r="L8" s="7">
-        <v>12.698209820822308</v>
+        <v>12.698209820822337</v>
       </c>
       <c r="M8" s="7">
-        <v>5.4783677223348946</v>
+        <v>5.4783677223349043</v>
       </c>
       <c r="N8" s="7">
-        <v>5.0213040962479072</v>
+        <v>5.0213040962479152</v>
       </c>
       <c r="O8" s="7">
-        <v>3.6376636725208904</v>
+        <v>3.6376636725208846</v>
       </c>
       <c r="P8" s="7">
-        <v>-0.24099972355914825</v>
+        <v>-0.24099972355915461</v>
       </c>
       <c r="Q8" s="7">
-        <v>4.5191400554618477</v>
+        <v>4.5191400554618362</v>
       </c>
       <c r="R8" s="7">
-        <v>-2.6682408500590165</v>
+        <v>-2.6682408500590276</v>
       </c>
       <c r="S8" s="7">
-        <v>-0.95798657525189435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.95798657525188569</v>
+      </c>
+      <c r="T8" s="7">
+        <v>-1.0473287432765734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>-1.9980716174547395</v>
+        <v>-1.9980716174547357</v>
       </c>
       <c r="C9" s="7">
-        <v>-1.5351897388183684</v>
+        <v>-1.535189738818362</v>
       </c>
       <c r="D9" s="7">
-        <v>-0.44639901640895019</v>
+        <v>-0.44639901640895657</v>
       </c>
       <c r="E9" s="7">
-        <v>0.63939459378258279</v>
+        <v>0.63939459378257213</v>
       </c>
       <c r="F9" s="7">
-        <v>1.6657250287361873</v>
+        <v>1.665725028736184</v>
       </c>
       <c r="G9" s="7">
-        <v>-6.3281008947855506</v>
+        <v>-6.3281008947855648</v>
       </c>
       <c r="H9" s="7">
-        <v>1.109601664402496</v>
+        <v>1.1096016644025066</v>
       </c>
       <c r="I9" s="7">
-        <v>0.9833190282494283</v>
+        <v>0.98331902824943407</v>
       </c>
       <c r="J9" s="7">
-        <v>4.9871608155756597</v>
+        <v>4.9871608155756615</v>
       </c>
       <c r="K9" s="7">
-        <v>14.66716075307003</v>
+        <v>14.667160753070029</v>
       </c>
       <c r="L9" s="7">
-        <v>6.1081827662992971</v>
+        <v>6.1081827662992927</v>
       </c>
       <c r="M9" s="7">
-        <v>9.7596127196467108</v>
+        <v>9.7596127196467162</v>
       </c>
       <c r="N9" s="7">
-        <v>7.1641736559189031</v>
+        <v>7.1641736559189004</v>
       </c>
       <c r="O9" s="7">
-        <v>2.9659419379162917</v>
+        <v>2.965941937916305</v>
       </c>
       <c r="P9" s="7">
-        <v>2.1729890553607438</v>
+        <v>2.1729890553607358</v>
       </c>
       <c r="Q9" s="7">
-        <v>-2.4662054105011477</v>
+        <v>-2.4662054105011428</v>
       </c>
       <c r="R9" s="7">
-        <v>-1.1471347180705795</v>
+        <v>-1.1471347180705755</v>
       </c>
       <c r="S9" s="7">
-        <v>3.4899129919269058</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.4899129919269019</v>
+      </c>
+      <c r="T9" s="7">
+        <v>4.2630821763472264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -4791,235 +4972,247 @@
         <v>6.1427064352162715</v>
       </c>
       <c r="C10" s="7">
-        <v>5.2990173139915902</v>
+        <v>5.2990173139915742</v>
       </c>
       <c r="D10" s="7">
-        <v>2.8213421024102785</v>
+        <v>2.8213421024103122</v>
       </c>
       <c r="E10" s="7">
-        <v>2.0628762541806136</v>
+        <v>2.0628762541805967</v>
       </c>
       <c r="F10" s="7">
-        <v>0.31895188615315262</v>
+        <v>0.31895188615315895</v>
       </c>
       <c r="G10" s="7">
-        <v>-8.5368671786120771</v>
+        <v>-8.5368671786120611</v>
       </c>
       <c r="H10" s="7">
-        <v>0.34793304924659735</v>
+        <v>0.34793304924658619</v>
       </c>
       <c r="I10" s="7">
-        <v>2.359356157920121E-2</v>
+        <v>2.3593561579198445E-2</v>
       </c>
       <c r="J10" s="7">
-        <v>7.7890261915913248</v>
+        <v>7.7890261915912973</v>
       </c>
       <c r="K10" s="7">
-        <v>18.165916798662874</v>
+        <v>18.165916798662892</v>
       </c>
       <c r="L10" s="7">
-        <v>4.9697489733913409</v>
+        <v>4.9697489733913569</v>
       </c>
       <c r="M10" s="7">
-        <v>8.7406630847857194</v>
+        <v>8.7406630847857478</v>
       </c>
       <c r="N10" s="7">
-        <v>1.362846351816567</v>
+        <v>1.3628463518165743</v>
       </c>
       <c r="O10" s="7">
-        <v>-2.1332061413968439</v>
+        <v>-2.1332061413968546</v>
       </c>
       <c r="P10" s="7">
-        <v>-1.676578778349614</v>
+        <v>-1.676578778349618</v>
       </c>
       <c r="Q10" s="7">
-        <v>-6.3999357274845199</v>
+        <v>-6.3999357274845439</v>
       </c>
       <c r="R10" s="7">
-        <v>-5.107701946301531</v>
+        <v>-5.107701946301539</v>
       </c>
       <c r="S10" s="7">
-        <v>-1.7402337677615665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.7402337677615802</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0.90093911450069675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>3.8512551916430349</v>
+        <v>3.8512551916430264</v>
       </c>
       <c r="C11" s="7">
-        <v>3.4948989266886601</v>
+        <v>3.4948989266886539</v>
       </c>
       <c r="D11" s="7">
-        <v>6.2881378346211374</v>
+        <v>6.288137834621117</v>
       </c>
       <c r="E11" s="7">
-        <v>4.4682080394728398</v>
+        <v>4.4682080394728452</v>
       </c>
       <c r="F11" s="7">
-        <v>5.5151068808322963</v>
+        <v>5.5151068808323016</v>
       </c>
       <c r="G11" s="7">
-        <v>0.4928816167982854</v>
+        <v>0.49288161679828024</v>
       </c>
       <c r="H11" s="7">
-        <v>5.8681336260142372</v>
+        <v>5.8681336260142407</v>
       </c>
       <c r="I11" s="7">
-        <v>4.9960933727800159</v>
+        <v>4.9960933727800132</v>
       </c>
       <c r="J11" s="7">
-        <v>4.5058974245703816</v>
+        <v>4.5058974245703789</v>
       </c>
       <c r="K11" s="7">
-        <v>8.649673631623104</v>
+        <v>8.6496736316231129</v>
       </c>
       <c r="L11" s="7">
-        <v>-1.4253815288014462</v>
+        <v>-1.4253815288014222</v>
       </c>
       <c r="M11" s="7">
-        <v>0.74080267558528734</v>
+        <v>0.74080267558528623</v>
       </c>
       <c r="N11" s="7">
-        <v>-0.37959166420086343</v>
+        <v>-0.37959166420085466</v>
       </c>
       <c r="O11" s="7">
-        <v>-3.6289645913743902</v>
+        <v>-3.6289645913744031</v>
       </c>
       <c r="P11" s="7">
-        <v>-5.1946724801585638E-2</v>
+        <v>-5.1946724801592986E-2</v>
       </c>
       <c r="Q11" s="7">
-        <v>-3.0219278588383713</v>
+        <v>-3.0219278588383718</v>
       </c>
       <c r="R11" s="7">
-        <v>-6.0108965002206345</v>
+        <v>-6.0108965002206478</v>
       </c>
       <c r="S11" s="7">
-        <v>-2.2376039353968156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.237603935396804</v>
+      </c>
+      <c r="T11" s="7">
+        <v>-1.9767055475559596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>3.8253105081382697</v>
+        <v>3.8253105081382452</v>
       </c>
       <c r="C12" s="7">
-        <v>3.158848067915704</v>
+        <v>3.1588480679156894</v>
       </c>
       <c r="D12" s="7">
-        <v>-0.6667780895664206</v>
+        <v>-0.66677808956642781</v>
       </c>
       <c r="E12" s="7">
-        <v>3.1691104421747651</v>
+        <v>3.1691104421747682</v>
       </c>
       <c r="F12" s="7">
-        <v>-0.67881869320640853</v>
+        <v>-0.67881869320639721</v>
       </c>
       <c r="G12" s="7">
-        <v>-11.548796169024079</v>
+        <v>-11.548796169024069</v>
       </c>
       <c r="H12" s="7">
-        <v>-3.9699618323990697</v>
+        <v>-3.9699618323990644</v>
       </c>
       <c r="I12" s="7">
-        <v>-7.1771440305978267</v>
+        <v>-7.1771440305978418</v>
       </c>
       <c r="J12" s="7">
-        <v>2.0839573405945266</v>
+        <v>2.0839573405945226</v>
       </c>
       <c r="K12" s="7">
-        <v>12.911311182851762</v>
+        <v>12.911311182851748</v>
       </c>
       <c r="L12" s="7">
-        <v>3.3981925488749498</v>
+        <v>3.3981925488749614</v>
       </c>
       <c r="M12" s="7">
-        <v>5.8230321801572522</v>
+        <v>5.8230321801572655</v>
       </c>
       <c r="N12" s="7">
-        <v>4.2188653075014804</v>
+        <v>4.2188653075014786</v>
       </c>
       <c r="O12" s="7">
-        <v>3.288048304031244</v>
+        <v>3.2880483040312383</v>
       </c>
       <c r="P12" s="7">
-        <v>6.6390189520624316</v>
+        <v>6.6390189520624174</v>
       </c>
       <c r="Q12" s="7">
-        <v>6.6846689895470428</v>
+        <v>6.6846689895470206</v>
       </c>
       <c r="R12" s="7">
-        <v>1.8350737100737087</v>
+        <v>1.835073710073704</v>
       </c>
       <c r="S12" s="7">
-        <v>3.4283847562391014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.4283847562391179</v>
+      </c>
+      <c r="T12" s="7">
+        <v>2.3317080514180111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>17.805280860405638</v>
+        <v>17.805280860405627</v>
       </c>
       <c r="C13" s="7">
-        <v>14.622504782701117</v>
+        <v>14.622504782701125</v>
       </c>
       <c r="D13" s="7">
-        <v>17.36454812020245</v>
+        <v>17.364548120202468</v>
       </c>
       <c r="E13" s="7">
-        <v>9.4038031122781476</v>
+        <v>9.4038031122781689</v>
       </c>
       <c r="F13" s="7">
-        <v>7.3626082422232315</v>
+        <v>7.3626082422232191</v>
       </c>
       <c r="G13" s="7">
-        <v>-3.0826421201699583</v>
+        <v>-3.0826421201699561</v>
       </c>
       <c r="H13" s="7">
-        <v>0.96514190689125623</v>
+        <v>0.96514190689125512</v>
       </c>
       <c r="I13" s="7">
-        <v>4.6408608386088792</v>
+        <v>4.6408608386088517</v>
       </c>
       <c r="J13" s="7">
-        <v>-1.9650307334628616</v>
+        <v>-1.9650307334628547</v>
       </c>
       <c r="K13" s="7">
-        <v>5.8143074581430945</v>
+        <v>5.814307458143074</v>
       </c>
       <c r="L13" s="7">
-        <v>-4.6684634419278925</v>
+        <v>-4.6684634419279085</v>
       </c>
       <c r="M13" s="7">
-        <v>-1.5394088669948821E-2</v>
+        <v>-1.5394088669939413E-2</v>
       </c>
       <c r="N13" s="7">
-        <v>-2.3041062958872147</v>
+        <v>-2.3041062958872041</v>
       </c>
       <c r="O13" s="7">
-        <v>-4.3654446819003834</v>
+        <v>-4.3654446819003576</v>
       </c>
       <c r="P13" s="7">
-        <v>-1.20112424568075</v>
+        <v>-1.2011242456807507</v>
       </c>
       <c r="Q13" s="7">
-        <v>-3.4349499615088566</v>
+        <v>-3.4349499615088326</v>
       </c>
       <c r="R13" s="7">
-        <v>-3.0135255339135782</v>
+        <v>-3.0135255339135902</v>
       </c>
       <c r="S13" s="7">
-        <v>2.2518457399719756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.2518457399719618</v>
+      </c>
+      <c r="T13" s="7">
+        <v>4.3742731159584123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -5041,152 +5234,159 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>3.6671601667510827</v>
+        <v>3.6671601667510814</v>
       </c>
       <c r="C15" s="7">
-        <v>2.5739827373612831</v>
+        <v>2.5739827373612565</v>
       </c>
       <c r="D15" s="7">
-        <v>3.1589998091238827</v>
+        <v>3.1589998091238742</v>
       </c>
       <c r="E15" s="7">
-        <v>4.1676481950870139</v>
+        <v>4.1676481950870183</v>
       </c>
       <c r="F15" s="7">
-        <v>5.3742730168274742</v>
+        <v>5.3742730168274981</v>
       </c>
       <c r="G15" s="7">
-        <v>-3.1498873027798586</v>
+        <v>-3.1498873027798511</v>
       </c>
       <c r="H15" s="7">
-        <v>4.7229160884447916</v>
+        <v>4.7229160884448138</v>
       </c>
       <c r="I15" s="7">
-        <v>2.2966983265490986</v>
+        <v>2.2966983265490626</v>
       </c>
       <c r="J15" s="7">
-        <v>2.4457660517328952</v>
+        <v>2.4457660517328872</v>
       </c>
       <c r="K15" s="7">
-        <v>11.562554544925609</v>
+        <v>11.562554544925607</v>
       </c>
       <c r="L15" s="7">
-        <v>1.8499050311409531</v>
+        <v>1.8499050311409637</v>
       </c>
       <c r="M15" s="7">
-        <v>7.5365420155806344</v>
+        <v>7.5365420155806593</v>
       </c>
       <c r="N15" s="7">
-        <v>6.2743698649213284</v>
+        <v>6.2743698649213364</v>
       </c>
       <c r="O15" s="7">
-        <v>6.4319860930030526</v>
+        <v>6.4319860930030535</v>
       </c>
       <c r="P15" s="7">
-        <v>9.3122500845700813</v>
+        <v>9.3122500845700724</v>
       </c>
       <c r="Q15" s="7">
-        <v>3.3886458573167193</v>
+        <v>3.3886458573167153</v>
       </c>
       <c r="R15" s="7">
-        <v>1.5191843085868721</v>
+        <v>1.5191843085868477</v>
       </c>
       <c r="S15" s="7">
-        <v>3.0730910575745125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.0730910575745152</v>
+      </c>
+      <c r="T15" s="7">
+        <v>2.7740527673080622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>-1.8569223876138865</v>
+        <v>-1.8569223876138814</v>
       </c>
       <c r="C16" s="7">
-        <v>1.8225693136346703</v>
+        <v>1.8225693136346501</v>
       </c>
       <c r="D16" s="7">
-        <v>2.5368282027836973</v>
+        <v>2.5368282027837039</v>
       </c>
       <c r="E16" s="7">
-        <v>1.166579508427549</v>
+        <v>1.1665795084275385</v>
       </c>
       <c r="F16" s="7">
-        <v>2.0756822562646029</v>
+        <v>2.0756822562645834</v>
       </c>
       <c r="G16" s="7">
-        <v>-11.791646250612487</v>
+        <v>-11.791646250612482</v>
       </c>
       <c r="H16" s="7">
-        <v>-1.5486440694759434</v>
+        <v>-1.5486440694759622</v>
       </c>
       <c r="I16" s="7">
-        <v>1.1561095868622864</v>
+        <v>1.1561095868622966</v>
       </c>
       <c r="J16" s="7">
-        <v>1.2920410272719673E-2</v>
+        <v>1.292041027271866E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>14.646699391232392</v>
+        <v>14.646699391232376</v>
       </c>
       <c r="L16" s="7">
-        <v>2.8471076043637384</v>
+        <v>2.8471076043637602</v>
       </c>
       <c r="M16" s="7">
-        <v>6.3502982537171198</v>
+        <v>6.350298253717118</v>
       </c>
       <c r="N16" s="7">
-        <v>7.1390950918721083</v>
+        <v>7.1390950918721314</v>
       </c>
       <c r="O16" s="7">
-        <v>4.9124403002046932</v>
+        <v>4.9124403002047083</v>
       </c>
       <c r="P16" s="7">
-        <v>4.6656816024580925</v>
+        <v>4.6656816024580818</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.44630894188742715</v>
+        <v>0.44630894188742959</v>
       </c>
       <c r="R16" s="7">
-        <v>-2.2613228460389689</v>
+        <v>-2.2613228460389792</v>
       </c>
       <c r="S16" s="7">
-        <v>0.92555066494499849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.92555066494500216</v>
+      </c>
+      <c r="T16" s="7">
+        <v>2.8318732996138789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>-13.42927050995638</v>
+        <v>-13.429270509956364</v>
       </c>
       <c r="C17" s="7">
-        <v>-16.971787558775915</v>
+        <v>-16.971787558775933</v>
       </c>
       <c r="D17" s="7">
-        <v>-8.2273200177175081</v>
+        <v>-8.2273200177175401</v>
       </c>
       <c r="E17" s="7">
-        <v>-7.2245886578134177</v>
+        <v>-7.2245886578134213</v>
       </c>
       <c r="F17" s="7">
-        <v>3.468692397922128</v>
+        <v>3.4686923979221302</v>
       </c>
       <c r="G17" s="7">
-        <v>-9.0112568179180812</v>
+        <v>-9.0112568179180617</v>
       </c>
       <c r="H17" s="7">
-        <v>-4.2080096978404349</v>
+        <v>-4.2080096978404322</v>
       </c>
       <c r="I17" s="7">
-        <v>-4.6903132877205582</v>
+        <v>-4.6903132877205529</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5197,2312 +5397,2392 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>0.27023061309335672</v>
+        <v>0.27023061309333679</v>
       </c>
       <c r="S17" s="7">
-        <v>4.0043209416672969</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.0043209416673067</v>
+      </c>
+      <c r="T17" s="7">
+        <v>2.5645003460703193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>-9.5114969064575158E-2</v>
+        <v>-9.5114969064563196E-2</v>
       </c>
       <c r="C18" s="7">
-        <v>0.11088288222782948</v>
+        <v>0.1108828822278493</v>
       </c>
       <c r="D18" s="7">
-        <v>4.9983338887037636</v>
+        <v>4.998333888703768</v>
       </c>
       <c r="E18" s="7">
-        <v>-1.2636366003315331</v>
+        <v>-1.2636366003315478</v>
       </c>
       <c r="F18" s="7">
-        <v>8.6627783375082181</v>
+        <v>8.6627783375082075</v>
       </c>
       <c r="G18" s="7">
-        <v>-4.4612702908813588</v>
+        <v>-4.4612702908813739</v>
       </c>
       <c r="H18" s="7">
-        <v>-1.7849331400584927</v>
+        <v>-1.784933140058492</v>
       </c>
       <c r="I18" s="7">
-        <v>2.6650962054022891</v>
+        <v>2.6650962054022842</v>
       </c>
       <c r="J18" s="7">
-        <v>-6.5396949616788334</v>
+        <v>-6.5396949616788254</v>
       </c>
       <c r="K18" s="7">
-        <v>5.1969895661098153</v>
+        <v>5.1969895661098215</v>
       </c>
       <c r="L18" s="7">
-        <v>-4.6547779155677445</v>
+        <v>-4.6547779155677551</v>
       </c>
       <c r="M18" s="7">
-        <v>1.6498428924905009</v>
+        <v>1.6498428924905129</v>
       </c>
       <c r="N18" s="7">
-        <v>4.0929817695297377</v>
+        <v>4.0929817695297324</v>
       </c>
       <c r="O18" s="7">
-        <v>8.1867700062329014</v>
+        <v>8.1867700062328908</v>
       </c>
       <c r="P18" s="7">
-        <v>12.987286583131821</v>
+        <v>12.987286583131837</v>
       </c>
       <c r="Q18" s="7">
-        <v>3.6647406633761763</v>
+        <v>3.6647406633761759</v>
       </c>
       <c r="R18" s="7">
-        <v>7.4636261891438149</v>
+        <v>7.4636261891438131</v>
       </c>
       <c r="S18" s="7">
-        <v>3.7281031344454978</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.7281031344454907</v>
+      </c>
+      <c r="T18" s="7">
+        <v>2.9573183089457227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>-1.6549357490106489</v>
+        <v>-1.6549357490106569</v>
       </c>
       <c r="C19" s="7">
-        <v>-0.86268938508845916</v>
+        <v>-0.8626893850884676</v>
       </c>
       <c r="D19" s="7">
-        <v>-0.88522215219049316</v>
+        <v>-0.88522215219047695</v>
       </c>
       <c r="E19" s="7">
-        <v>-4.5486646718828583</v>
+        <v>-4.5486646718828592</v>
       </c>
       <c r="F19" s="7">
-        <v>-6.2105450759316687</v>
+        <v>-6.2105450759316563</v>
       </c>
       <c r="G19" s="7">
-        <v>-14.6066674208998</v>
+        <v>-14.606667420899795</v>
       </c>
       <c r="H19" s="7">
-        <v>-3.9521640091116201</v>
+        <v>-3.9521640091116335</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.31542363146058466</v>
+        <v>-0.31542363146058378</v>
       </c>
       <c r="J19" s="7">
-        <v>4.4265311837420462</v>
+        <v>4.4265311837420445</v>
       </c>
       <c r="K19" s="7">
-        <v>17.136075075903943</v>
+        <v>17.136075075903925</v>
       </c>
       <c r="L19" s="7">
-        <v>4.5525514842483981</v>
+        <v>4.5525514842483954</v>
       </c>
       <c r="M19" s="7">
-        <v>6.6438790956589413</v>
+        <v>6.6438790956589662</v>
       </c>
       <c r="N19" s="7">
-        <v>5.728159059130002</v>
+        <v>5.7281590591300038</v>
       </c>
       <c r="O19" s="7">
-        <v>7.9173578645770057E-2</v>
+        <v>7.9173578645761841E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>0.53968223963402728</v>
+        <v>0.53968223963404327</v>
       </c>
       <c r="Q19" s="7">
-        <v>-1.3965457242806398</v>
+        <v>-1.3965457242806656</v>
       </c>
       <c r="R19" s="7">
-        <v>-4.914171837492642</v>
+        <v>-4.9141718374926393</v>
       </c>
       <c r="S19" s="7">
-        <v>0.4426445658316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.44264456583162931</v>
+      </c>
+      <c r="T19" s="7">
+        <v>2.5372741459379107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>-1.1216129862945707</v>
+        <v>-1.1216129862945909</v>
       </c>
       <c r="C20" s="7">
-        <v>0.24588978352056445</v>
+        <v>0.24588978352055763</v>
       </c>
       <c r="D20" s="7">
-        <v>0.37549349884650118</v>
+        <v>0.37549349884650496</v>
       </c>
       <c r="E20" s="7">
-        <v>0.12717620648790356</v>
+        <v>0.12717620648791103</v>
       </c>
       <c r="F20" s="7">
-        <v>-0.58935306203159965</v>
+        <v>-0.58935306203158522</v>
       </c>
       <c r="G20" s="7">
-        <v>-18.251250480954198</v>
+        <v>-18.251250480954191</v>
       </c>
       <c r="H20" s="7">
-        <v>-1.8781374415786911</v>
+        <v>-1.878137441578686</v>
       </c>
       <c r="I20" s="7">
-        <v>-5.6771710368049677E-2</v>
+        <v>-5.6771710368054236E-2</v>
       </c>
       <c r="J20" s="7">
-        <v>4.7680037259125658</v>
+        <v>4.7680037259125712</v>
       </c>
       <c r="K20" s="7">
-        <v>25.920739886569542</v>
+        <v>25.920739886569532</v>
       </c>
       <c r="L20" s="7">
-        <v>5.6952162535650253</v>
+        <v>5.6952162535650181</v>
       </c>
       <c r="M20" s="7">
-        <v>8.9673232819209527</v>
+        <v>8.9673232819209456</v>
       </c>
       <c r="N20" s="7">
-        <v>8.1832999925909551</v>
+        <v>8.1832999925909267</v>
       </c>
       <c r="O20" s="7">
-        <v>8.9613605569312735</v>
+        <v>8.9613605569312647</v>
       </c>
       <c r="P20" s="7">
-        <v>7.3773227995994226</v>
+        <v>7.3773227995994191</v>
       </c>
       <c r="Q20" s="7">
-        <v>1.8112740766919815</v>
+        <v>1.8112740766919819</v>
       </c>
       <c r="R20" s="7">
-        <v>-3.7864260521179425</v>
+        <v>-3.7864260521179269</v>
       </c>
       <c r="S20" s="7">
-        <v>-2.0659491445478371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.06594914454783</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.65112262521590025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>-2.2827751610945617</v>
+        <v>-2.2827751610945759</v>
       </c>
       <c r="C21" s="7">
-        <v>-4.9844442973456173</v>
+        <v>-4.9844442973456093</v>
       </c>
       <c r="D21" s="7">
-        <v>-2.0817619550460109</v>
+        <v>-2.0817619550460025</v>
       </c>
       <c r="E21" s="7">
-        <v>-3.9503779072503593</v>
+        <v>-3.9503779072503544</v>
       </c>
       <c r="F21" s="7">
-        <v>5.1394269154567205</v>
+        <v>5.1394269154567302</v>
       </c>
       <c r="G21" s="7">
-        <v>-4.2546627122354916</v>
+        <v>-4.2546627122354845</v>
       </c>
       <c r="H21" s="7">
-        <v>2.6787089816669281</v>
+        <v>2.6787089816669303</v>
       </c>
       <c r="I21" s="7">
-        <v>5.288791329400464</v>
+        <v>5.2887913294004747</v>
       </c>
       <c r="J21" s="7">
-        <v>4.4588196690573438</v>
+        <v>4.4588196690573234</v>
       </c>
       <c r="K21" s="7">
-        <v>11.650364333752584</v>
+        <v>11.650364333752568</v>
       </c>
       <c r="L21" s="7">
-        <v>-1.4572666404095898</v>
+        <v>-1.4572666404096291</v>
       </c>
       <c r="M21" s="7">
-        <v>0.76319536870714089</v>
+        <v>0.76319536870712568</v>
       </c>
       <c r="N21" s="7">
-        <v>-0.23065669846798095</v>
+        <v>-0.23065669846795364</v>
       </c>
       <c r="O21" s="7">
-        <v>-0.66008136969211695</v>
+        <v>-0.66008136969211062</v>
       </c>
       <c r="P21" s="7">
-        <v>2.4742111073046198</v>
+        <v>2.474211107304638</v>
       </c>
       <c r="Q21" s="7">
-        <v>4.3412800310339422E-2</v>
+        <v>4.3412800310342059E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>-4.3710193947680871</v>
+        <v>-4.3710193947680906</v>
       </c>
       <c r="S21" s="7">
-        <v>0.34769732526099706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.34769732526099029</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1.4217525351955802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>1.4433203925680209</v>
+        <v>1.4433203925680114</v>
       </c>
       <c r="C22" s="7">
-        <v>-0.24318027826505573</v>
+        <v>-0.24318027826507146</v>
       </c>
       <c r="D22" s="7">
-        <v>-3.8171298631041459</v>
+        <v>-3.8171298631041397</v>
       </c>
       <c r="E22" s="7">
-        <v>-4.3976331797915869</v>
+        <v>-4.3976331797915691</v>
       </c>
       <c r="F22" s="7">
-        <v>-4.6091531263094101</v>
+        <v>-4.609153126309419</v>
       </c>
       <c r="G22" s="7">
-        <v>-18.244833778389811</v>
+        <v>-18.2448337783898</v>
       </c>
       <c r="H22" s="7">
-        <v>-6.6102308909607457</v>
+        <v>-6.6102308909607386</v>
       </c>
       <c r="I22" s="7">
-        <v>-1.6588295499531593</v>
+        <v>-1.6588295499531744</v>
       </c>
       <c r="J22" s="7">
-        <v>-2.7195080286983249</v>
+        <v>-2.719508028698304</v>
       </c>
       <c r="K22" s="7">
-        <v>17.484180816679579</v>
+        <v>17.484180816679565</v>
       </c>
       <c r="L22" s="7">
-        <v>8.1846392552366289</v>
+        <v>8.1846392552366112</v>
       </c>
       <c r="M22" s="7">
-        <v>9.3010240650374563</v>
+        <v>9.3010240650374598</v>
       </c>
       <c r="N22" s="7">
-        <v>10.849998494867481</v>
+        <v>10.849998494867501</v>
       </c>
       <c r="O22" s="7">
-        <v>3.4098284430064707</v>
+        <v>3.4098284430064756</v>
       </c>
       <c r="P22" s="7">
-        <v>2.1097922288690669</v>
+        <v>2.1097922288690656</v>
       </c>
       <c r="Q22" s="7">
-        <v>-1.289053376691033</v>
+        <v>-1.2890533766910381</v>
       </c>
       <c r="R22" s="7">
-        <v>-4.0354116880295319</v>
+        <v>-4.0354116880295603</v>
       </c>
       <c r="S22" s="7">
-        <v>0.60702007475338904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.60702007475340081</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1.2659631484595799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>5.9873694437697331</v>
+        <v>5.9873694437697376</v>
       </c>
       <c r="C23" s="7">
-        <v>7.4939468518647798</v>
+        <v>7.4939468518647603</v>
       </c>
       <c r="D23" s="7">
-        <v>7.7927136180242078</v>
+        <v>7.7927136180242051</v>
       </c>
       <c r="E23" s="7">
-        <v>5.326260362326626</v>
+        <v>5.3262603623266376</v>
       </c>
       <c r="F23" s="7">
-        <v>1.7178488216645613</v>
+        <v>1.7178488216645584</v>
       </c>
       <c r="G23" s="7">
-        <v>-19.630707624997708</v>
+        <v>-19.630707624997697</v>
       </c>
       <c r="H23" s="7">
-        <v>-4.2238384212720659</v>
+        <v>-4.2238384212720561</v>
       </c>
       <c r="I23" s="7">
-        <v>-5.0104539330019051</v>
+        <v>-5.0104539330019016</v>
       </c>
       <c r="J23" s="7">
-        <v>-5.1744693634238796</v>
+        <v>-5.1744693634238672</v>
       </c>
       <c r="K23" s="7">
-        <v>15.662483853109459</v>
+        <v>15.66248385310945</v>
       </c>
       <c r="L23" s="7">
-        <v>-1.9675746788422785</v>
+        <v>-1.9675746788422976</v>
       </c>
       <c r="M23" s="7">
-        <v>1.5162928108155775</v>
+        <v>1.5162928108155629</v>
       </c>
       <c r="N23" s="7">
-        <v>5.572660403322419</v>
+        <v>5.5726604033224101</v>
       </c>
       <c r="O23" s="7">
-        <v>5.799529336683813</v>
+        <v>5.7995293366838032</v>
       </c>
       <c r="P23" s="7">
-        <v>4.6574963983343398</v>
+        <v>4.6574963983343594</v>
       </c>
       <c r="Q23" s="7">
-        <v>1.7837009626781419</v>
+        <v>1.7837009626781619</v>
       </c>
       <c r="R23" s="7">
-        <v>-0.45480120030006627</v>
+        <v>-0.45480120030007792</v>
       </c>
       <c r="S23" s="7">
-        <v>2.0829406220546702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.0829406220546858</v>
+      </c>
+      <c r="T23" s="7">
+        <v>4.5529973034640143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>3.229603126029855</v>
+        <v>3.2296031260298377</v>
       </c>
       <c r="C24" s="7">
-        <v>3.1158501111100518</v>
+        <v>3.1158501111100509</v>
       </c>
       <c r="D24" s="7">
-        <v>2.7998036550369965</v>
+        <v>2.7998036550369734</v>
       </c>
       <c r="E24" s="7">
-        <v>-3.1583030123931239</v>
+        <v>-3.1583030123931115</v>
       </c>
       <c r="F24" s="7">
-        <v>-14.190723765220964</v>
+        <v>-14.190723765220955</v>
       </c>
       <c r="G24" s="7">
-        <v>-22.593832664311204</v>
+        <v>-22.593832664311211</v>
       </c>
       <c r="H24" s="7">
         <v>-20.629556849277325</v>
       </c>
       <c r="I24" s="7">
-        <v>-18.586577155608104</v>
+        <v>-18.586577155608115</v>
       </c>
       <c r="J24" s="7">
-        <v>-9.1223146996609135</v>
+        <v>-9.1223146996609152</v>
       </c>
       <c r="K24" s="7">
-        <v>6.2325247938821926</v>
+        <v>6.2325247938821908</v>
       </c>
       <c r="L24" s="7">
-        <v>2.4954879911148127</v>
+        <v>2.4954879911148149</v>
       </c>
       <c r="M24" s="7">
-        <v>5.7616398243045408</v>
+        <v>5.7616398243045506</v>
       </c>
       <c r="N24" s="7">
-        <v>4.2025849464880896</v>
+        <v>4.2025849464880869</v>
       </c>
       <c r="O24" s="7">
-        <v>-5.424830720086395</v>
+        <v>-5.4248307200863906</v>
       </c>
       <c r="P24" s="7">
-        <v>-6.6100030476448666</v>
+        <v>-6.6100030476448497</v>
       </c>
       <c r="Q24" s="7">
-        <v>-8.3781868119697886</v>
+        <v>-8.3781868119698029</v>
       </c>
       <c r="R24" s="7">
-        <v>-5.4923221982758665</v>
+        <v>-5.4923221982758683</v>
       </c>
       <c r="S24" s="7">
-        <v>2.4939642971825551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.4939642971825564</v>
+      </c>
+      <c r="T24" s="7">
+        <v>8.3698949683938348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>-0.85942653164163063</v>
+        <v>-0.85942653164164684</v>
       </c>
       <c r="C25" s="7">
-        <v>1.6691455957692951</v>
+        <v>1.6691455957692953</v>
       </c>
       <c r="D25" s="7">
-        <v>3.7110000485224961</v>
+        <v>3.7110000485224859</v>
       </c>
       <c r="E25" s="7">
-        <v>6.9459962756052205</v>
+        <v>6.945996275605216</v>
       </c>
       <c r="F25" s="7">
-        <v>9.8135138837250118</v>
+        <v>9.8135138837250242</v>
       </c>
       <c r="G25" s="7">
-        <v>-2.6485886942553503</v>
+        <v>-2.6485886942553449</v>
       </c>
       <c r="H25" s="7">
-        <v>7.9386912949498907</v>
+        <v>7.9386912949498862</v>
       </c>
       <c r="I25" s="7">
-        <v>11.061521119532228</v>
+        <v>11.061521119532255</v>
       </c>
       <c r="J25" s="7">
-        <v>5.3173669767276071</v>
+        <v>5.3173669767275982</v>
       </c>
       <c r="K25" s="7">
-        <v>11.411004380537083</v>
+        <v>11.411004380537078</v>
       </c>
       <c r="L25" s="7">
-        <v>-1.3671079209036578</v>
+        <v>-1.3671079209036749</v>
       </c>
       <c r="M25" s="7">
-        <v>-5.8067284444700888</v>
+        <v>-5.8067284444701235</v>
       </c>
       <c r="N25" s="7">
-        <v>-0.7825454299346799</v>
+        <v>-0.78254542993467324</v>
       </c>
       <c r="O25" s="7">
-        <v>2.2330559277805158</v>
+        <v>2.233055927780506</v>
       </c>
       <c r="P25" s="7">
-        <v>-1.3254113345520919</v>
+        <v>-1.3254113345520864</v>
       </c>
       <c r="Q25" s="7">
-        <v>1.1257117827419807</v>
+        <v>1.1257117827420084</v>
       </c>
       <c r="R25" s="7">
-        <v>-7.2220943220866438</v>
+        <v>-7.2220943220866562</v>
       </c>
       <c r="S25" s="7">
-        <v>-4.6833096192816779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-4.6833096192816672</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0.3545088538140827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>-6.5510900455291914</v>
+        <v>-6.5510900455291834</v>
       </c>
       <c r="C26" s="7">
-        <v>0.1197190066290864</v>
+        <v>0.11971900662908135</v>
       </c>
       <c r="D26" s="7">
-        <v>3.5768405722944943</v>
+        <v>3.5768405722944827</v>
       </c>
       <c r="E26" s="7">
-        <v>3.9147627841320962</v>
+        <v>3.9147627841321118</v>
       </c>
       <c r="F26" s="7">
-        <v>9.9630646841556896</v>
+        <v>9.963064684155686</v>
       </c>
       <c r="G26" s="7">
-        <v>0.70757280785841103</v>
+        <v>0.70757280785841292</v>
       </c>
       <c r="H26" s="7">
-        <v>5.2051567057124455</v>
+        <v>5.2051567057124553</v>
       </c>
       <c r="I26" s="7">
-        <v>1.1248813710712908</v>
+        <v>1.1248813710712868</v>
       </c>
       <c r="J26" s="7">
-        <v>8.82209399133008</v>
+        <v>8.8220939913300835</v>
       </c>
       <c r="K26" s="7">
-        <v>5.7807608898309111</v>
+        <v>5.7807608898309226</v>
       </c>
       <c r="L26" s="7">
-        <v>-4.5918367346938611</v>
+        <v>-4.5918367346938522</v>
       </c>
       <c r="M26" s="7">
-        <v>-0.12605003358267106</v>
+        <v>-0.126050033582668</v>
       </c>
       <c r="N26" s="7">
-        <v>-6.1415079406954112</v>
+        <v>-6.1415079406954263</v>
       </c>
       <c r="O26" s="7">
-        <v>-3.8470101486112909</v>
+        <v>-3.8470101486112966</v>
       </c>
       <c r="P26" s="7">
-        <v>-1.4263404476835013</v>
+        <v>-1.4263404476835064</v>
       </c>
       <c r="Q26" s="7">
-        <v>-3.8240442192537913</v>
+        <v>-3.8240442192538047</v>
       </c>
       <c r="R26" s="7">
-        <v>-3.0618172278749189</v>
+        <v>-3.0618172278748883</v>
       </c>
       <c r="S26" s="7">
-        <v>1.1413300402311675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.1413300402311644</v>
+      </c>
+      <c r="T26" s="7">
+        <v>2.37258516726197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>-1.9672254946382892</v>
+        <v>-1.9672254946382699</v>
       </c>
       <c r="C27" s="7">
-        <v>-1.965664031435657</v>
+        <v>-1.9656640314356584</v>
       </c>
       <c r="D27" s="7">
-        <v>0.77277413618606783</v>
+        <v>0.77277413618608404</v>
       </c>
       <c r="E27" s="7">
-        <v>-0.74089376766548942</v>
+        <v>-0.74089376766547321</v>
       </c>
       <c r="F27" s="7">
-        <v>1.3788853368254936</v>
+        <v>1.3788853368254623</v>
       </c>
       <c r="G27" s="7">
-        <v>-7.9830890212246199</v>
+        <v>-7.9830890212246306</v>
       </c>
       <c r="H27" s="7">
-        <v>0.46930730242162993</v>
+        <v>0.46930730242163476</v>
       </c>
       <c r="I27" s="7">
-        <v>2.0803375463558766</v>
+        <v>2.0803375463558678</v>
       </c>
       <c r="J27" s="7">
-        <v>2.6908172181907974</v>
+        <v>2.6908172181908117</v>
       </c>
       <c r="K27" s="7">
-        <v>15.22002924734752</v>
+        <v>15.220029247347513</v>
       </c>
       <c r="L27" s="7">
-        <v>1.4639387144992433</v>
+        <v>1.463938714499236</v>
       </c>
       <c r="M27" s="7">
-        <v>2.4475686496204756</v>
+        <v>2.4475686496204827</v>
       </c>
       <c r="N27" s="7">
-        <v>1.81840043656409</v>
+        <v>1.8184004365640811</v>
       </c>
       <c r="O27" s="7">
         <v>-4.2549552631105056</v>
       </c>
       <c r="P27" s="7">
-        <v>-2.8929995304169953</v>
+        <v>-2.8929995304170122</v>
       </c>
       <c r="Q27" s="7">
-        <v>-1.6871110146186015</v>
+        <v>-1.6871110146185986</v>
       </c>
       <c r="R27" s="7">
-        <v>-9.5400743075679273</v>
+        <v>-9.5400743075679184</v>
       </c>
       <c r="S27" s="7">
-        <v>-4.7740370603664761</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-4.7740370603664672</v>
+      </c>
+      <c r="T27" s="7">
+        <v>-2.2045228274783017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>-2.9148804696249968</v>
+        <v>-2.9148804696250106</v>
       </c>
       <c r="C28" s="7">
-        <v>-3.2720051175802203</v>
+        <v>-3.2720051175802167</v>
       </c>
       <c r="D28" s="7">
-        <v>-1.7116338676323584</v>
+        <v>-1.7116338676323499</v>
       </c>
       <c r="E28" s="7">
-        <v>-0.29471194125474476</v>
+        <v>-0.2947119412547326</v>
       </c>
       <c r="F28" s="7">
-        <v>-2.8432766799598181</v>
+        <v>-2.843276679959803</v>
       </c>
       <c r="G28" s="7">
-        <v>-21.525022209061301</v>
+        <v>-21.525022209061309</v>
       </c>
       <c r="H28" s="7">
-        <v>-0.28546593176474788</v>
+        <v>-0.28546593176475699</v>
       </c>
       <c r="I28" s="7">
-        <v>1.4729724386096827</v>
+        <v>1.4729724386096534</v>
       </c>
       <c r="J28" s="7">
-        <v>4.2909492906422075</v>
+        <v>4.2909492906422022</v>
       </c>
       <c r="K28" s="7">
-        <v>34.664100725758772</v>
+        <v>34.664100725758786</v>
       </c>
       <c r="L28" s="7">
-        <v>4.79251899473992</v>
+        <v>4.7925189947399289</v>
       </c>
       <c r="M28" s="7">
-        <v>5.3747832355863769</v>
+        <v>5.3747832355863743</v>
       </c>
       <c r="N28" s="7">
-        <v>5.6249141197024084</v>
+        <v>5.6249141197024111</v>
       </c>
       <c r="O28" s="7">
-        <v>0.47542545440958772</v>
+        <v>0.47542545440959727</v>
       </c>
       <c r="P28" s="7">
-        <v>-7.3733067390123766E-2</v>
+        <v>-7.3733067390139101E-2</v>
       </c>
       <c r="Q28" s="7">
-        <v>-2.3168736074258276</v>
+        <v>-2.3168736074258209</v>
       </c>
       <c r="R28" s="7">
-        <v>-3.1324047315944514</v>
+        <v>-3.1324047315944576</v>
       </c>
       <c r="S28" s="7">
-        <v>-0.93798514469512562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.93798514469513705</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1.8787425857779285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>-2.1112330416711185</v>
+        <v>-2.1112330416711038</v>
       </c>
       <c r="C29" s="7">
-        <v>-3.1843837743045151</v>
+        <v>-3.1843837743045227</v>
       </c>
       <c r="D29" s="7">
-        <v>-0.66841567159860094</v>
+        <v>-0.66841567159859838</v>
       </c>
       <c r="E29" s="7">
-        <v>-0.87692307692308613</v>
+        <v>-0.87692307692307547</v>
       </c>
       <c r="F29" s="7">
-        <v>-2.1954582882766744</v>
+        <v>-2.195458288276674</v>
       </c>
       <c r="G29" s="7">
-        <v>-10.930416707908549</v>
+        <v>-10.930416707908545</v>
       </c>
       <c r="H29" s="7">
-        <v>-5.9426130018934833</v>
+        <v>-5.9426130018934877</v>
       </c>
       <c r="I29" s="7">
-        <v>-3.9781545863728081</v>
+        <v>-3.9781545863728094</v>
       </c>
       <c r="J29" s="7">
-        <v>1.1380926297851555</v>
+        <v>1.1380926297851715</v>
       </c>
       <c r="K29" s="7">
-        <v>9.8636469712291905</v>
+        <v>9.8636469712291923</v>
       </c>
       <c r="L29" s="7">
-        <v>1.6063593661281235</v>
+        <v>1.6063593661281363</v>
       </c>
       <c r="M29" s="7">
-        <v>1.1385333427621789</v>
+        <v>1.1385333427621989</v>
       </c>
       <c r="N29" s="7">
-        <v>-8.8257712520564788E-2</v>
+        <v>-8.8257712520566176E-2</v>
       </c>
       <c r="O29" s="7">
-        <v>-0.93766120793422236</v>
+        <v>-0.93766120793421115</v>
       </c>
       <c r="P29" s="7">
-        <v>0.18695197163207691</v>
+        <v>0.18695197163205091</v>
       </c>
       <c r="Q29" s="7">
-        <v>-0.56635435603412831</v>
+        <v>-0.56635435603413964</v>
       </c>
       <c r="R29" s="7">
-        <v>-2.3900823127885888</v>
+        <v>-2.3900823127885951</v>
       </c>
       <c r="S29" s="7">
-        <v>0.65042476719489595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.65042476719489117</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1.5374473911059283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>-4.919145538031569</v>
+        <v>-4.9191455380315734</v>
       </c>
       <c r="C30" s="7">
-        <v>-1.6152985454175515</v>
+        <v>-1.6152985454175792</v>
       </c>
       <c r="D30" s="7">
-        <v>1.9432452298868617</v>
+        <v>1.9432452298868523</v>
       </c>
       <c r="E30" s="7">
-        <v>5.7242916938350632</v>
+        <v>5.7242916938350463</v>
       </c>
       <c r="F30" s="7">
-        <v>6.8324024692395184</v>
+        <v>6.8324024692395113</v>
       </c>
       <c r="G30" s="7">
-        <v>-8.0901966460577661</v>
+        <v>-8.0901966460577608</v>
       </c>
       <c r="H30" s="7">
-        <v>6.6072226510135321</v>
+        <v>6.6072226510135206</v>
       </c>
       <c r="I30" s="7">
-        <v>2.1436600383968885</v>
+        <v>2.1436600383968787</v>
       </c>
       <c r="J30" s="7">
-        <v>-0.18180031446541778</v>
+        <v>-0.18180031446541581</v>
       </c>
       <c r="K30" s="7">
-        <v>12.352497834572576</v>
+        <v>12.352497834572603</v>
       </c>
       <c r="L30" s="7">
-        <v>-5.212719340027073</v>
+        <v>-5.2127193400270739</v>
       </c>
       <c r="M30" s="7">
-        <v>0.91542986249073532</v>
+        <v>0.91542986249076741</v>
       </c>
       <c r="N30" s="7">
-        <v>1.9876938222987708</v>
+        <v>1.9876938222988025</v>
       </c>
       <c r="O30" s="7">
-        <v>0.90109934119628265</v>
+        <v>0.90109934119625135</v>
       </c>
       <c r="P30" s="7">
-        <v>0.71254849148762955</v>
+        <v>0.71254849148763244</v>
       </c>
       <c r="Q30" s="7">
-        <v>-3.6120975835713764</v>
+        <v>-3.6120975835713769</v>
       </c>
       <c r="R30" s="7">
-        <v>-6.4743131841612369</v>
+        <v>-6.4743131841612485</v>
       </c>
       <c r="S30" s="7">
-        <v>-2.7972374923098373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.7972374923098346</v>
+      </c>
+      <c r="T30" s="7">
+        <v>-1.1266228258374942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>0.72172158981481138</v>
+        <v>0.72172158981479329</v>
       </c>
       <c r="C31" s="7">
-        <v>3.1055148616744068</v>
+        <v>3.1055148616744175</v>
       </c>
       <c r="D31" s="7">
-        <v>6.2945151275339573</v>
+        <v>6.2945151275339359</v>
       </c>
       <c r="E31" s="7">
-        <v>5.0002488676521741</v>
+        <v>5.0002488676521661</v>
       </c>
       <c r="F31" s="7">
-        <v>2.3931967996779484</v>
+        <v>2.3931967996779666</v>
       </c>
       <c r="G31" s="7">
-        <v>-5.7147330515108603</v>
+        <v>-5.7147330515108692</v>
       </c>
       <c r="H31" s="7">
-        <v>3.0401084321249119</v>
+        <v>3.0401084321249239</v>
       </c>
       <c r="I31" s="7">
-        <v>3.6291928174595722</v>
+        <v>3.6291928174595691</v>
       </c>
       <c r="J31" s="7">
-        <v>4.0828361656330179</v>
+        <v>4.0828361656330152</v>
       </c>
       <c r="K31" s="7">
-        <v>12.149202922617079</v>
+        <v>12.149202922617063</v>
       </c>
       <c r="L31" s="7">
-        <v>-0.78554158831322629</v>
+        <v>-0.78554158831321885</v>
       </c>
       <c r="M31" s="7">
-        <v>2.8552869924798494</v>
+        <v>2.8552869924798423</v>
       </c>
       <c r="N31" s="7">
-        <v>6.8481637817879593</v>
+        <v>6.8481637817879628</v>
       </c>
       <c r="O31" s="7">
-        <v>3.6767291639674964</v>
+        <v>3.6767291639675164</v>
       </c>
       <c r="P31" s="7">
-        <v>5.0372071744022211</v>
+        <v>5.037207174402222</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.22236651338200653</v>
+        <v>0.22236651338201299</v>
       </c>
       <c r="R31" s="7">
-        <v>-1.2744257571874262</v>
+        <v>-1.2744257571874342</v>
       </c>
       <c r="S31" s="7">
-        <v>1.4487061616873786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.4487061616873655</v>
+      </c>
+      <c r="T31" s="7">
+        <v>2.8596063930025397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>-9.6026752146899277</v>
+        <v>-9.6026752146899348</v>
       </c>
       <c r="C32" s="7">
-        <v>-11.995596093047682</v>
+        <v>-11.995596093047681</v>
       </c>
       <c r="D32" s="7">
-        <v>-10.971295787213304</v>
+        <v>-10.971295787213325</v>
       </c>
       <c r="E32" s="7">
-        <v>-14.233103376731142</v>
+        <v>-14.233103376731137</v>
       </c>
       <c r="F32" s="7">
-        <v>-14.443471598993106</v>
+        <v>-14.44347159899309</v>
       </c>
       <c r="G32" s="7">
-        <v>-19.169717768315216</v>
+        <v>-19.169717768315227</v>
       </c>
       <c r="H32" s="7">
-        <v>-8.0784423392875802</v>
+        <v>-8.0784423392875784</v>
       </c>
       <c r="I32" s="7">
-        <v>-7.4472331418203774</v>
+        <v>-7.4472331418203828</v>
       </c>
       <c r="J32" s="7">
-        <v>4.7420464866385972</v>
+        <v>4.7420464866385821</v>
       </c>
       <c r="K32" s="7">
-        <v>18.311679091231802</v>
+        <v>18.311679091231827</v>
       </c>
       <c r="L32" s="7">
-        <v>4.1311733089950327</v>
+        <v>4.1311733089950371</v>
       </c>
       <c r="M32" s="7">
-        <v>10.132256462531675</v>
+        <v>10.132256462531695</v>
       </c>
       <c r="N32" s="7">
-        <v>-0.39203712750364444</v>
+        <v>-0.39203712750366376</v>
       </c>
       <c r="O32" s="7">
-        <v>-8.2524213583610315</v>
+        <v>-8.2524213583610386</v>
       </c>
       <c r="P32" s="7">
-        <v>-9.1251049947046283</v>
+        <v>-9.125104994704623</v>
       </c>
       <c r="Q32" s="7">
-        <v>-10.632364633147795</v>
+        <v>-10.632364633147821</v>
       </c>
       <c r="R32" s="7">
-        <v>-10.185264655035017</v>
+        <v>-10.185264655034992</v>
       </c>
       <c r="S32" s="7">
-        <v>-1.9007129308653263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.9007129308653248</v>
+      </c>
+      <c r="T32" s="7">
+        <v>3.4667988372560461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>0.97453072392442475</v>
+        <v>0.97453072392443141</v>
       </c>
       <c r="C33" s="7">
-        <v>-1.4700878562891049</v>
+        <v>-1.4700878562890853</v>
       </c>
       <c r="D33" s="7">
-        <v>5.2022820677329558E-2</v>
+        <v>5.2022820677337753E-2</v>
       </c>
       <c r="E33" s="7">
-        <v>2.5922041601118577</v>
+        <v>2.5922041601118622</v>
       </c>
       <c r="F33" s="7">
-        <v>1.8889006193693676</v>
+        <v>1.8889006193693696</v>
       </c>
       <c r="G33" s="7">
-        <v>-2.2287353675598149</v>
+        <v>-2.228735367559818</v>
       </c>
       <c r="H33" s="7">
-        <v>5.642407750836278</v>
+        <v>5.6424077508362673</v>
       </c>
       <c r="I33" s="7">
-        <v>6.775935801543624</v>
+        <v>6.7759358015436417</v>
       </c>
       <c r="J33" s="7">
-        <v>18.638125912046338</v>
+        <v>18.638125912046327</v>
       </c>
       <c r="K33" s="7">
         <v>21.176087015586361</v>
       </c>
       <c r="L33" s="7">
-        <v>11.250563963742261</v>
+        <v>11.250563963742243</v>
       </c>
       <c r="M33" s="7">
-        <v>12.415031115366212</v>
+        <v>12.415031115366206</v>
       </c>
       <c r="N33" s="7">
-        <v>8.0897551602666713</v>
+        <v>8.0897551602666802</v>
       </c>
       <c r="O33" s="7">
-        <v>7.3266616342424218</v>
+        <v>7.3266616342424058</v>
       </c>
       <c r="P33" s="7">
-        <v>7.762129479427796</v>
+        <v>7.7621294794278075</v>
       </c>
       <c r="Q33" s="7">
-        <v>3.9843578115130454</v>
+        <v>3.9843578115130214</v>
       </c>
       <c r="R33" s="7">
-        <v>-3.296052144285591</v>
+        <v>-3.296052144285599</v>
       </c>
       <c r="S33" s="7">
-        <v>1.2075040737594209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.2075040737594349</v>
+      </c>
+      <c r="T33" s="7">
+        <v>2.6144908893100758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>3.9980897803247273</v>
+        <v>3.9980897803247162</v>
       </c>
       <c r="C34" s="7">
-        <v>2.5100216448115367</v>
+        <v>2.5100216448115553</v>
       </c>
       <c r="D34" s="7">
-        <v>3.6106554625072897</v>
+        <v>3.6106554625073026</v>
       </c>
       <c r="E34" s="7">
-        <v>-0.860484623431926</v>
+        <v>-0.86048462343194088</v>
       </c>
       <c r="F34" s="7">
-        <v>1.9626030894697302</v>
+        <v>1.962603089469722</v>
       </c>
       <c r="G34" s="7">
-        <v>-12.460587238313449</v>
+        <v>-12.460587238313458</v>
       </c>
       <c r="H34" s="7">
-        <v>1.808149169991957</v>
+        <v>1.8081491699919605</v>
       </c>
       <c r="I34" s="7">
-        <v>6.156478752733137</v>
+        <v>6.156478752733145</v>
       </c>
       <c r="J34" s="7">
-        <v>2.3013249506859075</v>
+        <v>2.3013249506859053</v>
       </c>
       <c r="K34" s="7">
-        <v>23.339426519420677</v>
+        <v>23.339426519420687</v>
       </c>
       <c r="L34" s="7">
-        <v>3.8339820304827139</v>
+        <v>3.8339820304827059</v>
       </c>
       <c r="M34" s="7">
-        <v>7.1507889599340926</v>
+        <v>7.1507889599340846</v>
       </c>
       <c r="N34" s="7">
-        <v>8.1459437567134412</v>
+        <v>8.1459437567134394</v>
       </c>
       <c r="O34" s="7">
-        <v>6.2377774464838405</v>
+        <v>6.2377774464838502</v>
       </c>
       <c r="P34" s="7">
-        <v>5.2469784550709484</v>
+        <v>5.2469784550709244</v>
       </c>
       <c r="Q34" s="7">
-        <v>0.79648310503047448</v>
+        <v>0.79648310503046782</v>
       </c>
       <c r="R34" s="7">
-        <v>-5.1949849385329383</v>
+        <v>-5.1949849385329312</v>
       </c>
       <c r="S34" s="7">
-        <v>-1.7161394703823563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.7161394703823734</v>
+      </c>
+      <c r="T34" s="7">
+        <v>2.8550981518003566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>0.62114872951347144</v>
+        <v>0.62114872951346656</v>
       </c>
       <c r="C35" s="7">
-        <v>1.7395120588880766</v>
+        <v>1.7395120588880675</v>
       </c>
       <c r="D35" s="7">
-        <v>0.92858118257544475</v>
+        <v>0.92858118257545352</v>
       </c>
       <c r="E35" s="7">
-        <v>0.269134567283625</v>
+        <v>0.26913456728363488</v>
       </c>
       <c r="F35" s="7">
-        <v>-1.4341744404360415</v>
+        <v>-1.4341744404360399</v>
       </c>
       <c r="G35" s="7">
-        <v>-11.552714652653865</v>
+        <v>-11.55271465265386</v>
       </c>
       <c r="H35" s="7">
-        <v>-1.3665268569882176</v>
+        <v>-1.3665268569882363</v>
       </c>
       <c r="I35" s="7">
         <v>7.8258613636136998</v>
       </c>
       <c r="J35" s="7">
-        <v>8.2545476304451935</v>
+        <v>8.2545476304452166</v>
       </c>
       <c r="K35" s="7">
-        <v>21.863707907512882</v>
+        <v>21.863707907512918</v>
       </c>
       <c r="L35" s="7">
-        <v>10.165588869292566</v>
+        <v>10.165588869292563</v>
       </c>
       <c r="M35" s="7">
-        <v>6.9201014232570186</v>
+        <v>6.9201014232570213</v>
       </c>
       <c r="N35" s="7">
-        <v>3.5910049839243197</v>
+        <v>3.5910049839242966</v>
       </c>
       <c r="O35" s="7">
-        <v>-0.31561809301182087</v>
+        <v>-0.3156180930118358</v>
       </c>
       <c r="P35" s="7">
-        <v>-8.6174234001867767</v>
+        <v>-8.6174234001867678</v>
       </c>
       <c r="Q35" s="7">
-        <v>-11.093993422191446</v>
+        <v>-11.093993422191447</v>
       </c>
       <c r="R35" s="7">
-        <v>-7.4257205616868571</v>
+        <v>-7.4257205616868482</v>
       </c>
       <c r="S35" s="7">
-        <v>-3.4499434285922814</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-3.4499434285922828</v>
+      </c>
+      <c r="T35" s="7">
+        <v>5.3208884044147711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>3.6293255974780507</v>
+        <v>3.6293255974780703</v>
       </c>
       <c r="C36" s="7">
-        <v>1.3897259855174999</v>
+        <v>1.3897259855174813</v>
       </c>
       <c r="D36" s="7">
-        <v>-0.47445070279595181</v>
+        <v>-0.47445070279593959</v>
       </c>
       <c r="E36" s="7">
-        <v>-3.756936459531075</v>
+        <v>-3.7569364595310661</v>
       </c>
       <c r="F36" s="7">
-        <v>1.8070096373847235</v>
+        <v>1.8070096373847284</v>
       </c>
       <c r="G36" s="7">
-        <v>-10.465737374433544</v>
+        <v>-10.465737374433541</v>
       </c>
       <c r="H36" s="7">
-        <v>-3.9326654260245997</v>
+        <v>-3.9326654260246019</v>
       </c>
       <c r="I36" s="7">
-        <v>1.2483875715312389</v>
+        <v>1.2483875715312354</v>
       </c>
       <c r="J36" s="7">
-        <v>-4.3747712162357599</v>
+        <v>-4.3747712162357812</v>
       </c>
       <c r="K36" s="7">
-        <v>6.2092257952774084</v>
+        <v>6.2092257952774048</v>
       </c>
       <c r="L36" s="7">
-        <v>-0.92965246388861811</v>
+        <v>-0.92965246388861922</v>
       </c>
       <c r="M36" s="7">
-        <v>0.16588143752511855</v>
+        <v>0.16588143752510226</v>
       </c>
       <c r="N36" s="7">
-        <v>-6.3206623341931736E-2</v>
+        <v>-6.320662334193787E-2</v>
       </c>
       <c r="O36" s="7">
-        <v>1.4269018563313707</v>
+        <v>1.4269018563313685</v>
       </c>
       <c r="P36" s="7">
-        <v>0.67409510544455997</v>
+        <v>0.67409510544455187</v>
       </c>
       <c r="Q36" s="7">
-        <v>-1.8148448503990822</v>
+        <v>-1.8148448503990764</v>
       </c>
       <c r="R36" s="7">
-        <v>-2.5948921690020508</v>
+        <v>-2.5948921690020259</v>
       </c>
       <c r="S36" s="7">
-        <v>-1.1781624595816109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.1781624595816085</v>
+      </c>
+      <c r="T36" s="7">
+        <v>1.1076917619305222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>11.068922330676118</v>
+        <v>11.068922330676109</v>
       </c>
       <c r="C37" s="7">
-        <v>16.618572540059315</v>
+        <v>16.61857254005929</v>
       </c>
       <c r="D37" s="7">
-        <v>18.343440576161036</v>
+        <v>18.343440576161044</v>
       </c>
       <c r="E37" s="7">
-        <v>11.896581897226662</v>
+        <v>11.89658189722663</v>
       </c>
       <c r="F37" s="7">
-        <v>1.0067834833813647</v>
+        <v>1.0067834833813751</v>
       </c>
       <c r="G37" s="7">
         <v>-14.411667834913983</v>
       </c>
       <c r="H37" s="7">
-        <v>-11.937562628821889</v>
+        <v>-11.937562628821892</v>
       </c>
       <c r="I37" s="7">
-        <v>-9.1879655924599994</v>
+        <v>-9.1879655924599835</v>
       </c>
       <c r="J37" s="7">
-        <v>-5.5560969991228788</v>
+        <v>-5.5560969991228797</v>
       </c>
       <c r="K37" s="7">
-        <v>5.2621711759714165</v>
+        <v>5.26217117597142</v>
       </c>
       <c r="L37" s="7">
-        <v>-3.8309249357041177</v>
+        <v>-3.8309249357041151</v>
       </c>
       <c r="M37" s="7">
-        <v>-1.5817191338161434</v>
+        <v>-1.5817191338161525</v>
       </c>
       <c r="N37" s="7">
-        <v>-0.77395024203534779</v>
+        <v>-0.77395024203535434</v>
       </c>
       <c r="O37" s="7">
-        <v>-3.7298812324824957</v>
+        <v>-3.7298812324824837</v>
       </c>
       <c r="P37" s="7">
-        <v>-0.45501332332879263</v>
+        <v>-0.4550133233287984</v>
       </c>
       <c r="Q37" s="7">
-        <v>-4.6841901674372393</v>
+        <v>-4.6841901674372224</v>
       </c>
       <c r="R37" s="7">
-        <v>-7.5748551115145046</v>
+        <v>-7.5748551115144904</v>
       </c>
       <c r="S37" s="7">
-        <v>-2.6981499513145133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.6981499513145115</v>
+      </c>
+      <c r="T37" s="7">
+        <v>-0.66099729416312325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>4.5417630429195635</v>
+        <v>4.5417630429195608</v>
       </c>
       <c r="C38" s="7">
-        <v>7.257225820402212</v>
+        <v>7.2572258204021942</v>
       </c>
       <c r="D38" s="7">
-        <v>9.5972420057389396</v>
+        <v>9.5972420057389485</v>
       </c>
       <c r="E38" s="7">
-        <v>4.6968890990405159</v>
+        <v>4.6968890990405257</v>
       </c>
       <c r="F38" s="7">
-        <v>0.46414207467573265</v>
+        <v>0.46414207467575119</v>
       </c>
       <c r="G38" s="7">
-        <v>-12.217155474487608</v>
+        <v>-12.217155474487601</v>
       </c>
       <c r="H38" s="7">
-        <v>-6.2073836880768525</v>
+        <v>-6.2073836880768614</v>
       </c>
       <c r="I38" s="7">
-        <v>-5.9586759752356953</v>
+        <v>-5.958675975235681</v>
       </c>
       <c r="J38" s="7">
-        <v>-1.1403122400039105</v>
+        <v>-1.1403122400039301</v>
       </c>
       <c r="K38" s="7">
-        <v>10.535985739126632</v>
+        <v>10.535985739126644</v>
       </c>
       <c r="L38" s="7">
-        <v>2.5083091506090023</v>
+        <v>2.5083091506090094</v>
       </c>
       <c r="M38" s="7">
-        <v>3.9860328767671862</v>
+        <v>3.9860328767671533</v>
       </c>
       <c r="N38" s="7">
-        <v>2.8990099009901065</v>
+        <v>2.8990099009900883</v>
       </c>
       <c r="O38" s="7">
-        <v>0.23250521900013874</v>
+        <v>0.23250521900013005</v>
       </c>
       <c r="P38" s="7">
-        <v>-2.3176310401912144</v>
+        <v>-2.3176310401912077</v>
       </c>
       <c r="Q38" s="7">
-        <v>-3.1173929358336823</v>
+        <v>-3.1173929358336703</v>
       </c>
       <c r="R38" s="7">
-        <v>-5.7559079362635872</v>
+        <v>-5.7559079362635464</v>
       </c>
       <c r="S38" s="7">
-        <v>-1.7599794685513492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.759979468551341</v>
+      </c>
+      <c r="T38" s="7">
+        <v>2.0537299064389694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>-6.3355757815591582</v>
+        <v>-6.3355757815591591</v>
       </c>
       <c r="C39" s="7">
-        <v>-6.7656165528087744</v>
+        <v>-6.7656165528087522</v>
       </c>
       <c r="D39" s="7">
-        <v>-4.1004592594068336</v>
+        <v>-4.1004592594068656</v>
       </c>
       <c r="E39" s="7">
-        <v>-2.9426564418412773</v>
+        <v>-2.9426564418412653</v>
       </c>
       <c r="F39" s="7">
-        <v>1.9540327010012981</v>
+        <v>1.9540327010013026</v>
       </c>
       <c r="G39" s="7">
-        <v>-7.6139670223084339</v>
+        <v>-7.613967022308449</v>
       </c>
       <c r="H39" s="7">
-        <v>-0.23788994733180588</v>
+        <v>-0.23788994733178681</v>
       </c>
       <c r="I39" s="7">
-        <v>-0.55681134775305408</v>
+        <v>-0.55681134775305274</v>
       </c>
       <c r="J39" s="7">
-        <v>-2.2791786668876757</v>
+        <v>-2.279178666887677</v>
       </c>
       <c r="K39" s="7">
-        <v>5.3588953554718763</v>
+        <v>5.3588953554718728</v>
       </c>
       <c r="L39" s="7">
-        <v>-4.7993418997438413</v>
+        <v>-4.7993418997438546</v>
       </c>
       <c r="M39" s="7">
-        <v>-0.21479589176788988</v>
+        <v>-0.21479589176789132</v>
       </c>
       <c r="N39" s="7">
-        <v>1.1163411996692418</v>
+        <v>1.1163411996692423</v>
       </c>
       <c r="O39" s="7">
-        <v>2.7413729610293842</v>
+        <v>2.741372961029398</v>
       </c>
       <c r="P39" s="7">
-        <v>4.0568772217664861</v>
+        <v>4.0568772217664808</v>
       </c>
       <c r="Q39" s="7">
-        <v>2.612357495899682E-2</v>
+        <v>2.612357495898741E-2</v>
       </c>
       <c r="R39" s="7">
-        <v>-1.7551033246311978</v>
+        <v>-1.7551033246312122</v>
       </c>
       <c r="S39" s="7">
-        <v>0.4448801880725744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.44488018807257623</v>
+      </c>
+      <c r="T39" s="7">
+        <v>2.3808522715327909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>3.2566083941267912</v>
+        <v>3.2566083941268094</v>
       </c>
       <c r="C40" s="7">
-        <v>11.769444772656493</v>
+        <v>11.769444772656508</v>
       </c>
       <c r="D40" s="7">
-        <v>15.35890428856059</v>
+        <v>15.358904288560574</v>
       </c>
       <c r="E40" s="7">
-        <v>13.501224204267217</v>
+        <v>13.501224204267215</v>
       </c>
       <c r="F40" s="7">
-        <v>5.5115991709183687</v>
+        <v>5.5115991709183527</v>
       </c>
       <c r="G40" s="7">
-        <v>-7.5835623810713795</v>
+        <v>-7.5835623810713875</v>
       </c>
       <c r="H40" s="7">
-        <v>1.1778474083581796</v>
+        <v>1.1778474083581729</v>
       </c>
       <c r="I40" s="7">
-        <v>2.6147452957942845E-2</v>
+        <v>2.6147452957945506E-2</v>
       </c>
       <c r="J40" s="7">
-        <v>3.7616992340602233</v>
+        <v>3.7616992340602313</v>
       </c>
       <c r="K40" s="7">
-        <v>10.689142393644143</v>
+        <v>10.689142393644122</v>
       </c>
       <c r="L40" s="7">
-        <v>-0.71359277638894913</v>
+        <v>-0.71359277638893548</v>
       </c>
       <c r="M40" s="7">
-        <v>4.7081119938756357</v>
+        <v>4.7081119938756251</v>
       </c>
       <c r="N40" s="7">
-        <v>3.3185880982287639</v>
+        <v>3.3185880982287617</v>
       </c>
       <c r="O40" s="7">
-        <v>7.6915127487270096</v>
+        <v>7.6915127487270283</v>
       </c>
       <c r="P40" s="7">
-        <v>12.73593325754659</v>
+        <v>12.735933257546577</v>
       </c>
       <c r="Q40" s="7">
-        <v>7.51275009807767</v>
+        <v>7.512750098077678</v>
       </c>
       <c r="R40" s="7">
-        <v>7.4291704841778801</v>
+        <v>7.4291704841778836</v>
       </c>
       <c r="S40" s="7">
-        <v>6.966823404199622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>6.9668234041996291</v>
+      </c>
+      <c r="T40" s="7">
+        <v>4.5460227509479632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>-0.96427723712321411</v>
+        <v>-0.96427723712319913</v>
       </c>
       <c r="C41" s="7">
-        <v>0.42617869702569083</v>
+        <v>0.42617869702568517</v>
       </c>
       <c r="D41" s="7">
-        <v>1.5123062170369206</v>
+        <v>1.5123062170369213</v>
       </c>
       <c r="E41" s="7">
-        <v>-2.3376547193054487</v>
+        <v>-2.3376547193054389</v>
       </c>
       <c r="F41" s="7">
-        <v>-3.9425986398633723</v>
+        <v>-3.9425986398633914</v>
       </c>
       <c r="G41" s="7">
-        <v>-17.487214489915026</v>
+        <v>-17.487214489915029</v>
       </c>
       <c r="H41" s="7">
-        <v>-4.3374726939956281</v>
+        <v>-4.3374726939956236</v>
       </c>
       <c r="I41" s="7">
-        <v>-0.77184130702467124</v>
+        <v>-0.77184130702466613</v>
       </c>
       <c r="J41" s="7">
-        <v>2.2788468535903319</v>
+        <v>2.2788468535903381</v>
       </c>
       <c r="K41" s="7">
-        <v>20.223466366153961</v>
+        <v>20.223466366153936</v>
       </c>
       <c r="L41" s="7">
-        <v>3.2247114731839517</v>
+        <v>3.2247114731839597</v>
       </c>
       <c r="M41" s="7">
-        <v>5.5074656981436663</v>
+        <v>5.5074656981436725</v>
       </c>
       <c r="N41" s="7">
-        <v>5.6281192506683118</v>
+        <v>5.6281192506683331</v>
       </c>
       <c r="O41" s="7">
-        <v>-7.2794718892740834E-2</v>
+        <v>-7.2794718892706875E-2</v>
       </c>
       <c r="P41" s="7">
-        <v>-0.70351658644980586</v>
+        <v>-0.70351658644981163</v>
       </c>
       <c r="Q41" s="7">
-        <v>-4.7131833350863941</v>
+        <v>-4.7131833350863843</v>
       </c>
       <c r="R41" s="7">
-        <v>-7.1806616755518649</v>
+        <v>-7.1806616755518906</v>
       </c>
       <c r="S41" s="7">
-        <v>-1.6804877805386569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.680487780538662</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0.47868977490540093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>6.4764775334287021</v>
+        <v>6.476477533428695</v>
       </c>
       <c r="C42" s="7">
-        <v>4.1815773901772335</v>
+        <v>4.1815773901772362</v>
       </c>
       <c r="D42" s="7">
         <v>5.282575884621826</v>
       </c>
       <c r="E42" s="7">
-        <v>0.51616285796932804</v>
+        <v>0.5161628579693317</v>
       </c>
       <c r="F42" s="7">
-        <v>-8.4805812989073814</v>
+        <v>-8.480581298907369</v>
       </c>
       <c r="G42" s="7">
-        <v>-16.703179797870519</v>
+        <v>-16.703179797870529</v>
       </c>
       <c r="H42" s="7">
-        <v>-13.495982443099363</v>
+        <v>-13.495982443099349</v>
       </c>
       <c r="I42" s="7">
-        <v>-12.512253248797151</v>
+        <v>-12.512253248797149</v>
       </c>
       <c r="J42" s="7">
-        <v>-9.51072234207078</v>
+        <v>-9.5107223420707854</v>
       </c>
       <c r="K42" s="7">
-        <v>2.7480734262706799</v>
+        <v>2.748073426270691</v>
       </c>
       <c r="L42" s="7">
-        <v>-5.9097930498296645</v>
+        <v>-5.9097930498296813</v>
       </c>
       <c r="M42" s="7">
-        <v>-3.5381673896506975</v>
+        <v>-3.5381673896507047</v>
       </c>
       <c r="N42" s="7">
-        <v>4.8224510679062123</v>
+        <v>4.822451067906214</v>
       </c>
       <c r="O42" s="7">
-        <v>-0.85957168891090197</v>
+        <v>-0.85957168891089963</v>
       </c>
       <c r="P42" s="7">
-        <v>4.4239801687396829</v>
+        <v>4.4239801687396803</v>
       </c>
       <c r="Q42" s="7">
-        <v>4.7698209718669933</v>
+        <v>4.7698209718670181</v>
       </c>
       <c r="R42" s="7">
-        <v>-0.94296514767580997</v>
+        <v>-0.94296514767581596</v>
       </c>
       <c r="S42" s="7">
-        <v>2.6382617011103568</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.638261701110344</v>
+      </c>
+      <c r="T42" s="7">
+        <v>3.4921130719974958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>-3.9192538099791232</v>
+        <v>-3.9192538099791276</v>
       </c>
       <c r="C43" s="7">
-        <v>-4.2118691934635688</v>
+        <v>-4.2118691934635857</v>
       </c>
       <c r="D43" s="7">
-        <v>-1.8434707970816473</v>
+        <v>-1.8434707970816704</v>
       </c>
       <c r="E43" s="7">
-        <v>2.7906746522793595</v>
+        <v>2.7906746522793671</v>
       </c>
       <c r="F43" s="7">
-        <v>6.4431288524224053</v>
+        <v>6.4431288524223955</v>
       </c>
       <c r="G43" s="7">
-        <v>1.4507782556094149</v>
+        <v>1.4507782556094406</v>
       </c>
       <c r="H43" s="7">
-        <v>6.0744877476797097</v>
+        <v>6.0744877476797274</v>
       </c>
       <c r="I43" s="7">
-        <v>-0.63274072076583987</v>
+        <v>-0.63274072076582322</v>
       </c>
       <c r="J43" s="7">
-        <v>1.1343038675087049</v>
+        <v>1.1343038675087238</v>
       </c>
       <c r="K43" s="7">
-        <v>1.8599430793282006</v>
+        <v>1.8599430793281695</v>
       </c>
       <c r="L43" s="7">
-        <v>-6.4873017508688724</v>
+        <v>-6.4873017508688946</v>
       </c>
       <c r="M43" s="7">
-        <v>2.2030103608362479</v>
+        <v>2.2030103608362364</v>
       </c>
       <c r="N43" s="7">
-        <v>-1.0602673307486892</v>
+        <v>-1.0602673307486852</v>
       </c>
       <c r="O43" s="7">
-        <v>1.8722206918263549</v>
+        <v>1.8722206918263717</v>
       </c>
       <c r="P43" s="7">
-        <v>6.1960289314980708</v>
+        <v>6.1960289314980939</v>
       </c>
       <c r="Q43" s="7">
-        <v>-0.11190137505929439</v>
+        <v>-0.11190137505929793</v>
       </c>
       <c r="R43" s="7">
-        <v>-7.180108116353793</v>
+        <v>-7.1801081163538134</v>
       </c>
       <c r="S43" s="7">
-        <v>-5.2072971694013255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-5.2072971694013432</v>
+      </c>
+      <c r="T43" s="7">
+        <v>-6.3514673559293362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>-6.7898294435383907E-2</v>
+        <v>-6.7898294435400491E-2</v>
       </c>
       <c r="C44" s="7">
-        <v>2.4253998080104555</v>
+        <v>2.4253998080104657</v>
       </c>
       <c r="D44" s="7">
-        <v>5.0480596616846123</v>
+        <v>5.0480596616845785</v>
       </c>
       <c r="E44" s="7">
-        <v>4.1813474133116522</v>
+        <v>4.1813474133116681</v>
       </c>
       <c r="F44" s="7">
-        <v>2.1143900212959967</v>
+        <v>2.1143900212960309</v>
       </c>
       <c r="G44" s="7">
-        <v>-11.193754548989508</v>
+        <v>-11.193754548989498</v>
       </c>
       <c r="H44" s="7">
-        <v>-4.8298894574430742</v>
+        <v>-4.8298894574430475</v>
       </c>
       <c r="I44" s="7">
-        <v>-2.2640663528356746</v>
+        <v>-2.2640663528356724</v>
       </c>
       <c r="J44" s="7">
-        <v>-4.4878097224291045</v>
+        <v>-4.4878097224291302</v>
       </c>
       <c r="K44" s="7">
-        <v>7.5412596833951051</v>
+        <v>7.5412596833950829</v>
       </c>
       <c r="L44" s="7">
-        <v>-0.78187526934680707</v>
+        <v>-0.78187526934680829</v>
       </c>
       <c r="M44" s="7">
-        <v>-0.21140805743916197</v>
+        <v>-0.2114080574391799</v>
       </c>
       <c r="N44" s="7">
-        <v>3.6391615371818404</v>
+        <v>3.6391615371818471</v>
       </c>
       <c r="O44" s="7">
-        <v>1.6787246703623506</v>
+        <v>1.6787246703623673</v>
       </c>
       <c r="P44" s="7">
-        <v>1.1603375527426159</v>
+        <v>1.1603375527426247</v>
       </c>
       <c r="Q44" s="7">
-        <v>-0.77747131950273152</v>
+        <v>-0.77747131950273363</v>
       </c>
       <c r="R44" s="7">
-        <v>-3.5695653918696806</v>
+        <v>-3.5695653918696744</v>
       </c>
       <c r="S44" s="7">
-        <v>0.46716977257559167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.46716977257558012</v>
+      </c>
+      <c r="T44" s="7">
+        <v>2.4862499744423312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>-4.6191758840048101</v>
+        <v>-4.6191758840048083</v>
       </c>
       <c r="C45" s="7">
-        <v>-7.1698827090427582</v>
+        <v>-7.1698827090427448</v>
       </c>
       <c r="D45" s="7">
-        <v>-4.6733355669363013</v>
+        <v>-4.6733355669362915</v>
       </c>
       <c r="E45" s="7">
-        <v>-1.2588235294117682</v>
+        <v>-1.2588235294117587</v>
       </c>
       <c r="F45" s="7">
-        <v>2.4965450940335301</v>
+        <v>2.4965450940335119</v>
       </c>
       <c r="G45" s="7">
-        <v>-1.9054412064397723</v>
+        <v>-1.9054412064397828</v>
       </c>
       <c r="H45" s="7">
-        <v>6.5955032485464429</v>
+        <v>6.5955032485464251</v>
       </c>
       <c r="I45" s="7">
-        <v>5.9692600977004684</v>
+        <v>5.9692600977004542</v>
       </c>
       <c r="J45" s="7">
-        <v>1.3551406434719642</v>
+        <v>1.3551406434719773</v>
       </c>
       <c r="K45" s="7">
-        <v>10.287732419237566</v>
+        <v>10.287732419237569</v>
       </c>
       <c r="L45" s="7">
-        <v>-0.12906143135722264</v>
+        <v>-0.12906143135721612</v>
       </c>
       <c r="M45" s="7">
-        <v>4.4871074132373936</v>
+        <v>4.4871074132373998</v>
       </c>
       <c r="N45" s="7">
-        <v>4.7263297923615477</v>
+        <v>4.7263297923615353</v>
       </c>
       <c r="O45" s="7">
-        <v>1.3609734963361966</v>
+        <v>1.3609734963361919</v>
       </c>
       <c r="P45" s="7">
-        <v>1.7922161223989417</v>
+        <v>1.7922161223989419</v>
       </c>
       <c r="Q45" s="7">
-        <v>-2.4390900042146102</v>
+        <v>-2.4390900042146182</v>
       </c>
       <c r="R45" s="7">
-        <v>-3.0991982768936381</v>
+        <v>-3.0991982768936159</v>
       </c>
       <c r="S45" s="7">
-        <v>-0.58818610096729695</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.5881861009672924</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0.92017717812331523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>5.5493442479510664</v>
+        <v>5.5493442479510673</v>
       </c>
       <c r="C46" s="7">
-        <v>6.4361107057736158</v>
+        <v>6.436110705773638</v>
       </c>
       <c r="D46" s="7">
-        <v>6.4112174681889647</v>
+        <v>6.4112174681889869</v>
       </c>
       <c r="E46" s="7">
-        <v>2.6559558645369323</v>
+        <v>2.6559558645369417</v>
       </c>
       <c r="F46" s="7">
-        <v>-4.0518758001970969</v>
+        <v>-4.051875800197088</v>
       </c>
       <c r="G46" s="7">
-        <v>-16.240597380519318</v>
+        <v>-16.240597380519336</v>
       </c>
       <c r="H46" s="7">
-        <v>-5.9526927557959821</v>
+        <v>-5.9526927557959937</v>
       </c>
       <c r="I46" s="7">
-        <v>-7.1117324521587655</v>
+        <v>-7.1117324521587566</v>
       </c>
       <c r="J46" s="7">
-        <v>-2.3644497350433911</v>
+        <v>-2.3644497350433973</v>
       </c>
       <c r="K46" s="7">
-        <v>10.113266842714038</v>
+        <v>10.113266842714049</v>
       </c>
       <c r="L46" s="7">
-        <v>-4.1994775861406701</v>
+        <v>-4.199477586140679</v>
       </c>
       <c r="M46" s="7">
-        <v>0.79259592267546042</v>
+        <v>0.79259592267546641</v>
       </c>
       <c r="N46" s="7">
-        <v>2.3912295364043037</v>
+        <v>2.3912295364043143</v>
       </c>
       <c r="O46" s="7">
-        <v>2.9541175304726992</v>
+        <v>2.9541175304727045</v>
       </c>
       <c r="P46" s="7">
-        <v>3.7991559658777634</v>
+        <v>3.7991559658777798</v>
       </c>
       <c r="Q46" s="7">
-        <v>0.13865591032937652</v>
+        <v>0.13865591032938304</v>
       </c>
       <c r="R46" s="7">
-        <v>-0.37162583903895974</v>
+        <v>-0.37162583903896196</v>
       </c>
       <c r="S46" s="7">
-        <v>1.9048810772829206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.9048810772829097</v>
+      </c>
+      <c r="T46" s="7">
+        <v>4.4761417300022082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>-9.0013465879836705</v>
+        <v>-9.0013465879836669</v>
       </c>
       <c r="C47" s="7">
-        <v>-13.234138627254012</v>
+        <v>-13.234138627254026</v>
       </c>
       <c r="D47" s="7">
-        <v>-12.407680945347101</v>
+        <v>-12.407680945347122</v>
       </c>
       <c r="E47" s="7">
-        <v>-6.3039880412151126</v>
+        <v>-6.3039880412151081</v>
       </c>
       <c r="F47" s="7">
-        <v>-1.3883901855176664</v>
+        <v>-1.3883901855176575</v>
       </c>
       <c r="G47" s="7">
-        <v>0.49864163141786433</v>
+        <v>0.49864163141785672</v>
       </c>
       <c r="H47" s="7">
-        <v>12.791933285592169</v>
+        <v>12.791933285592185</v>
       </c>
       <c r="I47" s="7">
-        <v>13.076774053856946</v>
+        <v>13.076774053856937</v>
       </c>
       <c r="J47" s="7">
-        <v>12.598616336934088</v>
+        <v>12.598616336934072</v>
       </c>
       <c r="K47" s="7">
-        <v>14.944337987042596</v>
+        <v>14.94433798704263</v>
       </c>
       <c r="L47" s="7">
-        <v>1.0240340798490977E-3</v>
+        <v>1.024034079853601E-3</v>
       </c>
       <c r="M47" s="7">
-        <v>2.8430048575978017</v>
+        <v>2.8430048575977995</v>
       </c>
       <c r="N47" s="7">
-        <v>0.45567238625338607</v>
+        <v>0.45567238625340595</v>
       </c>
       <c r="O47" s="7">
-        <v>0.23021811181457158</v>
+        <v>0.23021811181456214</v>
       </c>
       <c r="P47" s="7">
-        <v>8.2106211727118161</v>
+        <v>8.2106211727118055</v>
       </c>
       <c r="Q47" s="7">
-        <v>2.3175595558909228</v>
+        <v>2.3175595558909388</v>
       </c>
       <c r="R47" s="7">
-        <v>-0.81844076791008302</v>
+        <v>-0.81844076791009013</v>
       </c>
       <c r="S47" s="7">
-        <v>1.6286161218145383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.6286161218145472</v>
+      </c>
+      <c r="T47" s="7">
+        <v>-0.74759633583161567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>-2.7696793002915405</v>
+        <v>-2.7696793002915481</v>
       </c>
       <c r="C48" s="7">
-        <v>-1.9767335720153649</v>
+        <v>-1.9767335720153747</v>
       </c>
       <c r="D48" s="7">
-        <v>0.88780447797916373</v>
+        <v>0.88780447797916795</v>
       </c>
       <c r="E48" s="7">
-        <v>2.727564003183375</v>
+        <v>2.727564003183363</v>
       </c>
       <c r="F48" s="7">
-        <v>4.3467921211807843</v>
+        <v>4.3467921211807852</v>
       </c>
       <c r="G48" s="7">
-        <v>-11.278039897359481</v>
+        <v>-11.278039897359477</v>
       </c>
       <c r="H48" s="7">
-        <v>3.6439386241235567</v>
+        <v>3.6439386241235652</v>
       </c>
       <c r="I48" s="7">
-        <v>4.2609063103670328</v>
+        <v>4.2609063103670319</v>
       </c>
       <c r="J48" s="7">
-        <v>0.16250656467066893</v>
+        <v>0.16250656467067878</v>
       </c>
       <c r="K48" s="7">
-        <v>15.928068293138045</v>
+        <v>15.928068293138031</v>
       </c>
       <c r="L48" s="7">
-        <v>-2.7324600964743646</v>
+        <v>-2.7324600964743659</v>
       </c>
       <c r="M48" s="7">
-        <v>0.15150491667230429</v>
+        <v>0.15150491667229984</v>
       </c>
       <c r="N48" s="7">
         <v>6.8785057823768598</v>
       </c>
       <c r="O48" s="7">
-        <v>6.8688006760155211</v>
+        <v>6.8688006760155202</v>
       </c>
       <c r="P48" s="7">
-        <v>9.399348849398752</v>
+        <v>9.3993488493987467</v>
       </c>
       <c r="Q48" s="7">
-        <v>5.5933477221922301</v>
+        <v>5.5933477221922416</v>
       </c>
       <c r="R48" s="7">
-        <v>-1.4069384279314221</v>
+        <v>-1.4069384279314179</v>
       </c>
       <c r="S48" s="7">
-        <v>1.8628687614134736</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.8628687614134858</v>
+      </c>
+      <c r="T48" s="7">
+        <v>1.9053937015128914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>-3.6646247672504524</v>
+        <v>-3.6646247672504701</v>
       </c>
       <c r="C49" s="7">
-        <v>-7.011904655904698</v>
+        <v>-7.0119046559046971</v>
       </c>
       <c r="D49" s="7">
-        <v>-7.2307185292729033</v>
+        <v>-7.2307185292729166</v>
       </c>
       <c r="E49" s="7">
-        <v>-9.2184888221465471</v>
+        <v>-9.21848882214654</v>
       </c>
       <c r="F49" s="7">
-        <v>-9.7575095474196374</v>
+        <v>-9.7575095474196036</v>
       </c>
       <c r="G49" s="7">
-        <v>-15.558151559836817</v>
+        <v>-15.558151559836828</v>
       </c>
       <c r="H49" s="7">
-        <v>-8.1812333778191757</v>
+        <v>-8.1812333778191686</v>
       </c>
       <c r="I49" s="7">
-        <v>-2.4419062623080046</v>
+        <v>-2.4419062623079908</v>
       </c>
       <c r="J49" s="7">
-        <v>3.6524672260908297</v>
+        <v>3.6524672260908049</v>
       </c>
       <c r="K49" s="7">
-        <v>15.723584242396763</v>
+        <v>15.723584242396761</v>
       </c>
       <c r="L49" s="7">
-        <v>9.173707545591423</v>
+        <v>9.1737075455914212</v>
       </c>
       <c r="M49" s="7">
-        <v>9.7587807832054914</v>
+        <v>9.7587807832054949</v>
       </c>
       <c r="N49" s="7">
-        <v>6.1730736596224727</v>
+        <v>6.1730736596224736</v>
       </c>
       <c r="O49" s="7">
-        <v>2.1890800768235694</v>
+        <v>2.1890800768235641</v>
       </c>
       <c r="P49" s="7">
-        <v>0.46836837316222002</v>
+        <v>0.46836837316222685</v>
       </c>
       <c r="Q49" s="7">
-        <v>-1.515416233712481</v>
+        <v>-1.5154162337124994</v>
       </c>
       <c r="R49" s="7">
-        <v>-0.89976589163322718</v>
+        <v>-0.89976589163321352</v>
       </c>
       <c r="S49" s="7">
-        <v>2.655198204936426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.6551982049364264</v>
+      </c>
+      <c r="T49" s="7">
+        <v>6.0051099204911447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>8.9576718063144192</v>
+        <v>8.9576718063144352</v>
       </c>
       <c r="C50" s="7">
-        <v>6.4088613598950914</v>
+        <v>6.4088613598950985</v>
       </c>
       <c r="D50" s="7">
-        <v>4.7199536425040289</v>
+        <v>4.7199536425040547</v>
       </c>
       <c r="E50" s="7">
-        <v>4.0461245754725352</v>
+        <v>4.0461245754725326</v>
       </c>
       <c r="F50" s="7">
-        <v>-0.91191528464533311</v>
+        <v>-0.9119152846453451</v>
       </c>
       <c r="G50" s="7">
-        <v>-5.7318160364990334</v>
+        <v>-5.731816036499028</v>
       </c>
       <c r="H50" s="7">
-        <v>-0.18416206261510537</v>
+        <v>-0.18416206261511017</v>
       </c>
       <c r="I50" s="7">
-        <v>3.0829965222295326</v>
+        <v>3.0829965222295406</v>
       </c>
       <c r="J50" s="7">
-        <v>10.002384674491928</v>
+        <v>10.002384674491942</v>
       </c>
       <c r="K50" s="7">
-        <v>16.626798694555713</v>
+        <v>16.626798694555703</v>
       </c>
       <c r="L50" s="7">
-        <v>10.536527900490269</v>
+        <v>10.536527900490267</v>
       </c>
       <c r="M50" s="7">
-        <v>11.080348483466922</v>
+        <v>11.080348483466917</v>
       </c>
       <c r="N50" s="7">
-        <v>4.5540675081093323</v>
+        <v>4.554067508109318</v>
       </c>
       <c r="O50" s="7">
-        <v>1.224272392657531</v>
+        <v>1.2242723926575418</v>
       </c>
       <c r="P50" s="7">
-        <v>-0.3440169265731387</v>
+        <v>-0.34401692657315569</v>
       </c>
       <c r="Q50" s="7">
-        <v>-5.4558072893346354</v>
+        <v>-5.4558072893346408</v>
       </c>
       <c r="R50" s="7">
-        <v>-3.3543234526186501</v>
+        <v>-3.3543234526186416</v>
       </c>
       <c r="S50" s="7">
-        <v>1.2345969889027866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.2345969889027739</v>
+      </c>
+      <c r="T50" s="7">
+        <v>2.819038931831948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>0.64850843060962071</v>
+        <v>0.64850843060960406</v>
       </c>
       <c r="C51" s="7">
-        <v>-7.9263977353149215</v>
+        <v>-7.9263977353149437</v>
       </c>
       <c r="D51" s="7">
-        <v>0.51998700032499712</v>
+        <v>0.51998700032499801</v>
       </c>
       <c r="E51" s="7">
-        <v>-1.1058030871129161</v>
+        <v>-1.1058030871129021</v>
       </c>
       <c r="F51" s="7">
-        <v>-2.7186874903831355</v>
+        <v>-2.7186874903831457</v>
       </c>
       <c r="G51" s="7">
-        <v>-4.5076661677252465</v>
+        <v>-4.5076661677252323</v>
       </c>
       <c r="H51" s="7">
-        <v>-0.47735874175082632</v>
+        <v>-0.47735874175082033</v>
       </c>
       <c r="I51" s="7">
-        <v>2.786759045419553</v>
+        <v>2.7867590454195508</v>
       </c>
       <c r="J51" s="7">
-        <v>10.386824441215129</v>
+        <v>10.386824441215143</v>
       </c>
       <c r="K51" s="7">
-        <v>12.384159967803102</v>
+        <v>12.384159967803086</v>
       </c>
       <c r="L51" s="7">
-        <v>1.324288171221095</v>
+        <v>1.3242881712210968</v>
       </c>
       <c r="M51" s="7">
-        <v>0.78546285200719967</v>
+        <v>0.78546285200718058</v>
       </c>
       <c r="N51" s="7">
-        <v>-4.1356211491617687</v>
+        <v>-4.1356211491617607</v>
       </c>
       <c r="O51" s="7">
-        <v>0.32135856453558115</v>
+        <v>0.32135856453559447</v>
       </c>
       <c r="P51" s="7">
-        <v>-1.9510401146672296</v>
+        <v>-1.9510401146672152</v>
       </c>
       <c r="Q51" s="7">
-        <v>-3.5316520365984005</v>
+        <v>-3.5316520365983917</v>
       </c>
       <c r="R51" s="7">
-        <v>-6.2309661267118717</v>
+        <v>-6.2309661267118832</v>
       </c>
       <c r="S51" s="7">
-        <v>-4.5691525837693652</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-4.5691525837693696</v>
+      </c>
+      <c r="T51" s="7">
+        <v>-0.45971705280976505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>-3.0930497240739636</v>
+        <v>-3.0930497240739672</v>
       </c>
       <c r="C52" s="7">
-        <v>-3.5927973643352011</v>
+        <v>-3.5927973643352158</v>
       </c>
       <c r="D52" s="7">
-        <v>-0.6578256427882736</v>
+        <v>-0.65782564278827715</v>
       </c>
       <c r="E52" s="7">
-        <v>-3.272348089866338</v>
+        <v>-3.2723480898663335</v>
       </c>
       <c r="F52" s="7">
-        <v>-0.38688155700088017</v>
+        <v>-0.3868815570008815</v>
       </c>
       <c r="G52" s="7">
-        <v>-8.3911894965286304</v>
+        <v>-8.3911894965286198</v>
       </c>
       <c r="H52" s="7">
-        <v>-1.4473810667948079</v>
+        <v>-1.4473810667948082</v>
       </c>
       <c r="I52" s="7">
-        <v>3.5731786197299109</v>
+        <v>3.5731786197299154</v>
       </c>
       <c r="J52" s="7">
-        <v>1.9656993391525084</v>
+        <v>1.9656993391525117</v>
       </c>
       <c r="K52" s="7">
-        <v>9.4588800274418983</v>
+        <v>9.4588800274418965</v>
       </c>
       <c r="L52" s="7">
-        <v>-0.88547355281635942</v>
+        <v>-0.88547355281634288</v>
       </c>
       <c r="M52" s="7">
-        <v>1.6662881798569187</v>
+        <v>1.6662881798569302</v>
       </c>
       <c r="N52" s="7">
-        <v>3.6671039207112357</v>
+        <v>3.6671039207112481</v>
       </c>
       <c r="O52" s="7">
-        <v>4.3403321842682434</v>
+        <v>4.3403321842682567</v>
       </c>
       <c r="P52" s="7">
-        <v>6.4455507890904755</v>
+        <v>6.4455507890904764</v>
       </c>
       <c r="Q52" s="7">
-        <v>0.40951184326865359</v>
+        <v>0.40951184326864859</v>
       </c>
       <c r="R52" s="7">
-        <v>-2.2795227249294401</v>
+        <v>-2.2795227249294614</v>
       </c>
       <c r="S52" s="7">
-        <v>-0.33319567502627884</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.333195675026289</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0.47695194431863586</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>10.181690168391015</v>
+        <v>10.181690168390995</v>
       </c>
       <c r="C53" s="7">
-        <v>6.1732763280750822</v>
+        <v>6.173276328075068</v>
       </c>
       <c r="D53" s="7">
-        <v>4.5029537185556023</v>
+        <v>4.5029537185556237</v>
       </c>
       <c r="E53" s="7">
-        <v>-3.2373932044753353</v>
+        <v>-3.2373932044753211</v>
       </c>
       <c r="F53" s="7">
-        <v>-20.083604025773475</v>
+        <v>-20.083604025773468</v>
       </c>
       <c r="G53" s="7">
-        <v>-22.112269268509436</v>
+        <v>-22.112269268509422</v>
       </c>
       <c r="H53" s="7">
-        <v>-19.597933513027847</v>
+        <v>-19.597933513027858</v>
       </c>
       <c r="I53" s="7">
-        <v>-14.258991829574407</v>
+        <v>-14.258991829574423</v>
       </c>
       <c r="J53" s="7">
-        <v>-7.2907990449219868</v>
+        <v>-7.2907990449219842</v>
       </c>
       <c r="K53" s="7">
-        <v>6.0507018148540093</v>
+        <v>6.0507018148540181</v>
       </c>
       <c r="L53" s="7">
-        <v>4.5257717558318191</v>
+        <v>4.5257717558318085</v>
       </c>
       <c r="M53" s="7">
-        <v>2.2946928163680407</v>
+        <v>2.2946928163680593</v>
       </c>
       <c r="N53" s="7">
-        <v>2.0507906085289744</v>
+        <v>2.0507906085289793</v>
       </c>
       <c r="O53" s="7">
-        <v>-1.6384624005379398</v>
+        <v>-1.63846240053795</v>
       </c>
       <c r="P53" s="7">
-        <v>-2.2250434317786887</v>
+        <v>-2.2250434317786953</v>
       </c>
       <c r="Q53" s="7">
-        <v>-0.60997845184817312</v>
+        <v>-0.60997845184819499</v>
       </c>
       <c r="R53" s="7">
-        <v>1.5999154850220867</v>
+        <v>1.5999154850220805</v>
       </c>
       <c r="S53" s="7">
-        <v>-2.0497219943487486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.0497219943487495</v>
+      </c>
+      <c r="T53" s="7">
+        <v>-0.14806715414928651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>-11.080538620280235</v>
+        <v>-11.08053862028024</v>
       </c>
       <c r="C54" s="7">
-        <v>-10.93599166563124</v>
+        <v>-10.935991665631256</v>
       </c>
       <c r="D54" s="7">
-        <v>-7.4628491094676797</v>
+        <v>-7.4628491094676637</v>
       </c>
       <c r="E54" s="7">
-        <v>-5.8811259659508339</v>
+        <v>-5.8811259659508579</v>
       </c>
       <c r="F54" s="7">
-        <v>-0.47263787037430199</v>
+        <v>-0.47263787037429811</v>
       </c>
       <c r="G54" s="7">
-        <v>-6.4012448355421929</v>
+        <v>-6.401244835542192</v>
       </c>
       <c r="H54" s="7">
-        <v>3.590495244412605</v>
+        <v>3.5904952444125988</v>
       </c>
       <c r="I54" s="7">
-        <v>4.2498179554017019</v>
+        <v>4.249817955401733</v>
       </c>
       <c r="J54" s="7">
-        <v>2.5277369620307142</v>
+        <v>2.5277369620307004</v>
       </c>
       <c r="K54" s="7">
-        <v>7.5945883971566044</v>
+        <v>7.5945883971566106</v>
       </c>
       <c r="L54" s="7">
-        <v>-2.0914020139426914</v>
+        <v>-2.0914020139426874</v>
       </c>
       <c r="M54" s="7">
-        <v>-2.6279559442824785</v>
+        <v>-2.6279559442824767</v>
       </c>
       <c r="N54" s="7">
-        <v>-0.78926598263616266</v>
+        <v>-0.78926598263613901</v>
       </c>
       <c r="O54" s="7">
-        <v>-0.82796982225822591</v>
+        <v>-0.82796982225822902</v>
       </c>
       <c r="P54" s="7">
-        <v>-0.32383966244725176</v>
+        <v>-0.32383966244726126</v>
       </c>
       <c r="Q54" s="7">
-        <v>-1.9898532041418819</v>
+        <v>-1.9898532041418915</v>
       </c>
       <c r="R54" s="7">
-        <v>-4.1022903320353397</v>
+        <v>-4.1022903320353503</v>
       </c>
       <c r="S54" s="7">
-        <v>0.41045698260394042</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.4104569826039498</v>
+      </c>
+      <c r="T54" s="7">
+        <v>1.1831564242853998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>1.9268244183734506</v>
+        <v>1.9268244183734382</v>
       </c>
       <c r="C55" s="7">
-        <v>2.9514866052473026</v>
+        <v>2.9514866052473185</v>
       </c>
       <c r="D55" s="7">
-        <v>2.7205130222676908</v>
+        <v>2.7205130222676859</v>
       </c>
       <c r="E55" s="7">
-        <v>1.2743562555327654</v>
+        <v>1.2743562555327574</v>
       </c>
       <c r="F55" s="7">
-        <v>-1.5460699584463247</v>
+        <v>-1.5460699584463153</v>
       </c>
       <c r="G55" s="7">
-        <v>-11.193170918856717</v>
+        <v>-11.193170918856699</v>
       </c>
       <c r="H55" s="7">
-        <v>-2.1160880139413001</v>
+        <v>-2.1160880139413143</v>
       </c>
       <c r="I55" s="7">
-        <v>-0.98744560884474764</v>
+        <v>-0.98744560884474664</v>
       </c>
       <c r="J55" s="7">
-        <v>3.1426788067331848</v>
+        <v>3.1426788067331879</v>
       </c>
       <c r="K55" s="7">
-        <v>12.384706771789604</v>
+        <v>12.384706771789624</v>
       </c>
       <c r="L55" s="7">
-        <v>1.8390264898070994</v>
+        <v>1.8390264898071247</v>
       </c>
       <c r="M55" s="7">
-        <v>3.9901434821835626</v>
+        <v>3.9901434821835697</v>
       </c>
       <c r="N55" s="7">
-        <v>-0.47932375966572965</v>
+        <v>-0.47932375966573776</v>
       </c>
       <c r="O55" s="7">
-        <v>-3.3827613711715387</v>
+        <v>-3.3827613711715858</v>
       </c>
       <c r="P55" s="7">
-        <v>-3.2543128289852934</v>
+        <v>-3.2543128289852996</v>
       </c>
       <c r="Q55" s="7">
-        <v>-6.0816105679528345</v>
+        <v>-6.0816105679528238</v>
       </c>
       <c r="R55" s="7">
-        <v>-6.2013782985541415</v>
+        <v>-6.2013782985541397</v>
       </c>
       <c r="S55" s="7">
-        <v>-2.0052319046719336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.0052319046719203</v>
+      </c>
+      <c r="T55" s="7">
+        <v>-0.66620333598092574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="7">
-        <v>18.660972743687477</v>
-      </c>
-      <c r="C56" s="7">
-        <v>20.399962532783803</v>
-      </c>
-      <c r="D56" s="7">
-        <v>17.89717020166583</v>
-      </c>
-      <c r="E56" s="7">
-        <v>10.715078836331319</v>
-      </c>
-      <c r="F56" s="7">
-        <v>-6.0464067758401425</v>
-      </c>
-      <c r="G56" s="7">
-        <v>-22.774410879188402</v>
-      </c>
-      <c r="H56" s="7">
-        <v>-18.833304087097829</v>
-      </c>
-      <c r="I56" s="7">
-        <v>-21.866489743332583</v>
-      </c>
-      <c r="J56" s="7">
-        <v>-9.1776924658942871</v>
-      </c>
-      <c r="K56" s="7">
-        <v>13.52944139424771</v>
-      </c>
-      <c r="L56" s="7">
-        <v>3.2391480081965627</v>
-      </c>
-      <c r="M56" s="7">
-        <v>11.047699918048179</v>
-      </c>
-      <c r="N56" s="7">
-        <v>18.171267903307989</v>
-      </c>
-      <c r="O56" s="7">
-        <v>7.9258174719375445</v>
-      </c>
-      <c r="P56" s="7">
-        <v>8.8043557433170587</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>6.5423053668598952</v>
-      </c>
-      <c r="R56" s="2">
-        <v>-5.2</v>
-      </c>
-      <c r="S56" s="2">
-        <v>-5.2</v>
-      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="T56" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/data/source/manufacturing_state_gdp.xlsx
+++ b/static/data/source/manufacturing_state_gdp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EEAB0-2190-4979-A3D5-7BAF91584B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4DF6D4-41BD-4DE8-B545-7DC629034E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Geography</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>2023 Q3</t>
+  </si>
+  <si>
+    <t>2023 Q4</t>
   </si>
 </sst>
 </file>
@@ -699,28 +702,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:X55"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:Y56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="23" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="2"/>
+    <col min="24" max="24" width="8.85546875" style="2"/>
+    <col min="25" max="25" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -793,666 +797,696 @@
       <c r="X4" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>2704325.2024445864</v>
+        <v>2650033.7153991922</v>
       </c>
       <c r="C5" s="6">
-        <v>2720721.0458268723</v>
+        <v>2666100.3991383314</v>
       </c>
       <c r="D5" s="6">
-        <v>2734150.0223114113</v>
+        <v>2679259.7782008653</v>
       </c>
       <c r="E5" s="6">
-        <v>2760617.5980571015</v>
+        <v>2705195.996236905</v>
       </c>
       <c r="F5" s="6">
-        <v>2724494.6923196204</v>
+        <v>2669798.2866655942</v>
       </c>
       <c r="G5" s="6">
-        <v>2735034.8773510898</v>
+        <v>2680126.8690693267</v>
       </c>
       <c r="H5" s="6">
-        <v>2761112.0758733922</v>
+        <v>2705680.5470163389</v>
       </c>
       <c r="I5" s="6">
-        <v>2750025.3627291801</v>
+        <v>2694816.4084879691</v>
       </c>
       <c r="J5" s="6">
-        <v>2680616.292410837</v>
+        <v>2626800.780658944</v>
       </c>
       <c r="K5" s="6">
-        <v>2408653.493450698</v>
+        <v>2360297.8519700379</v>
       </c>
       <c r="L5" s="6">
-        <v>2686263.7495758464</v>
+        <v>2632334.8606135361</v>
       </c>
       <c r="M5" s="6">
-        <v>2720148.4925659033</v>
+        <v>2665539.3403410916</v>
       </c>
       <c r="N5" s="6">
-        <v>2733707.5947915716</v>
+        <v>2678826.2327666343</v>
       </c>
       <c r="O5" s="6">
-        <v>2752341.6009212807</v>
+        <v>2697086.1463495297</v>
       </c>
       <c r="P5" s="6">
-        <v>2752133.399735474</v>
+        <v>2696882.124968715</v>
       </c>
       <c r="Q5" s="6">
-        <v>2854516.3328559701</v>
+        <v>2797209.6389842327</v>
       </c>
       <c r="R5" s="6">
-        <v>2838432.7912523947</v>
+        <v>2781448.9873163141</v>
       </c>
       <c r="S5" s="6">
-        <v>2790728.6945544104</v>
+        <v>2734702.5884371982</v>
       </c>
       <c r="T5" s="6">
-        <v>2796402.1768676457</v>
+        <v>2740262.1710643927</v>
       </c>
       <c r="U5" s="6">
-        <v>2813656.8501413851</v>
+        <v>2757170.4429993923</v>
       </c>
       <c r="V5" s="6">
-        <v>2747344.7724619173</v>
+        <v>2692189.6332099824</v>
       </c>
       <c r="W5" s="6">
-        <v>2790780.7448508618</v>
+        <v>2734753.5937824016</v>
       </c>
       <c r="X5" s="8">
+        <v>2795857.9973363364</v>
+      </c>
+      <c r="Y5" s="8">
         <v>2853137</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>44740.993154075295</v>
+        <v>43766.117424537195</v>
       </c>
       <c r="C6" s="6">
-        <v>44454.222369246818</v>
+        <v>43485.595179545708</v>
       </c>
       <c r="D6" s="6">
-        <v>44564.78459954213</v>
+        <v>43593.748334241223</v>
       </c>
       <c r="E6" s="6">
-        <v>45176.763819575193</v>
+        <v>44192.392944411295</v>
       </c>
       <c r="F6" s="6">
-        <v>44842.917710128793</v>
+        <v>43865.821114022117</v>
       </c>
       <c r="G6" s="6">
-        <v>44677.938132110001</v>
+        <v>43704.436328499913</v>
       </c>
       <c r="H6" s="6">
-        <v>45020.853799510318</v>
+        <v>44039.880097360205</v>
       </c>
       <c r="I6" s="6">
-        <v>45319.285444565248</v>
+        <v>44331.80912038598</v>
       </c>
       <c r="J6" s="6">
-        <v>45698.911227493307</v>
+        <v>44703.163116391275</v>
       </c>
       <c r="K6" s="6">
-        <v>38667.84439465055</v>
+        <v>37825.298434973585</v>
       </c>
       <c r="L6" s="6">
-        <v>44645.978737415258</v>
+        <v>43673.173307220735</v>
       </c>
       <c r="M6" s="6">
-        <v>44306.086255999573</v>
+        <v>43340.686851184146</v>
       </c>
       <c r="N6" s="6">
-        <v>44062.503842380211</v>
+        <v>43102.411932245595</v>
       </c>
       <c r="O6" s="6">
-        <v>43155.548046988952</v>
+        <v>42215.21808513398</v>
       </c>
       <c r="P6" s="6">
-        <v>42564.731128848347</v>
+        <v>41637.274664729841</v>
       </c>
       <c r="Q6" s="6">
-        <v>44277.581931001572</v>
+        <v>43312.803615989214</v>
       </c>
       <c r="R6" s="6">
-        <v>45992.592151715246</v>
+        <v>44990.444933551225</v>
       </c>
       <c r="S6" s="6">
-        <v>45836.250247938267</v>
+        <v>44837.509613239607</v>
       </c>
       <c r="T6" s="6">
-        <v>46884.000133471229</v>
+        <v>45862.429743283785</v>
       </c>
       <c r="U6" s="6">
-        <v>47391.895378890338</v>
+        <v>46359.258297666296</v>
       </c>
       <c r="V6" s="6">
-        <v>47237.712893673823</v>
+        <v>46208.435343657322</v>
       </c>
       <c r="W6" s="6">
-        <v>47924.407995898633</v>
+        <v>46880.167827898971</v>
       </c>
       <c r="X6" s="8">
+        <v>47795.667383466061</v>
+      </c>
+      <c r="Y6" s="8">
         <v>48860.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>1922.9203687662416</v>
+        <v>1883.9178376150235</v>
       </c>
       <c r="C7" s="6">
-        <v>1716.2168048508845</v>
+        <v>1681.4068353478899</v>
       </c>
       <c r="D7" s="6">
-        <v>1630.8973208761292</v>
+        <v>1597.817883685123</v>
       </c>
       <c r="E7" s="6">
-        <v>1701.7623437693355</v>
+        <v>1667.2455536292327</v>
       </c>
       <c r="F7" s="6">
-        <v>1757.7912696448457</v>
+        <v>1722.1380466277897</v>
       </c>
       <c r="G7" s="6">
-        <v>1892.4610506125478</v>
+        <v>1854.0763248184471</v>
       </c>
       <c r="H7" s="6">
-        <v>2087.8586499195644</v>
+        <v>2045.5106809888098</v>
       </c>
       <c r="I7" s="6">
-        <v>2028.5142618487812</v>
+        <v>1987.3699732066</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>1698.51843831209</v>
+        <v>1664.067444200623</v>
       </c>
       <c r="O7" s="6">
-        <v>1824.8160809305778</v>
+        <v>1787.803395851266</v>
       </c>
       <c r="P7" s="6">
-        <v>1777.1115889122632</v>
+        <v>1741.0664924893613</v>
       </c>
       <c r="Q7" s="6">
-        <v>1815.5375572330156</v>
+        <v>1778.7130681473759</v>
       </c>
       <c r="R7" s="6">
-        <v>1781.9535948521223</v>
+        <v>1745.8102881805946</v>
       </c>
       <c r="S7" s="6">
-        <v>1781.3334364558843</v>
+        <v>1745.2027084368901</v>
       </c>
       <c r="T7" s="6">
-        <v>1734.8454089840368</v>
+        <v>1699.6575961107137</v>
       </c>
       <c r="U7" s="6">
-        <v>1674.9285670090335</v>
+        <v>1640.9560454881612</v>
       </c>
       <c r="V7" s="6">
-        <v>1837.4577713154313</v>
+        <v>1800.1886752421708</v>
       </c>
       <c r="W7" s="6">
-        <v>1867.1299653508229</v>
+        <v>1829.2590291332758</v>
       </c>
       <c r="X7" s="8">
+        <v>1888.4045803377667</v>
+      </c>
+      <c r="Y7" s="8">
         <v>1927.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>32036.072385739419</v>
+        <v>31494.893481483574</v>
       </c>
       <c r="C8" s="6">
-        <v>32608.690528129828</v>
+        <v>32057.838501178896</v>
       </c>
       <c r="D8" s="6">
-        <v>32574.588463720247</v>
+        <v>32024.312516059807</v>
       </c>
       <c r="E8" s="6">
-        <v>33834.585608731555</v>
+        <v>33263.024783633824</v>
       </c>
       <c r="F8" s="6">
-        <v>35091.913896528204</v>
+        <v>34499.113278459386</v>
       </c>
       <c r="G8" s="6">
-        <v>35304.532854629666</v>
+        <v>34708.140507419281</v>
       </c>
       <c r="H8" s="6">
-        <v>36002.883825799741</v>
+        <v>35394.694376597159</v>
       </c>
       <c r="I8" s="6">
-        <v>37171.250206440956</v>
+        <v>36543.323779807703</v>
       </c>
       <c r="J8" s="6">
-        <v>36557.709586759061</v>
+        <v>35940.147577969481</v>
       </c>
       <c r="K8" s="6">
-        <v>34540.943151545616</v>
+        <v>33957.44997105706</v>
       </c>
       <c r="L8" s="6">
-        <v>37121.728078124441</v>
+        <v>36494.638218808686</v>
       </c>
       <c r="M8" s="6">
-        <v>39335.693407532402</v>
+        <v>38671.203478801057</v>
       </c>
       <c r="N8" s="6">
-        <v>39461.426236312072</v>
+        <v>38794.812328283617</v>
       </c>
       <c r="O8" s="6">
-        <v>39814.011928338063</v>
+        <v>39141.441861384461</v>
       </c>
       <c r="P8" s="6">
-        <v>41835.522998599801</v>
+        <v>41128.803953183022</v>
       </c>
       <c r="Q8" s="6">
-        <v>41490.647338527277</v>
+        <v>40789.754208022139</v>
       </c>
       <c r="R8" s="6">
-        <v>41442.90444835386</v>
+        <v>40742.817828855412</v>
       </c>
       <c r="S8" s="6">
-        <v>41262.311776828348</v>
+        <v>40565.275872876926</v>
       </c>
       <c r="T8" s="6">
-        <v>41734.699503823649</v>
+        <v>41029.683649352672</v>
       </c>
       <c r="U8" s="6">
-        <v>43365.667801673073</v>
+        <v>42633.100328961307</v>
       </c>
       <c r="V8" s="6">
-        <v>40337.107942411953</v>
+        <v>39655.701320080763</v>
       </c>
       <c r="W8" s="6">
-        <v>40867.024369367755</v>
+        <v>40176.665975800868</v>
       </c>
       <c r="X8" s="8">
+        <v>40599.967979217552</v>
+      </c>
+      <c r="Y8" s="8">
         <v>41297.599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>22964.505003117079</v>
+        <v>22829.582653533416</v>
       </c>
       <c r="C9" s="6">
-        <v>23091.219630106811</v>
+        <v>22955.552799629801</v>
       </c>
       <c r="D9" s="6">
-        <v>23180.226790241471</v>
+        <v>23044.037019898198</v>
       </c>
       <c r="E9" s="6">
-        <v>23349.471932172393</v>
+        <v>23212.287803265684</v>
       </c>
       <c r="F9" s="6">
-        <v>22505.657746560824</v>
+        <v>22373.4312421498</v>
       </c>
       <c r="G9" s="6">
-        <v>22736.7255957774</v>
+        <v>22603.141508560853</v>
       </c>
       <c r="H9" s="6">
-        <v>23076.750485848468</v>
+        <v>22941.168665300458</v>
       </c>
       <c r="I9" s="6">
-        <v>23498.767193383483</v>
+        <v>23360.705916573017</v>
       </c>
       <c r="J9" s="6">
-        <v>22880.540120526992</v>
+        <v>22746.111086137367</v>
       </c>
       <c r="K9" s="6">
-        <v>21297.922659906071</v>
+        <v>21172.791908507967</v>
       </c>
       <c r="L9" s="6">
-        <v>23332.810493329456</v>
+        <v>23195.724254644014</v>
       </c>
       <c r="M9" s="6">
-        <v>23729.835042600058</v>
+        <v>23590.41618298407</v>
       </c>
       <c r="N9" s="6">
-        <v>24021.629451809982</v>
+        <v>23880.496225292522</v>
       </c>
       <c r="O9" s="6">
-        <v>24421.723213499023</v>
+        <v>24278.239333641832</v>
       </c>
       <c r="P9" s="6">
-        <v>24758.021202776279</v>
+        <v>24612.561486084487</v>
       </c>
       <c r="Q9" s="6">
-        <v>26045.775041768837</v>
+        <v>25892.749441396179</v>
       </c>
       <c r="R9" s="6">
-        <v>25742.580700719009</v>
+        <v>25591.336444767636</v>
       </c>
       <c r="S9" s="6">
-        <v>25146.057344250032</v>
+        <v>24998.317815826005</v>
       </c>
       <c r="T9" s="6">
-        <v>25296.010293836498</v>
+        <v>25147.389753421037</v>
       </c>
       <c r="U9" s="6">
-        <v>25403.432728481777</v>
+        <v>25254.18105374496</v>
       </c>
       <c r="V9" s="6">
-        <v>25447.278620173725</v>
+        <v>25297.769339591458</v>
       </c>
       <c r="W9" s="6">
-        <v>26023.632866464402</v>
+        <v>25870.737357043698</v>
       </c>
       <c r="X9" s="8">
+        <v>26219.443643815695</v>
+      </c>
+      <c r="Y9" s="8">
         <v>26374.400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>371023.63968925248</v>
+        <v>363517.28391614149</v>
       </c>
       <c r="C10" s="6">
-        <v>380204.04623378371</v>
+        <v>372511.95728819142</v>
       </c>
       <c r="D10" s="6">
-        <v>393875.02373149258</v>
+        <v>385906.350736027</v>
       </c>
       <c r="E10" s="6">
-        <v>398974.06349052879</v>
+        <v>390902.22939577413</v>
       </c>
       <c r="F10" s="6">
-        <v>393814.53268061782</v>
+        <v>385847.08350838174</v>
       </c>
       <c r="G10" s="6">
-        <v>400351.12447220844</v>
+        <v>392251.43040158163</v>
       </c>
       <c r="H10" s="6">
-        <v>404987.58560690779</v>
+        <v>396794.08908521768</v>
       </c>
       <c r="I10" s="6">
-        <v>407204.40470661432</v>
+        <v>398966.05866304215</v>
       </c>
       <c r="J10" s="6">
-        <v>395070.6115605479</v>
+        <v>387077.75005889864</v>
       </c>
       <c r="K10" s="6">
-        <v>366173.68072793615</v>
+        <v>358765.44678199268</v>
       </c>
       <c r="L10" s="6">
-        <v>406396.67126258003</v>
+        <v>398174.66685860208</v>
       </c>
       <c r="M10" s="6">
-        <v>407300.47872859199</v>
+        <v>399060.18896577292</v>
       </c>
       <c r="N10" s="6">
-        <v>425842.76497027889</v>
+        <v>417227.33739280858</v>
       </c>
       <c r="O10" s="6">
-        <v>432692.48690757452</v>
+        <v>423938.47934676055</v>
       </c>
       <c r="P10" s="6">
-        <v>426593.56566054875</v>
+        <v>417962.94827711192</v>
       </c>
       <c r="Q10" s="6">
-        <v>442901.24131697766</v>
+        <v>433940.69558878045</v>
       </c>
       <c r="R10" s="6">
-        <v>431646.34755715117</v>
+        <v>422913.50493924791</v>
       </c>
       <c r="S10" s="6">
-        <v>423462.26420349936</v>
+        <v>414894.99766959099</v>
       </c>
       <c r="T10" s="6">
-        <v>419441.38846887904</v>
+        <v>410955.47018493345</v>
       </c>
       <c r="U10" s="6">
-        <v>414555.84653645987</v>
+        <v>406168.76997569919</v>
       </c>
       <c r="V10" s="6">
-        <v>409599.13866183505</v>
+        <v>401312.34361629392</v>
       </c>
       <c r="W10" s="6">
-        <v>416093.03088810231</v>
+        <v>407674.85481939127</v>
       </c>
       <c r="X10" s="8">
+        <v>414657.92875900981</v>
+      </c>
+      <c r="Y10" s="8">
         <v>423220.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>26630.469872313057</v>
+        <v>26246.514755418488</v>
       </c>
       <c r="C11" s="6">
-        <v>27191.743680408879</v>
+        <v>26799.696180930354</v>
       </c>
       <c r="D11" s="6">
-        <v>27294.355979730026</v>
+        <v>26900.829027670694</v>
       </c>
       <c r="E11" s="6">
-        <v>28111.902716281176</v>
+        <v>27706.588467403413</v>
       </c>
       <c r="F11" s="6">
-        <v>27656.077225829446</v>
+        <v>27257.335017561894</v>
       </c>
       <c r="G11" s="6">
-        <v>28142.067638443419</v>
+        <v>27736.318475113509</v>
       </c>
       <c r="H11" s="6">
-        <v>29010.662704807601</v>
+        <v>28592.390235586394</v>
       </c>
       <c r="I11" s="6">
-        <v>29368.001013498837</v>
+        <v>28944.576480767584</v>
       </c>
       <c r="J11" s="6">
-        <v>29181.33944387946</v>
+        <v>28760.606176646961</v>
       </c>
       <c r="K11" s="6">
-        <v>28280.774716420245</v>
+        <v>27873.025690053972</v>
       </c>
       <c r="L11" s="6">
-        <v>30713.047158117988</v>
+        <v>30270.229901482056</v>
       </c>
       <c r="M11" s="6">
-        <v>30835.25376585222</v>
+        <v>30390.674548102459</v>
       </c>
       <c r="N11" s="6">
-        <v>30496.220666336365</v>
+        <v>30056.529589651331</v>
       </c>
       <c r="O11" s="6">
-        <v>30726.969429885183</v>
+        <v>30283.951443502101</v>
       </c>
       <c r="P11" s="6">
-        <v>30275.269056994104</v>
+        <v>29838.763635740601</v>
       </c>
       <c r="Q11" s="6">
-        <v>31063.682150773166</v>
+        <v>30615.80947828322</v>
       </c>
       <c r="R11" s="6">
-        <v>30380.459554790654</v>
+        <v>29942.437508780949</v>
       </c>
       <c r="S11" s="6">
-        <v>29611.898589272212</v>
+        <v>29184.957568748396</v>
       </c>
       <c r="T11" s="6">
-        <v>30259.542046294126</v>
+        <v>29823.263375310547</v>
       </c>
       <c r="U11" s="6">
-        <v>30124.960085877949</v>
+        <v>29690.621802450096</v>
       </c>
       <c r="V11" s="6">
-        <v>28554.321574660793</v>
+        <v>28142.628580484878</v>
       </c>
       <c r="W11" s="6">
-        <v>28949.301581092946</v>
+        <v>28531.91380964619</v>
       </c>
       <c r="X11" s="8">
+        <v>29233.745273708559</v>
+      </c>
+      <c r="Y11" s="8">
         <v>29661.4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>35997.463105502749</v>
+        <v>35230.695834266517</v>
       </c>
       <c r="C12" s="6">
-        <v>36830.006149219087</v>
+        <v>36045.505218365062</v>
       </c>
       <c r="D12" s="6">
-        <v>38302.033894260239</v>
+        <v>37486.177901135816</v>
       </c>
       <c r="E12" s="6">
-        <v>38167.263672695473</v>
+        <v>37354.278365061589</v>
       </c>
       <c r="F12" s="6">
-        <v>37374.477844340734</v>
+        <v>36578.379344104942</v>
       </c>
       <c r="G12" s="6">
-        <v>37993.410086876924</v>
+        <v>37184.12796352584</v>
       </c>
       <c r="H12" s="6">
-        <v>38046.644324395005</v>
+        <v>37236.228280275158</v>
       </c>
       <c r="I12" s="6">
-        <v>39376.826411239243</v>
+        <v>38538.076701327787</v>
       </c>
       <c r="J12" s="6">
-        <v>37120.772902245066</v>
+        <v>36330.078467445208</v>
       </c>
       <c r="K12" s="6">
-        <v>33605.628598282077</v>
+        <v>32889.808817789155</v>
       </c>
       <c r="L12" s="6">
-        <v>36536.207066207899</v>
+        <v>35757.964229723242</v>
       </c>
       <c r="M12" s="6">
-        <v>36550.694865026111</v>
+        <v>35772.143429851225</v>
       </c>
       <c r="N12" s="6">
-        <v>37894.353974026824</v>
+        <v>37087.181804511281</v>
       </c>
       <c r="O12" s="6">
-        <v>37944.555881559696</v>
+        <v>37136.314381698925</v>
       </c>
       <c r="P12" s="6">
-        <v>37777.777732373303</v>
+        <v>36973.088705807066</v>
       </c>
       <c r="Q12" s="6">
-        <v>38679.053589087671</v>
+        <v>37855.166853303468</v>
       </c>
       <c r="R12" s="6">
-        <v>39493.06572733885</v>
+        <v>38651.840051191808</v>
       </c>
       <c r="S12" s="6">
-        <v>39192.191207695505</v>
+        <v>38357.37433690609</v>
       </c>
       <c r="T12" s="6">
-        <v>40285.851555693582</v>
+        <v>39427.739072148455</v>
       </c>
       <c r="U12" s="6">
-        <v>41264.620289807688</v>
+        <v>40385.659452887543</v>
       </c>
       <c r="V12" s="6">
-        <v>40217.792593803373</v>
+        <v>39361.129806430967</v>
       </c>
       <c r="W12" s="6">
-        <v>40535.850316696225</v>
+        <v>39672.412711566154</v>
       </c>
       <c r="X12" s="8">
+        <v>40347.078838585825</v>
+      </c>
+      <c r="Y12" s="8">
         <v>41225.199999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>5449.2116782235762</v>
+        <v>5232.9228473991725</v>
       </c>
       <c r="C13" s="6">
-        <v>5679.4677878872899</v>
+        <v>5454.0396856067309</v>
       </c>
       <c r="D13" s="6">
-        <v>5876.3598092107886</v>
+        <v>5643.1167150368346</v>
       </c>
       <c r="E13" s="6">
-        <v>6227.5607391077792</v>
+        <v>5980.3778600626629</v>
       </c>
       <c r="F13" s="6">
-        <v>6419.4591222093068</v>
+        <v>6164.6594575869303</v>
       </c>
       <c r="G13" s="6">
-        <v>6509.9482368030785</v>
+        <v>6251.5568994849918</v>
       </c>
       <c r="H13" s="6">
-        <v>6896.7631359974339</v>
+        <v>6623.0184324985948</v>
       </c>
       <c r="I13" s="6">
-        <v>6813.1882897110099</v>
+        <v>6542.7608193932292</v>
       </c>
       <c r="J13" s="6">
-        <v>6892.0987486472395</v>
+        <v>6618.5391829162209</v>
       </c>
       <c r="K13" s="6">
-        <v>6309.2698304541254</v>
+        <v>6058.8437733350775</v>
       </c>
       <c r="L13" s="6">
-        <v>6963.3266872419726</v>
+        <v>6686.9399588917704</v>
       </c>
       <c r="M13" s="6">
-        <v>7129.3788769088924</v>
+        <v>6846.4012440242932</v>
       </c>
       <c r="N13" s="6">
-        <v>6756.6668900557124</v>
+        <v>6488.4828538656348</v>
       </c>
       <c r="O13" s="6">
-        <v>6676.1101767605905</v>
+        <v>6411.1235787253363</v>
       </c>
       <c r="P13" s="6">
-        <v>6638.2463265060715</v>
+        <v>6374.7626115272396</v>
       </c>
       <c r="Q13" s="6">
-        <v>7128.2813740029651</v>
+        <v>6845.3473029460893</v>
       </c>
       <c r="R13" s="6">
-        <v>6600.9861028498126</v>
+        <v>6338.9813119221544</v>
       </c>
       <c r="S13" s="6">
-        <v>6384.6682800913868</v>
+        <v>6131.2495254078094</v>
       </c>
       <c r="T13" s="6">
-        <v>6558.5127403903953</v>
+        <v>6298.1937921955941</v>
       </c>
       <c r="U13" s="6">
-        <v>6883.428475690409</v>
+        <v>6610.2130483983947</v>
       </c>
       <c r="V13" s="6">
-        <v>6402.0637011503459</v>
+        <v>6147.9544914973694</v>
       </c>
       <c r="W13" s="6">
-        <v>6528.4411607679658</v>
+        <v>6269.3158066527576</v>
       </c>
       <c r="X13" s="8">
+        <v>6573.6939900385678</v>
+      </c>
+      <c r="Y13" s="8">
         <v>6845.4</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1479,3104 +1513,3185 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>62699.288387211345</v>
+        <v>61089.062558393198</v>
       </c>
       <c r="C15" s="6">
-        <v>63395.485729727239</v>
+        <v>61767.380352804001</v>
       </c>
       <c r="D15" s="6">
-        <v>63989.08556913551</v>
+        <v>62345.735524880569</v>
       </c>
       <c r="E15" s="6">
-        <v>64811.69769226612</v>
+        <v>63147.221550381757</v>
       </c>
       <c r="F15" s="6">
-        <v>64998.571715783546</v>
+        <v>63329.296326776239</v>
       </c>
       <c r="G15" s="6">
-        <v>65027.274588676737</v>
+        <v>63357.262060405454</v>
       </c>
       <c r="H15" s="6">
-        <v>66010.500660124613</v>
+        <v>64315.237191108434</v>
       </c>
       <c r="I15" s="6">
-        <v>67512.821241343103</v>
+        <v>65778.975589573849</v>
       </c>
       <c r="J15" s="6">
-        <v>68491.772416828171</v>
+        <v>66732.785611012892</v>
       </c>
       <c r="K15" s="6">
-        <v>62978.98872306422</v>
+        <v>61361.579707375786</v>
       </c>
       <c r="L15" s="6">
-        <v>69128.121215864609</v>
+        <v>67352.791875728726</v>
       </c>
       <c r="M15" s="6">
-        <v>69063.38707699909</v>
+        <v>67289.720221160707</v>
       </c>
       <c r="N15" s="6">
-        <v>70166.920934829104</v>
+        <v>68364.913426862739</v>
       </c>
       <c r="O15" s="6">
-        <v>70260.968646011068</v>
+        <v>68456.545830669114</v>
       </c>
       <c r="P15" s="6">
-        <v>70406.925808170112</v>
+        <v>68598.754561251728</v>
       </c>
       <c r="Q15" s="6">
-        <v>74268.37826144023</v>
+        <v>72361.038257795153</v>
       </c>
       <c r="R15" s="6">
-        <v>74569.453077107202</v>
+        <v>72654.380953097381</v>
       </c>
       <c r="S15" s="6">
-        <v>74780.144378131736</v>
+        <v>72859.661338248014</v>
       </c>
       <c r="T15" s="6">
-        <v>76963.394816284621</v>
+        <v>74986.842140895926</v>
       </c>
       <c r="U15" s="6">
-        <v>76785.070584692832</v>
+        <v>74813.097583029288</v>
       </c>
       <c r="V15" s="6">
-        <v>75702.300507253647</v>
+        <v>73758.134908037755</v>
       </c>
       <c r="W15" s="6">
-        <v>77078.206307857414</v>
+        <v>75098.705075412785</v>
       </c>
       <c r="X15" s="8">
+        <v>77067.016710422366</v>
+      </c>
+      <c r="Y15" s="8">
         <v>79098.399999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>71906.036016910628</v>
+        <v>70451.402548525308</v>
       </c>
       <c r="C16" s="6">
-        <v>70315.204015819618</v>
+        <v>68892.75251155789</v>
       </c>
       <c r="D16" s="6">
-        <v>70470.564296754252</v>
+        <v>69044.969909407548</v>
       </c>
       <c r="E16" s="6">
-        <v>71190.805967815249</v>
+        <v>69750.64134828659</v>
       </c>
       <c r="F16" s="6">
-        <v>70570.796736066914</v>
+        <v>69143.174682213765</v>
       </c>
       <c r="G16" s="6">
-        <v>71596.747347031545</v>
+        <v>70148.370678151798</v>
       </c>
       <c r="H16" s="6">
-        <v>72258.281446495137</v>
+        <v>70796.522178672923</v>
       </c>
       <c r="I16" s="6">
-        <v>72021.303322120191</v>
+        <v>70564.33803725247</v>
       </c>
       <c r="J16" s="6">
-        <v>72035.622242022</v>
+        <v>70578.367290510505</v>
       </c>
       <c r="K16" s="6">
-        <v>63154.312172924809</v>
+        <v>61876.722957215774</v>
       </c>
       <c r="L16" s="6">
-        <v>71139.257856168741</v>
+        <v>69700.136036557669</v>
       </c>
       <c r="M16" s="6">
-        <v>72853.948514410396</v>
+        <v>71380.139114207064</v>
       </c>
       <c r="N16" s="6">
-        <v>72044.929539958175</v>
+        <v>70587.48630512823</v>
       </c>
       <c r="O16" s="6">
-        <v>72404.334429493581</v>
+        <v>70939.620561904841</v>
       </c>
       <c r="P16" s="6">
-        <v>73164.669076279664</v>
+        <v>71684.573909906379</v>
       </c>
       <c r="Q16" s="6">
-        <v>77480.391534684968</v>
+        <v>75912.990841877414</v>
       </c>
       <c r="R16" s="6">
-        <v>77188.285568688065</v>
+        <v>75626.794075413549</v>
       </c>
       <c r="S16" s="6">
-        <v>75961.154133103017</v>
+        <v>74424.487071200143</v>
       </c>
       <c r="T16" s="6">
-        <v>76578.299580870982</v>
+        <v>75029.147886621358</v>
       </c>
       <c r="U16" s="6">
-        <v>77826.193450313658</v>
+        <v>76251.797308058885</v>
       </c>
       <c r="V16" s="6">
-        <v>75442.809232657513</v>
+        <v>73916.628103259369</v>
       </c>
       <c r="W16" s="6">
-        <v>76664.21310028185</v>
+        <v>75113.32340616954</v>
       </c>
       <c r="X16" s="8">
+        <v>77153.878292550391</v>
+      </c>
+      <c r="Y16" s="8">
         <v>78746.899999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>2262.1487695905612</v>
+        <v>2202.9402800910975</v>
       </c>
       <c r="C17" s="6">
-        <v>2270.5278276146928</v>
+        <v>2211.1000283263647</v>
       </c>
       <c r="D17" s="6">
-        <v>2123.8396186021619</v>
+        <v>2068.251172144985</v>
       </c>
       <c r="E17" s="6">
-        <v>2095.5083388599951</v>
+        <v>2040.6614228899691</v>
       </c>
       <c r="F17" s="6">
-        <v>1958.3586919845952</v>
+        <v>1907.1014707048732</v>
       </c>
       <c r="G17" s="6">
-        <v>1885.1786682490369</v>
+        <v>1835.83682880678</v>
       </c>
       <c r="H17" s="6">
-        <v>1949.1045365166904</v>
+        <v>1898.0895294424238</v>
       </c>
       <c r="I17" s="6">
-        <v>1944.1164810871815</v>
+        <v>1893.2320291874867</v>
       </c>
       <c r="J17" s="6">
-        <v>2026.2881310575121</v>
+        <v>1973.2529544398744</v>
       </c>
       <c r="K17" s="6">
-        <v>1715.3003769765087</v>
+        <v>1670.4048574050782</v>
       </c>
       <c r="L17" s="6">
-        <v>1867.0860285990202</v>
+        <v>1818.2177379697926</v>
       </c>
       <c r="M17" s="6">
-        <v>1852.9313274459842</v>
+        <v>1804.4335157551241</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6">
-        <v>1789.1804786670855</v>
+        <v>1742.3512537249167</v>
       </c>
       <c r="S17" s="6">
-        <v>1761.9649481657298</v>
+        <v>1715.8480505795574</v>
       </c>
       <c r="T17" s="6">
-        <v>1833.2853898332692</v>
+        <v>1785.3017822948887</v>
       </c>
       <c r="U17" s="6">
-        <v>1859.9102295600776</v>
+        <v>1811.2297551469005</v>
       </c>
       <c r="V17" s="6">
-        <v>1794.0153920439338</v>
+        <v>1747.0596202000972</v>
       </c>
       <c r="W17" s="6">
-        <v>1832.5196795699676</v>
+        <v>1784.5561133961046</v>
       </c>
       <c r="X17" s="8">
+        <v>1831.0858526802406</v>
+      </c>
+      <c r="Y17" s="8">
         <v>1880.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>10147.982835051142</v>
+        <v>9920.2138563258632</v>
       </c>
       <c r="C18" s="6">
-        <v>10310.665429950473</v>
+        <v>10079.245080396246</v>
       </c>
       <c r="D18" s="6">
-        <v>10405.407425021456</v>
+        <v>10171.860614690691</v>
       </c>
       <c r="E18" s="6">
-        <v>10797.682391754526</v>
+        <v>10555.331066279759</v>
       </c>
       <c r="F18" s="6">
-        <v>10138.330584316906</v>
+        <v>9910.7782479852831</v>
       </c>
       <c r="G18" s="6">
-        <v>10322.098192956073</v>
+        <v>10090.421237848197</v>
       </c>
       <c r="H18" s="6">
-        <v>10925.504430604002</v>
+        <v>10680.284170906487</v>
       </c>
       <c r="I18" s="6">
-        <v>10661.238925064761</v>
+        <v>10421.950039640082</v>
       </c>
       <c r="J18" s="6">
-        <v>11016.59168996008</v>
+        <v>10769.326999130226</v>
       </c>
       <c r="K18" s="6">
-        <v>9861.6014928781206</v>
+        <v>9640.2602729392911</v>
       </c>
       <c r="L18" s="6">
-        <v>10730.491481303592</v>
+        <v>10489.648239287555</v>
       </c>
       <c r="M18" s="6">
-        <v>10945.371199105533</v>
+        <v>10699.705034675451</v>
       </c>
       <c r="N18" s="6">
-        <v>10296.140198263032</v>
+        <v>10065.04586396139</v>
       </c>
       <c r="O18" s="6">
-        <v>10374.107893514327</v>
+        <v>10141.263593469777</v>
       </c>
       <c r="P18" s="6">
-        <v>10231.010933599993</v>
+        <v>10001.378409624458</v>
       </c>
       <c r="Q18" s="6">
-        <v>11125.95262789068</v>
+        <v>10876.233357707493</v>
       </c>
       <c r="R18" s="6">
-        <v>10717.559339543161</v>
+        <v>10477.006356268135</v>
       </c>
       <c r="S18" s="6">
-        <v>11223.412246954797</v>
+        <v>10971.505519592976</v>
       </c>
       <c r="T18" s="6">
-        <v>11559.741643898176</v>
+        <v>11300.286085945858</v>
       </c>
       <c r="U18" s="6">
-        <v>11533.68993803296</v>
+        <v>11274.819104211085</v>
       </c>
       <c r="V18" s="6">
-        <v>11517.477905246333</v>
+        <v>11258.970946512825</v>
       </c>
       <c r="W18" s="6">
-        <v>11641.832630725257</v>
+        <v>11380.534560764783</v>
       </c>
       <c r="X18" s="8">
+        <v>11634.471515328782</v>
+      </c>
+      <c r="Y18" s="8">
         <v>11901.6</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>134709.31014733252</v>
+        <v>131306.06421537086</v>
       </c>
       <c r="C19" s="6">
-        <v>132954.65809962136</v>
+        <v>129595.74104468274</v>
       </c>
       <c r="D19" s="6">
-        <v>132097.21481851605</v>
+        <v>128759.95989186774</v>
       </c>
       <c r="E19" s="6">
-        <v>133728.84239545994</v>
+        <v>130350.36663628239</v>
       </c>
       <c r="F19" s="6">
-        <v>132479.95761645868</v>
+        <v>129133.03321805182</v>
       </c>
       <c r="G19" s="6">
-        <v>131807.67237721526</v>
+        <v>128477.73234316352</v>
       </c>
       <c r="H19" s="6">
-        <v>130927.8610105159</v>
+        <v>127620.14820375334</v>
       </c>
       <c r="I19" s="6">
-        <v>127645.96578529975</v>
+        <v>124421.16555942805</v>
       </c>
       <c r="J19" s="6">
-        <v>124252.23013211336</v>
+        <v>121113.16798212689</v>
       </c>
       <c r="K19" s="6">
-        <v>112554.96403784622</v>
+        <v>109711.41726988382</v>
       </c>
       <c r="L19" s="6">
-        <v>125753.37720975859</v>
+        <v>122576.39063806969</v>
       </c>
       <c r="M19" s="6">
-        <v>127243.34024460682</v>
+        <v>124028.71180071491</v>
       </c>
       <c r="N19" s="6">
-        <v>129752.29384540628</v>
+        <v>126474.28013047362</v>
       </c>
       <c r="O19" s="6">
-        <v>131842.46717702821</v>
+        <v>128511.64810008935</v>
       </c>
       <c r="P19" s="6">
-        <v>131478.36445041394</v>
+        <v>128156.74392940123</v>
       </c>
       <c r="Q19" s="6">
-        <v>135697.23392773647</v>
+        <v>132269.02945665771</v>
       </c>
       <c r="R19" s="6">
-        <v>137184.71161974091</v>
+        <v>133718.9280652368</v>
       </c>
       <c r="S19" s="6">
-        <v>131946.85157646713</v>
+        <v>128613.39537086684</v>
       </c>
       <c r="T19" s="6">
-        <v>132187.92983231414</v>
+        <v>128848.3831152815</v>
       </c>
       <c r="U19" s="6">
-        <v>133802.16000935153</v>
+        <v>130421.83198123323</v>
       </c>
       <c r="V19" s="6">
-        <v>130443.21915597811</v>
+        <v>127147.75016085789</v>
       </c>
       <c r="W19" s="6">
-        <v>132530.90714475629</v>
+        <v>129182.6955764075</v>
       </c>
       <c r="X19" s="8">
+        <v>132117.61982752456</v>
+      </c>
+      <c r="Y19" s="8">
         <v>135541.9</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>116540.04941743742</v>
+        <v>114437.92004549477</v>
       </c>
       <c r="C20" s="6">
-        <v>115268.48920671962</v>
+        <v>113189.29601920889</v>
       </c>
       <c r="D20" s="6">
-        <v>115148.44680920431</v>
+        <v>113071.41892581827</v>
       </c>
       <c r="E20" s="6">
-        <v>115366.301530621</v>
+        <v>113285.34402123089</v>
       </c>
       <c r="F20" s="6">
-        <v>115232.92108893731</v>
+        <v>113154.36947301908</v>
       </c>
       <c r="G20" s="6">
-        <v>115551.92264529744</v>
+        <v>113467.61693415898</v>
       </c>
       <c r="H20" s="6">
-        <v>115580.8217409956</v>
+        <v>113495.99475293822</v>
       </c>
       <c r="I20" s="6">
-        <v>115513.02001647305</v>
+        <v>113429.41602426386</v>
       </c>
       <c r="J20" s="6">
-        <v>114553.79234003121</v>
+        <v>112487.49073170731</v>
       </c>
       <c r="K20" s="6">
-        <v>94462.251807745779</v>
+        <v>92758.357952736013</v>
       </c>
       <c r="L20" s="6">
-        <v>113410.05505259364</v>
+        <v>111364.3839807911</v>
       </c>
       <c r="M20" s="6">
-        <v>115447.4412993119</v>
+        <v>113365.0202047264</v>
       </c>
       <c r="N20" s="6">
-        <v>120015.72142697805</v>
+        <v>117850.89848098067</v>
       </c>
       <c r="O20" s="6">
-        <v>118947.56638982789</v>
+        <v>116802.01064071781</v>
       </c>
       <c r="P20" s="6">
-        <v>119869.00294112599</v>
+        <v>117706.82647794767</v>
       </c>
       <c r="Q20" s="6">
-        <v>125799.98658132712</v>
+        <v>123530.82805509921</v>
       </c>
       <c r="R20" s="6">
-        <v>129836.9679496199</v>
+        <v>127494.99104764313</v>
       </c>
       <c r="S20" s="6">
-        <v>129606.88668771555</v>
+        <v>127269.05995197776</v>
       </c>
       <c r="T20" s="6">
-        <v>128712.12622475417</v>
+        <v>126390.43902439025</v>
       </c>
       <c r="U20" s="6">
-        <v>128078.56912675669</v>
+        <v>125768.30992038418</v>
       </c>
       <c r="V20" s="6">
-        <v>124920.78716989548</v>
+        <v>122667.48749146973</v>
       </c>
       <c r="W20" s="6">
-        <v>126929.27432091562</v>
+        <v>124639.7458966258</v>
       </c>
       <c r="X20" s="8">
+        <v>127213.39576898774</v>
+      </c>
+      <c r="Y20" s="8">
         <v>129550.2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>39627.843068259848</v>
+        <v>38559.826093193151</v>
       </c>
       <c r="C21" s="6">
-        <v>40363.748920020138</v>
+        <v>39275.898416785458</v>
       </c>
       <c r="D21" s="6">
-        <v>40483.98250057226</v>
+        <v>39392.891560940836</v>
       </c>
       <c r="E21" s="6">
-        <v>40552.305709838387</v>
+        <v>39459.373379365643</v>
       </c>
       <c r="F21" s="6">
-        <v>38723.228509820074</v>
+        <v>37679.591960976475</v>
       </c>
       <c r="G21" s="6">
-        <v>38351.840338781294</v>
+        <v>37318.213137918741</v>
       </c>
       <c r="H21" s="6">
-        <v>39641.202354987865</v>
+        <v>38572.825331432643</v>
       </c>
       <c r="I21" s="6">
-        <v>38950.336384196307</v>
+        <v>37900.579011047754</v>
       </c>
       <c r="J21" s="6">
-        <v>40713.380538387581</v>
+        <v>39616.107051853171</v>
       </c>
       <c r="K21" s="6">
-        <v>36720.098888431079</v>
+        <v>35730.449038667139</v>
       </c>
       <c r="L21" s="6">
-        <v>40703.074802911688</v>
+        <v>39606.079068068429</v>
       </c>
       <c r="M21" s="6">
-        <v>41010.338397656</v>
+        <v>39905.061547576617</v>
       </c>
       <c r="N21" s="6">
-        <v>42528.716757771363</v>
+        <v>41382.51782519601</v>
       </c>
       <c r="O21" s="6">
-        <v>40998.124192647527</v>
+        <v>39893.176529757664</v>
       </c>
       <c r="P21" s="6">
-        <v>40109.922472187878</v>
+        <v>39028.912890235209</v>
       </c>
       <c r="Q21" s="6">
-        <v>41323.32740099803</v>
+        <v>40209.615129187456</v>
       </c>
       <c r="R21" s="6">
-        <v>42430.6214237971</v>
+        <v>41287.066275837489</v>
       </c>
       <c r="S21" s="6">
-        <v>40727.503212928626</v>
+        <v>39629.849103706343</v>
       </c>
       <c r="T21" s="6">
-        <v>41102.32662912603</v>
+        <v>39994.570588025657</v>
       </c>
       <c r="U21" s="6">
-        <v>41341.267014604215</v>
+        <v>40227.071249109053</v>
       </c>
       <c r="V21" s="6">
-        <v>40575.970732042304</v>
+        <v>39482.400601389883</v>
       </c>
       <c r="W21" s="6">
-        <v>40869.111652245563</v>
+        <v>39767.641029044898</v>
       </c>
       <c r="X21" s="8">
+        <v>40563.194409301497</v>
+      </c>
+      <c r="Y21" s="8">
         <v>41686.699999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>32274.13283844947</v>
+        <v>31780.266773593554</v>
       </c>
       <c r="C22" s="6">
-        <v>32844.822256998945</v>
+        <v>32342.223373857727</v>
       </c>
       <c r="D22" s="6">
-        <v>33247.841173303648</v>
+        <v>32739.075203745138</v>
       </c>
       <c r="E22" s="6">
-        <v>33025.296688506045</v>
+        <v>32519.936144881438</v>
       </c>
       <c r="F22" s="6">
-        <v>32739.9519792313</v>
+        <v>32238.957844749351</v>
       </c>
       <c r="G22" s="6">
-        <v>32764.950126838707</v>
+        <v>32263.573465060072</v>
       </c>
       <c r="H22" s="6">
-        <v>31978.727899040041</v>
+        <v>31489.382187238862</v>
       </c>
       <c r="I22" s="6">
-        <v>31572.965283607697</v>
+        <v>31089.828642927099</v>
       </c>
       <c r="J22" s="6">
-        <v>31230.917459028358</v>
+        <v>30753.01491135851</v>
       </c>
       <c r="K22" s="6">
-        <v>26787.039438624666</v>
+        <v>26377.138115391179</v>
       </c>
       <c r="L22" s="6">
-        <v>29864.860148921416</v>
+        <v>29407.861318525305</v>
       </c>
       <c r="M22" s="6">
-        <v>31049.223605686755</v>
+        <v>30574.101378368421</v>
       </c>
       <c r="N22" s="6">
-        <v>30381.590151293942</v>
+        <v>29916.684201777327</v>
       </c>
       <c r="O22" s="6">
-        <v>31470.533849509069</v>
+        <v>30988.96463775148</v>
       </c>
       <c r="P22" s="6">
-        <v>32309.191216191553</v>
+        <v>31814.788680126876</v>
       </c>
       <c r="Q22" s="6">
-        <v>33937.119365258972</v>
+        <v>33417.805905239424</v>
       </c>
       <c r="R22" s="6">
-        <v>33677.992225426147</v>
+        <v>33162.643987384428</v>
       </c>
       <c r="S22" s="6">
-        <v>32543.62506387561</v>
+        <v>32045.635168162746</v>
       </c>
       <c r="T22" s="6">
-        <v>32990.84802168121</v>
+        <v>32486.014619331305</v>
       </c>
       <c r="U22" s="6">
-        <v>33499.651782129433</v>
+        <v>32987.032549801872</v>
       </c>
       <c r="V22" s="6">
-        <v>32318.946590867614</v>
+        <v>31824.394775857887</v>
       </c>
       <c r="W22" s="6">
-        <v>32741.171401065814</v>
+        <v>32240.158606715726</v>
       </c>
       <c r="X22" s="8">
+        <v>32897.275592815233</v>
+      </c>
+      <c r="Y22" s="8">
         <v>33408.5</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6">
-        <v>41013.726935459141</v>
+        <v>40336.069617042413</v>
       </c>
       <c r="C23" s="6">
-        <v>41658.354070213092</v>
+        <v>40970.045773985847</v>
       </c>
       <c r="D23" s="6">
-        <v>41563.299586080022</v>
+        <v>40876.561846142933</v>
       </c>
       <c r="E23" s="6">
-        <v>42410.488241606618</v>
+        <v>41709.752661546372</v>
       </c>
       <c r="F23" s="6">
-        <v>43469.37028974398</v>
+        <v>42751.139124110894</v>
       </c>
       <c r="G23" s="6">
-        <v>44780.208983596502</v>
+        <v>44040.319229473003</v>
       </c>
       <c r="H23" s="6">
-        <v>44802.208493024678</v>
+        <v>44061.955247707396</v>
       </c>
       <c r="I23" s="6">
-        <v>44669.38126628851</v>
+        <v>43931.322684782797</v>
       </c>
       <c r="J23" s="6">
-        <v>44216.10835505135</v>
+        <v>43485.539063802607</v>
       </c>
       <c r="K23" s="6">
-        <v>35989.53708416372</v>
+        <v>35394.892924419524</v>
       </c>
       <c r="L23" s="6">
-        <v>42909.83559711789</v>
+        <v>42200.84945279103</v>
       </c>
       <c r="M23" s="6">
-        <v>42431.242495784143</v>
+        <v>41730.16399950334</v>
       </c>
       <c r="N23" s="6">
-        <v>41928.159374520917</v>
+        <v>41235.393167426431</v>
       </c>
       <c r="O23" s="6">
-        <v>41626.392518779699</v>
+        <v>40938.61231353211</v>
       </c>
       <c r="P23" s="6">
-        <v>42065.55253717614</v>
+        <v>41370.516224701554</v>
       </c>
       <c r="Q23" s="6">
-        <v>43074.624375287436</v>
+        <v>42362.915476169357</v>
       </c>
       <c r="R23" s="6">
-        <v>44264.673309826758</v>
+        <v>43533.301594621917</v>
       </c>
       <c r="S23" s="6">
-        <v>44040.52736470948</v>
+        <v>43312.859144686656</v>
       </c>
       <c r="T23" s="6">
-        <v>44024.754131534566</v>
+        <v>43297.346527839363</v>
       </c>
       <c r="U23" s="6">
-        <v>43842.94686493944</v>
+        <v>43118.543207336319</v>
       </c>
       <c r="V23" s="6">
-        <v>44063.357044304757</v>
+        <v>43335.311616439329</v>
       </c>
       <c r="W23" s="6">
-        <v>44957.865399356124</v>
+        <v>44215.040282384653</v>
       </c>
       <c r="X23" s="8">
+        <v>45268.67354772336</v>
+      </c>
+      <c r="Y23" s="8">
         <v>46029.2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6">
-        <v>69961.664255760523</v>
+        <v>68660.618212366317</v>
       </c>
       <c r="C24" s="6">
-        <v>69069.727968370091</v>
+        <v>67785.268868554413</v>
       </c>
       <c r="D24" s="6">
-        <v>69784.462733376466</v>
+        <v>68486.712028108275</v>
       </c>
       <c r="E24" s="6">
-        <v>71332.505772791148</v>
+        <v>70005.966797648885</v>
       </c>
       <c r="F24" s="6">
-        <v>72221.148351587064</v>
+        <v>70878.083684504338</v>
       </c>
       <c r="G24" s="6">
-        <v>71221.83716401596</v>
+        <v>69897.356243911505</v>
       </c>
       <c r="H24" s="6">
-        <v>71738.290671633455</v>
+        <v>70404.205494685913</v>
       </c>
       <c r="I24" s="6">
-        <v>69079.609094153595</v>
+        <v>67794.966239423826</v>
       </c>
       <c r="J24" s="6">
-        <v>61972.444688942916</v>
+        <v>60819.970618754174</v>
       </c>
       <c r="K24" s="6">
-        <v>55130.09445472998</v>
+        <v>54104.864537384659</v>
       </c>
       <c r="L24" s="6">
-        <v>56938.999214829018</v>
+        <v>55880.129897877654</v>
       </c>
       <c r="M24" s="6">
-        <v>56240.074251076257</v>
+        <v>55194.202531714844</v>
       </c>
       <c r="N24" s="6">
-        <v>56319.123257344247</v>
+        <v>55271.781498670112</v>
       </c>
       <c r="O24" s="6">
-        <v>58566.091260511697</v>
+        <v>57476.963634373526</v>
       </c>
       <c r="P24" s="6">
-        <v>58359.905102496035</v>
+        <v>57274.611828898545</v>
       </c>
       <c r="Q24" s="6">
-        <v>59480.424766344717</v>
+        <v>58374.293685489429</v>
       </c>
       <c r="R24" s="6">
-        <v>58685.982253351467</v>
+        <v>57594.625067589011</v>
       </c>
       <c r="S24" s="6">
-        <v>55388.979950257628</v>
+        <v>54358.93565416315</v>
       </c>
       <c r="T24" s="6">
-        <v>54502.313596618405</v>
+        <v>53488.758241481584</v>
       </c>
       <c r="U24" s="6">
-        <v>54497.043662867203</v>
+        <v>53483.586310351246</v>
       </c>
       <c r="V24" s="6">
-        <v>55462.759022774408</v>
+        <v>54431.342689988058</v>
       </c>
       <c r="W24" s="6">
-        <v>56770.361334790658</v>
+        <v>55714.628101706418</v>
       </c>
       <c r="X24" s="8">
+        <v>57965.711126191702</v>
+      </c>
+      <c r="Y24" s="8">
         <v>59064.1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="6">
-        <v>7521.3074183870913</v>
+        <v>7357.3975619920802</v>
       </c>
       <c r="C25" s="6">
-        <v>7504.8920401895866</v>
+        <v>7341.3399197749532</v>
       </c>
       <c r="D25" s="6">
-        <v>7517.8784282747238</v>
+        <v>7354.0432989511692</v>
       </c>
       <c r="E25" s="6">
-        <v>7443.826833294871</v>
+        <v>7281.6054907272346</v>
       </c>
       <c r="F25" s="6">
-        <v>7456.6673069071412</v>
+        <v>7294.1661353059653</v>
       </c>
       <c r="G25" s="6">
-        <v>7630.1596151456515</v>
+        <v>7463.8775717163298</v>
       </c>
       <c r="H25" s="6">
-        <v>7796.8669003958603</v>
+        <v>7626.9518493436126</v>
       </c>
       <c r="I25" s="6">
-        <v>7960.8747678980344</v>
+        <v>7787.3855369174125</v>
       </c>
       <c r="J25" s="6">
-        <v>8188.4283883336584</v>
+        <v>8009.9801416961864</v>
       </c>
       <c r="K25" s="6">
-        <v>7428.0680702252666</v>
+        <v>7266.19015419879</v>
       </c>
       <c r="L25" s="6">
-        <v>8415.8360942964155</v>
+        <v>8232.4320118774722</v>
       </c>
       <c r="M25" s="6">
-        <v>8841.46861164859</v>
+        <v>8648.78883274293</v>
       </c>
       <c r="N25" s="6">
-        <v>8623.8371753679003</v>
+        <v>8435.9001805931784</v>
       </c>
       <c r="O25" s="6">
-        <v>8275.6852431079478</v>
+        <v>8095.3354309925671</v>
       </c>
       <c r="P25" s="6">
-        <v>8300.7825324410187</v>
+        <v>8119.8857817600874</v>
       </c>
       <c r="Q25" s="6">
-        <v>8328.0685388670936</v>
+        <v>8146.5771514898934</v>
       </c>
       <c r="R25" s="6">
-        <v>8556.3517316670514</v>
+        <v>8369.8854292560936</v>
       </c>
       <c r="S25" s="6">
-        <v>8460.4859229936264</v>
+        <v>8276.1087987080646</v>
       </c>
       <c r="T25" s="6">
-        <v>8190.7630198995257</v>
+        <v>8012.2638952559555</v>
       </c>
       <c r="U25" s="6">
-        <v>8421.8185876839507</v>
+        <v>8238.2841303743844</v>
       </c>
       <c r="V25" s="6">
-        <v>7938.403939076562</v>
+        <v>7765.404408904632</v>
       </c>
       <c r="W25" s="6">
-        <v>8064.2551719240946</v>
+        <v>7888.5129992359516</v>
       </c>
       <c r="X25" s="8">
+        <v>8040.6680801555867</v>
+      </c>
+      <c r="Y25" s="8">
         <v>8219.7999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>26102.878838668526</v>
+        <v>25908.478378126772</v>
       </c>
       <c r="C26" s="6">
-        <v>25942.965240716941</v>
+        <v>25749.755732226142</v>
       </c>
       <c r="D26" s="6">
-        <v>26085.681068102309</v>
+        <v>25891.408687476145</v>
       </c>
       <c r="E26" s="6">
-        <v>26548.480774533618</v>
+        <v>26350.761706029658</v>
       </c>
       <c r="F26" s="6">
-        <v>24392.855741471969</v>
+        <v>24211.190630149231</v>
       </c>
       <c r="G26" s="6">
-        <v>25974.023900993256</v>
+        <v>25780.583083998175</v>
       </c>
       <c r="H26" s="6">
-        <v>27018.724292105533</v>
+        <v>26817.503098148372</v>
       </c>
       <c r="I26" s="6">
-        <v>27587.790819647529</v>
+        <v>27382.331518632644</v>
       </c>
       <c r="J26" s="6">
-        <v>26823.131737307605</v>
+        <v>26623.367213435238</v>
       </c>
       <c r="K26" s="6">
-        <v>26157.809031223329</v>
+        <v>25962.99947960789</v>
       </c>
       <c r="L26" s="6">
-        <v>28425.091231394024</v>
+        <v>28213.39615896629</v>
       </c>
       <c r="M26" s="6">
-        <v>27898.120739267859</v>
+        <v>27690.350264850727</v>
       </c>
       <c r="N26" s="6">
-        <v>29189.493630591172</v>
+        <v>28972.105692661447</v>
       </c>
       <c r="O26" s="6">
-        <v>27669.929425336948</v>
+        <v>27463.85839935207</v>
       </c>
       <c r="P26" s="6">
-        <v>27119.857450360632</v>
+        <v>26917.883070034164</v>
       </c>
       <c r="Q26" s="6">
-        <v>27862.955148707078</v>
+        <v>27655.446569042721</v>
       </c>
       <c r="R26" s="6">
-        <v>27396.81856141963</v>
+        <v>27192.781520959979</v>
       </c>
       <c r="S26" s="6">
-        <v>26605.464432230652</v>
+        <v>26407.320979528758</v>
       </c>
       <c r="T26" s="6">
-        <v>26733.03595419203</v>
+        <v>26533.942416146117</v>
       </c>
       <c r="U26" s="6">
-        <v>26797.463423029665</v>
+        <v>26597.89006321042</v>
       </c>
       <c r="V26" s="6">
-        <v>26557.978050816459</v>
+        <v>26360.188251612843</v>
       </c>
       <c r="W26" s="6">
-        <v>26909.120590138718</v>
+        <v>26708.715666688389</v>
       </c>
       <c r="X26" s="8">
+        <v>27163.482798201436</v>
+      </c>
+      <c r="Y26" s="8">
         <v>27367.3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="6">
-        <v>59074.161721931363</v>
+        <v>57997.877662916224</v>
       </c>
       <c r="C27" s="6">
-        <v>59603.362177622657</v>
+        <v>58517.436508843079</v>
       </c>
       <c r="D27" s="6">
-        <v>58955.384380453746</v>
+        <v>57881.264349762976</v>
       </c>
       <c r="E27" s="6">
-        <v>59384.767258095788</v>
+        <v>58302.824214213644</v>
       </c>
       <c r="F27" s="6">
-        <v>57912.039751793687</v>
+        <v>56856.928627182213</v>
       </c>
       <c r="G27" s="6">
-        <v>58431.760325770803</v>
+        <v>57367.180307270552</v>
       </c>
       <c r="H27" s="6">
-        <v>59410.976342834983</v>
+        <v>58328.555790355436</v>
       </c>
       <c r="I27" s="6">
-        <v>58944.78921853791</v>
+        <v>57870.862223237564</v>
       </c>
       <c r="J27" s="6">
-        <v>58710.580376187703</v>
+        <v>57640.920478991757</v>
       </c>
       <c r="K27" s="6">
-        <v>53767.100882295905</v>
+        <v>52787.507234374702</v>
       </c>
       <c r="L27" s="6">
-        <v>59689.796393251898</v>
+        <v>58602.295962076641</v>
       </c>
       <c r="M27" s="6">
-        <v>60171.039800271479</v>
+        <v>59074.771498467453</v>
       </c>
       <c r="N27" s="6">
-        <v>60290.374781849918</v>
+        <v>59191.932291964134</v>
       </c>
       <c r="O27" s="6">
-        <v>61950.469362032185</v>
+        <v>60821.781274392211</v>
       </c>
       <c r="P27" s="6">
-        <v>60563.618431258481</v>
+        <v>59460.197660250917</v>
       </c>
       <c r="Q27" s="6">
-        <v>61643.767306573587</v>
+        <v>60520.667085498877</v>
       </c>
       <c r="R27" s="6">
-        <v>61386.695220089197</v>
+        <v>60268.278647171923</v>
       </c>
       <c r="S27" s="6">
-        <v>59314.504605390735</v>
+        <v>58233.841690939895</v>
       </c>
       <c r="T27" s="6">
-        <v>58811.513234438622</v>
+        <v>57740.014421154832</v>
       </c>
       <c r="U27" s="6">
-        <v>60603.768518518526</v>
+        <v>59499.616244978766</v>
       </c>
       <c r="V27" s="6">
-        <v>55530.358881132444</v>
+        <v>54518.640080339639</v>
       </c>
       <c r="W27" s="6">
-        <v>56482.808173356607</v>
+        <v>55453.736506939291</v>
       </c>
       <c r="X27" s="8">
+        <v>56467.122622651208</v>
+      </c>
+      <c r="Y27" s="8">
         <v>57515</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>105232.78728631785</v>
+        <v>103996.74261803167</v>
       </c>
       <c r="C28" s="6">
-        <v>106416.46817679558</v>
+        <v>105166.52021381051</v>
       </c>
       <c r="D28" s="6">
-        <v>104652.63124471888</v>
+        <v>103423.40098095895</v>
       </c>
       <c r="E28" s="6">
-        <v>103081.84098147547</v>
+        <v>101871.06092681809</v>
       </c>
       <c r="F28" s="6">
-        <v>102165.37732206694</v>
+        <v>100965.36187841247</v>
       </c>
       <c r="G28" s="6">
-        <v>102934.5158921027</v>
+        <v>101725.46629043359</v>
       </c>
       <c r="H28" s="6">
-        <v>102861.36136496588</v>
+        <v>101653.17102271163</v>
       </c>
       <c r="I28" s="6">
-        <v>102778.04648683785</v>
+        <v>101570.83474558385</v>
       </c>
       <c r="J28" s="6">
-        <v>99260.532973675668</v>
+        <v>98094.637289286533</v>
       </c>
       <c r="K28" s="6">
-        <v>80777.838485537854</v>
+        <v>79829.037079146598</v>
       </c>
       <c r="L28" s="6">
-        <v>102567.72722131947</v>
+        <v>101362.98585088323</v>
       </c>
       <c r="M28" s="6">
-        <v>104291.93878453039</v>
+        <v>103066.94514705207</v>
       </c>
       <c r="N28" s="6">
-        <v>103519.75210919727</v>
+        <v>102303.82843220922</v>
       </c>
       <c r="O28" s="6">
-        <v>108778.74978225544</v>
+        <v>107501.05490066529</v>
       </c>
       <c r="P28" s="6">
-        <v>107483.30503087424</v>
+        <v>106220.82620142234</v>
       </c>
       <c r="Q28" s="6">
-        <v>109897.40442638933</v>
+        <v>108606.57003624685</v>
       </c>
       <c r="R28" s="6">
-        <v>109342.64926226845</v>
+        <v>108058.33092268869</v>
       </c>
       <c r="S28" s="6">
-        <v>109295.91164770881</v>
+        <v>108012.14227942188</v>
       </c>
       <c r="T28" s="6">
-        <v>107404.05429314268</v>
+        <v>106142.5063280569</v>
       </c>
       <c r="U28" s="6">
-        <v>107351.2204679883</v>
+        <v>106090.29307914659</v>
       </c>
       <c r="V28" s="6">
-        <v>105917.59494312642</v>
+        <v>104673.5066519844</v>
       </c>
       <c r="W28" s="6">
-        <v>108270.73223269418</v>
+        <v>106999.00443037394</v>
       </c>
       <c r="X28" s="8">
+        <v>108136.65079605413</v>
+      </c>
+      <c r="Y28" s="8">
         <v>109421.9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="6">
-        <v>59635.499419702159</v>
+        <v>58609.895039902622</v>
       </c>
       <c r="C29" s="6">
-        <v>60434.708816332241</v>
+        <v>59395.359726325914</v>
       </c>
       <c r="D29" s="6">
-        <v>60043.791176676226</v>
+        <v>59011.165042749308</v>
       </c>
       <c r="E29" s="6">
-        <v>60230.273369223243</v>
+        <v>59194.440136248078</v>
       </c>
       <c r="F29" s="6">
-        <v>58376.455051387828</v>
+        <v>57372.503570131441</v>
       </c>
       <c r="G29" s="6">
-        <v>58510.235754736772</v>
+        <v>57503.983528510995</v>
       </c>
       <c r="H29" s="6">
-        <v>59642.449066629386</v>
+        <v>58616.725167610646</v>
       </c>
       <c r="I29" s="6">
-        <v>59702.100202754671</v>
+        <v>58675.350430437902</v>
       </c>
       <c r="J29" s="6">
-        <v>57094.824330560026</v>
+        <v>56112.914185309157</v>
       </c>
       <c r="K29" s="6">
-        <v>52114.823169964344</v>
+        <v>51218.558505197645</v>
       </c>
       <c r="L29" s="6">
-        <v>56098.129133748167</v>
+        <v>55133.360036516046</v>
       </c>
       <c r="M29" s="6">
-        <v>57327.058365377896</v>
+        <v>56341.154286219113</v>
       </c>
       <c r="N29" s="6">
-        <v>57744.616318254921</v>
+        <v>56751.531126009839</v>
       </c>
       <c r="O29" s="6">
-        <v>57255.245347129981</v>
+        <v>56270.576299902823</v>
       </c>
       <c r="P29" s="6">
-        <v>56999.266685310788</v>
+        <v>56018.999929323763</v>
       </c>
       <c r="Q29" s="6">
-        <v>57979.74603929247</v>
+        <v>56982.61711346481</v>
       </c>
       <c r="R29" s="6">
-        <v>57693.652240788651</v>
+        <v>56701.443522817623</v>
       </c>
       <c r="S29" s="6">
-        <v>56718.385122002386</v>
+        <v>55742.948934457614</v>
       </c>
       <c r="T29" s="6">
-        <v>57105.827938194787</v>
+        <v>56123.728554180212</v>
       </c>
       <c r="U29" s="6">
-        <v>57651.375221981405</v>
+        <v>56659.893579260453</v>
       </c>
       <c r="V29" s="6">
-        <v>56314.726462979801</v>
+        <v>55346.232350082944</v>
       </c>
       <c r="W29" s="6">
-        <v>57087.295546388872</v>
+        <v>56105.514880292125</v>
       </c>
       <c r="X29" s="8">
+        <v>56986.601354627819</v>
+      </c>
+      <c r="Y29" s="8">
         <v>57983.8</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6">
-        <v>22384.33842675764</v>
+        <v>21707.791132426348</v>
       </c>
       <c r="C30" s="6">
-        <v>21966.503401223232</v>
+        <v>21302.584809631007</v>
       </c>
       <c r="D30" s="6">
-        <v>21582.407995397753</v>
+        <v>20930.098355681705</v>
       </c>
       <c r="E30" s="6">
-        <v>21246.129004259099</v>
+        <v>20603.98310658706</v>
       </c>
       <c r="F30" s="6">
-        <v>21283.220241819905</v>
+        <v>20639.953293530391</v>
       </c>
       <c r="G30" s="6">
-        <v>21611.67879130417</v>
+        <v>20958.484467064696</v>
       </c>
       <c r="H30" s="6">
-        <v>22001.807109263038</v>
+        <v>21336.821493589116</v>
       </c>
       <c r="I30" s="6">
-        <v>22462.319402111381</v>
+        <v>21783.4152001566</v>
       </c>
       <c r="J30" s="6">
-        <v>22737.375507155692</v>
+        <v>22050.157972007441</v>
       </c>
       <c r="K30" s="6">
-        <v>19863.251478573304</v>
+        <v>19262.901859645688</v>
       </c>
       <c r="L30" s="6">
-        <v>23455.515492218568</v>
+        <v>22746.592796319859</v>
       </c>
       <c r="M30" s="6">
-        <v>22943.835166831512</v>
+        <v>22250.377566800431</v>
       </c>
       <c r="N30" s="6">
-        <v>22696.0388869825</v>
+        <v>22010.070715474209</v>
       </c>
       <c r="O30" s="6">
-        <v>22316.859187339782</v>
+        <v>21642.351394734265</v>
       </c>
       <c r="P30" s="6">
-        <v>22232.845299852645</v>
+        <v>21560.876754428889</v>
       </c>
       <c r="Q30" s="6">
-        <v>23153.869885549346</v>
+        <v>22454.064167563862</v>
       </c>
       <c r="R30" s="6">
-        <v>23147.166649845585</v>
+        <v>22447.563531369284</v>
       </c>
       <c r="S30" s="6">
-        <v>22517.956258452596</v>
+        <v>21837.370480571597</v>
       </c>
       <c r="T30" s="6">
-        <v>22391.265103651524</v>
+        <v>21714.508456494077</v>
       </c>
       <c r="U30" s="6">
-        <v>22317.529510910157</v>
+        <v>21643.001458353723</v>
       </c>
       <c r="V30" s="6">
-        <v>21648.546587674857</v>
+        <v>20994.237966134871</v>
       </c>
       <c r="W30" s="6">
-        <v>21888.075543489231</v>
+        <v>21226.527366154449</v>
       </c>
       <c r="X30" s="8">
+        <v>21469.867847704802</v>
+      </c>
+      <c r="Y30" s="8">
         <v>22139</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="6">
-        <v>41804.437873223003</v>
+        <v>40945.646158859687</v>
       </c>
       <c r="C31" s="6">
-        <v>41999.787693903127</v>
+        <v>41136.98289346719</v>
       </c>
       <c r="D31" s="6">
-        <v>41765.876411874</v>
+        <v>40907.876868514162</v>
       </c>
       <c r="E31" s="6">
-        <v>42568.039558397788</v>
+        <v>41693.561117130237</v>
       </c>
       <c r="F31" s="6">
-        <v>42106.149526854766</v>
+        <v>41241.159727277343</v>
       </c>
       <c r="G31" s="6">
-        <v>43304.097342608991</v>
+        <v>42414.498010868279</v>
       </c>
       <c r="H31" s="6">
-        <v>44394.835820766537</v>
+        <v>43482.829366355749</v>
       </c>
       <c r="I31" s="6">
-        <v>44696.5474743983</v>
+        <v>43778.342934773405</v>
       </c>
       <c r="J31" s="6">
-        <v>43113.832549799074</v>
+        <v>42228.141842020617</v>
       </c>
       <c r="K31" s="6">
-        <v>40829.383779112475</v>
+        <v>39990.622674408762</v>
       </c>
       <c r="L31" s="6">
-        <v>45744.486967981677</v>
+        <v>44804.754528448815</v>
       </c>
       <c r="M31" s="6">
-        <v>46318.671364991569</v>
+        <v>45367.143412165024</v>
       </c>
       <c r="N31" s="6">
-        <v>44874.099697532729</v>
+        <v>43952.247689221447</v>
       </c>
       <c r="O31" s="6">
-        <v>45789.828466490944</v>
+        <v>44849.164573140799</v>
       </c>
       <c r="P31" s="6">
-        <v>45385.14499848766</v>
+        <v>44452.794548086204</v>
       </c>
       <c r="Q31" s="6">
-        <v>47641.202363565659</v>
+        <v>46662.505556872246</v>
       </c>
       <c r="R31" s="6">
-        <v>47947.151540422587</v>
+        <v>46962.169596756452</v>
       </c>
       <c r="S31" s="6">
-        <v>47473.396443849117</v>
+        <v>46498.146886797251</v>
       </c>
       <c r="T31" s="6">
-        <v>47671.288778464332</v>
+        <v>46691.973904284678</v>
       </c>
       <c r="U31" s="6">
-        <v>47747.140444194789</v>
+        <v>46766.26734353575</v>
       </c>
       <c r="V31" s="6">
-        <v>47336.100691353749</v>
+        <v>46363.671611281337</v>
       </c>
       <c r="W31" s="6">
-        <v>48161.146463293429</v>
+        <v>47171.768405816729</v>
       </c>
       <c r="X31" s="8">
+        <v>48027.180575070677</v>
+      </c>
+      <c r="Y31" s="8">
         <v>49034.5</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6">
-        <v>5789.3062313080172</v>
+        <v>5705.2480191893037</v>
       </c>
       <c r="C32" s="6">
-        <v>5670.5714988542049</v>
+        <v>5588.2372634829098</v>
       </c>
       <c r="D32" s="6">
-        <v>5521.3082510130898</v>
+        <v>5441.1412531737633</v>
       </c>
       <c r="E32" s="6">
-        <v>5521.1936974844302</v>
+        <v>5441.0283629125888</v>
       </c>
       <c r="F32" s="6">
-        <v>5233.3779567317024</v>
+        <v>5157.3915817140241</v>
       </c>
       <c r="G32" s="6">
-        <v>4990.3526456841746</v>
+        <v>4917.8948926343191</v>
       </c>
       <c r="H32" s="6">
-        <v>4915.549191470629</v>
+        <v>4844.1775520879855</v>
       </c>
       <c r="I32" s="6">
-        <v>4735.356490891907</v>
+        <v>4666.6011712619775</v>
       </c>
       <c r="J32" s="6">
-        <v>4477.496497883194</v>
+        <v>4412.4851933602977</v>
       </c>
       <c r="K32" s="6">
-        <v>4033.7161278628664</v>
+        <v>3975.1483215739313</v>
       </c>
       <c r="L32" s="6">
-        <v>4518.4493843783575</v>
+        <v>4452.8434617298453</v>
       </c>
       <c r="M32" s="6">
-        <v>4382.7034529188622</v>
+        <v>4319.0685022391772</v>
       </c>
       <c r="N32" s="6">
-        <v>4689.8214632504296</v>
+        <v>4621.7272924454874</v>
       </c>
       <c r="O32" s="6">
-        <v>4772.3572806483771</v>
+        <v>4703.0647256210368</v>
       </c>
       <c r="P32" s="6">
-        <v>4705.1143593262468</v>
+        <v>4636.7981423121582</v>
       </c>
       <c r="Q32" s="6">
-        <v>4826.7702067608334</v>
+        <v>4756.6875996784775</v>
       </c>
       <c r="R32" s="6">
-        <v>4671.4356219008523</v>
+        <v>4603.6084055271322</v>
       </c>
       <c r="S32" s="6">
-        <v>4378.5222491228524</v>
+        <v>4314.9480077063427</v>
       </c>
       <c r="T32" s="6">
-        <v>4275.7677339168031</v>
+        <v>4213.685443433661</v>
       </c>
       <c r="U32" s="6">
-        <v>4313.5703983738786</v>
+        <v>4250.9392296209353</v>
       </c>
       <c r="V32" s="6">
-        <v>4195.6375406206707</v>
+        <v>4134.7187057427564</v>
       </c>
       <c r="W32" s="6">
-        <v>4295.2991105529591</v>
+        <v>4232.9332329637527</v>
       </c>
       <c r="X32" s="8">
+        <v>4359.7654413922455</v>
+      </c>
+      <c r="Y32" s="8">
         <v>4424</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6">
-        <v>15198.811832524272</v>
+        <v>14657.257219196317</v>
       </c>
       <c r="C33" s="6">
-        <v>15475.873154939722</v>
+        <v>14924.446464834835</v>
       </c>
       <c r="D33" s="6">
-        <v>15572.412553344717</v>
+        <v>15017.546031419404</v>
       </c>
       <c r="E33" s="6">
-        <v>15449.004147551479</v>
+        <v>14898.534837211997</v>
       </c>
       <c r="F33" s="6">
-        <v>15346.928923503683</v>
+        <v>14800.096694082016</v>
       </c>
       <c r="G33" s="6">
-        <v>15248.36422303425</v>
+        <v>14705.043989736929</v>
       </c>
       <c r="H33" s="6">
-        <v>15580.513761602479</v>
+        <v>15025.358582461467</v>
       </c>
       <c r="I33" s="6">
-        <v>15849.473875760163</v>
+        <v>15284.73527705792</v>
       </c>
       <c r="J33" s="6">
-        <v>15636.817158993921</v>
+        <v>15079.655812203797</v>
       </c>
       <c r="K33" s="6">
-        <v>14908.518536621148</v>
+        <v>14377.307473522435</v>
       </c>
       <c r="L33" s="6">
-        <v>16459.629877707248</v>
+        <v>15873.150579709214</v>
       </c>
       <c r="M33" s="6">
-        <v>16923.424050464102</v>
+        <v>16320.419126867258</v>
       </c>
       <c r="N33" s="6">
-        <v>18551.226829723673</v>
+        <v>17890.221049585554</v>
       </c>
       <c r="O33" s="6">
-        <v>18065.559394670865</v>
+        <v>17421.85861461395</v>
       </c>
       <c r="P33" s="6">
-        <v>18311.431065293931</v>
+        <v>17658.969538740526</v>
       </c>
       <c r="Q33" s="6">
-        <v>19024.472412114588</v>
+        <v>18346.604239626005</v>
       </c>
       <c r="R33" s="6">
-        <v>20051.975659474021</v>
+        <v>19337.496130127518</v>
       </c>
       <c r="S33" s="6">
-        <v>19389.16180385149</v>
+        <v>18698.299245702823</v>
       </c>
       <c r="T33" s="6">
-        <v>19732.788054118213</v>
+        <v>19029.681619070281</v>
       </c>
       <c r="U33" s="6">
-        <v>19782.475464765816</v>
+        <v>19077.598598794924</v>
       </c>
       <c r="V33" s="6">
-        <v>19391.052085778301</v>
+        <v>18700.122174279306</v>
       </c>
       <c r="W33" s="6">
-        <v>19623.286722500805</v>
+        <v>18924.081970818414</v>
       </c>
       <c r="X33" s="8">
+        <v>19527.210911265585</v>
+      </c>
+      <c r="Y33" s="8">
         <v>20248.7</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="6">
-        <v>9228.6135337615906</v>
+        <v>8917.9339056196659</v>
       </c>
       <c r="C34" s="6">
-        <v>9081.1496326920278</v>
+        <v>8775.4343504706521</v>
       </c>
       <c r="D34" s="6">
-        <v>9188.684575492307</v>
+        <v>8879.3491486068106</v>
       </c>
       <c r="E34" s="6">
-        <v>9352.2787179819097</v>
+        <v>9037.4359234762487</v>
       </c>
       <c r="F34" s="6">
-        <v>9597.5817883205764</v>
+        <v>9274.4809097163579</v>
       </c>
       <c r="G34" s="6">
-        <v>9309.0884540703228</v>
+        <v>8995.6996520936918</v>
       </c>
       <c r="H34" s="6">
-        <v>9520.4563170498859</v>
+        <v>9199.9518536760788</v>
       </c>
       <c r="I34" s="6">
-        <v>9271.8037976731775</v>
+        <v>8959.670177002221</v>
       </c>
       <c r="J34" s="6">
-        <v>9785.9442250125394</v>
+        <v>9456.5021585827308</v>
       </c>
       <c r="K34" s="6">
-        <v>8149.1213661591246</v>
+        <v>7874.7826492478971</v>
       </c>
       <c r="L34" s="6">
-        <v>9692.6003689260706</v>
+        <v>9366.300706757982</v>
       </c>
       <c r="M34" s="6">
-        <v>9842.6204284720316</v>
+        <v>9511.2703677643312</v>
       </c>
       <c r="N34" s="6">
-        <v>10011.150601122959</v>
+        <v>9674.1270022203462</v>
       </c>
       <c r="O34" s="6">
-        <v>10051.079559392245</v>
+        <v>9712.7117592331997</v>
       </c>
       <c r="P34" s="6">
-        <v>10064.212925357197</v>
+        <v>9725.4029927760585</v>
       </c>
       <c r="Q34" s="6">
-        <v>10546.445443439427</v>
+        <v>10191.401239171906</v>
       </c>
       <c r="R34" s="6">
-        <v>10826.653298490315</v>
+        <v>10462.175946774243</v>
       </c>
       <c r="S34" s="6">
-        <v>10678.043533276163</v>
+        <v>10318.569102792633</v>
       </c>
       <c r="T34" s="6">
-        <v>10592.280009223152</v>
+        <v>10235.692792475842</v>
       </c>
       <c r="U34" s="6">
-        <v>10630.446099577677</v>
+        <v>10272.574028207775</v>
       </c>
       <c r="V34" s="6">
-        <v>10264.210290286564</v>
+        <v>9918.6674820965072</v>
       </c>
       <c r="W34" s="6">
-        <v>10494.793413536998</v>
+        <v>10141.48806564093</v>
       </c>
       <c r="X34" s="8">
+        <v>10527.931868217782</v>
+      </c>
+      <c r="Y34" s="8">
         <v>10894.7</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="6">
-        <v>10208.587965401568</v>
+        <v>10051.425590282515</v>
       </c>
       <c r="C35" s="6">
-        <v>10123.266492935229</v>
+        <v>9967.4176516082061</v>
       </c>
       <c r="D35" s="6">
-        <v>10351.867455850961</v>
+        <v>10192.499276648014</v>
       </c>
       <c r="E35" s="6">
-        <v>10092.167068651641</v>
+        <v>9936.7970065056179</v>
       </c>
       <c r="F35" s="6">
-        <v>10271.998479849924</v>
+        <v>10113.859892634548</v>
       </c>
       <c r="G35" s="6">
-        <v>10299.361934333212</v>
+        <v>10140.802083617669</v>
       </c>
       <c r="H35" s="6">
-        <v>10447.992949091145</v>
+        <v>10287.144906965106</v>
       </c>
       <c r="I35" s="6">
-        <v>10119.328578821398</v>
+        <v>9963.5403621309306</v>
       </c>
       <c r="J35" s="6">
-        <v>10124.680103129938</v>
+        <v>9968.809499112871</v>
       </c>
       <c r="K35" s="6">
-        <v>9109.506039015645</v>
+        <v>8969.2641554069414</v>
       </c>
       <c r="L35" s="6">
-        <v>10305.218319425578</v>
+        <v>10146.568308994132</v>
       </c>
       <c r="M35" s="6">
-        <v>10911.253204328501</v>
+        <v>10743.273217778989</v>
       </c>
       <c r="N35" s="6">
-        <v>10960.426644673009</v>
+        <v>10791.689627405487</v>
       </c>
       <c r="O35" s="6">
-        <v>11101.181831203276</v>
+        <v>10930.277871798371</v>
       </c>
       <c r="P35" s="6">
-        <v>11352.804445861402</v>
+        <v>11178.026727628407</v>
       </c>
       <c r="Q35" s="6">
-        <v>11666.322992616415</v>
+        <v>11486.718620626905</v>
       </c>
       <c r="R35" s="6">
-        <v>11354.016111742583</v>
+        <v>11179.219739775261</v>
       </c>
       <c r="S35" s="6">
-        <v>11066.144492805855</v>
+        <v>10895.779937218507</v>
       </c>
       <c r="T35" s="6">
-        <v>10374.485218966298</v>
+        <v>10214.768836722624</v>
       </c>
       <c r="U35" s="6">
-        <v>10372.061887203941</v>
+        <v>10212.382812428916</v>
       </c>
       <c r="V35" s="6">
-        <v>10510.898602755677</v>
+        <v>10349.082120922614</v>
       </c>
       <c r="W35" s="6">
-        <v>10684.368768077773</v>
+        <v>10519.88169328056</v>
       </c>
       <c r="X35" s="8">
+        <v>10758.285287293571</v>
+      </c>
+      <c r="Y35" s="8">
         <v>10926.5</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="6">
-        <v>65112.694156447906</v>
+        <v>63890.983509200763</v>
       </c>
       <c r="C36" s="6">
-        <v>66948.94663438767</v>
+        <v>65692.782348992128</v>
       </c>
       <c r="D36" s="6">
-        <v>69147.186463870312</v>
+        <v>67849.776565162756</v>
       </c>
       <c r="E36" s="6">
-        <v>70185.78022209357</v>
+        <v>68868.88317008935</v>
       </c>
       <c r="F36" s="6">
-        <v>67475.845832675477</v>
+        <v>66209.795328180669</v>
       </c>
       <c r="G36" s="6">
-        <v>67879.353542795987</v>
+        <v>66605.732015905523</v>
       </c>
       <c r="H36" s="6">
-        <v>68819.11715172886</v>
+        <v>67527.862823403848</v>
       </c>
       <c r="I36" s="6">
-        <v>67548.945055523393</v>
+        <v>66281.522989000398</v>
       </c>
       <c r="J36" s="6">
-        <v>68695.140869778785</v>
+        <v>67406.212710653606</v>
       </c>
       <c r="K36" s="6">
-        <v>60775.27866954371</v>
+        <v>59634.951026801849</v>
       </c>
       <c r="L36" s="6">
-        <v>66112.691525007453</v>
+        <v>64872.217909214531</v>
       </c>
       <c r="M36" s="6">
-        <v>68392.21769029701</v>
+        <v>67108.97328421667</v>
       </c>
       <c r="N36" s="6">
-        <v>65689.88562005508</v>
+        <v>64457.345119033271</v>
       </c>
       <c r="O36" s="6">
-        <v>64548.952949844745</v>
+        <v>63337.819788959081</v>
       </c>
       <c r="P36" s="6">
-        <v>65498.073259302138</v>
+        <v>64269.131737042328</v>
       </c>
       <c r="Q36" s="6">
-        <v>68505.667684156972</v>
+        <v>67220.294613808888</v>
       </c>
       <c r="R36" s="6">
-        <v>65648.365261477462</v>
+        <v>64416.603807687665</v>
       </c>
       <c r="S36" s="6">
-        <v>65470.003157728541</v>
+        <v>64241.588315287547</v>
       </c>
       <c r="T36" s="6">
-        <v>65939.592565303581</v>
+        <v>64702.366808393439</v>
       </c>
       <c r="U36" s="6">
-        <v>67262.396101959544</v>
+        <v>66000.350558587088</v>
       </c>
       <c r="V36" s="6">
-        <v>63944.860972229537</v>
+        <v>62745.062399944916</v>
       </c>
       <c r="W36" s="6">
-        <v>64698.66015823729</v>
+        <v>63484.718038317864</v>
       </c>
       <c r="X36" s="8">
+        <v>65419.069595304078</v>
+      </c>
+      <c r="Y36" s="8">
         <v>66670</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="6">
-        <v>4370.0719016304129</v>
+        <v>4224.5494155373945</v>
       </c>
       <c r="C37" s="6">
-        <v>4410.5122028094474</v>
+        <v>4263.6430630918685</v>
       </c>
       <c r="D37" s="6">
-        <v>4505.3796762519942</v>
+        <v>4355.3514693850684</v>
       </c>
       <c r="E37" s="6">
-        <v>4715.9646173002839</v>
+        <v>4558.923975662281</v>
       </c>
       <c r="F37" s="6">
-        <v>4853.7917662165837</v>
+        <v>4692.1615091642607</v>
       </c>
       <c r="G37" s="6">
-        <v>5143.4763726215024</v>
+        <v>4972.1996783809964</v>
       </c>
       <c r="H37" s="6">
-        <v>5331.8213198957155</v>
+        <v>5154.2727780546747</v>
       </c>
       <c r="I37" s="6">
-        <v>5277.0032102416426</v>
+        <v>5101.2801000592453</v>
       </c>
       <c r="J37" s="6">
-        <v>4902.6589400365774</v>
+        <v>4739.4014162521044</v>
       </c>
       <c r="K37" s="6">
-        <v>4402.2156426320089</v>
+        <v>4255.6227766440652</v>
       </c>
       <c r="L37" s="6">
-        <v>4695.3318105762864</v>
+        <v>4538.97823711408</v>
       </c>
       <c r="M37" s="6">
-        <v>4792.1539709716317</v>
+        <v>4632.576239690794</v>
       </c>
       <c r="N37" s="6">
-        <v>4630.2624537919755</v>
+        <v>4476.0756763873351</v>
       </c>
       <c r="O37" s="6">
-        <v>4633.8677652826955</v>
+        <v>4479.5609317547041</v>
       </c>
       <c r="P37" s="6">
-        <v>4515.457173430872</v>
+        <v>4365.093388002294</v>
       </c>
       <c r="Q37" s="6">
-        <v>4716.3555546908428</v>
+        <v>4559.3018949189845</v>
       </c>
       <c r="R37" s="6">
-        <v>4594.4265263239804</v>
+        <v>4441.4330778562489</v>
       </c>
       <c r="S37" s="6">
-        <v>4461.0300011673608</v>
+        <v>4312.4786292635672</v>
       </c>
       <c r="T37" s="6">
-        <v>4494.9112416825556</v>
+        <v>4345.2316315111393</v>
       </c>
       <c r="U37" s="6">
-        <v>4495.4324915366351</v>
+        <v>4345.7355238534092</v>
       </c>
       <c r="V37" s="6">
-        <v>4246.4053737499507</v>
+        <v>4105.0009573337593</v>
       </c>
       <c r="W37" s="6">
-        <v>4340.6647223627378</v>
+        <v>4196.1214892276439</v>
       </c>
       <c r="X37" s="8">
+        <v>4316.5097680017307</v>
+      </c>
+      <c r="Y37" s="8">
         <v>4465.2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="6">
-        <v>81521.303761459771</v>
+        <v>80099.846125995653</v>
       </c>
       <c r="C38" s="6">
-        <v>81388.891877683767</v>
+        <v>79969.743060584122</v>
       </c>
       <c r="D38" s="6">
-        <v>81191.950151814395</v>
+        <v>79776.235336712532</v>
       </c>
       <c r="E38" s="6">
-        <v>85073.797276184283</v>
+        <v>83590.396089789996</v>
       </c>
       <c r="F38" s="6">
-        <v>85223.808207803944</v>
+        <v>83737.791334781548</v>
       </c>
       <c r="G38" s="6">
-        <v>87295.467553970258</v>
+        <v>85773.327902486111</v>
       </c>
       <c r="H38" s="6">
-        <v>88984.138097062954</v>
+        <v>87432.553705044658</v>
       </c>
       <c r="I38" s="6">
-        <v>89069.619186589218</v>
+        <v>87516.544291576152</v>
       </c>
       <c r="J38" s="6">
-        <v>85619.367759337329</v>
+        <v>84126.453656770464</v>
       </c>
       <c r="K38" s="6">
-        <v>76630.444560720833</v>
+        <v>75294.267076997334</v>
       </c>
       <c r="L38" s="6">
-        <v>83460.551223850081</v>
+        <v>82005.27962828867</v>
       </c>
       <c r="M38" s="6">
-        <v>83762.249186884015</v>
+        <v>82301.716992517497</v>
       </c>
       <c r="N38" s="6">
-        <v>84643.039628963626</v>
+        <v>83167.149408641082</v>
       </c>
       <c r="O38" s="6">
-        <v>84704.217271467729</v>
+        <v>83227.260318609697</v>
       </c>
       <c r="P38" s="6">
-        <v>85553.999867346633</v>
+        <v>84062.225561187544</v>
       </c>
       <c r="Q38" s="6">
-        <v>87101.03997779284</v>
+        <v>85582.290489983105</v>
       </c>
       <c r="R38" s="6">
-        <v>87096.849728306246</v>
+        <v>85578.1733043688</v>
       </c>
       <c r="S38" s="6">
-        <v>84901.158997337101</v>
+        <v>83420.768042481286</v>
       </c>
       <c r="T38" s="6">
-        <v>83571.173810295862</v>
+        <v>82113.973328505919</v>
       </c>
       <c r="U38" s="6">
-        <v>84385.758310487465</v>
+        <v>82914.354211923725</v>
       </c>
       <c r="V38" s="6">
-        <v>82083.635242559132</v>
+        <v>80652.372435433266</v>
       </c>
       <c r="W38" s="6">
-        <v>83406.916030421839</v>
+        <v>81952.579652425775</v>
       </c>
       <c r="X38" s="8">
+        <v>83800.37255611876</v>
+      </c>
+      <c r="Y38" s="8">
         <v>85287.5</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="6">
-        <v>109346.64388751425</v>
+        <v>107488.20451540628</v>
       </c>
       <c r="C39" s="6">
-        <v>110055.21187075842</v>
+        <v>108184.72978210187</v>
       </c>
       <c r="D39" s="6">
-        <v>108588.31387796592</v>
+        <v>106742.76297043894</v>
       </c>
       <c r="E39" s="6">
-        <v>107492.46751609359</v>
+        <v>105665.54145110665</v>
       </c>
       <c r="F39" s="6">
-        <v>102418.90439942916</v>
+        <v>100678.20786209543</v>
       </c>
       <c r="G39" s="6">
-        <v>102609.29823920164</v>
+        <v>100865.36579635256</v>
       </c>
       <c r="H39" s="6">
-        <v>104135.69430692308</v>
+        <v>102365.81946247087</v>
       </c>
       <c r="I39" s="6">
-        <v>104329.33349623713</v>
+        <v>102556.16758878921</v>
       </c>
       <c r="J39" s="6">
-        <v>104420.20328340126</v>
+        <v>102645.49296650283</v>
       </c>
       <c r="K39" s="6">
-        <v>94796.660109446704</v>
+        <v>93185.5101076875</v>
       </c>
       <c r="L39" s="6">
-        <v>103887.96595858275</v>
+        <v>102122.30146846586</v>
       </c>
       <c r="M39" s="6">
-        <v>103748.41592829495</v>
+        <v>101985.12320983419</v>
       </c>
       <c r="N39" s="6">
-        <v>102040.28028624524</v>
+        <v>100306.01878828861</v>
       </c>
       <c r="O39" s="6">
-        <v>99876.713925194301</v>
+        <v>98179.224080821135</v>
       </c>
       <c r="P39" s="6">
-        <v>98902.027279540853</v>
+        <v>97221.103065107032</v>
       </c>
       <c r="Q39" s="6">
-        <v>103525.56859310671</v>
+        <v>101766.06335496504</v>
       </c>
       <c r="R39" s="6">
-        <v>103179.39797533856</v>
+        <v>101425.77620177025</v>
       </c>
       <c r="S39" s="6">
-        <v>102614.70715510426</v>
+        <v>100870.68278312123</v>
       </c>
       <c r="T39" s="6">
-        <v>102914.36109610982</v>
+        <v>101165.24385010547</v>
       </c>
       <c r="U39" s="6">
-        <v>103552.61317261985</v>
+        <v>101792.64828880838</v>
       </c>
       <c r="V39" s="6">
-        <v>101368.49293113893</v>
+        <v>99645.649031619963</v>
       </c>
       <c r="W39" s="6">
-        <v>103071.21965728601</v>
+        <v>101319.43646639686</v>
       </c>
       <c r="X39" s="8">
+        <v>103573.83885631239</v>
+      </c>
+      <c r="Y39" s="8">
         <v>105364.6</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="6">
-        <v>4442.7900167397365</v>
+        <v>4326.6314303901627</v>
       </c>
       <c r="C40" s="6">
-        <v>4255.8204511757667</v>
+        <v>4144.5502616094018</v>
       </c>
       <c r="D40" s="6">
-        <v>4198.7695910721404</v>
+        <v>4088.991019888525</v>
       </c>
       <c r="E40" s="6">
-        <v>4312.9627389398165</v>
+        <v>4200.1985405766272</v>
       </c>
       <c r="F40" s="6">
-        <v>4587.4742893583107</v>
+        <v>4467.5328727351762</v>
       </c>
       <c r="G40" s="6">
-        <v>4756.7068888003196</v>
+        <v>4632.3408157245103</v>
       </c>
       <c r="H40" s="6">
-        <v>4843.6545938620966</v>
+        <v>4717.0152370010401</v>
       </c>
       <c r="I40" s="6">
-        <v>4895.2655081705852</v>
+        <v>4767.2767625642373</v>
       </c>
       <c r="J40" s="6">
-        <v>4840.3174842566759</v>
+        <v>4713.765377509354</v>
       </c>
       <c r="K40" s="6">
-        <v>4395.9790546034274</v>
+        <v>4281.0443602602118</v>
       </c>
       <c r="L40" s="6">
-        <v>4900.7054539657229</v>
+        <v>4772.5744787219173</v>
       </c>
       <c r="M40" s="6">
-        <v>4896.5454954165007</v>
+        <v>4768.5232840131039</v>
       </c>
       <c r="N40" s="6">
-        <v>5022.3956699880428</v>
+        <v>4891.0830536105195</v>
       </c>
       <c r="O40" s="6">
-        <v>4865.8715153447583</v>
+        <v>4738.6512878634967</v>
       </c>
       <c r="P40" s="6">
-        <v>4865.7343738541249</v>
+        <v>4738.5177319939758</v>
       </c>
       <c r="Q40" s="6">
-        <v>5127.0803411717816</v>
+        <v>4993.0307006784769</v>
       </c>
       <c r="R40" s="6">
-        <v>5189.0682949382226</v>
+        <v>5053.3979537021223</v>
       </c>
       <c r="S40" s="6">
-        <v>5240.1306432841775</v>
+        <v>5103.1252557872349</v>
       </c>
       <c r="T40" s="6">
-        <v>5485.4310561976881</v>
+        <v>5342.0121877377387</v>
       </c>
       <c r="U40" s="6">
-        <v>5512.265074531686</v>
+        <v>5368.144619540747</v>
       </c>
       <c r="V40" s="6">
-        <v>5574.5730251096056</v>
+        <v>5428.8235029266089</v>
       </c>
       <c r="W40" s="6">
-        <v>5605.2012913511362</v>
+        <v>5458.6509804530415</v>
       </c>
       <c r="X40" s="8">
+        <v>5584.8612771507087</v>
+      </c>
+      <c r="Y40" s="8">
         <v>5734.8</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="6">
-        <v>134473.48651671928</v>
+        <v>132188.14357665306</v>
       </c>
       <c r="C41" s="6">
-        <v>133875.01087651314</v>
+        <v>131599.8388787983</v>
       </c>
       <c r="D41" s="6">
-        <v>133143.54064959451</v>
+        <v>130880.79980364241</v>
       </c>
       <c r="E41" s="6">
-        <v>136029.52318125524</v>
+        <v>133717.73579107554</v>
       </c>
       <c r="F41" s="6">
-        <v>133176.78929627262</v>
+        <v>130913.48339796769</v>
       </c>
       <c r="G41" s="6">
-        <v>134445.55765350966</v>
+        <v>132160.68935741985</v>
       </c>
       <c r="H41" s="6">
-        <v>135157.0786924214</v>
+        <v>132860.11827598055</v>
       </c>
       <c r="I41" s="6">
-        <v>132849.62261295994</v>
+        <v>130591.87682980708</v>
       </c>
       <c r="J41" s="6">
-        <v>127926.16301286404</v>
+        <v>125752.09018212164</v>
       </c>
       <c r="K41" s="6">
-        <v>110934.77461447805</v>
+        <v>109049.46613813755</v>
       </c>
       <c r="L41" s="6">
-        <v>129294.67731013545</v>
+        <v>127097.34692454961</v>
       </c>
       <c r="M41" s="6">
-        <v>131824.23434940673</v>
+        <v>129583.91478081587</v>
       </c>
       <c r="N41" s="6">
-        <v>130841.40435360154</v>
+        <v>128617.78773256099</v>
       </c>
       <c r="O41" s="6">
-        <v>133369.6314470057</v>
+        <v>131103.04824505423</v>
       </c>
       <c r="P41" s="6">
-        <v>133464.05760357156</v>
+        <v>131195.86965293798</v>
       </c>
       <c r="Q41" s="6">
-        <v>139084.40883804084</v>
+        <v>136720.70443768101</v>
       </c>
       <c r="R41" s="6">
-        <v>138205.31461987138</v>
+        <v>135856.55020372098</v>
       </c>
       <c r="S41" s="6">
-        <v>133272.54539870561</v>
+        <v>131007.61214962446</v>
       </c>
       <c r="T41" s="6">
-        <v>132525.11582138151</v>
+        <v>130272.88494919248</v>
       </c>
       <c r="U41" s="6">
-        <v>132529.10565898288</v>
+        <v>130276.80698051151</v>
       </c>
       <c r="V41" s="6">
-        <v>128281.25855938636</v>
+        <v>126101.1509695155</v>
       </c>
       <c r="W41" s="6">
-        <v>131032.91655846752</v>
+        <v>128806.04523587452</v>
       </c>
       <c r="X41" s="8">
+        <v>130896.48792891855</v>
+      </c>
+      <c r="Y41" s="8">
         <v>133159.5</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="6">
-        <v>21548.925303071457</v>
+        <v>21017.560505141693</v>
       </c>
       <c r="C42" s="6">
-        <v>22022.609887423412</v>
+        <v>21479.564724468164</v>
       </c>
       <c r="D42" s="6">
-        <v>22201.948112154045</v>
+        <v>21654.480732396572</v>
       </c>
       <c r="E42" s="6">
-        <v>22882.481859978467</v>
+        <v>22318.233519114528</v>
       </c>
       <c r="F42" s="6">
-        <v>22944.536609020211</v>
+        <v>22378.758089331968</v>
       </c>
       <c r="G42" s="6">
-        <v>22943.502363202846</v>
+        <v>22377.749346495009</v>
       </c>
       <c r="H42" s="6">
-        <v>23374.782869042945</v>
+        <v>22798.39510950624</v>
       </c>
       <c r="I42" s="6">
-        <v>23000.592732321245</v>
+        <v>22433.431951095059</v>
       </c>
       <c r="J42" s="6">
-        <v>20998.706528234688</v>
+        <v>20480.909315880363</v>
       </c>
       <c r="K42" s="6">
-        <v>19111.207911548401</v>
+        <v>18639.953638433155</v>
       </c>
       <c r="L42" s="6">
-        <v>20220.126276924315</v>
+        <v>19721.527708218855</v>
       </c>
       <c r="M42" s="6">
-        <v>20122.70032092878</v>
+        <v>19626.504132977469</v>
       </c>
       <c r="N42" s="6">
-        <v>19001.577854907995</v>
+        <v>18533.026897715674</v>
       </c>
       <c r="O42" s="6">
-        <v>19636.397937605005</v>
+        <v>19152.193251040109</v>
       </c>
       <c r="P42" s="6">
-        <v>19025.158659543857</v>
+        <v>18556.026234398301</v>
       </c>
       <c r="Q42" s="6">
-        <v>19410.72550025654</v>
+        <v>18932.085564016012</v>
       </c>
       <c r="R42" s="6">
-        <v>19917.919649091036</v>
+        <v>19426.773051259908</v>
       </c>
       <c r="S42" s="6">
-        <v>19467.609020211468</v>
+        <v>18987.566420048664</v>
       </c>
       <c r="T42" s="6">
-        <v>19866.827905713337</v>
+        <v>19376.941155114215</v>
       </c>
       <c r="U42" s="6">
-        <v>20336.582355959315</v>
+        <v>19835.112151660254</v>
       </c>
       <c r="V42" s="6">
-        <v>19730.100608658035</v>
+        <v>19243.58535206845</v>
       </c>
       <c r="W42" s="6">
-        <v>19981.21549311361</v>
+        <v>19488.5081128817</v>
       </c>
       <c r="X42" s="8">
+        <v>20053.605850145221</v>
+      </c>
+      <c r="Y42" s="8">
         <v>20560.599999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6">
-        <v>38083.757340290518</v>
+        <v>37753.282068641849</v>
       </c>
       <c r="C43" s="6">
-        <v>38155.098895984862</v>
+        <v>37824.004551491373</v>
       </c>
       <c r="D43" s="6">
-        <v>38094.904458367753</v>
+        <v>37764.332456587086</v>
       </c>
       <c r="E43" s="6">
-        <v>37534.20441908254</v>
+        <v>37208.497942941591</v>
       </c>
       <c r="F43" s="6">
-        <v>36591.158229747976</v>
+        <v>36273.635122774438</v>
       </c>
       <c r="G43" s="6">
-        <v>36548.056039849311</v>
+        <v>36230.906956052844</v>
       </c>
       <c r="H43" s="6">
-        <v>37392.63601950158</v>
+        <v>37068.158016037065</v>
       </c>
       <c r="I43" s="6">
-        <v>38581.661947740598</v>
+        <v>38246.86606352916</v>
       </c>
       <c r="J43" s="6">
-        <v>38948.7737030844</v>
+        <v>38610.792173192342</v>
       </c>
       <c r="K43" s="6">
-        <v>37078.287289723397</v>
+        <v>36756.537075981345</v>
       </c>
       <c r="L43" s="6">
-        <v>39664.04711304068</v>
+        <v>39319.858733011795</v>
       </c>
       <c r="M43" s="6">
-        <v>38337.540061849031</v>
+        <v>38004.862567528435</v>
       </c>
       <c r="N43" s="6">
-        <v>39390.571149545707</v>
+        <v>39048.755882088619</v>
       </c>
       <c r="O43" s="6">
-        <v>37767.922328102024</v>
+        <v>37440.187743526767</v>
       </c>
       <c r="P43" s="6">
-        <v>37090.920690210929</v>
+        <v>36769.060848985951</v>
       </c>
       <c r="Q43" s="6">
-        <v>39182.120041501308</v>
+        <v>38842.113627512656</v>
       </c>
       <c r="R43" s="6">
-        <v>38972.925792251757</v>
+        <v>38634.734680407018</v>
       </c>
       <c r="S43" s="6">
-        <v>38475.021184801662</v>
+        <v>38141.150685519708</v>
       </c>
       <c r="T43" s="6">
-        <v>39389.084867135411</v>
+        <v>39047.282497029257</v>
       </c>
       <c r="U43" s="6">
-        <v>39138.274710397483</v>
+        <v>38798.648768261388</v>
       </c>
       <c r="V43" s="6">
-        <v>36174.62758426174</v>
+        <v>35860.718959887359</v>
       </c>
       <c r="W43" s="6">
-        <v>36471.512495718918</v>
+        <v>36155.027625495546</v>
       </c>
       <c r="X43" s="8">
+        <v>36567.207095852937</v>
+      </c>
+      <c r="Y43" s="8">
         <v>36887.300000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="6">
-        <v>110030.81007082296</v>
+        <v>107809.02996207828</v>
       </c>
       <c r="C44" s="6">
-        <v>109188.93950723192</v>
+        <v>106984.15873959106</v>
       </c>
       <c r="D44" s="6">
-        <v>108699.42801396509</v>
+        <v>106504.53163141639</v>
       </c>
       <c r="E44" s="6">
-        <v>109816.71848379052</v>
+        <v>107599.26138629344</v>
       </c>
       <c r="F44" s="6">
-        <v>109956.10102743142</v>
+        <v>107735.82946948669</v>
       </c>
       <c r="G44" s="6">
-        <v>111837.20783640898</v>
+        <v>109578.9523202627</v>
       </c>
       <c r="H44" s="6">
-        <v>114186.63999201993</v>
+        <v>111880.94393056803</v>
       </c>
       <c r="I44" s="6">
-        <v>114408.53700149625</v>
+        <v>112098.36031901168</v>
       </c>
       <c r="J44" s="6">
-        <v>112281.00185536161</v>
+        <v>110013.78509715</v>
       </c>
       <c r="K44" s="6">
-        <v>99318.425296758112</v>
+        <v>97312.95336017826</v>
       </c>
       <c r="L44" s="6">
-        <v>108671.55150523692</v>
+        <v>106477.21801477774</v>
       </c>
       <c r="M44" s="6">
-        <v>111818.25181047383</v>
+        <v>109560.37906094843</v>
       </c>
       <c r="N44" s="6">
-        <v>107242.04413765586</v>
+        <v>105076.57575354783</v>
       </c>
       <c r="O44" s="6">
-        <v>106808.2856618454</v>
+        <v>104651.57587865046</v>
       </c>
       <c r="P44" s="6">
-        <v>107821.87551920199</v>
+        <v>105644.69897963172</v>
       </c>
       <c r="Q44" s="6">
-        <v>111581.85901645885</v>
+        <v>109328.75959185269</v>
       </c>
       <c r="R44" s="6">
-        <v>111144.75535960101</v>
+        <v>108900.48208295868</v>
       </c>
       <c r="S44" s="6">
-        <v>108601.3027032419</v>
+        <v>106408.38770084834</v>
       </c>
       <c r="T44" s="6">
-        <v>109072.9732309227</v>
+        <v>106870.53409437429</v>
       </c>
       <c r="U44" s="6">
-        <v>110714.34206483791</v>
+        <v>108478.75984205795</v>
       </c>
       <c r="V44" s="6">
-        <v>107177.37063740648</v>
+        <v>105013.20816294616</v>
       </c>
       <c r="W44" s="6">
-        <v>109108.65516209476</v>
+        <v>106905.49552367177</v>
       </c>
       <c r="X44" s="8">
+        <v>109527.60272098205</v>
+      </c>
+      <c r="Y44" s="8">
         <v>111784.8</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="6">
-        <v>5917.5705491841663</v>
+        <v>5804.1595514927731</v>
       </c>
       <c r="C45" s="6">
-        <v>5975.5626727391254</v>
+        <v>5861.0402485702707</v>
       </c>
       <c r="D45" s="6">
-        <v>5904.6268880788193</v>
+        <v>5791.4639573107579</v>
       </c>
       <c r="E45" s="6">
-        <v>5765.2988329492136</v>
+        <v>5654.8061422074124</v>
       </c>
       <c r="F45" s="6">
-        <v>5644.2275574572805</v>
+        <v>5536.0552132210569</v>
       </c>
       <c r="G45" s="6">
-        <v>5547.1218378983904</v>
+        <v>5440.8105372179944</v>
       </c>
       <c r="H45" s="6">
-        <v>5628.6838596233483</v>
+        <v>5520.8094123474575</v>
       </c>
       <c r="I45" s="6">
-        <v>5692.7238946991474</v>
+        <v>5583.6221119466836</v>
       </c>
       <c r="J45" s="6">
-        <v>5785.1382436390677</v>
+        <v>5674.2653280497143</v>
       </c>
       <c r="K45" s="6">
-        <v>5441.4246926276546</v>
+        <v>5337.139091277525</v>
       </c>
       <c r="L45" s="6">
-        <v>5999.9238864352146</v>
+        <v>5884.9345764848922</v>
       </c>
       <c r="M45" s="6">
-        <v>6032.5373906176828</v>
+        <v>5916.9230386814961</v>
       </c>
       <c r="N45" s="6">
-        <v>5863.5350032596616</v>
+        <v>5751.1596037285535</v>
       </c>
       <c r="O45" s="6">
-        <v>6001.2239047995081</v>
+        <v>5886.2096798306839</v>
       </c>
       <c r="P45" s="6">
-        <v>5992.1802987870378</v>
+        <v>5877.3393956860446</v>
       </c>
       <c r="Q45" s="6">
-        <v>6303.2238230784069</v>
+        <v>6182.4217309857249</v>
       </c>
       <c r="R45" s="6">
-        <v>6140.6650050042699</v>
+        <v>6022.9783734858383</v>
       </c>
       <c r="S45" s="6">
-        <v>6082.8989715996213</v>
+        <v>5966.319433511956</v>
       </c>
       <c r="T45" s="6">
-        <v>6099.5731201851122</v>
+        <v>5982.674019903634</v>
       </c>
       <c r="U45" s="6">
-        <v>6149.482520866427</v>
+        <v>6031.6269005268605</v>
       </c>
       <c r="V45" s="6">
-        <v>5950.3536209793683</v>
+        <v>5836.3143315170892</v>
       </c>
       <c r="W45" s="6">
-        <v>6047.1202053127899</v>
+        <v>5931.2263718647273</v>
       </c>
       <c r="X45" s="8">
+        <v>6037.7252208763002</v>
+      </c>
+      <c r="Y45" s="8">
         <v>6155.7</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="6">
-        <v>41162.330332581529</v>
+        <v>40257.336594163593</v>
       </c>
       <c r="C46" s="6">
-        <v>41136.718678362791</v>
+        <v>40232.288036992846</v>
       </c>
       <c r="D46" s="6">
-        <v>41639.747574502704</v>
+        <v>40724.257355174661</v>
       </c>
       <c r="E46" s="6">
-        <v>42941.940118686682</v>
+        <v>41997.819933825129</v>
       </c>
       <c r="F46" s="6">
-        <v>43446.569743215259</v>
+        <v>42491.354786830118</v>
       </c>
       <c r="G46" s="6">
-        <v>43784.323433224883</v>
+        <v>42821.68263451942</v>
       </c>
       <c r="H46" s="6">
-        <v>44309.362344709021</v>
+        <v>43335.178056519857</v>
       </c>
       <c r="I46" s="6">
-        <v>44082.459095614882</v>
+        <v>43113.263495335224</v>
       </c>
       <c r="J46" s="6">
-        <v>41686.16869777417</v>
+        <v>40769.657865046654</v>
       </c>
       <c r="K46" s="6">
-        <v>36673.487748650448</v>
+        <v>35867.185566283355</v>
       </c>
       <c r="L46" s="6">
-        <v>41671.762142276129</v>
+        <v>40755.568051638103</v>
       </c>
       <c r="M46" s="6">
-        <v>40947.43254640243</v>
+        <v>40047.163544152754</v>
       </c>
       <c r="N46" s="6">
-        <v>40700.520192449905</v>
+        <v>39805.679797678458</v>
       </c>
       <c r="O46" s="6">
-        <v>40382.375425201513</v>
+        <v>39494.529751573005</v>
       </c>
       <c r="P46" s="6">
-        <v>39921.765831361387</v>
+        <v>39044.047106205253</v>
       </c>
       <c r="Q46" s="6">
-        <v>41271.980227205502</v>
+        <v>40364.575729550881</v>
       </c>
       <c r="R46" s="6">
-        <v>41673.763052761969</v>
+        <v>40757.524970167069</v>
       </c>
       <c r="S46" s="6">
-        <v>41575.318256858693</v>
+        <v>40661.244578541991</v>
       </c>
       <c r="T46" s="6">
-        <v>41438.45597962731</v>
+        <v>40527.391351160775</v>
       </c>
       <c r="U46" s="6">
-        <v>41329.206267100497</v>
+        <v>40420.543599479286</v>
       </c>
       <c r="V46" s="6">
-        <v>41518.892581158034</v>
+        <v>40606.05947602517</v>
       </c>
       <c r="W46" s="6">
-        <v>42367.278627153741</v>
+        <v>41435.792932306358</v>
       </c>
       <c r="X46" s="8">
+        <v>42341.454827511392</v>
+      </c>
+      <c r="Y46" s="8">
         <v>43293.3</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="6">
-        <v>5347.0623062107888</v>
+        <v>5182.4217642818858</v>
       </c>
       <c r="C47" s="6">
-        <v>5323.078987814878</v>
+        <v>5159.1769124142911</v>
       </c>
       <c r="D47" s="6">
-        <v>5233.0224213878455</v>
+        <v>5071.8932633485501</v>
       </c>
       <c r="E47" s="6">
-        <v>4958.4054842585001</v>
+        <v>4805.7320124937623</v>
       </c>
       <c r="F47" s="6">
-        <v>4865.7546957533232</v>
+        <v>4715.9340196277753</v>
       </c>
       <c r="G47" s="6">
-        <v>4618.6153353292266</v>
+        <v>4476.4042878000992</v>
       </c>
       <c r="H47" s="6">
-        <v>4583.7256955435632</v>
+        <v>4442.5889293437076</v>
       </c>
       <c r="I47" s="6">
-        <v>4645.8281954958902</v>
+        <v>4502.7792411333103</v>
       </c>
       <c r="J47" s="6">
-        <v>4798.1990351061195</v>
+        <v>4650.4584545437747</v>
       </c>
       <c r="K47" s="6">
-        <v>4641.6456741862276</v>
+        <v>4498.725503169645</v>
       </c>
       <c r="L47" s="6">
-        <v>5170.0728285120422</v>
+        <v>5010.8819413384599</v>
       </c>
       <c r="M47" s="6">
-        <v>5253.3526515512667</v>
+        <v>5091.5975086402868</v>
       </c>
       <c r="N47" s="6">
-        <v>5402.705722621612</v>
+        <v>5236.3518731402592</v>
       </c>
       <c r="O47" s="6">
-        <v>5335.3088918975609</v>
+        <v>5171.0302474726004</v>
       </c>
       <c r="P47" s="6">
-        <v>5170.1257718197594</v>
+        <v>5010.9332544772396</v>
       </c>
       <c r="Q47" s="6">
-        <v>5402.705722621612</v>
+        <v>5236.3518731402592</v>
       </c>
       <c r="R47" s="6">
-        <v>5427.3243607101313</v>
+        <v>5260.2124826732215</v>
       </c>
       <c r="S47" s="6">
-        <v>5347.5917392879619</v>
+        <v>5182.9348956696922</v>
       </c>
       <c r="T47" s="6">
-        <v>5594.6252130966222</v>
+        <v>5422.3620012198053</v>
       </c>
       <c r="U47" s="6">
-        <v>5527.9166453728958</v>
+        <v>5357.7074463562949</v>
       </c>
       <c r="V47" s="6">
-        <v>5382.9049255353639</v>
+        <v>5217.160759236328</v>
       </c>
       <c r="W47" s="6">
-        <v>5434.6834804828286</v>
+        <v>5267.3450089637199</v>
       </c>
       <c r="X47" s="8">
+        <v>5381.8246215831596</v>
+      </c>
+      <c r="Y47" s="8">
         <v>5552.8</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="6">
-        <v>63880.4394585993</v>
+        <v>62803.263717899717</v>
       </c>
       <c r="C48" s="6">
-        <v>63319.791789479386</v>
+        <v>62252.069898399095</v>
       </c>
       <c r="D48" s="6">
-        <v>62643.546662808985</v>
+        <v>61587.227868692164</v>
       </c>
       <c r="E48" s="6">
-        <v>62135.560057684306</v>
+        <v>61087.807122729981</v>
       </c>
       <c r="F48" s="6">
-        <v>62111.156149979201</v>
+        <v>61063.814722797542</v>
       </c>
       <c r="G48" s="6">
-        <v>62068.128207446513</v>
+        <v>61021.512333442959</v>
       </c>
       <c r="H48" s="6">
-        <v>63199.698875246373</v>
+        <v>62134.002035573649</v>
       </c>
       <c r="I48" s="6">
-        <v>63830.347226994083</v>
+        <v>62754.016160143641</v>
       </c>
       <c r="J48" s="6">
-        <v>64810.998991880791</v>
+        <v>63718.131810060535</v>
       </c>
       <c r="K48" s="6">
-        <v>55068.059944666464</v>
+        <v>54139.481826505129</v>
       </c>
       <c r="L48" s="6">
-        <v>65502.657112891262</v>
+        <v>64398.126934461638</v>
       </c>
       <c r="M48" s="6">
-        <v>66550.098519918261</v>
+        <v>65427.905994719957</v>
       </c>
       <c r="N48" s="6">
-        <v>64916.321119871245</v>
+        <v>63821.677957137399</v>
       </c>
       <c r="O48" s="6">
-        <v>63839.338140359127</v>
+        <v>62762.855465381923</v>
       </c>
       <c r="P48" s="6">
-        <v>63712.82314515108</v>
+        <v>62638.473813100565</v>
       </c>
       <c r="Q48" s="6">
-        <v>66650.925191226197</v>
+        <v>65527.032489177684</v>
       </c>
       <c r="R48" s="6">
-        <v>69381.594021807919</v>
+        <v>68211.65576582904</v>
       </c>
       <c r="S48" s="6">
-        <v>68224.335030107948</v>
+        <v>67073.910905874713</v>
       </c>
       <c r="T48" s="6">
-        <v>69701.413654364296</v>
+        <v>68526.082480733166</v>
       </c>
       <c r="U48" s="6">
-        <v>70378.943197229702</v>
+        <v>69192.187268331283</v>
       </c>
       <c r="V48" s="6">
-        <v>68405.437713603736</v>
+        <v>67251.959768531276</v>
       </c>
       <c r="W48" s="6">
-        <v>69495.264855065907</v>
+        <v>68323.409839198575</v>
       </c>
       <c r="X48" s="8">
+        <v>69831.774140214591</v>
+      </c>
+      <c r="Y48" s="8">
         <v>71029.5</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="6">
-        <v>303266.08566276653</v>
+        <v>295456.71558458626</v>
       </c>
       <c r="C49" s="6">
-        <v>306370.46365238819</v>
+        <v>298481.1530937861</v>
       </c>
       <c r="D49" s="6">
-        <v>306266.80252443947</v>
+        <v>298380.16133161599</v>
       </c>
       <c r="E49" s="6">
-        <v>305181.08860539779</v>
+        <v>297322.40550678159</v>
       </c>
       <c r="F49" s="6">
-        <v>292152.52157689777</v>
+        <v>284629.33560876874</v>
       </c>
       <c r="G49" s="6">
-        <v>284888.05884722958</v>
+        <v>277551.93922300491</v>
       </c>
       <c r="H49" s="6">
-        <v>284121.51208529313</v>
+        <v>276805.13171853643</v>
       </c>
       <c r="I49" s="6">
-        <v>277048.00406500406</v>
+        <v>269913.7727894017</v>
       </c>
       <c r="J49" s="6">
-        <v>263645.71139100485</v>
+        <v>256856.60101198612</v>
       </c>
       <c r="K49" s="6">
-        <v>240564.74287590047</v>
+        <v>234369.98786142361</v>
       </c>
       <c r="L49" s="6">
-        <v>260876.86810500661</v>
+        <v>254159.05789086322</v>
       </c>
       <c r="M49" s="6">
-        <v>270282.75150414143</v>
+        <v>263322.73146882554</v>
       </c>
       <c r="N49" s="6">
-        <v>273275.28459255525</v>
+        <v>266238.20418199978</v>
       </c>
       <c r="O49" s="6">
-        <v>278390.14287949784</v>
+        <v>271221.35034170962</v>
       </c>
       <c r="P49" s="6">
-        <v>284808.94903905818</v>
+        <v>277474.86656240141</v>
       </c>
       <c r="Q49" s="6">
-        <v>296659.05271824665</v>
+        <v>289019.8195852171</v>
       </c>
       <c r="R49" s="6">
-        <v>290144.76920399664</v>
+        <v>282673.28463621065</v>
       </c>
       <c r="S49" s="6">
-        <v>284484.32603311358</v>
+        <v>277158.60288613179</v>
       </c>
       <c r="T49" s="6">
-        <v>286142.90408029285</v>
+        <v>278774.47108085372</v>
       </c>
       <c r="U49" s="6">
-        <v>292163.43327457662</v>
+        <v>284639.96632057615</v>
       </c>
       <c r="V49" s="6">
-        <v>287534.14553434117</v>
+        <v>280129.88683629478</v>
       </c>
       <c r="W49" s="6">
-        <v>292037.94875127031</v>
+        <v>284517.71313479129</v>
       </c>
       <c r="X49" s="8">
+        <v>295515.1844995268</v>
+      </c>
+      <c r="Y49" s="8">
         <v>303326.09999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="6">
-        <v>25044.531954174185</v>
+        <v>24534.904850455525</v>
       </c>
       <c r="C50" s="6">
-        <v>25677.863368411392</v>
+        <v>25155.348706844881</v>
       </c>
       <c r="D50" s="6">
-        <v>26375.913038025021</v>
+        <v>25839.193877367536</v>
       </c>
       <c r="E50" s="6">
-        <v>26861.180546972988</v>
+        <v>26314.586756772955</v>
       </c>
       <c r="F50" s="6">
-        <v>27287.938932056655</v>
+        <v>26732.66110495085</v>
       </c>
       <c r="G50" s="6">
-        <v>27323.522031876168</v>
+        <v>26767.520130064731</v>
       </c>
       <c r="H50" s="6">
-        <v>27620.843906206985</v>
+        <v>27058.791849976024</v>
       </c>
       <c r="I50" s="6">
-        <v>27948.017374346109</v>
+        <v>27379.307718472788</v>
       </c>
       <c r="J50" s="6">
-        <v>27039.096046070543</v>
+        <v>26488.881882342361</v>
       </c>
       <c r="K50" s="6">
-        <v>25757.388014316744</v>
+        <v>25233.255118676574</v>
       </c>
       <c r="L50" s="6">
-        <v>27569.976790357614</v>
+        <v>27008.959820786378</v>
       </c>
       <c r="M50" s="6">
-        <v>28809.653778029307</v>
+        <v>28223.410823243823</v>
       </c>
       <c r="N50" s="6">
-        <v>29743.65044510386</v>
+        <v>29138.401744186049</v>
       </c>
       <c r="O50" s="6">
-        <v>30040.017068432808</v>
+        <v>29428.737651342602</v>
       </c>
       <c r="P50" s="6">
-        <v>30474.895087032335</v>
+        <v>29854.766407935746</v>
       </c>
       <c r="Q50" s="6">
-        <v>32001.863813515247</v>
+        <v>31350.663096379758</v>
       </c>
       <c r="R50" s="6">
-        <v>31098.196365749947</v>
+        <v>30465.384230400381</v>
       </c>
       <c r="S50" s="6">
-        <v>30407.788704151244</v>
+        <v>29789.025561915605</v>
       </c>
       <c r="T50" s="6">
-        <v>30370.056289577533</v>
+        <v>29752.060958103575</v>
       </c>
       <c r="U50" s="6">
-        <v>30255.903794854537</v>
+        <v>29640.231333912732</v>
       </c>
       <c r="V50" s="6">
-        <v>30055.062271712199</v>
+        <v>29443.47670222968</v>
       </c>
       <c r="W50" s="6">
-        <v>30783.202347884613</v>
+        <v>30156.799974526493</v>
       </c>
       <c r="X50" s="8">
+        <v>30590.783139534884</v>
+      </c>
+      <c r="Y50" s="8">
         <v>31226.2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="6">
-        <v>3610.6345897061806</v>
+        <v>3556.2424525608571</v>
       </c>
       <c r="C51" s="6">
-        <v>3753.0134088252066</v>
+        <v>3696.476416512819</v>
       </c>
       <c r="D51" s="6">
-        <v>3656.2069952366687</v>
+        <v>3601.1283359661979</v>
       </c>
       <c r="E51" s="6">
-        <v>3672.4229432168422</v>
+        <v>3617.1</v>
       </c>
       <c r="F51" s="6">
-        <v>3634.0498594189316</v>
+        <v>3579.3049846786321</v>
       </c>
       <c r="G51" s="6">
-        <v>3455.5346389820193</v>
+        <v>3403.4789935478962</v>
       </c>
       <c r="H51" s="6">
-        <v>3675.2187963168726</v>
+        <v>3619.8537351782425</v>
       </c>
       <c r="I51" s="6">
-        <v>3631.8131769389079</v>
+        <v>3577.1019965360388</v>
       </c>
       <c r="J51" s="6">
-        <v>3535.2514004966229</v>
+        <v>3481.9948678175138</v>
       </c>
       <c r="K51" s="6">
-        <v>3299.7706731466005</v>
+        <v>3250.0615224301023</v>
       </c>
       <c r="L51" s="6">
-        <v>3657.6748181141847</v>
+        <v>3602.5740469347747</v>
       </c>
       <c r="M51" s="6">
-        <v>3733.023059159992</v>
+        <v>3676.7872099883907</v>
       </c>
       <c r="N51" s="6">
-        <v>3902.4517570218068</v>
+        <v>3843.663561789841</v>
       </c>
       <c r="O51" s="6">
-        <v>3708.4195518797283</v>
+        <v>3652.5543404198625</v>
       </c>
       <c r="P51" s="6">
-        <v>3706.1129730722037</v>
+        <v>3650.2825088978138</v>
       </c>
       <c r="Q51" s="6">
-        <v>3762.3445685465558</v>
+        <v>3705.6670076702007</v>
       </c>
       <c r="R51" s="6">
-        <v>3741.0611368225782</v>
+        <v>3684.704198625835</v>
       </c>
       <c r="S51" s="6">
-        <v>3720.3368757186063</v>
+        <v>3664.2921366171186</v>
       </c>
       <c r="T51" s="6">
-        <v>3633.8052222726792</v>
+        <v>3579.064032850536</v>
       </c>
       <c r="U51" s="6">
-        <v>3629.4716499676324</v>
+        <v>3574.7957433242609</v>
       </c>
       <c r="V51" s="6">
-        <v>3507.9568846075808</v>
+        <v>3455.1115281399289</v>
       </c>
       <c r="W51" s="6">
-        <v>3550.3490072367849</v>
+        <v>3496.8650377800195</v>
       </c>
       <c r="X51" s="8">
+        <v>3562.610465160541</v>
+      </c>
+      <c r="Y51" s="8">
         <v>3617.1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="6">
-        <v>50575.335598833524</v>
+        <v>49365.527540474286</v>
       </c>
       <c r="C52" s="6">
-        <v>51093.389716935133</v>
+        <v>49871.189332567097</v>
       </c>
       <c r="D52" s="6">
-        <v>50663.370939164517</v>
+        <v>49451.456995339737</v>
       </c>
       <c r="E52" s="6">
-        <v>51026.637645695148</v>
+        <v>49806.034031625168</v>
       </c>
       <c r="F52" s="6">
-        <v>49011.015320644321</v>
+        <v>47838.627227095996</v>
       </c>
       <c r="G52" s="6">
-        <v>49257.707757835567</v>
+        <v>48079.418556664001</v>
       </c>
       <c r="H52" s="6">
-        <v>50330.094293625749</v>
+        <v>49126.152630491975</v>
       </c>
       <c r="I52" s="6">
-        <v>49356.868443373227</v>
+        <v>48176.207228353102</v>
       </c>
       <c r="J52" s="6">
-        <v>48821.400741469872</v>
+        <v>47653.548401231965</v>
       </c>
       <c r="K52" s="6">
-        <v>45124.400158229306</v>
+        <v>44044.983436745177</v>
       </c>
       <c r="L52" s="6">
-        <v>49601.626037919836</v>
+        <v>48415.109998473512</v>
       </c>
       <c r="M52" s="6">
-        <v>51120.477513960061</v>
+        <v>49897.629164833386</v>
       </c>
       <c r="N52" s="6">
-        <v>49781.082693209944</v>
+        <v>48590.273887237701</v>
       </c>
       <c r="O52" s="6">
-        <v>49392.663032299017</v>
+        <v>48211.145578133561</v>
       </c>
       <c r="P52" s="6">
-        <v>49162.416757587191</v>
+        <v>47986.407003870088</v>
       </c>
       <c r="Q52" s="6">
-        <v>51972.291988261597</v>
+        <v>50729.067461635852</v>
       </c>
       <c r="R52" s="6">
-        <v>51606.606728425155</v>
+        <v>50372.129726040926</v>
       </c>
       <c r="S52" s="6">
-        <v>51536.468682557061</v>
+        <v>50303.669446065709</v>
       </c>
       <c r="T52" s="6">
-        <v>52331.2052988418</v>
+        <v>51079.395239164209</v>
       </c>
       <c r="U52" s="6">
-        <v>52185.124679171691</v>
+        <v>50936.809000870999</v>
       </c>
       <c r="V52" s="6">
-        <v>50430.222400485727</v>
+        <v>49223.885581904877</v>
       </c>
       <c r="W52" s="6">
-        <v>51364.751397845503</v>
+        <v>50136.059795091896</v>
       </c>
       <c r="X52" s="8">
+        <v>51323.019407903601</v>
+      </c>
+      <c r="Y52" s="8">
         <v>52580.800000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="6">
-        <v>80895.904870648359</v>
+        <v>79520.790592482968</v>
       </c>
       <c r="C53" s="6">
-        <v>80486.924185563723</v>
+        <v>79118.761992061365</v>
       </c>
       <c r="D53" s="6">
-        <v>80881.66569786011</v>
+        <v>79506.793465195573</v>
       </c>
       <c r="E53" s="6">
-        <v>84350.486402107956</v>
+        <v>82916.649196044134</v>
       </c>
       <c r="F53" s="6">
-        <v>89132.475263494096</v>
+        <v>87617.351110064599</v>
       </c>
       <c r="G53" s="6">
-        <v>85455.604423506855</v>
+        <v>84002.981797183355</v>
       </c>
       <c r="H53" s="6">
-        <v>84523.72967103163</v>
+        <v>83086.947578040912</v>
       </c>
       <c r="I53" s="6">
-        <v>81619.729487384233</v>
+        <v>80232.311229592771</v>
       </c>
       <c r="J53" s="6">
-        <v>71231.461873203458</v>
+        <v>70020.629255247579</v>
       </c>
       <c r="K53" s="6">
-        <v>66559.431068348771</v>
+        <v>65428.01626861321</v>
       </c>
       <c r="L53" s="6">
-        <v>67958.825327371451</v>
+        <v>66803.622833692149</v>
       </c>
       <c r="M53" s="6">
-        <v>69981.578928457369</v>
+        <v>68791.992526686416</v>
       </c>
       <c r="N53" s="6">
-        <v>66038.119131267973</v>
+        <v>64915.565886257638</v>
       </c>
       <c r="O53" s="6">
-        <v>70586.743771957859</v>
+        <v>69386.87043640115</v>
       </c>
       <c r="P53" s="6">
-        <v>71034.486649632701</v>
+        <v>69827.002327771814</v>
       </c>
       <c r="Q53" s="6">
-        <v>71587.441192909624</v>
+        <v>70370.557437432726</v>
       </c>
       <c r="R53" s="6">
-        <v>67392.422676461196</v>
+        <v>66246.848214926446</v>
       </c>
       <c r="S53" s="6">
-        <v>69430.206515490267</v>
+        <v>68249.992653390756</v>
       </c>
       <c r="T53" s="6">
-        <v>69453.938470137335</v>
+        <v>68273.321198869759</v>
       </c>
       <c r="U53" s="6">
-        <v>71150.773227403377</v>
+        <v>69941.312200618937</v>
       </c>
       <c r="V53" s="6">
-        <v>68470.64448259343</v>
+        <v>67306.741797856128</v>
       </c>
       <c r="W53" s="6">
-        <v>68007.080301820504</v>
+        <v>66851.057542832801</v>
       </c>
       <c r="X53" s="8">
+        <v>68172.230835127382</v>
+      </c>
+      <c r="Y53" s="8">
         <v>69351.100000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="6">
-        <v>10274.432587254605</v>
+        <v>10083.231791960914</v>
       </c>
       <c r="C54" s="6">
-        <v>10129.59545345201</v>
+        <v>9941.0899870668418</v>
       </c>
       <c r="D54" s="6">
-        <v>9779.1205708548187</v>
+        <v>9597.1372238873391</v>
       </c>
       <c r="E54" s="6">
-        <v>9747.2680193701563</v>
+        <v>9565.8774285596992</v>
       </c>
       <c r="F54" s="6">
-        <v>9135.9701164092003</v>
+        <v>8965.9553990803088</v>
       </c>
       <c r="G54" s="6">
-        <v>9021.8237389003352</v>
+        <v>8853.9332146083107</v>
       </c>
       <c r="H54" s="6">
-        <v>9049.3195584190107</v>
+        <v>8880.9173540400716</v>
       </c>
       <c r="I54" s="6">
-        <v>9174.0189089121541</v>
+        <v>9003.2961272376415</v>
       </c>
       <c r="J54" s="6">
-        <v>9092.7900618129715</v>
+        <v>8923.5788984233877</v>
       </c>
       <c r="K54" s="6">
-        <v>8444.3147127422581</v>
+        <v>8287.1712719658408</v>
       </c>
       <c r="L54" s="6">
-        <v>9374.2349468157445</v>
+        <v>9199.7862692970939</v>
       </c>
       <c r="M54" s="6">
-        <v>9563.8980117350529</v>
+        <v>9385.9198226309763</v>
       </c>
       <c r="N54" s="6">
-        <v>9322.6318770852722</v>
+        <v>9149.1435005748081</v>
       </c>
       <c r="O54" s="6">
-        <v>9085.6256581355701</v>
+        <v>8916.5478198390538</v>
       </c>
       <c r="P54" s="6">
-        <v>9178.1820083463208</v>
+        <v>9007.3817539825923</v>
       </c>
       <c r="Q54" s="6">
-        <v>9312.562985430548</v>
+        <v>9139.261984726556</v>
       </c>
       <c r="R54" s="6">
-        <v>9249.0515149930452</v>
+        <v>9076.9324232222043</v>
       </c>
       <c r="S54" s="6">
-        <v>9010.399419522857</v>
+        <v>8842.7214947035627</v>
       </c>
       <c r="T54" s="6">
-        <v>9148.4594147116968</v>
+        <v>8978.2122793151575</v>
       </c>
       <c r="U54" s="6">
-        <v>9127.2566524772265</v>
+        <v>8957.4040872885544</v>
       </c>
       <c r="V54" s="6">
-        <v>8869.6285688885164</v>
+        <v>8704.570301978978</v>
       </c>
       <c r="W54" s="6">
-        <v>9047.3832331007943</v>
+        <v>8879.0170625307928</v>
       </c>
       <c r="X54" s="8">
+        <v>9084.4385746838561</v>
+      </c>
+      <c r="Y54" s="8">
         <v>9256.7000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="6">
-        <v>69239.441293766038</v>
+        <v>67764.25858139238</v>
       </c>
       <c r="C55" s="6">
-        <v>69715.126856840128</v>
+        <v>68229.809413364361</v>
       </c>
       <c r="D55" s="6">
-        <v>69991.175931793419</v>
+        <v>68499.977117591232</v>
       </c>
       <c r="E55" s="6">
-        <v>70765.627825365547</v>
+        <v>69257.928906257628</v>
       </c>
       <c r="F55" s="6">
-        <v>70573.563755759664</v>
+        <v>69069.956862668376</v>
       </c>
       <c r="G55" s="6">
-        <v>71772.759487850941</v>
+        <v>70243.603098985594</v>
       </c>
       <c r="H55" s="6">
-        <v>71895.294987456145</v>
+        <v>70363.5279153257</v>
       </c>
       <c r="I55" s="6">
-        <v>71667.434030325123</v>
+        <v>70140.52165572696</v>
       </c>
       <c r="J55" s="6">
-        <v>69482.447087926907</v>
+        <v>68002.087009302821</v>
       </c>
       <c r="K55" s="6">
-        <v>63739.111845195846</v>
+        <v>62381.116544552802</v>
       </c>
       <c r="L55" s="6">
-        <v>70373.927267638835</v>
+        <v>68874.573734923251</v>
       </c>
       <c r="M55" s="6">
-        <v>70959.757100020972</v>
+        <v>69447.922154616666</v>
       </c>
       <c r="N55" s="6">
-        <v>71666.057226958786</v>
+        <v>70139.174185880431</v>
       </c>
       <c r="O55" s="6">
-        <v>71633.013946166378</v>
+        <v>70106.834909564001</v>
       </c>
       <c r="P55" s="6">
-        <v>71668.122432008313</v>
+        <v>70141.195390650217</v>
       </c>
       <c r="Q55" s="6">
-        <v>73791.153222920751</v>
+        <v>72218.993893981038</v>
       </c>
       <c r="R55" s="6">
-        <v>71322.544787054328</v>
+        <v>69802.980459174185</v>
       </c>
       <c r="S55" s="6">
-        <v>69209.840021389507</v>
+        <v>67735.28797969225</v>
       </c>
       <c r="T55" s="6">
-        <v>69335.817529410575</v>
+        <v>67858.581470648642</v>
       </c>
       <c r="U55" s="6">
-        <v>69303.462650301342</v>
+        <v>67826.915929255469</v>
       </c>
       <c r="V55" s="6">
-        <v>66899.563972653385</v>
+        <v>65474.233577234969</v>
       </c>
       <c r="W55" s="6">
-        <v>67822.02222810821</v>
+        <v>66377.038374402051</v>
       </c>
       <c r="X55" s="8">
+        <v>67406.505337141847</v>
+      </c>
+      <c r="Y55" s="8">
         <v>68873.899999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="6">
-        <v>3604.3593494223451</v>
-      </c>
-      <c r="C56" s="6">
-        <v>3676.2240897302036</v>
-      </c>
-      <c r="D56" s="6">
-        <v>3828.2178433089698</v>
-      </c>
-      <c r="E56" s="6">
-        <v>4031.5189582000071</v>
-      </c>
-      <c r="F56" s="6">
-        <v>4276.9678652026005</v>
-      </c>
-      <c r="G56" s="6">
-        <v>4426.1724266563369</v>
-      </c>
-      <c r="H56" s="6">
-        <v>4513.3605064165185</v>
-      </c>
-      <c r="I56" s="6">
-        <v>4463.4993928727808</v>
-      </c>
-      <c r="J56" s="6">
-        <v>4018.3649904004851</v>
-      </c>
-      <c r="K56" s="6">
-        <v>3418.1377319882786</v>
-      </c>
-      <c r="L56" s="6">
-        <v>3663.3455976961163</v>
-      </c>
-      <c r="M56" s="6">
-        <v>3487.488755936542</v>
-      </c>
-      <c r="N56" s="6">
-        <v>3649.5718094243662</v>
-      </c>
-      <c r="O56" s="6">
-        <v>3880.5926732123007</v>
-      </c>
-      <c r="P56" s="6">
-        <v>3782.0067836572466</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>3872.7760483680827</v>
-      </c>
-      <c r="R56" s="6">
-        <v>4312.7452802384723</v>
-      </c>
-      <c r="S56" s="6">
-        <v>4188.1613653204886</v>
-      </c>
-      <c r="T56" s="6">
-        <v>4114.9881151268146</v>
-      </c>
-      <c r="U56" s="6">
-        <v>4126.1448836269328</v>
-      </c>
-      <c r="V56" s="6">
-        <v>4089.3</v>
-      </c>
-      <c r="W56" s="6">
-        <v>4089.3</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
       <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4587,28 +4702,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:U56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="2"/>
+    <col min="20" max="20" width="8.85546875" style="2"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4669,132 +4785,141 @@
       <c r="T4" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>0.74582338902147072</v>
+        <v>0.74582338902147727</v>
       </c>
       <c r="C5" s="7">
-        <v>0.52610434083907676</v>
+        <v>0.52610434083909707</v>
       </c>
       <c r="D5" s="7">
-        <v>0.986121951683818</v>
+        <v>0.98612195168380856</v>
       </c>
       <c r="E5" s="7">
-        <v>-0.38369078482206537</v>
+        <v>-0.38369078482204472</v>
       </c>
       <c r="F5" s="7">
-        <v>-1.6105151546992202</v>
+        <v>-1.610515154699244</v>
       </c>
       <c r="G5" s="7">
-        <v>-11.933353633007258</v>
+        <v>-11.933353633007281</v>
       </c>
       <c r="H5" s="7">
-        <v>-2.7108036269722899</v>
+        <v>-2.7108036269722979</v>
       </c>
       <c r="I5" s="7">
-        <v>-1.0864216224401069</v>
+        <v>-1.086421622440116</v>
       </c>
       <c r="J5" s="7">
-        <v>1.9805632955019621</v>
+        <v>1.9805632955019707</v>
       </c>
       <c r="K5" s="7">
-        <v>14.268889585201665</v>
+        <v>14.268889585201684</v>
       </c>
       <c r="L5" s="7">
-        <v>2.4520916894340066</v>
+        <v>2.4520916894340128</v>
       </c>
       <c r="M5" s="7">
-        <v>4.9397244546498351</v>
+        <v>4.9397244546498449</v>
       </c>
       <c r="N5" s="7">
-        <v>3.830885082967614</v>
+        <v>3.8308850829675962</v>
       </c>
       <c r="O5" s="7">
-        <v>1.3947067333604435</v>
+        <v>1.3947067333604384</v>
       </c>
       <c r="P5" s="7">
-        <v>1.6085258489441914</v>
+        <v>1.6085258489442091</v>
       </c>
       <c r="Q5" s="7">
-        <v>-1.4313977553494934</v>
+        <v>-1.4313977553495083</v>
       </c>
       <c r="R5" s="7">
-        <v>-3.2090954935130553</v>
+        <v>-3.2090954935130322</v>
       </c>
       <c r="S5" s="7">
-        <v>1.8651148910676007E-3</v>
+        <v>1.8651148910710665E-3</v>
       </c>
       <c r="T5" s="7">
-        <v>2.0288506281991632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.0288506281991556</v>
+      </c>
+      <c r="U5" s="7">
+        <v>3.4806175020580281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>0.22781022250109417</v>
+        <v>0.22781022250108088</v>
       </c>
       <c r="C6" s="7">
-        <v>0.50324974983242166</v>
+        <v>0.50324974983242532</v>
       </c>
       <c r="D6" s="7">
-        <v>1.0233847286964635</v>
+        <v>1.0233847286964353</v>
       </c>
       <c r="E6" s="7">
-        <v>0.31547550762876919</v>
+        <v>0.31547550762877791</v>
       </c>
       <c r="F6" s="7">
-        <v>1.9088711463820918</v>
+        <v>1.908871146382106</v>
       </c>
       <c r="G6" s="7">
-        <v>-13.452039169059148</v>
+        <v>-13.452039169059155</v>
       </c>
       <c r="H6" s="7">
-        <v>-0.83266981955623631</v>
+        <v>-0.83266981955623021</v>
       </c>
       <c r="I6" s="7">
-        <v>-2.235691005775069</v>
+        <v>-2.2356910057750543</v>
       </c>
       <c r="J6" s="7">
-        <v>-3.5808454537722185</v>
+        <v>-3.580845453772227</v>
       </c>
       <c r="K6" s="7">
-        <v>11.605776641015051</v>
+        <v>11.605776641015046</v>
       </c>
       <c r="L6" s="7">
-        <v>-4.6616686819830786</v>
+        <v>-4.6616686819830599</v>
       </c>
       <c r="M6" s="7">
-        <v>-6.4335009942659935E-2</v>
+        <v>-6.4335009942671245E-2</v>
       </c>
       <c r="N6" s="7">
-        <v>4.3803418803418896</v>
+        <v>4.3803418803418808</v>
       </c>
       <c r="O6" s="7">
-        <v>6.2117209078899727</v>
+        <v>6.2117209078899966</v>
       </c>
       <c r="P6" s="7">
-        <v>10.147530338081912</v>
+        <v>10.147530338081888</v>
       </c>
       <c r="Q6" s="7">
-        <v>7.0336122978482605</v>
+        <v>7.033612297848256</v>
       </c>
       <c r="R6" s="7">
-        <v>2.7072201928765209</v>
+        <v>2.7072201928765347</v>
       </c>
       <c r="S6" s="7">
-        <v>4.5556906087759472</v>
+        <v>4.5556906087759366</v>
       </c>
       <c r="T6" s="7">
-        <v>4.2152970328951573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.2152970328951769</v>
+      </c>
+      <c r="U6" s="7">
+        <v>5.3949131072694669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -4802,13 +4927,13 @@
         <v>-8.5874122404425854</v>
       </c>
       <c r="C7" s="7">
-        <v>10.269346230820554</v>
+        <v>10.269346230820524</v>
       </c>
       <c r="D7" s="7">
-        <v>28.01901279707495</v>
+        <v>28.019012797074954</v>
       </c>
       <c r="E7" s="7">
-        <v>19.200796120315086</v>
+        <v>19.200796120315069</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4819,400 +4944,421 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
-        <v>4.9122314281702062</v>
+        <v>4.9122314281702035</v>
       </c>
       <c r="O7" s="7">
-        <v>-2.3828507940657304</v>
+        <v>-2.3828507940657255</v>
       </c>
       <c r="P7" s="7">
-        <v>-2.3783638681967481</v>
+        <v>-2.3783638681967569</v>
       </c>
       <c r="Q7" s="7">
-        <v>-7.7447580009459216</v>
+        <v>-7.7447580009459296</v>
       </c>
       <c r="R7" s="7">
-        <v>3.1147935964019933</v>
+        <v>3.1147935964019835</v>
       </c>
       <c r="S7" s="7">
-        <v>4.8164216277014429</v>
+        <v>4.8164216277014402</v>
       </c>
       <c r="T7" s="7">
-        <v>11.105000481212093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>11.105000481212111</v>
+      </c>
+      <c r="U7" s="7">
+        <v>17.462012788197264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>9.5387520479853407</v>
+        <v>9.5387520479853301</v>
       </c>
       <c r="C8" s="7">
-        <v>8.2672511003601166</v>
+        <v>8.2672511003601272</v>
       </c>
       <c r="D8" s="7">
-        <v>10.524447195695926</v>
+        <v>10.524447195695917</v>
       </c>
       <c r="E8" s="7">
-        <v>9.86169783870006</v>
+        <v>9.8616978387000493</v>
       </c>
       <c r="F8" s="7">
-        <v>4.1770183711064997</v>
+        <v>4.1770183711065121</v>
       </c>
       <c r="G8" s="7">
-        <v>-2.16286590231406</v>
+        <v>-2.1628659023140457</v>
       </c>
       <c r="H8" s="7">
-        <v>3.1076517585042267</v>
+        <v>3.107651758504252</v>
       </c>
       <c r="I8" s="7">
-        <v>5.8228958915037943</v>
+        <v>5.8228958915038014</v>
       </c>
       <c r="J8" s="7">
-        <v>7.9428297953455926</v>
+        <v>7.9428297953455891</v>
       </c>
       <c r="K8" s="7">
-        <v>15.266140109890109</v>
+        <v>15.266140109890085</v>
       </c>
       <c r="L8" s="7">
-        <v>12.698209820822337</v>
+        <v>12.698209820822306</v>
       </c>
       <c r="M8" s="7">
-        <v>5.4783677223349043</v>
+        <v>5.4783677223348848</v>
       </c>
       <c r="N8" s="7">
-        <v>5.0213040962479152</v>
+        <v>5.0213040962479116</v>
       </c>
       <c r="O8" s="7">
         <v>3.6376636725208846</v>
       </c>
       <c r="P8" s="7">
-        <v>-0.24099972355915461</v>
+        <v>-0.24099972355913621</v>
       </c>
       <c r="Q8" s="7">
-        <v>4.5191400554618362</v>
+        <v>4.5191400554618602</v>
       </c>
       <c r="R8" s="7">
-        <v>-2.6682408500590276</v>
+        <v>-2.6682408500590173</v>
       </c>
       <c r="S8" s="7">
-        <v>-0.95798657525188569</v>
+        <v>-0.9579865752518969</v>
       </c>
       <c r="T8" s="7">
-        <v>-1.0473287432765734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.0473287432765748</v>
+      </c>
+      <c r="U8" s="7">
+        <v>-3.1325433024022491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>-1.9980716174547357</v>
+        <v>-1.9980716174547164</v>
       </c>
       <c r="C9" s="7">
-        <v>-1.535189738818362</v>
+        <v>-1.5351897388183593</v>
       </c>
       <c r="D9" s="7">
-        <v>-0.44639901640895657</v>
+        <v>-0.44639901640895102</v>
       </c>
       <c r="E9" s="7">
-        <v>0.63939459378257213</v>
+        <v>0.63939459378257379</v>
       </c>
       <c r="F9" s="7">
-        <v>1.665725028736184</v>
+        <v>1.665725028736172</v>
       </c>
       <c r="G9" s="7">
-        <v>-6.3281008947855648</v>
+        <v>-6.3281008947855639</v>
       </c>
       <c r="H9" s="7">
-        <v>1.1096016644025066</v>
+        <v>1.1096016644024873</v>
       </c>
       <c r="I9" s="7">
-        <v>0.98331902824943407</v>
+        <v>0.9833190282494324</v>
       </c>
       <c r="J9" s="7">
         <v>4.9871608155756615</v>
       </c>
       <c r="K9" s="7">
-        <v>14.667160753070029</v>
+        <v>14.66716075307002</v>
       </c>
       <c r="L9" s="7">
-        <v>6.1081827662992927</v>
+        <v>6.1081827662993033</v>
       </c>
       <c r="M9" s="7">
-        <v>9.7596127196467162</v>
+        <v>9.7596127196467091</v>
       </c>
       <c r="N9" s="7">
-        <v>7.1641736559189004</v>
+        <v>7.1641736559188995</v>
       </c>
       <c r="O9" s="7">
-        <v>2.965941937916305</v>
+        <v>2.9659419379162979</v>
       </c>
       <c r="P9" s="7">
-        <v>2.1729890553607358</v>
+        <v>2.1729890553607465</v>
       </c>
       <c r="Q9" s="7">
-        <v>-2.4662054105011428</v>
+        <v>-2.4662054105011522</v>
       </c>
       <c r="R9" s="7">
-        <v>-1.1471347180705755</v>
+        <v>-1.147134718070578</v>
       </c>
       <c r="S9" s="7">
-        <v>3.4899129919269019</v>
+        <v>3.4899129919269147</v>
       </c>
       <c r="T9" s="7">
-        <v>4.2630821763472264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.2630821763472149</v>
+      </c>
+      <c r="U9" s="7">
+        <v>4.4357761745313979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>6.1427064352162715</v>
+        <v>6.1427064352162768</v>
       </c>
       <c r="C10" s="7">
-        <v>5.2990173139915742</v>
+        <v>5.2990173139915875</v>
       </c>
       <c r="D10" s="7">
-        <v>2.8213421024103122</v>
+        <v>2.8213421024102976</v>
       </c>
       <c r="E10" s="7">
-        <v>2.0628762541805967</v>
+        <v>2.0628762541806025</v>
       </c>
       <c r="F10" s="7">
-        <v>0.31895188615315895</v>
+        <v>0.31895188615315112</v>
       </c>
       <c r="G10" s="7">
-        <v>-8.5368671786120611</v>
+        <v>-8.5368671786120593</v>
       </c>
       <c r="H10" s="7">
-        <v>0.34793304924658619</v>
+        <v>0.34793304924658297</v>
       </c>
       <c r="I10" s="7">
-        <v>2.3593561579198445E-2</v>
+        <v>2.3593561579200267E-2</v>
       </c>
       <c r="J10" s="7">
-        <v>7.7890261915912973</v>
+        <v>7.7890261915913026</v>
       </c>
       <c r="K10" s="7">
-        <v>18.165916798662892</v>
+        <v>18.16591679866286</v>
       </c>
       <c r="L10" s="7">
-        <v>4.9697489733913569</v>
+        <v>4.9697489733913587</v>
       </c>
       <c r="M10" s="7">
-        <v>8.7406630847857478</v>
+        <v>8.7406630847857407</v>
       </c>
       <c r="N10" s="7">
-        <v>1.3628463518165743</v>
+        <v>1.3628463518165772</v>
       </c>
       <c r="O10" s="7">
-        <v>-2.1332061413968546</v>
+        <v>-2.1332061413968617</v>
       </c>
       <c r="P10" s="7">
-        <v>-1.676578778349618</v>
+        <v>-1.6765787783496229</v>
       </c>
       <c r="Q10" s="7">
-        <v>-6.3999357274845439</v>
+        <v>-6.3999357274845332</v>
       </c>
       <c r="R10" s="7">
-        <v>-5.107701946301539</v>
+        <v>-5.1077019463015327</v>
       </c>
       <c r="S10" s="7">
-        <v>-1.7402337677615802</v>
+        <v>-1.7402337677615491</v>
       </c>
       <c r="T10" s="7">
-        <v>0.90093911450069675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.90093911450070729</v>
+      </c>
+      <c r="U10" s="7">
+        <v>4.1981391196868669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>3.8512551916430264</v>
+        <v>3.8512551916430229</v>
       </c>
       <c r="C11" s="7">
-        <v>3.4948989266886539</v>
+        <v>3.4948989266886525</v>
       </c>
       <c r="D11" s="7">
-        <v>6.288137834621117</v>
+        <v>6.2881378346211134</v>
       </c>
       <c r="E11" s="7">
-        <v>4.4682080394728452</v>
+        <v>4.4682080394728283</v>
       </c>
       <c r="F11" s="7">
-        <v>5.5151068808323016</v>
+        <v>5.5151068808322954</v>
       </c>
       <c r="G11" s="7">
-        <v>0.49288161679828024</v>
+        <v>0.49288161679829268</v>
       </c>
       <c r="H11" s="7">
-        <v>5.8681336260142407</v>
+        <v>5.8681336260142585</v>
       </c>
       <c r="I11" s="7">
-        <v>4.9960933727800132</v>
+        <v>4.9960933727800247</v>
       </c>
       <c r="J11" s="7">
-        <v>4.5058974245703789</v>
+        <v>4.5058974245703958</v>
       </c>
       <c r="K11" s="7">
-        <v>8.6496736316231129</v>
+        <v>8.6496736316230951</v>
       </c>
       <c r="L11" s="7">
-        <v>-1.4253815288014222</v>
+        <v>-1.42538152880144</v>
       </c>
       <c r="M11" s="7">
-        <v>0.74080267558528623</v>
+        <v>0.74080267558528889</v>
       </c>
       <c r="N11" s="7">
-        <v>-0.37959166420085466</v>
+        <v>-0.37959166420085971</v>
       </c>
       <c r="O11" s="7">
-        <v>-3.6289645913744031</v>
+        <v>-3.628964591374392</v>
       </c>
       <c r="P11" s="7">
-        <v>-5.1946724801592986E-2</v>
+        <v>-5.1946724801584562E-2</v>
       </c>
       <c r="Q11" s="7">
-        <v>-3.0219278588383718</v>
+        <v>-3.0219278588383855</v>
       </c>
       <c r="R11" s="7">
-        <v>-6.0108965002206478</v>
+        <v>-6.0108965002206585</v>
       </c>
       <c r="S11" s="7">
-        <v>-2.237603935396804</v>
+        <v>-2.2376039353968178</v>
       </c>
       <c r="T11" s="7">
-        <v>-1.9767055475559596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.976705547555961</v>
+      </c>
+      <c r="U11" s="7">
+        <v>-9.8420985065671457E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>3.8253105081382452</v>
+        <v>3.8253105081382603</v>
       </c>
       <c r="C12" s="7">
-        <v>3.1588480679156894</v>
+        <v>3.1588480679156996</v>
       </c>
       <c r="D12" s="7">
-        <v>-0.66677808956642781</v>
+        <v>-0.66677808956640661</v>
       </c>
       <c r="E12" s="7">
-        <v>3.1691104421747682</v>
+        <v>3.1691104421747704</v>
       </c>
       <c r="F12" s="7">
-        <v>-0.67881869320639721</v>
+        <v>-0.67881869320640309</v>
       </c>
       <c r="G12" s="7">
-        <v>-11.548796169024069</v>
+        <v>-11.548796169024083</v>
       </c>
       <c r="H12" s="7">
-        <v>-3.9699618323990644</v>
+        <v>-3.9699618323990791</v>
       </c>
       <c r="I12" s="7">
-        <v>-7.1771440305978418</v>
+        <v>-7.1771440305978347</v>
       </c>
       <c r="J12" s="7">
-        <v>2.0839573405945226</v>
+        <v>2.08395734059452</v>
       </c>
       <c r="K12" s="7">
-        <v>12.911311182851748</v>
+        <v>12.911311182851744</v>
       </c>
       <c r="L12" s="7">
-        <v>3.3981925488749614</v>
+        <v>3.3981925488749454</v>
       </c>
       <c r="M12" s="7">
-        <v>5.8230321801572655</v>
+        <v>5.8230321801572469</v>
       </c>
       <c r="N12" s="7">
-        <v>4.2188653075014786</v>
+        <v>4.2188653075014768</v>
       </c>
       <c r="O12" s="7">
-        <v>3.2880483040312383</v>
+        <v>3.2880483040312516</v>
       </c>
       <c r="P12" s="7">
-        <v>6.6390189520624174</v>
+        <v>6.6390189520624423</v>
       </c>
       <c r="Q12" s="7">
-        <v>6.6846689895470206</v>
+        <v>6.6846689895470615</v>
       </c>
       <c r="R12" s="7">
-        <v>1.835073710073704</v>
+        <v>1.8350737100737022</v>
       </c>
       <c r="S12" s="7">
-        <v>3.4283847562391179</v>
+        <v>3.4283847562391174</v>
       </c>
       <c r="T12" s="7">
-        <v>2.3317080514180111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.3317080514180089</v>
+      </c>
+      <c r="U12" s="7">
+        <v>2.0788085634501816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>17.805280860405627</v>
+        <v>17.805280860405624</v>
       </c>
       <c r="C13" s="7">
-        <v>14.622504782701125</v>
+        <v>14.622504782701112</v>
       </c>
       <c r="D13" s="7">
-        <v>17.364548120202468</v>
+        <v>17.364548120202475</v>
       </c>
       <c r="E13" s="7">
-        <v>9.4038031122781689</v>
+        <v>9.4038031122781547</v>
       </c>
       <c r="F13" s="7">
-        <v>7.3626082422232191</v>
+        <v>7.3626082422232519</v>
       </c>
       <c r="G13" s="7">
-        <v>-3.0826421201699561</v>
+        <v>-3.082642120169941</v>
       </c>
       <c r="H13" s="7">
-        <v>0.96514190689125512</v>
+        <v>0.96514190689124457</v>
       </c>
       <c r="I13" s="7">
         <v>4.6408608386088517</v>
       </c>
       <c r="J13" s="7">
-        <v>-1.9650307334628547</v>
+        <v>-1.9650307334628707</v>
       </c>
       <c r="K13" s="7">
-        <v>5.814307458143074</v>
+        <v>5.8143074581430767</v>
       </c>
       <c r="L13" s="7">
-        <v>-4.6684634419279085</v>
+        <v>-4.6684634419278987</v>
       </c>
       <c r="M13" s="7">
-        <v>-1.5394088669939413E-2</v>
+        <v>-1.5394088669924796E-2</v>
       </c>
       <c r="N13" s="7">
-        <v>-2.3041062958872041</v>
+        <v>-2.3041062958872121</v>
       </c>
       <c r="O13" s="7">
-        <v>-4.3654446819003576</v>
+        <v>-4.365444681900386</v>
       </c>
       <c r="P13" s="7">
-        <v>-1.2011242456807507</v>
+        <v>-1.2011242456807574</v>
       </c>
       <c r="Q13" s="7">
-        <v>-3.4349499615088326</v>
+        <v>-3.4349499615088614</v>
       </c>
       <c r="R13" s="7">
-        <v>-3.0135255339135902</v>
+        <v>-3.0135255339135933</v>
       </c>
       <c r="S13" s="7">
-        <v>2.2518457399719618</v>
+        <v>2.2518457399719831</v>
       </c>
       <c r="T13" s="7">
-        <v>4.3742731159584123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.3742731159584149</v>
+      </c>
+      <c r="U13" s="7">
+        <v>3.5579330027583453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -5235,70 +5381,74 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>3.6671601667510814</v>
+        <v>3.667160166751076</v>
       </c>
       <c r="C15" s="7">
-        <v>2.5739827373612565</v>
+        <v>2.573982737361272</v>
       </c>
       <c r="D15" s="7">
-        <v>3.1589998091238742</v>
+        <v>3.1589998091238938</v>
       </c>
       <c r="E15" s="7">
-        <v>4.1676481950870183</v>
+        <v>4.1676481950870281</v>
       </c>
       <c r="F15" s="7">
-        <v>5.3742730168274981</v>
+        <v>5.3742730168274822</v>
       </c>
       <c r="G15" s="7">
-        <v>-3.1498873027798511</v>
+        <v>-3.149887302779852</v>
       </c>
       <c r="H15" s="7">
-        <v>4.7229160884448138</v>
+        <v>4.7229160884447978</v>
       </c>
       <c r="I15" s="7">
-        <v>2.2966983265490626</v>
+        <v>2.2966983265490617</v>
       </c>
       <c r="J15" s="7">
-        <v>2.4457660517328872</v>
+        <v>2.445766051732893</v>
       </c>
       <c r="K15" s="7">
         <v>11.562554544925607</v>
       </c>
       <c r="L15" s="7">
-        <v>1.8499050311409637</v>
+        <v>1.8499050311409544</v>
       </c>
       <c r="M15" s="7">
-        <v>7.5365420155806593</v>
+        <v>7.5365420155806504</v>
       </c>
       <c r="N15" s="7">
-        <v>6.2743698649213364</v>
+        <v>6.2743698649213462</v>
       </c>
       <c r="O15" s="7">
         <v>6.4319860930030535</v>
       </c>
       <c r="P15" s="7">
-        <v>9.3122500845700724</v>
+        <v>9.3122500845700973</v>
       </c>
       <c r="Q15" s="7">
-        <v>3.3886458573167153</v>
+        <v>3.38864585731671</v>
       </c>
       <c r="R15" s="7">
-        <v>1.5191843085868477</v>
+        <v>1.519184308586857</v>
       </c>
       <c r="S15" s="7">
-        <v>3.0730910575745152</v>
+        <v>3.0730910575745085</v>
       </c>
       <c r="T15" s="7">
-        <v>2.7740527673080622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.7740527673080466</v>
+      </c>
+      <c r="U15" s="7">
+        <v>5.7280109438254163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -5306,87 +5456,90 @@
         <v>-1.8569223876138814</v>
       </c>
       <c r="C16" s="7">
-        <v>1.8225693136346501</v>
+        <v>1.8225693136346337</v>
       </c>
       <c r="D16" s="7">
-        <v>2.5368282027837039</v>
+        <v>2.5368282027837084</v>
       </c>
       <c r="E16" s="7">
-        <v>1.1665795084275385</v>
+        <v>1.1665795084275137</v>
       </c>
       <c r="F16" s="7">
-        <v>2.0756822562645834</v>
+        <v>2.0756822562645882</v>
       </c>
       <c r="G16" s="7">
-        <v>-11.791646250612482</v>
+        <v>-11.79164625061247</v>
       </c>
       <c r="H16" s="7">
-        <v>-1.5486440694759622</v>
+        <v>-1.5486440694759647</v>
       </c>
       <c r="I16" s="7">
-        <v>1.1561095868622966</v>
+        <v>1.1561095868622973</v>
       </c>
       <c r="J16" s="7">
-        <v>1.292041027271866E-2</v>
+        <v>1.2920410272725485E-2</v>
       </c>
       <c r="K16" s="7">
         <v>14.646699391232376</v>
       </c>
       <c r="L16" s="7">
-        <v>2.8471076043637602</v>
+        <v>2.8471076043637473</v>
       </c>
       <c r="M16" s="7">
-        <v>6.350298253717118</v>
+        <v>6.3502982537171304</v>
       </c>
       <c r="N16" s="7">
-        <v>7.1390950918721314</v>
+        <v>7.1390950918721261</v>
       </c>
       <c r="O16" s="7">
-        <v>4.9124403002047083</v>
+        <v>4.9124403002046835</v>
       </c>
       <c r="P16" s="7">
-        <v>4.6656816024580818</v>
+        <v>4.6656816024580969</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.44630894188742959</v>
+        <v>0.44630894188741255</v>
       </c>
       <c r="R16" s="7">
-        <v>-2.2613228460389792</v>
+        <v>-2.2613228460389796</v>
       </c>
       <c r="S16" s="7">
-        <v>0.92555066494500216</v>
+        <v>0.92555066494499838</v>
       </c>
       <c r="T16" s="7">
-        <v>2.8318732996138789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.8318732996138678</v>
+      </c>
+      <c r="U16" s="7">
+        <v>3.2721886959081643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>-13.429270509956364</v>
+        <v>-13.429270509956382</v>
       </c>
       <c r="C17" s="7">
-        <v>-16.971787558775933</v>
+        <v>-16.971787558775915</v>
       </c>
       <c r="D17" s="7">
-        <v>-8.2273200177175401</v>
+        <v>-8.2273200177175028</v>
       </c>
       <c r="E17" s="7">
-        <v>-7.2245886578134213</v>
+        <v>-7.2245886578134098</v>
       </c>
       <c r="F17" s="7">
-        <v>3.4686923979221302</v>
+        <v>3.468692397922136</v>
       </c>
       <c r="G17" s="7">
-        <v>-9.0112568179180617</v>
+        <v>-9.0112568179180634</v>
       </c>
       <c r="H17" s="7">
-        <v>-4.2080096978404322</v>
+        <v>-4.2080096978404438</v>
       </c>
       <c r="I17" s="7">
-        <v>-4.6903132877205529</v>
+        <v>-4.6903132877205769</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5397,408 +5550,429 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>0.27023061309333679</v>
+        <v>0.27023061309335406</v>
       </c>
       <c r="S17" s="7">
-        <v>4.0043209416673067</v>
+        <v>4.0043209416672934</v>
       </c>
       <c r="T17" s="7">
-        <v>2.5645003460703193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.5645003460703153</v>
+      </c>
+      <c r="U17" s="7">
+        <v>3.8134446862318399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>-9.5114969064563196E-2</v>
+        <v>-9.5114969064535149E-2</v>
       </c>
       <c r="C18" s="7">
-        <v>0.1108828822278493</v>
+        <v>0.11088288222784311</v>
       </c>
       <c r="D18" s="7">
-        <v>4.998333888703768</v>
+        <v>4.9983338887037609</v>
       </c>
       <c r="E18" s="7">
-        <v>-1.2636366003315478</v>
+        <v>-1.2636366003315516</v>
       </c>
       <c r="F18" s="7">
-        <v>8.6627783375082075</v>
+        <v>8.6627783375081897</v>
       </c>
       <c r="G18" s="7">
-        <v>-4.4612702908813739</v>
+        <v>-4.4612702908813713</v>
       </c>
       <c r="H18" s="7">
-        <v>-1.784933140058492</v>
+        <v>-1.7849331400584978</v>
       </c>
       <c r="I18" s="7">
-        <v>2.6650962054022842</v>
+        <v>2.6650962054022833</v>
       </c>
       <c r="J18" s="7">
-        <v>-6.5396949616788254</v>
+        <v>-6.5396949616788183</v>
       </c>
       <c r="K18" s="7">
-        <v>5.1969895661098215</v>
+        <v>5.1969895661098331</v>
       </c>
       <c r="L18" s="7">
-        <v>-4.6547779155677551</v>
+        <v>-4.6547779155677356</v>
       </c>
       <c r="M18" s="7">
-        <v>1.6498428924905129</v>
+        <v>1.6498428924905078</v>
       </c>
       <c r="N18" s="7">
-        <v>4.0929817695297324</v>
+        <v>4.0929817695297261</v>
       </c>
       <c r="O18" s="7">
-        <v>8.1867700062328908</v>
+        <v>8.1867700062328836</v>
       </c>
       <c r="P18" s="7">
-        <v>12.987286583131837</v>
+        <v>12.987286583131819</v>
       </c>
       <c r="Q18" s="7">
-        <v>3.6647406633761759</v>
+        <v>3.6647406633761852</v>
       </c>
       <c r="R18" s="7">
-        <v>7.4636261891438131</v>
+        <v>7.4636261891438087</v>
       </c>
       <c r="S18" s="7">
-        <v>3.7281031344454907</v>
+        <v>3.7281031344455018</v>
       </c>
       <c r="T18" s="7">
-        <v>2.9573183089457227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.9573183089457307</v>
+      </c>
+      <c r="U18" s="7">
+        <v>5.5591215255490551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>-1.6549357490106569</v>
+        <v>-1.6549357490106442</v>
       </c>
       <c r="C19" s="7">
-        <v>-0.8626893850884676</v>
+        <v>-0.86268938508847481</v>
       </c>
       <c r="D19" s="7">
-        <v>-0.88522215219047695</v>
+        <v>-0.88522215219048295</v>
       </c>
       <c r="E19" s="7">
-        <v>-4.5486646718828592</v>
+        <v>-4.5486646718828458</v>
       </c>
       <c r="F19" s="7">
-        <v>-6.2105450759316563</v>
+        <v>-6.2105450759316696</v>
       </c>
       <c r="G19" s="7">
-        <v>-14.606667420899795</v>
+        <v>-14.606667420899786</v>
       </c>
       <c r="H19" s="7">
-        <v>-3.9521640091116335</v>
+        <v>-3.9521640091116255</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.31542363146058378</v>
+        <v>-0.31542363146058483</v>
       </c>
       <c r="J19" s="7">
-        <v>4.4265311837420445</v>
+        <v>4.4265311837420418</v>
       </c>
       <c r="K19" s="7">
-        <v>17.136075075903925</v>
+        <v>17.136075075903939</v>
       </c>
       <c r="L19" s="7">
-        <v>4.5525514842483954</v>
+        <v>4.5525514842483883</v>
       </c>
       <c r="M19" s="7">
-        <v>6.6438790956589662</v>
+        <v>6.6438790956589608</v>
       </c>
       <c r="N19" s="7">
-        <v>5.7281590591300038</v>
+        <v>5.7281590591300029</v>
       </c>
       <c r="O19" s="7">
-        <v>7.9173578645761841E-2</v>
+        <v>7.9173578645760204E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>0.53968223963404327</v>
+        <v>0.53968223963405015</v>
       </c>
       <c r="Q19" s="7">
-        <v>-1.3965457242806656</v>
+        <v>-1.3965457242806547</v>
       </c>
       <c r="R19" s="7">
-        <v>-4.9141718374926393</v>
+        <v>-4.9141718374926437</v>
       </c>
       <c r="S19" s="7">
-        <v>0.44264456583162931</v>
+        <v>0.44264456583160117</v>
       </c>
       <c r="T19" s="7">
-        <v>2.5372741459379107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.5372741459379053</v>
+      </c>
+      <c r="U19" s="7">
+        <v>3.9257752639937626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>-1.1216129862945909</v>
+        <v>-1.1216129862945952</v>
       </c>
       <c r="C20" s="7">
-        <v>0.24588978352055763</v>
+        <v>0.24588978352057081</v>
       </c>
       <c r="D20" s="7">
-        <v>0.37549349884650496</v>
+        <v>0.3754934988465054</v>
       </c>
       <c r="E20" s="7">
-        <v>0.12717620648791103</v>
+        <v>0.12717620648790001</v>
       </c>
       <c r="F20" s="7">
-        <v>-0.58935306203158522</v>
+        <v>-0.58935306203158233</v>
       </c>
       <c r="G20" s="7">
-        <v>-18.251250480954191</v>
+        <v>-18.251250480954212</v>
       </c>
       <c r="H20" s="7">
-        <v>-1.878137441578686</v>
+        <v>-1.8781374415786916</v>
       </c>
       <c r="I20" s="7">
-        <v>-5.6771710368054236E-2</v>
+        <v>-5.6771710368043328E-2</v>
       </c>
       <c r="J20" s="7">
         <v>4.7680037259125712</v>
       </c>
       <c r="K20" s="7">
-        <v>25.920739886569532</v>
+        <v>25.920739886569546</v>
       </c>
       <c r="L20" s="7">
-        <v>5.6952162535650181</v>
+        <v>5.6952162535650199</v>
       </c>
       <c r="M20" s="7">
-        <v>8.9673232819209456</v>
+        <v>8.967323281920935</v>
       </c>
       <c r="N20" s="7">
-        <v>8.1832999925909267</v>
+        <v>8.1832999925909462</v>
       </c>
       <c r="O20" s="7">
-        <v>8.9613605569312647</v>
+        <v>8.96136055693127</v>
       </c>
       <c r="P20" s="7">
-        <v>7.3773227995994191</v>
+        <v>7.3773227995994288</v>
       </c>
       <c r="Q20" s="7">
-        <v>1.8112740766919819</v>
+        <v>1.811274076691999</v>
       </c>
       <c r="R20" s="7">
-        <v>-3.7864260521179269</v>
+        <v>-3.7864260521179416</v>
       </c>
       <c r="S20" s="7">
-        <v>-2.06594914454783</v>
+        <v>-2.0659491445478402</v>
       </c>
       <c r="T20" s="7">
-        <v>0.65112262521590025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.65112262521588893</v>
+      </c>
+      <c r="U20" s="7">
+        <v>3.0070294194220177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>-2.2827751610945759</v>
+        <v>-2.2827751610945697</v>
       </c>
       <c r="C21" s="7">
-        <v>-4.9844442973456093</v>
+        <v>-4.9844442973456076</v>
       </c>
       <c r="D21" s="7">
-        <v>-2.0817619550460025</v>
+        <v>-2.0817619550460007</v>
       </c>
       <c r="E21" s="7">
-        <v>-3.9503779072503544</v>
+        <v>-3.9503779072503575</v>
       </c>
       <c r="F21" s="7">
         <v>5.1394269154567302</v>
       </c>
       <c r="G21" s="7">
-        <v>-4.2546627122354845</v>
+        <v>-4.2546627122355121</v>
       </c>
       <c r="H21" s="7">
-        <v>2.6787089816669303</v>
+        <v>2.6787089816669392</v>
       </c>
       <c r="I21" s="7">
-        <v>5.2887913294004747</v>
+        <v>5.2887913294004578</v>
       </c>
       <c r="J21" s="7">
-        <v>4.4588196690573234</v>
+        <v>4.458819669057335</v>
       </c>
       <c r="K21" s="7">
-        <v>11.650364333752568</v>
+        <v>11.6503643337526</v>
       </c>
       <c r="L21" s="7">
-        <v>-1.4572666404096291</v>
+        <v>-1.4572666404096237</v>
       </c>
       <c r="M21" s="7">
-        <v>0.76319536870712568</v>
+        <v>0.76319536870714022</v>
       </c>
       <c r="N21" s="7">
-        <v>-0.23065669846795364</v>
+        <v>-0.23065669846797998</v>
       </c>
       <c r="O21" s="7">
-        <v>-0.66008136969211062</v>
+        <v>-0.66008136969212272</v>
       </c>
       <c r="P21" s="7">
-        <v>2.474211107304638</v>
+        <v>2.4742111073046296</v>
       </c>
       <c r="Q21" s="7">
-        <v>4.3412800310342059E-2</v>
+        <v>4.3412800310355978E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>-4.3710193947680906</v>
+        <v>-4.3710193947680747</v>
       </c>
       <c r="S21" s="7">
-        <v>0.34769732526099029</v>
+        <v>0.34769732526099484</v>
       </c>
       <c r="T21" s="7">
-        <v>1.4217525351955802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.4217525351955782</v>
+      </c>
+      <c r="U21" s="7">
+        <v>3.6284738251315583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>1.4433203925680114</v>
+        <v>1.4433203925680296</v>
       </c>
       <c r="C22" s="7">
-        <v>-0.24318027826507146</v>
+        <v>-0.24318027826506269</v>
       </c>
       <c r="D22" s="7">
-        <v>-3.8171298631041397</v>
+        <v>-3.8171298631041353</v>
       </c>
       <c r="E22" s="7">
-        <v>-4.3976331797915691</v>
+        <v>-4.3976331797915726</v>
       </c>
       <c r="F22" s="7">
-        <v>-4.609153126309419</v>
+        <v>-4.6091531263094208</v>
       </c>
       <c r="G22" s="7">
-        <v>-18.2448337783898</v>
+        <v>-18.244833778389815</v>
       </c>
       <c r="H22" s="7">
-        <v>-6.6102308909607386</v>
+        <v>-6.6102308909607546</v>
       </c>
       <c r="I22" s="7">
-        <v>-1.6588295499531744</v>
+        <v>-1.6588295499531662</v>
       </c>
       <c r="J22" s="7">
-        <v>-2.719508028698304</v>
+        <v>-2.7195080286983107</v>
       </c>
       <c r="K22" s="7">
-        <v>17.484180816679565</v>
+        <v>17.484180816679576</v>
       </c>
       <c r="L22" s="7">
-        <v>8.1846392552366112</v>
+        <v>8.1846392552366307</v>
       </c>
       <c r="M22" s="7">
-        <v>9.3010240650374598</v>
+        <v>9.3010240650374794</v>
       </c>
       <c r="N22" s="7">
-        <v>10.849998494867501</v>
+        <v>10.849998494867494</v>
       </c>
       <c r="O22" s="7">
-        <v>3.4098284430064756</v>
+        <v>3.4098284430064663</v>
       </c>
       <c r="P22" s="7">
-        <v>2.1097922288690656</v>
+        <v>2.1097922288690558</v>
       </c>
       <c r="Q22" s="7">
-        <v>-1.2890533766910381</v>
+        <v>-1.2890533766910557</v>
       </c>
       <c r="R22" s="7">
-        <v>-4.0354116880295603</v>
+        <v>-4.0354116880295541</v>
       </c>
       <c r="S22" s="7">
-        <v>0.60702007475340081</v>
+        <v>0.60702007475339026</v>
       </c>
       <c r="T22" s="7">
-        <v>1.2659631484595799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.2659631484595859</v>
+      </c>
+      <c r="U22" s="7">
+        <v>1.2776761582352745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>5.9873694437697376</v>
+        <v>5.9873694437697251</v>
       </c>
       <c r="C23" s="7">
-        <v>7.4939468518647603</v>
+        <v>7.4939468518647434</v>
       </c>
       <c r="D23" s="7">
-        <v>7.7927136180242051</v>
+        <v>7.7927136180241954</v>
       </c>
       <c r="E23" s="7">
-        <v>5.3262603623266376</v>
+        <v>5.3262603623266402</v>
       </c>
       <c r="F23" s="7">
-        <v>1.7178488216645584</v>
+        <v>1.7178488216645547</v>
       </c>
       <c r="G23" s="7">
-        <v>-19.630707624997697</v>
+        <v>-19.630707624997687</v>
       </c>
       <c r="H23" s="7">
-        <v>-4.2238384212720561</v>
+        <v>-4.2238384212720606</v>
       </c>
       <c r="I23" s="7">
-        <v>-5.0104539330019016</v>
+        <v>-5.0104539330019033</v>
       </c>
       <c r="J23" s="7">
-        <v>-5.1744693634238672</v>
+        <v>-5.1744693634238494</v>
       </c>
       <c r="K23" s="7">
-        <v>15.66248385310945</v>
+        <v>15.662483853109446</v>
       </c>
       <c r="L23" s="7">
-        <v>-1.9675746788422976</v>
+        <v>-1.9675746788422999</v>
       </c>
       <c r="M23" s="7">
-        <v>1.5162928108155629</v>
+        <v>1.5162928108155715</v>
       </c>
       <c r="N23" s="7">
-        <v>5.5726604033224101</v>
+        <v>5.5726604033224048</v>
       </c>
       <c r="O23" s="7">
-        <v>5.7995293366838032</v>
+        <v>5.7995293366838103</v>
       </c>
       <c r="P23" s="7">
-        <v>4.6574963983343594</v>
+        <v>4.6574963983343656</v>
       </c>
       <c r="Q23" s="7">
-        <v>1.7837009626781619</v>
+        <v>1.7837009626781455</v>
       </c>
       <c r="R23" s="7">
-        <v>-0.45480120030007792</v>
+        <v>-0.45480120030006532</v>
       </c>
       <c r="S23" s="7">
-        <v>2.0829406220546858</v>
+        <v>2.082940622054664</v>
       </c>
       <c r="T23" s="7">
         <v>4.5529973034640143</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="7">
+        <v>6.7503597667196935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>3.2296031260298377</v>
+        <v>3.2296031260298763</v>
       </c>
       <c r="C24" s="7">
-        <v>3.1158501111100509</v>
+        <v>3.1158501111100403</v>
       </c>
       <c r="D24" s="7">
-        <v>2.7998036550369734</v>
+        <v>2.7998036550369969</v>
       </c>
       <c r="E24" s="7">
-        <v>-3.1583030123931115</v>
+        <v>-3.1583030123931022</v>
       </c>
       <c r="F24" s="7">
-        <v>-14.190723765220955</v>
+        <v>-14.190723765220969</v>
       </c>
       <c r="G24" s="7">
-        <v>-22.593832664311211</v>
+        <v>-22.593832664311204</v>
       </c>
       <c r="H24" s="7">
         <v>-20.629556849277325</v>
@@ -5810,1959 +5984,2055 @@
         <v>-9.1223146996609152</v>
       </c>
       <c r="K24" s="7">
-        <v>6.2325247938821908</v>
+        <v>6.2325247938821802</v>
       </c>
       <c r="L24" s="7">
-        <v>2.4954879911148149</v>
+        <v>2.4954879911148065</v>
       </c>
       <c r="M24" s="7">
-        <v>5.7616398243045506</v>
+        <v>5.7616398243045364</v>
       </c>
       <c r="N24" s="7">
-        <v>4.2025849464880869</v>
+        <v>4.2025849464880896</v>
       </c>
       <c r="O24" s="7">
-        <v>-5.4248307200863906</v>
+        <v>-5.424830720086387</v>
       </c>
       <c r="P24" s="7">
-        <v>-6.6100030476448497</v>
+        <v>-6.6100030476448666</v>
       </c>
       <c r="Q24" s="7">
-        <v>-8.3781868119698029</v>
+        <v>-8.3781868119697798</v>
       </c>
       <c r="R24" s="7">
-        <v>-5.4923221982758683</v>
+        <v>-5.4923221982758763</v>
       </c>
       <c r="S24" s="7">
-        <v>2.4939642971825564</v>
+        <v>2.493964297182556</v>
       </c>
       <c r="T24" s="7">
-        <v>8.3698949683938348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.3698949683938491</v>
+      </c>
+      <c r="U24" s="7">
+        <v>10.434067860121596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>-0.85942653164164684</v>
+        <v>-0.85942653164163707</v>
       </c>
       <c r="C25" s="7">
-        <v>1.6691455957692953</v>
+        <v>1.6691455957692944</v>
       </c>
       <c r="D25" s="7">
-        <v>3.7110000485224859</v>
+        <v>3.7110000485224983</v>
       </c>
       <c r="E25" s="7">
-        <v>6.945996275605216</v>
+        <v>6.9459962756052072</v>
       </c>
       <c r="F25" s="7">
-        <v>9.8135138837250242</v>
+        <v>9.8135138837250384</v>
       </c>
       <c r="G25" s="7">
-        <v>-2.6485886942553449</v>
+        <v>-2.6485886942553556</v>
       </c>
       <c r="H25" s="7">
-        <v>7.9386912949498862</v>
+        <v>7.9386912949498702</v>
       </c>
       <c r="I25" s="7">
-        <v>11.061521119532255</v>
+        <v>11.061521119532225</v>
       </c>
       <c r="J25" s="7">
-        <v>5.3173669767275982</v>
+        <v>5.3173669767276053</v>
       </c>
       <c r="K25" s="7">
-        <v>11.411004380537078</v>
+        <v>11.411004380537069</v>
       </c>
       <c r="L25" s="7">
-        <v>-1.3671079209036749</v>
+        <v>-1.3671079209036516</v>
       </c>
       <c r="M25" s="7">
-        <v>-5.8067284444701235</v>
+        <v>-5.8067284444700933</v>
       </c>
       <c r="N25" s="7">
-        <v>-0.78254542993467324</v>
+        <v>-0.78254542993469756</v>
       </c>
       <c r="O25" s="7">
-        <v>2.233055927780506</v>
+        <v>2.2330559277805349</v>
       </c>
       <c r="P25" s="7">
-        <v>-1.3254113345520864</v>
+        <v>-1.3254113345520915</v>
       </c>
       <c r="Q25" s="7">
-        <v>1.1257117827420084</v>
+        <v>1.1257117827420211</v>
       </c>
       <c r="R25" s="7">
-        <v>-7.2220943220866562</v>
+        <v>-7.2220943220866438</v>
       </c>
       <c r="S25" s="7">
-        <v>-4.6833096192816672</v>
+        <v>-4.6833096192816885</v>
       </c>
       <c r="T25" s="7">
-        <v>0.3545088538140827</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.35450885381407965</v>
+      </c>
+      <c r="U25" s="7">
+        <v>-0.22436869233769835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>-6.5510900455291834</v>
+        <v>-6.5510900455291745</v>
       </c>
       <c r="C26" s="7">
-        <v>0.11971900662908135</v>
+        <v>0.11971900662907169</v>
       </c>
       <c r="D26" s="7">
-        <v>3.5768405722944827</v>
+        <v>3.5768405722944907</v>
       </c>
       <c r="E26" s="7">
-        <v>3.9147627841321118</v>
+        <v>3.914762784132114</v>
       </c>
       <c r="F26" s="7">
-        <v>9.963064684155686</v>
+        <v>9.9630646841556825</v>
       </c>
       <c r="G26" s="7">
-        <v>0.70757280785841292</v>
+        <v>0.70757280785840371</v>
       </c>
       <c r="H26" s="7">
-        <v>5.2051567057124553</v>
+        <v>5.205156705712465</v>
       </c>
       <c r="I26" s="7">
-        <v>1.1248813710712868</v>
+        <v>1.1248813710713008</v>
       </c>
       <c r="J26" s="7">
-        <v>8.8220939913300835</v>
+        <v>8.8220939913300676</v>
       </c>
       <c r="K26" s="7">
-        <v>5.7807608898309226</v>
+        <v>5.7807608898309253</v>
       </c>
       <c r="L26" s="7">
-        <v>-4.5918367346938522</v>
+        <v>-4.5918367346938798</v>
       </c>
       <c r="M26" s="7">
-        <v>-0.126050033582668</v>
+        <v>-0.12605003358268299</v>
       </c>
       <c r="N26" s="7">
-        <v>-6.1415079406954263</v>
+        <v>-6.1415079406954041</v>
       </c>
       <c r="O26" s="7">
-        <v>-3.8470101486112966</v>
+        <v>-3.8470101486113006</v>
       </c>
       <c r="P26" s="7">
-        <v>-1.4263404476835064</v>
+        <v>-1.4263404476835011</v>
       </c>
       <c r="Q26" s="7">
-        <v>-3.8240442192538047</v>
+        <v>-3.8240442192537976</v>
       </c>
       <c r="R26" s="7">
-        <v>-3.0618172278748883</v>
+        <v>-3.061817227874907</v>
       </c>
       <c r="S26" s="7">
-        <v>1.1413300402311644</v>
+        <v>1.1413300402311741</v>
       </c>
       <c r="T26" s="7">
-        <v>2.37258516726197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.372585167261982</v>
+      </c>
+      <c r="U26" s="7">
+        <v>2.8927480148277231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>-1.9672254946382699</v>
+        <v>-1.9672254946382848</v>
       </c>
       <c r="C27" s="7">
-        <v>-1.9656640314356584</v>
+        <v>-1.965664031435659</v>
       </c>
       <c r="D27" s="7">
-        <v>0.77277413618608404</v>
+        <v>0.77277413618607649</v>
       </c>
       <c r="E27" s="7">
-        <v>-0.74089376766547321</v>
+        <v>-0.74089376766549919</v>
       </c>
       <c r="F27" s="7">
-        <v>1.3788853368254623</v>
+        <v>1.3788853368254792</v>
       </c>
       <c r="G27" s="7">
-        <v>-7.9830890212246306</v>
+        <v>-7.9830890212246244</v>
       </c>
       <c r="H27" s="7">
-        <v>0.46930730242163476</v>
+        <v>0.46930730242161722</v>
       </c>
       <c r="I27" s="7">
-        <v>2.0803375463558678</v>
+        <v>2.0803375463558749</v>
       </c>
       <c r="J27" s="7">
-        <v>2.6908172181908117</v>
+        <v>2.690817218190801</v>
       </c>
       <c r="K27" s="7">
-        <v>15.220029247347513</v>
+        <v>15.220029247347505</v>
       </c>
       <c r="L27" s="7">
-        <v>1.463938714499236</v>
+        <v>1.4639387144992577</v>
       </c>
       <c r="M27" s="7">
-        <v>2.4475686496204827</v>
+        <v>2.4475686496204796</v>
       </c>
       <c r="N27" s="7">
-        <v>1.8184004365640811</v>
+        <v>1.8184004365640762</v>
       </c>
       <c r="O27" s="7">
-        <v>-4.2549552631105056</v>
+        <v>-4.2549552631105145</v>
       </c>
       <c r="P27" s="7">
-        <v>-2.8929995304170122</v>
+        <v>-2.8929995304170091</v>
       </c>
       <c r="Q27" s="7">
-        <v>-1.6871110146185986</v>
+        <v>-1.6871110146186092</v>
       </c>
       <c r="R27" s="7">
-        <v>-9.5400743075679184</v>
+        <v>-9.5400743075679078</v>
       </c>
       <c r="S27" s="7">
-        <v>-4.7740370603664672</v>
+        <v>-4.7740370603664575</v>
       </c>
       <c r="T27" s="7">
-        <v>-2.2045228274783017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-2.2045228274783062</v>
+      </c>
+      <c r="U27" s="7">
+        <v>-3.3355110002852331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>-2.9148804696250106</v>
+        <v>-2.9148804696250141</v>
       </c>
       <c r="C28" s="7">
-        <v>-3.2720051175802167</v>
+        <v>-3.2720051175802265</v>
       </c>
       <c r="D28" s="7">
-        <v>-1.7116338676323499</v>
+        <v>-1.7116338676323686</v>
       </c>
       <c r="E28" s="7">
-        <v>-0.2947119412547326</v>
+        <v>-0.29471194125474842</v>
       </c>
       <c r="F28" s="7">
-        <v>-2.843276679959803</v>
+        <v>-2.8432766799598133</v>
       </c>
       <c r="G28" s="7">
-        <v>-21.525022209061309</v>
+        <v>-21.525022209061291</v>
       </c>
       <c r="H28" s="7">
-        <v>-0.28546593176475699</v>
+        <v>-0.28546593176475288</v>
       </c>
       <c r="I28" s="7">
-        <v>1.4729724386096534</v>
+        <v>1.4729724386096661</v>
       </c>
       <c r="J28" s="7">
-        <v>4.2909492906422022</v>
+        <v>4.2909492906422102</v>
       </c>
       <c r="K28" s="7">
-        <v>34.664100725758786</v>
+        <v>34.664100725758765</v>
       </c>
       <c r="L28" s="7">
-        <v>4.7925189947399289</v>
+        <v>4.7925189947399218</v>
       </c>
       <c r="M28" s="7">
-        <v>5.3747832355863743</v>
+        <v>5.3747832355863912</v>
       </c>
       <c r="N28" s="7">
-        <v>5.6249141197024111</v>
+        <v>5.6249141197024146</v>
       </c>
       <c r="O28" s="7">
-        <v>0.47542545440959727</v>
+        <v>0.47542545440959327</v>
       </c>
       <c r="P28" s="7">
-        <v>-7.3733067390139101E-2</v>
+        <v>-7.3733067390125306E-2</v>
       </c>
       <c r="Q28" s="7">
-        <v>-2.3168736074258209</v>
+        <v>-2.3168736074258338</v>
       </c>
       <c r="R28" s="7">
-        <v>-3.1324047315944576</v>
+        <v>-3.1324047315944559</v>
       </c>
       <c r="S28" s="7">
-        <v>-0.93798514469513705</v>
+        <v>-0.93798514469512539</v>
       </c>
       <c r="T28" s="7">
-        <v>1.8787425857779285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.8787425857779247</v>
+      </c>
+      <c r="U28" s="7">
+        <v>3.1403503790567555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>-2.1112330416711038</v>
+        <v>-2.1112330416711091</v>
       </c>
       <c r="C29" s="7">
-        <v>-3.1843837743045227</v>
+        <v>-3.1843837743045125</v>
       </c>
       <c r="D29" s="7">
-        <v>-0.66841567159859838</v>
+        <v>-0.66841567159861781</v>
       </c>
       <c r="E29" s="7">
-        <v>-0.87692307692307547</v>
+        <v>-0.87692307692307847</v>
       </c>
       <c r="F29" s="7">
-        <v>-2.195458288276674</v>
+        <v>-2.1954582882766784</v>
       </c>
       <c r="G29" s="7">
-        <v>-10.930416707908545</v>
+        <v>-10.930416707908556</v>
       </c>
       <c r="H29" s="7">
-        <v>-5.9426130018934877</v>
+        <v>-5.9426130018934842</v>
       </c>
       <c r="I29" s="7">
-        <v>-3.9781545863728094</v>
+        <v>-3.9781545863728196</v>
       </c>
       <c r="J29" s="7">
-        <v>1.1380926297851715</v>
+        <v>1.1380926297851721</v>
       </c>
       <c r="K29" s="7">
-        <v>9.8636469712291923</v>
+        <v>9.8636469712291888</v>
       </c>
       <c r="L29" s="7">
-        <v>1.6063593661281363</v>
+        <v>1.6063593661281281</v>
       </c>
       <c r="M29" s="7">
-        <v>1.1385333427621989</v>
+        <v>1.1385333427621975</v>
       </c>
       <c r="N29" s="7">
-        <v>-8.8257712520566176E-2</v>
+        <v>-8.8257712520571102E-2</v>
       </c>
       <c r="O29" s="7">
-        <v>-0.93766120793421115</v>
+        <v>-0.93766120793420782</v>
       </c>
       <c r="P29" s="7">
-        <v>0.18695197163205091</v>
+        <v>0.18695197163208796</v>
       </c>
       <c r="Q29" s="7">
-        <v>-0.56635435603413964</v>
+        <v>-0.56635435603412865</v>
       </c>
       <c r="R29" s="7">
-        <v>-2.3900823127885951</v>
+        <v>-2.3900823127885946</v>
       </c>
       <c r="S29" s="7">
-        <v>0.65042476719489117</v>
+        <v>0.65042476719488718</v>
       </c>
       <c r="T29" s="7">
-        <v>1.5374473911059283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.5374473911059112</v>
+      </c>
+      <c r="U29" s="7">
+        <v>2.3365847288215638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>-4.9191455380315734</v>
+        <v>-4.9191455380315414</v>
       </c>
       <c r="C30" s="7">
-        <v>-1.6152985454175792</v>
+        <v>-1.6152985454175572</v>
       </c>
       <c r="D30" s="7">
-        <v>1.9432452298868523</v>
+        <v>1.9432452298868512</v>
       </c>
       <c r="E30" s="7">
-        <v>5.7242916938350463</v>
+        <v>5.7242916938350481</v>
       </c>
       <c r="F30" s="7">
-        <v>6.8324024692395113</v>
+        <v>6.8324024692395007</v>
       </c>
       <c r="G30" s="7">
-        <v>-8.0901966460577608</v>
+        <v>-8.0901966460577768</v>
       </c>
       <c r="H30" s="7">
-        <v>6.6072226510135206</v>
+        <v>6.6072226510135312</v>
       </c>
       <c r="I30" s="7">
-        <v>2.1436600383968787</v>
+        <v>2.1436600383968907</v>
       </c>
       <c r="J30" s="7">
-        <v>-0.18180031446541581</v>
+        <v>-0.18180031446542266</v>
       </c>
       <c r="K30" s="7">
-        <v>12.352497834572603</v>
+        <v>12.352497834572592</v>
       </c>
       <c r="L30" s="7">
-        <v>-5.2127193400270739</v>
+        <v>-5.2127193400270704</v>
       </c>
       <c r="M30" s="7">
-        <v>0.91542986249076741</v>
+        <v>0.91542986249073599</v>
       </c>
       <c r="N30" s="7">
-        <v>1.9876938222988025</v>
+        <v>1.9876938222987866</v>
       </c>
       <c r="O30" s="7">
-        <v>0.90109934119625135</v>
+        <v>0.90109934119626744</v>
       </c>
       <c r="P30" s="7">
-        <v>0.71254849148763244</v>
+        <v>0.71254849148761878</v>
       </c>
       <c r="Q30" s="7">
-        <v>-3.6120975835713769</v>
+        <v>-3.6120975835713676</v>
       </c>
       <c r="R30" s="7">
-        <v>-6.4743131841612485</v>
+        <v>-6.4743131841612414</v>
       </c>
       <c r="S30" s="7">
-        <v>-2.7972374923098346</v>
+        <v>-2.7972374923098307</v>
       </c>
       <c r="T30" s="7">
-        <v>-1.1266228258374942</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.126622825837496</v>
+      </c>
+      <c r="U30" s="7">
+        <v>2.2917271553148297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>0.72172158981479329</v>
+        <v>0.7217215898147803</v>
       </c>
       <c r="C31" s="7">
-        <v>3.1055148616744175</v>
+        <v>3.1055148616744259</v>
       </c>
       <c r="D31" s="7">
-        <v>6.2945151275339359</v>
+        <v>6.2945151275339528</v>
       </c>
       <c r="E31" s="7">
-        <v>5.0002488676521661</v>
+        <v>5.0002488676521653</v>
       </c>
       <c r="F31" s="7">
-        <v>2.3931967996779666</v>
+        <v>2.3931967996779524</v>
       </c>
       <c r="G31" s="7">
-        <v>-5.7147330515108692</v>
+        <v>-5.7147330515108878</v>
       </c>
       <c r="H31" s="7">
-        <v>3.0401084321249239</v>
+        <v>3.040108432124907</v>
       </c>
       <c r="I31" s="7">
-        <v>3.6291928174595691</v>
+        <v>3.6291928174595762</v>
       </c>
       <c r="J31" s="7">
-        <v>4.0828361656330152</v>
+        <v>4.0828361656330259</v>
       </c>
       <c r="K31" s="7">
-        <v>12.149202922617063</v>
+        <v>12.149202922617079</v>
       </c>
       <c r="L31" s="7">
-        <v>-0.78554158831321885</v>
+        <v>-0.78554158831320964</v>
       </c>
       <c r="M31" s="7">
-        <v>2.8552869924798423</v>
+        <v>2.8552869924798383</v>
       </c>
       <c r="N31" s="7">
-        <v>6.8481637817879628</v>
+        <v>6.8481637817879726</v>
       </c>
       <c r="O31" s="7">
-        <v>3.6767291639675164</v>
+        <v>3.6767291639675088</v>
       </c>
       <c r="P31" s="7">
-        <v>5.037207174402222</v>
+        <v>5.0372071744022131</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.22236651338201299</v>
+        <v>0.22236651338201241</v>
       </c>
       <c r="R31" s="7">
-        <v>-1.2744257571874342</v>
+        <v>-1.2744257571874429</v>
       </c>
       <c r="S31" s="7">
-        <v>1.4487061616873655</v>
+        <v>1.4487061616873749</v>
       </c>
       <c r="T31" s="7">
-        <v>2.8596063930025397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.8596063930025339</v>
+      </c>
+      <c r="U31" s="7">
+        <v>4.850146880019869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>-9.6026752146899348</v>
+        <v>-9.6026752146899312</v>
       </c>
       <c r="C32" s="7">
-        <v>-11.995596093047681</v>
+        <v>-11.995596093047682</v>
       </c>
       <c r="D32" s="7">
-        <v>-10.971295787213325</v>
+        <v>-10.971295787213293</v>
       </c>
       <c r="E32" s="7">
-        <v>-14.233103376731137</v>
+        <v>-14.233103376731151</v>
       </c>
       <c r="F32" s="7">
-        <v>-14.44347159899309</v>
+        <v>-14.443471598993108</v>
       </c>
       <c r="G32" s="7">
-        <v>-19.169717768315227</v>
+        <v>-19.16971776831522</v>
       </c>
       <c r="H32" s="7">
-        <v>-8.0784423392875784</v>
+        <v>-8.0784423392875748</v>
       </c>
       <c r="I32" s="7">
-        <v>-7.4472331418203828</v>
+        <v>-7.4472331418203854</v>
       </c>
       <c r="J32" s="7">
-        <v>4.7420464866385821</v>
+        <v>4.742046486638583</v>
       </c>
       <c r="K32" s="7">
-        <v>18.311679091231827</v>
+        <v>18.311679091231802</v>
       </c>
       <c r="L32" s="7">
-        <v>4.1311733089950371</v>
+        <v>4.1311733089950122</v>
       </c>
       <c r="M32" s="7">
-        <v>10.132256462531695</v>
+        <v>10.132256462531702</v>
       </c>
       <c r="N32" s="7">
-        <v>-0.39203712750366376</v>
+        <v>-0.39203712750364339</v>
       </c>
       <c r="O32" s="7">
-        <v>-8.2524213583610386</v>
+        <v>-8.2524213583610333</v>
       </c>
       <c r="P32" s="7">
-        <v>-9.125104994704623</v>
+        <v>-9.125104994704607</v>
       </c>
       <c r="Q32" s="7">
-        <v>-10.632364633147821</v>
+        <v>-10.632364633147816</v>
       </c>
       <c r="R32" s="7">
-        <v>-10.185264655034992</v>
+        <v>-10.185264655035011</v>
       </c>
       <c r="S32" s="7">
-        <v>-1.9007129308653248</v>
+        <v>-1.9007129308653188</v>
       </c>
       <c r="T32" s="7">
-        <v>3.4667988372560461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.4667988372560239</v>
+      </c>
+      <c r="U32" s="7">
+        <v>4.0711184289147528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>0.97453072392443141</v>
+        <v>0.97453072392442575</v>
       </c>
       <c r="C33" s="7">
-        <v>-1.4700878562890853</v>
+        <v>-1.4700878562891084</v>
       </c>
       <c r="D33" s="7">
-        <v>5.2022820677337753E-2</v>
+        <v>5.2022820677345989E-2</v>
       </c>
       <c r="E33" s="7">
-        <v>2.5922041601118622</v>
+        <v>2.5922041601118528</v>
       </c>
       <c r="F33" s="7">
-        <v>1.8889006193693696</v>
+        <v>1.888900619369368</v>
       </c>
       <c r="G33" s="7">
-        <v>-2.228735367559818</v>
+        <v>-2.2287353675598043</v>
       </c>
       <c r="H33" s="7">
-        <v>5.6424077508362673</v>
+        <v>5.6424077508362576</v>
       </c>
       <c r="I33" s="7">
-        <v>6.7759358015436417</v>
+        <v>6.7759358015436426</v>
       </c>
       <c r="J33" s="7">
-        <v>18.638125912046327</v>
+        <v>18.638125912046338</v>
       </c>
       <c r="K33" s="7">
-        <v>21.176087015586361</v>
+        <v>21.176087015586386</v>
       </c>
       <c r="L33" s="7">
-        <v>11.250563963742243</v>
+        <v>11.250563963742271</v>
       </c>
       <c r="M33" s="7">
-        <v>12.415031115366206</v>
+        <v>12.415031115366199</v>
       </c>
       <c r="N33" s="7">
-        <v>8.0897551602666802</v>
+        <v>8.0897551602666837</v>
       </c>
       <c r="O33" s="7">
-        <v>7.3266616342424058</v>
+        <v>7.3266616342423925</v>
       </c>
       <c r="P33" s="7">
-        <v>7.7621294794278075</v>
+        <v>7.7621294794278066</v>
       </c>
       <c r="Q33" s="7">
-        <v>3.9843578115130214</v>
+        <v>3.9843578115130267</v>
       </c>
       <c r="R33" s="7">
-        <v>-3.296052144285599</v>
+        <v>-3.2960521442855955</v>
       </c>
       <c r="S33" s="7">
-        <v>1.2075040737594349</v>
+        <v>1.2075040737594305</v>
       </c>
       <c r="T33" s="7">
-        <v>2.6144908893100758</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.6144908893100629</v>
+      </c>
+      <c r="U33" s="7">
+        <v>6.1386206190492523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>3.9980897803247162</v>
+        <v>3.9980897803247091</v>
       </c>
       <c r="C34" s="7">
-        <v>2.5100216448115553</v>
+        <v>2.5100216448115327</v>
       </c>
       <c r="D34" s="7">
-        <v>3.6106554625073026</v>
+        <v>3.6106554625073115</v>
       </c>
       <c r="E34" s="7">
-        <v>-0.86048462343194088</v>
+        <v>-0.86048462343194332</v>
       </c>
       <c r="F34" s="7">
-        <v>1.962603089469722</v>
+        <v>1.9626030894697222</v>
       </c>
       <c r="G34" s="7">
         <v>-12.460587238313458</v>
       </c>
       <c r="H34" s="7">
-        <v>1.8081491699919605</v>
+        <v>1.8081491699919512</v>
       </c>
       <c r="I34" s="7">
-        <v>6.156478752733145</v>
+        <v>6.1564787527331495</v>
       </c>
       <c r="J34" s="7">
-        <v>2.3013249506859053</v>
+        <v>2.3013249506859035</v>
       </c>
       <c r="K34" s="7">
-        <v>23.339426519420687</v>
+        <v>23.339426519420684</v>
       </c>
       <c r="L34" s="7">
-        <v>3.8339820304827059</v>
+        <v>3.8339820304827144</v>
       </c>
       <c r="M34" s="7">
-        <v>7.1507889599340846</v>
+        <v>7.1507889599340961</v>
       </c>
       <c r="N34" s="7">
-        <v>8.1459437567134394</v>
+        <v>8.1459437567134358</v>
       </c>
       <c r="O34" s="7">
-        <v>6.2377774464838502</v>
+        <v>6.237777446483852</v>
       </c>
       <c r="P34" s="7">
-        <v>5.2469784550709244</v>
+        <v>5.2469784550709333</v>
       </c>
       <c r="Q34" s="7">
-        <v>0.79648310503046782</v>
+        <v>0.79648310503045672</v>
       </c>
       <c r="R34" s="7">
-        <v>-5.1949849385329312</v>
+        <v>-5.1949849385329205</v>
       </c>
       <c r="S34" s="7">
-        <v>-1.7161394703823734</v>
+        <v>-1.7161394703823629</v>
       </c>
       <c r="T34" s="7">
-        <v>2.8550981518003566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.855098151800354</v>
+      </c>
+      <c r="U34" s="7">
+        <v>6.0561838744983589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>0.62114872951346656</v>
+        <v>0.62114872951347666</v>
       </c>
       <c r="C35" s="7">
-        <v>1.7395120588880675</v>
+        <v>1.739512058888073</v>
       </c>
       <c r="D35" s="7">
-        <v>0.92858118257545352</v>
+        <v>0.92858118257545263</v>
       </c>
       <c r="E35" s="7">
-        <v>0.26913456728363488</v>
+        <v>0.26913456728364099</v>
       </c>
       <c r="F35" s="7">
         <v>-1.4341744404360399</v>
       </c>
       <c r="G35" s="7">
-        <v>-11.55271465265386</v>
+        <v>-11.552714652653874</v>
       </c>
       <c r="H35" s="7">
-        <v>-1.3665268569882363</v>
+        <v>-1.3665268569882203</v>
       </c>
       <c r="I35" s="7">
-        <v>7.8258613636136998</v>
+        <v>7.8258613636136776</v>
       </c>
       <c r="J35" s="7">
-        <v>8.2545476304452166</v>
+        <v>8.2545476304451846</v>
       </c>
       <c r="K35" s="7">
-        <v>21.863707907512918</v>
+        <v>21.863707907512925</v>
       </c>
       <c r="L35" s="7">
-        <v>10.165588869292563</v>
+        <v>10.165588869292566</v>
       </c>
       <c r="M35" s="7">
-        <v>6.9201014232570213</v>
+        <v>6.9201014232570364</v>
       </c>
       <c r="N35" s="7">
-        <v>3.5910049839242966</v>
+        <v>3.5910049839243081</v>
       </c>
       <c r="O35" s="7">
-        <v>-0.3156180930118358</v>
+        <v>-0.31561809301182764</v>
       </c>
       <c r="P35" s="7">
-        <v>-8.6174234001867678</v>
+        <v>-8.6174234001867802</v>
       </c>
       <c r="Q35" s="7">
-        <v>-11.093993422191447</v>
+        <v>-11.093993422191453</v>
       </c>
       <c r="R35" s="7">
-        <v>-7.4257205616868482</v>
+        <v>-7.4257205616868491</v>
       </c>
       <c r="S35" s="7">
-        <v>-3.4499434285922828</v>
+        <v>-3.4499434285922894</v>
       </c>
       <c r="T35" s="7">
-        <v>5.3208884044147711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.3208884044147666</v>
+      </c>
+      <c r="U35" s="7">
+        <v>6.9926598002375364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>3.6293255974780703</v>
+        <v>3.6293255974780547</v>
       </c>
       <c r="C36" s="7">
-        <v>1.3897259855174813</v>
+        <v>1.3897259855174968</v>
       </c>
       <c r="D36" s="7">
-        <v>-0.47445070279593959</v>
+        <v>-0.47445070279596718</v>
       </c>
       <c r="E36" s="7">
-        <v>-3.7569364595310661</v>
+        <v>-3.7569364595310821</v>
       </c>
       <c r="F36" s="7">
-        <v>1.8070096373847284</v>
+        <v>1.8070096373847413</v>
       </c>
       <c r="G36" s="7">
-        <v>-10.465737374433541</v>
+        <v>-10.465737374433544</v>
       </c>
       <c r="H36" s="7">
-        <v>-3.9326654260246019</v>
+        <v>-3.9326654260245926</v>
       </c>
       <c r="I36" s="7">
-        <v>1.2483875715312354</v>
+        <v>1.2483875715311952</v>
       </c>
       <c r="J36" s="7">
-        <v>-4.3747712162357812</v>
+        <v>-4.3747712162357768</v>
       </c>
       <c r="K36" s="7">
-        <v>6.2092257952774048</v>
+        <v>6.209225795277411</v>
       </c>
       <c r="L36" s="7">
-        <v>-0.92965246388861922</v>
+        <v>-0.92965246388861322</v>
       </c>
       <c r="M36" s="7">
-        <v>0.16588143752510226</v>
+        <v>0.16588143752513559</v>
       </c>
       <c r="N36" s="7">
-        <v>-6.320662334193787E-2</v>
+        <v>-6.3206623341946558E-2</v>
       </c>
       <c r="O36" s="7">
-        <v>1.4269018563313685</v>
+        <v>1.4269018563313554</v>
       </c>
       <c r="P36" s="7">
-        <v>0.67409510544455187</v>
+        <v>0.67409510544454876</v>
       </c>
       <c r="Q36" s="7">
-        <v>-1.8148448503990764</v>
+        <v>-1.8148448503990793</v>
       </c>
       <c r="R36" s="7">
-        <v>-2.5948921690020259</v>
+        <v>-2.5948921690020268</v>
       </c>
       <c r="S36" s="7">
         <v>-1.1781624595816085</v>
       </c>
       <c r="T36" s="7">
-        <v>1.1076917619305222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.107691761930516</v>
+      </c>
+      <c r="U36" s="7">
+        <v>1.0146149766560386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>11.068922330676109</v>
+        <v>11.068922330676122</v>
       </c>
       <c r="C37" s="7">
-        <v>16.61857254005929</v>
+        <v>16.618572540059283</v>
       </c>
       <c r="D37" s="7">
-        <v>18.343440576161044</v>
+        <v>18.343440576161033</v>
       </c>
       <c r="E37" s="7">
-        <v>11.89658189722663</v>
+        <v>11.896581897226648</v>
       </c>
       <c r="F37" s="7">
-        <v>1.0067834833813751</v>
+        <v>1.0067834833813674</v>
       </c>
       <c r="G37" s="7">
-        <v>-14.411667834913983</v>
+        <v>-14.411667834913995</v>
       </c>
       <c r="H37" s="7">
-        <v>-11.937562628821892</v>
+        <v>-11.93756262882189</v>
       </c>
       <c r="I37" s="7">
-        <v>-9.1879655924599835</v>
+        <v>-9.1879655924599781</v>
       </c>
       <c r="J37" s="7">
-        <v>-5.5560969991228797</v>
+        <v>-5.5560969991228557</v>
       </c>
       <c r="K37" s="7">
-        <v>5.26217117597142</v>
+        <v>5.262171175971428</v>
       </c>
       <c r="L37" s="7">
-        <v>-3.8309249357041151</v>
+        <v>-3.830924935704108</v>
       </c>
       <c r="M37" s="7">
-        <v>-1.5817191338161525</v>
+        <v>-1.5817191338161374</v>
       </c>
       <c r="N37" s="7">
-        <v>-0.77395024203535434</v>
+        <v>-0.77395024203537099</v>
       </c>
       <c r="O37" s="7">
-        <v>-3.7298812324824837</v>
+        <v>-3.7298812324825006</v>
       </c>
       <c r="P37" s="7">
-        <v>-0.4550133233287984</v>
+        <v>-0.45501332332879352</v>
       </c>
       <c r="Q37" s="7">
-        <v>-4.6841901674372224</v>
+        <v>-4.6841901674372517</v>
       </c>
       <c r="R37" s="7">
-        <v>-7.5748551115144904</v>
+        <v>-7.5748551115144949</v>
       </c>
       <c r="S37" s="7">
-        <v>-2.6981499513145115</v>
+        <v>-2.6981499513145031</v>
       </c>
       <c r="T37" s="7">
-        <v>-0.66099729416312325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.66099729416312059</v>
+      </c>
+      <c r="U37" s="7">
+        <v>2.7490047539906488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>4.5417630429195608</v>
+        <v>4.5417630429195475</v>
       </c>
       <c r="C38" s="7">
-        <v>7.2572258204021942</v>
+        <v>7.2572258204021773</v>
       </c>
       <c r="D38" s="7">
-        <v>9.5972420057389485</v>
+        <v>9.5972420057389378</v>
       </c>
       <c r="E38" s="7">
-        <v>4.6968890990405257</v>
+        <v>4.6968890990405399</v>
       </c>
       <c r="F38" s="7">
-        <v>0.46414207467575119</v>
+        <v>0.46414207467576163</v>
       </c>
       <c r="G38" s="7">
-        <v>-12.217155474487601</v>
+        <v>-12.217155474487594</v>
       </c>
       <c r="H38" s="7">
-        <v>-6.2073836880768614</v>
+        <v>-6.2073836880768658</v>
       </c>
       <c r="I38" s="7">
-        <v>-5.958675975235681</v>
+        <v>-5.9586759752356961</v>
       </c>
       <c r="J38" s="7">
-        <v>-1.1403122400039301</v>
+        <v>-1.140312240003923</v>
       </c>
       <c r="K38" s="7">
-        <v>10.535985739126644</v>
+        <v>10.535985739126639</v>
       </c>
       <c r="L38" s="7">
-        <v>2.5083091506090094</v>
+        <v>2.5083091506090138</v>
       </c>
       <c r="M38" s="7">
-        <v>3.9860328767671533</v>
+        <v>3.9860328767671556</v>
       </c>
       <c r="N38" s="7">
-        <v>2.8990099009900883</v>
+        <v>2.8990099009900803</v>
       </c>
       <c r="O38" s="7">
-        <v>0.23250521900013005</v>
+        <v>0.23250521900012716</v>
       </c>
       <c r="P38" s="7">
-        <v>-2.3176310401912077</v>
+        <v>-2.3176310401912019</v>
       </c>
       <c r="Q38" s="7">
-        <v>-3.1173929358336703</v>
+        <v>-3.1173929358336654</v>
       </c>
       <c r="R38" s="7">
-        <v>-5.7559079362635464</v>
+        <v>-5.7559079362635446</v>
       </c>
       <c r="S38" s="7">
-        <v>-1.759979468551341</v>
+        <v>-1.7599794685513437</v>
       </c>
       <c r="T38" s="7">
-        <v>2.0537299064389694</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.0537299064389649</v>
+      </c>
+      <c r="U38" s="7">
+        <v>2.8621651951972855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>-6.3355757815591591</v>
+        <v>-6.3355757815591529</v>
       </c>
       <c r="C39" s="7">
-        <v>-6.7656165528087522</v>
+        <v>-6.7656165528087584</v>
       </c>
       <c r="D39" s="7">
-        <v>-4.1004592594068656</v>
+        <v>-4.1004592594068496</v>
       </c>
       <c r="E39" s="7">
-        <v>-2.9426564418412653</v>
+        <v>-2.9426564418412662</v>
       </c>
       <c r="F39" s="7">
-        <v>1.9540327010013026</v>
+        <v>1.9540327010012986</v>
       </c>
       <c r="G39" s="7">
-        <v>-7.613967022308449</v>
+        <v>-7.613967022308441</v>
       </c>
       <c r="H39" s="7">
-        <v>-0.23788994733178681</v>
+        <v>-0.23788994733177787</v>
       </c>
       <c r="I39" s="7">
-        <v>-0.55681134775305274</v>
+        <v>-0.55681134775305507</v>
       </c>
       <c r="J39" s="7">
-        <v>-2.279178666887677</v>
+        <v>-2.2791786668876761</v>
       </c>
       <c r="K39" s="7">
-        <v>5.3588953554718728</v>
+        <v>5.3588953554718701</v>
       </c>
       <c r="L39" s="7">
-        <v>-4.7993418997438546</v>
+        <v>-4.7993418997438626</v>
       </c>
       <c r="M39" s="7">
-        <v>-0.21479589176789132</v>
+        <v>-0.2147958917678939</v>
       </c>
       <c r="N39" s="7">
-        <v>1.1163411996692423</v>
+        <v>1.1163411996692443</v>
       </c>
       <c r="O39" s="7">
-        <v>2.741372961029398</v>
+        <v>2.7413729610293971</v>
       </c>
       <c r="P39" s="7">
-        <v>4.0568772217664808</v>
+        <v>4.0568772217664781</v>
       </c>
       <c r="Q39" s="7">
-        <v>2.612357495898741E-2</v>
+        <v>2.6123574958989704E-2</v>
       </c>
       <c r="R39" s="7">
-        <v>-1.7551033246312122</v>
+        <v>-1.7551033246312144</v>
       </c>
       <c r="S39" s="7">
-        <v>0.44488018807257623</v>
+        <v>0.4448801880725653</v>
       </c>
       <c r="T39" s="7">
-        <v>2.3808522715327909</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.3808522715327847</v>
+      </c>
+      <c r="U39" s="7">
+        <v>3.5090468430069719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>3.2566083941268094</v>
+        <v>3.2566083941267774</v>
       </c>
       <c r="C40" s="7">
-        <v>11.769444772656508</v>
+        <v>11.769444772656488</v>
       </c>
       <c r="D40" s="7">
-        <v>15.358904288560574</v>
+        <v>15.358904288560566</v>
       </c>
       <c r="E40" s="7">
-        <v>13.501224204267215</v>
+        <v>13.501224204267217</v>
       </c>
       <c r="F40" s="7">
-        <v>5.5115991709183527</v>
+        <v>5.5115991709183758</v>
       </c>
       <c r="G40" s="7">
-        <v>-7.5835623810713875</v>
+        <v>-7.5835623810713688</v>
       </c>
       <c r="H40" s="7">
-        <v>1.1778474083581729</v>
+        <v>1.1778474083581809</v>
       </c>
       <c r="I40" s="7">
-        <v>2.6147452957945506E-2</v>
+        <v>2.6147452957946273E-2</v>
       </c>
       <c r="J40" s="7">
-        <v>3.7616992340602313</v>
+        <v>3.761699234060226</v>
       </c>
       <c r="K40" s="7">
-        <v>10.689142393644122</v>
+        <v>10.689142393644119</v>
       </c>
       <c r="L40" s="7">
-        <v>-0.71359277638893548</v>
+        <v>-0.71359277638893714</v>
       </c>
       <c r="M40" s="7">
-        <v>4.7081119938756251</v>
+        <v>4.7081119938756313</v>
       </c>
       <c r="N40" s="7">
-        <v>3.3185880982287617</v>
+        <v>3.3185880982287661</v>
       </c>
       <c r="O40" s="7">
-        <v>7.6915127487270283</v>
+        <v>7.6915127487270256</v>
       </c>
       <c r="P40" s="7">
-        <v>12.735933257546577</v>
+        <v>12.735933257546586</v>
       </c>
       <c r="Q40" s="7">
-        <v>7.512750098077678</v>
+        <v>7.5127500980776629</v>
       </c>
       <c r="R40" s="7">
-        <v>7.4291704841778836</v>
+        <v>7.4291704841778703</v>
       </c>
       <c r="S40" s="7">
-        <v>6.9668234041996291</v>
+        <v>6.9668234041996167</v>
       </c>
       <c r="T40" s="7">
-        <v>4.5460227509479632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.5460227509479516</v>
+      </c>
+      <c r="U40" s="7">
+        <v>6.8302068302068406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>-0.96427723712319913</v>
+        <v>-0.96427723712317936</v>
       </c>
       <c r="C41" s="7">
-        <v>0.42617869702568517</v>
+        <v>0.42617869702567401</v>
       </c>
       <c r="D41" s="7">
-        <v>1.5123062170369213</v>
+        <v>1.5123062170369297</v>
       </c>
       <c r="E41" s="7">
-        <v>-2.3376547193054389</v>
+        <v>-2.3376547193054416</v>
       </c>
       <c r="F41" s="7">
-        <v>-3.9425986398633914</v>
+        <v>-3.9425986398633848</v>
       </c>
       <c r="G41" s="7">
-        <v>-17.487214489915029</v>
+        <v>-17.487214489915019</v>
       </c>
       <c r="H41" s="7">
-        <v>-4.3374726939956236</v>
+        <v>-4.3374726939956219</v>
       </c>
       <c r="I41" s="7">
-        <v>-0.77184130702466613</v>
+        <v>-0.7718413070246507</v>
       </c>
       <c r="J41" s="7">
-        <v>2.2788468535903381</v>
+        <v>2.2788468535903261</v>
       </c>
       <c r="K41" s="7">
-        <v>20.223466366153936</v>
+        <v>20.223466366153946</v>
       </c>
       <c r="L41" s="7">
-        <v>3.2247114731839597</v>
+        <v>3.2247114731839601</v>
       </c>
       <c r="M41" s="7">
-        <v>5.5074656981436725</v>
+        <v>5.5074656981436503</v>
       </c>
       <c r="N41" s="7">
-        <v>5.6281192506683331</v>
+        <v>5.6281192506683277</v>
       </c>
       <c r="O41" s="7">
-        <v>-7.2794718892706875E-2</v>
+        <v>-7.2794718892719421E-2</v>
       </c>
       <c r="P41" s="7">
-        <v>-0.70351658644981163</v>
+        <v>-0.7035165864498194</v>
       </c>
       <c r="Q41" s="7">
-        <v>-4.7131833350863843</v>
+        <v>-4.7131833350863896</v>
       </c>
       <c r="R41" s="7">
-        <v>-7.1806616755518906</v>
+        <v>-7.1806616755518746</v>
       </c>
       <c r="S41" s="7">
-        <v>-1.680487780538662</v>
+        <v>-1.6804877805386718</v>
       </c>
       <c r="T41" s="7">
-        <v>0.47868977490540093</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.47868977490540815</v>
+      </c>
+      <c r="U41" s="7">
+        <v>2.2127446061214275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>6.476477533428695</v>
+        <v>6.4764775334286506</v>
       </c>
       <c r="C42" s="7">
-        <v>4.1815773901772362</v>
+        <v>4.1815773901772326</v>
       </c>
       <c r="D42" s="7">
-        <v>5.282575884621826</v>
+        <v>5.2825758846218571</v>
       </c>
       <c r="E42" s="7">
-        <v>0.5161628579693317</v>
+        <v>0.51616285796933026</v>
       </c>
       <c r="F42" s="7">
-        <v>-8.480581298907369</v>
+        <v>-8.4805812989073637</v>
       </c>
       <c r="G42" s="7">
-        <v>-16.703179797870529</v>
+        <v>-16.703179797870508</v>
       </c>
       <c r="H42" s="7">
-        <v>-13.495982443099349</v>
+        <v>-13.49598244309936</v>
       </c>
       <c r="I42" s="7">
-        <v>-12.512253248797149</v>
+        <v>-12.512253248797155</v>
       </c>
       <c r="J42" s="7">
-        <v>-9.5107223420707854</v>
+        <v>-9.5107223420707783</v>
       </c>
       <c r="K42" s="7">
-        <v>2.748073426270691</v>
+        <v>2.7480734262706696</v>
       </c>
       <c r="L42" s="7">
-        <v>-5.9097930498296813</v>
+        <v>-5.9097930498296858</v>
       </c>
       <c r="M42" s="7">
-        <v>-3.5381673896507047</v>
+        <v>-3.5381673896507064</v>
       </c>
       <c r="N42" s="7">
-        <v>4.822451067906214</v>
+        <v>4.8224510679062087</v>
       </c>
       <c r="O42" s="7">
-        <v>-0.85957168891089963</v>
+        <v>-0.85957168891089997</v>
       </c>
       <c r="P42" s="7">
-        <v>4.4239801687396803</v>
+        <v>4.4239801687396811</v>
       </c>
       <c r="Q42" s="7">
-        <v>4.7698209718670181</v>
+        <v>4.769820971867011</v>
       </c>
       <c r="R42" s="7">
-        <v>-0.94296514767581596</v>
+        <v>-0.94296514767581174</v>
       </c>
       <c r="S42" s="7">
-        <v>2.638261701110344</v>
+        <v>2.6382617011103613</v>
       </c>
       <c r="T42" s="7">
-        <v>3.4921130719974958</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.4921130719974953</v>
+      </c>
+      <c r="U42" s="7">
+        <v>3.6575938809552881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>-3.9192538099791276</v>
+        <v>-3.9192538099791236</v>
       </c>
       <c r="C43" s="7">
-        <v>-4.2118691934635857</v>
+        <v>-4.211869193463583</v>
       </c>
       <c r="D43" s="7">
-        <v>-1.8434707970816704</v>
+        <v>-1.8434707970816793</v>
       </c>
       <c r="E43" s="7">
-        <v>2.7906746522793671</v>
+        <v>2.7906746522793897</v>
       </c>
       <c r="F43" s="7">
         <v>6.4431288524223955</v>
       </c>
       <c r="G43" s="7">
-        <v>1.4507782556094406</v>
+        <v>1.4507782556094346</v>
       </c>
       <c r="H43" s="7">
-        <v>6.0744877476797274</v>
+        <v>6.0744877476797221</v>
       </c>
       <c r="I43" s="7">
-        <v>-0.63274072076582322</v>
+        <v>-0.63274072076585375</v>
       </c>
       <c r="J43" s="7">
-        <v>1.1343038675087238</v>
+        <v>1.134303867508726</v>
       </c>
       <c r="K43" s="7">
-        <v>1.8599430793281695</v>
+        <v>1.8599430793282083</v>
       </c>
       <c r="L43" s="7">
-        <v>-6.4873017508688946</v>
+        <v>-6.4873017508688786</v>
       </c>
       <c r="M43" s="7">
-        <v>2.2030103608362364</v>
+        <v>2.2030103608362284</v>
       </c>
       <c r="N43" s="7">
-        <v>-1.0602673307486852</v>
+        <v>-1.0602673307487087</v>
       </c>
       <c r="O43" s="7">
-        <v>1.8722206918263717</v>
+        <v>1.8722206918263486</v>
       </c>
       <c r="P43" s="7">
-        <v>6.1960289314980939</v>
+        <v>6.1960289314980859</v>
       </c>
       <c r="Q43" s="7">
-        <v>-0.11190137505929793</v>
+        <v>-0.11190137505926193</v>
       </c>
       <c r="R43" s="7">
-        <v>-7.1801081163538134</v>
+        <v>-7.1801081163537965</v>
       </c>
       <c r="S43" s="7">
-        <v>-5.2072971694013432</v>
+        <v>-5.2072971694013246</v>
       </c>
       <c r="T43" s="7">
-        <v>-6.3514673559293362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-6.35146735592933</v>
+      </c>
+      <c r="U43" s="7">
+        <v>-4.9263281813693807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>-6.7898294435400491E-2</v>
+        <v>-6.789829443538338E-2</v>
       </c>
       <c r="C44" s="7">
-        <v>2.4253998080104657</v>
+        <v>2.4253998080104546</v>
       </c>
       <c r="D44" s="7">
-        <v>5.0480596616845785</v>
+        <v>5.0480596616845892</v>
       </c>
       <c r="E44" s="7">
-        <v>4.1813474133116681</v>
+        <v>4.1813474133116735</v>
       </c>
       <c r="F44" s="7">
-        <v>2.1143900212960309</v>
+        <v>2.1143900212960061</v>
       </c>
       <c r="G44" s="7">
-        <v>-11.193754548989498</v>
+        <v>-11.193754548989501</v>
       </c>
       <c r="H44" s="7">
-        <v>-4.8298894574430475</v>
+        <v>-4.8298894574430618</v>
       </c>
       <c r="I44" s="7">
-        <v>-2.2640663528356724</v>
+        <v>-2.2640663528356888</v>
       </c>
       <c r="J44" s="7">
-        <v>-4.4878097224291302</v>
+        <v>-4.4878097224291125</v>
       </c>
       <c r="K44" s="7">
-        <v>7.5412596833950829</v>
+        <v>7.541259683395098</v>
       </c>
       <c r="L44" s="7">
-        <v>-0.78187526934680829</v>
+        <v>-0.78187526934679608</v>
       </c>
       <c r="M44" s="7">
-        <v>-0.2114080574391799</v>
+        <v>-0.21140805743916297</v>
       </c>
       <c r="N44" s="7">
-        <v>3.6391615371818471</v>
+        <v>3.6391615371818373</v>
       </c>
       <c r="O44" s="7">
-        <v>1.6787246703623673</v>
+        <v>1.6787246703623506</v>
       </c>
       <c r="P44" s="7">
-        <v>1.1603375527426247</v>
+        <v>1.1603375527426245</v>
       </c>
       <c r="Q44" s="7">
-        <v>-0.77747131950273363</v>
+        <v>-0.77747131950273296</v>
       </c>
       <c r="R44" s="7">
-        <v>-3.5695653918696744</v>
+        <v>-3.5695653918696677</v>
       </c>
       <c r="S44" s="7">
-        <v>0.46716977257558012</v>
+        <v>0.46716977257560904</v>
       </c>
       <c r="T44" s="7">
-        <v>2.4862499744423312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.4862499744423219</v>
+      </c>
+      <c r="U44" s="7">
+        <v>3.0476382314432429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>-4.6191758840048083</v>
+        <v>-4.6191758840048145</v>
       </c>
       <c r="C45" s="7">
-        <v>-7.1698827090427448</v>
+        <v>-7.1698827090427555</v>
       </c>
       <c r="D45" s="7">
-        <v>-4.6733355669362915</v>
+        <v>-4.6733355669363039</v>
       </c>
       <c r="E45" s="7">
-        <v>-1.2588235294117587</v>
+        <v>-1.2588235294117687</v>
       </c>
       <c r="F45" s="7">
-        <v>2.4965450940335119</v>
+        <v>2.4965450940335239</v>
       </c>
       <c r="G45" s="7">
-        <v>-1.9054412064397828</v>
+        <v>-1.9054412064397817</v>
       </c>
       <c r="H45" s="7">
-        <v>6.5955032485464251</v>
+        <v>6.5955032485464491</v>
       </c>
       <c r="I45" s="7">
-        <v>5.9692600977004542</v>
+        <v>5.9692600977004497</v>
       </c>
       <c r="J45" s="7">
-        <v>1.3551406434719773</v>
+        <v>1.3551406434719599</v>
       </c>
       <c r="K45" s="7">
-        <v>10.287732419237569</v>
+        <v>10.287732419237559</v>
       </c>
       <c r="L45" s="7">
-        <v>-0.12906143135721612</v>
+        <v>-0.12906143135722503</v>
       </c>
       <c r="M45" s="7">
-        <v>4.4871074132373998</v>
+        <v>4.4871074132373963</v>
       </c>
       <c r="N45" s="7">
-        <v>4.7263297923615353</v>
+        <v>4.7263297923615459</v>
       </c>
       <c r="O45" s="7">
-        <v>1.3609734963361919</v>
+        <v>1.3609734963362117</v>
       </c>
       <c r="P45" s="7">
-        <v>1.7922161223989419</v>
+        <v>1.7922161223989346</v>
       </c>
       <c r="Q45" s="7">
-        <v>-2.4390900042146182</v>
+        <v>-2.4390900042146062</v>
       </c>
       <c r="R45" s="7">
-        <v>-3.0991982768936159</v>
+        <v>-3.0991982768936319</v>
       </c>
       <c r="S45" s="7">
-        <v>-0.5881861009672924</v>
+        <v>-0.58818610096730795</v>
       </c>
       <c r="T45" s="7">
-        <v>0.92017717812331523</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.92017717812332023</v>
+      </c>
+      <c r="U45" s="7">
+        <v>2.0570420140261261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>5.5493442479510673</v>
+        <v>5.5493442479510851</v>
       </c>
       <c r="C46" s="7">
-        <v>6.436110705773638</v>
+        <v>6.4361107057736158</v>
       </c>
       <c r="D46" s="7">
         <v>6.4112174681889869</v>
       </c>
       <c r="E46" s="7">
-        <v>2.6559558645369417</v>
+        <v>2.6559558645369474</v>
       </c>
       <c r="F46" s="7">
-        <v>-4.051875800197088</v>
+        <v>-4.0518758001971031</v>
       </c>
       <c r="G46" s="7">
         <v>-16.240597380519336</v>
       </c>
       <c r="H46" s="7">
-        <v>-5.9526927557959937</v>
+        <v>-5.9526927557959954</v>
       </c>
       <c r="I46" s="7">
         <v>-7.1117324521587566</v>
       </c>
       <c r="J46" s="7">
-        <v>-2.3644497350433973</v>
+        <v>-2.3644497350433999</v>
       </c>
       <c r="K46" s="7">
-        <v>10.113266842714049</v>
+        <v>10.11326684271404</v>
       </c>
       <c r="L46" s="7">
-        <v>-4.199477586140679</v>
+        <v>-4.1994775861406719</v>
       </c>
       <c r="M46" s="7">
-        <v>0.79259592267546641</v>
+        <v>0.79259592267545731</v>
       </c>
       <c r="N46" s="7">
-        <v>2.3912295364043143</v>
+        <v>2.3912295364043104</v>
       </c>
       <c r="O46" s="7">
-        <v>2.9541175304727045</v>
+        <v>2.9541175304727298</v>
       </c>
       <c r="P46" s="7">
-        <v>3.7991559658777798</v>
+        <v>3.7991559658777665</v>
       </c>
       <c r="Q46" s="7">
-        <v>0.13865591032938304</v>
+        <v>0.13865591032939048</v>
       </c>
       <c r="R46" s="7">
-        <v>-0.37162583903896196</v>
+        <v>-0.3716258390389659</v>
       </c>
       <c r="S46" s="7">
-        <v>1.9048810772829097</v>
+        <v>1.9048810772829032</v>
       </c>
       <c r="T46" s="7">
-        <v>4.4761417300022082</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.476141730002217</v>
+      </c>
+      <c r="U46" s="7">
+        <v>7.1071691390061478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>-9.0013465879836669</v>
+        <v>-9.0013465879836652</v>
       </c>
       <c r="C47" s="7">
-        <v>-13.234138627254026</v>
+        <v>-13.234138627254037</v>
       </c>
       <c r="D47" s="7">
-        <v>-12.407680945347122</v>
+        <v>-12.407680945347124</v>
       </c>
       <c r="E47" s="7">
-        <v>-6.3039880412151081</v>
+        <v>-6.3039880412150904</v>
       </c>
       <c r="F47" s="7">
-        <v>-1.3883901855176575</v>
+        <v>-1.3883901855176632</v>
       </c>
       <c r="G47" s="7">
-        <v>0.49864163141785672</v>
+        <v>0.49864163141786838</v>
       </c>
       <c r="H47" s="7">
-        <v>12.791933285592185</v>
+        <v>12.79193328559221</v>
       </c>
       <c r="I47" s="7">
-        <v>13.076774053856937</v>
+        <v>13.076774053856926</v>
       </c>
       <c r="J47" s="7">
-        <v>12.598616336934072</v>
+        <v>12.598616336934088</v>
       </c>
       <c r="K47" s="7">
-        <v>14.94433798704263</v>
+        <v>14.944337987042621</v>
       </c>
       <c r="L47" s="7">
-        <v>1.024034079853601E-3</v>
+        <v>1.0240340798375843E-3</v>
       </c>
       <c r="M47" s="7">
-        <v>2.8430048575977995</v>
+        <v>2.843004857597808</v>
       </c>
       <c r="N47" s="7">
-        <v>0.45567238625340595</v>
+        <v>0.45567238625339129</v>
       </c>
       <c r="O47" s="7">
-        <v>0.23021811181456214</v>
+        <v>0.2302181118145713</v>
       </c>
       <c r="P47" s="7">
-        <v>8.2106211727118055</v>
+        <v>8.2106211727118179</v>
       </c>
       <c r="Q47" s="7">
-        <v>2.3175595558909388</v>
+        <v>2.317559555890929</v>
       </c>
       <c r="R47" s="7">
-        <v>-0.81844076791009013</v>
+        <v>-0.81844076791009812</v>
       </c>
       <c r="S47" s="7">
-        <v>1.6286161218145472</v>
+        <v>1.6286161218145305</v>
       </c>
       <c r="T47" s="7">
-        <v>-0.74759633583161567</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.74759633583162632</v>
+      </c>
+      <c r="U47" s="7">
+        <v>3.6413439068306186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>-2.7696793002915481</v>
+        <v>-2.7696793002915392</v>
       </c>
       <c r="C48" s="7">
-        <v>-1.9767335720153747</v>
+        <v>-1.9767335720153807</v>
       </c>
       <c r="D48" s="7">
-        <v>0.88780447797916795</v>
+        <v>0.88780447797917128</v>
       </c>
       <c r="E48" s="7">
-        <v>2.727564003183363</v>
+        <v>2.727564003183355</v>
       </c>
       <c r="F48" s="7">
-        <v>4.3467921211807852</v>
+        <v>4.346792121180779</v>
       </c>
       <c r="G48" s="7">
-        <v>-11.278039897359477</v>
+        <v>-11.278039897359475</v>
       </c>
       <c r="H48" s="7">
-        <v>3.6439386241235652</v>
+        <v>3.6439386241235625</v>
       </c>
       <c r="I48" s="7">
-        <v>4.2609063103670319</v>
+        <v>4.2609063103670453</v>
       </c>
       <c r="J48" s="7">
-        <v>0.16250656467067878</v>
+        <v>0.16250656467067842</v>
       </c>
       <c r="K48" s="7">
-        <v>15.928068293138031</v>
+        <v>15.928068293138038</v>
       </c>
       <c r="L48" s="7">
-        <v>-2.7324600964743659</v>
+        <v>-2.7324600964743619</v>
       </c>
       <c r="M48" s="7">
-        <v>0.15150491667229984</v>
+        <v>0.15150491667229343</v>
       </c>
       <c r="N48" s="7">
-        <v>6.8785057823768598</v>
+        <v>6.8785057823768723</v>
       </c>
       <c r="O48" s="7">
-        <v>6.8688006760155202</v>
+        <v>6.8688006760155078</v>
       </c>
       <c r="P48" s="7">
-        <v>9.3993488493987467</v>
+        <v>9.3993488493987432</v>
       </c>
       <c r="Q48" s="7">
-        <v>5.5933477221922416</v>
+        <v>5.5933477221922558</v>
       </c>
       <c r="R48" s="7">
-        <v>-1.4069384279314179</v>
+        <v>-1.4069384279314447</v>
       </c>
       <c r="S48" s="7">
-        <v>1.8628687614134858</v>
+        <v>1.8628687614135</v>
       </c>
       <c r="T48" s="7">
-        <v>1.9053937015128914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.9053937015129003</v>
+      </c>
+      <c r="U48" s="7">
+        <v>2.655375995765985</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>-3.6646247672504701</v>
+        <v>-3.6646247672504662</v>
       </c>
       <c r="C49" s="7">
-        <v>-7.0119046559046971</v>
+        <v>-7.0119046559046865</v>
       </c>
       <c r="D49" s="7">
-        <v>-7.2307185292729166</v>
+        <v>-7.2307185292729095</v>
       </c>
       <c r="E49" s="7">
-        <v>-9.21848882214654</v>
+        <v>-9.2184888221465471</v>
       </c>
       <c r="F49" s="7">
-        <v>-9.7575095474196036</v>
+        <v>-9.7575095474196143</v>
       </c>
       <c r="G49" s="7">
-        <v>-15.558151559836828</v>
+        <v>-15.558151559836826</v>
       </c>
       <c r="H49" s="7">
         <v>-8.1812333778191686</v>
       </c>
       <c r="I49" s="7">
-        <v>-2.4419062623079908</v>
+        <v>-2.4419062623079895</v>
       </c>
       <c r="J49" s="7">
-        <v>3.6524672260908049</v>
+        <v>3.6524672260908249</v>
       </c>
       <c r="K49" s="7">
-        <v>15.723584242396761</v>
+        <v>15.723584242396766</v>
       </c>
       <c r="L49" s="7">
-        <v>9.1737075455914212</v>
+        <v>9.1737075455914248</v>
       </c>
       <c r="M49" s="7">
-        <v>9.7587807832054949</v>
+        <v>9.7587807832054967</v>
       </c>
       <c r="N49" s="7">
-        <v>6.1730736596224736</v>
+        <v>6.1730736596224514</v>
       </c>
       <c r="O49" s="7">
-        <v>2.1890800768235641</v>
+        <v>2.1890800768235508</v>
       </c>
       <c r="P49" s="7">
-        <v>0.46836837316222685</v>
+        <v>0.46836837316220187</v>
       </c>
       <c r="Q49" s="7">
-        <v>-1.5154162337124994</v>
+        <v>-1.5154162337124997</v>
       </c>
       <c r="R49" s="7">
-        <v>-0.89976589163321352</v>
+        <v>-0.89976589163320453</v>
       </c>
       <c r="S49" s="7">
-        <v>2.6551982049364264</v>
+        <v>2.655198204936446</v>
       </c>
       <c r="T49" s="7">
-        <v>6.0051099204911447</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.0051099204911518</v>
+      </c>
+      <c r="U49" s="7">
+        <v>6.564831327438589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>8.9576718063144352</v>
+        <v>8.9576718063144263</v>
       </c>
       <c r="C50" s="7">
-        <v>6.4088613598950985</v>
+        <v>6.408861359895087</v>
       </c>
       <c r="D50" s="7">
-        <v>4.7199536425040547</v>
+        <v>4.7199536425040325</v>
       </c>
       <c r="E50" s="7">
-        <v>4.0461245754725326</v>
+        <v>4.0461245754725415</v>
       </c>
       <c r="F50" s="7">
-        <v>-0.9119152846453451</v>
+        <v>-0.91191528464535021</v>
       </c>
       <c r="G50" s="7">
-        <v>-5.731816036499028</v>
+        <v>-5.7318160364990334</v>
       </c>
       <c r="H50" s="7">
-        <v>-0.18416206261511017</v>
+        <v>-0.18416206261511048</v>
       </c>
       <c r="I50" s="7">
-        <v>3.0829965222295406</v>
+        <v>3.082996522229521</v>
       </c>
       <c r="J50" s="7">
-        <v>10.002384674491942</v>
+        <v>10.002384674491953</v>
       </c>
       <c r="K50" s="7">
-        <v>16.626798694555703</v>
+        <v>16.62679869455571</v>
       </c>
       <c r="L50" s="7">
-        <v>10.536527900490267</v>
+        <v>10.536527900490283</v>
       </c>
       <c r="M50" s="7">
-        <v>11.080348483466917</v>
+        <v>11.080348483466919</v>
       </c>
       <c r="N50" s="7">
-        <v>4.554067508109318</v>
+        <v>4.5540675081093065</v>
       </c>
       <c r="O50" s="7">
-        <v>1.2242723926575418</v>
+        <v>1.2242723926575405</v>
       </c>
       <c r="P50" s="7">
-        <v>-0.34401692657315569</v>
+        <v>-0.34401692657313876</v>
       </c>
       <c r="Q50" s="7">
-        <v>-5.4558072893346408</v>
+        <v>-5.4558072893346203</v>
       </c>
       <c r="R50" s="7">
-        <v>-3.3543234526186416</v>
+        <v>-3.3543234526186407</v>
       </c>
       <c r="S50" s="7">
-        <v>1.2345969889027739</v>
+        <v>1.2345969889027757</v>
       </c>
       <c r="T50" s="7">
-        <v>2.819038931831948</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.8190389318319338</v>
+      </c>
+      <c r="U50" s="7">
+        <v>5.3507297167167849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>0.64850843060960406</v>
+        <v>0.64850843060960484</v>
       </c>
       <c r="C51" s="7">
-        <v>-7.9263977353149437</v>
+        <v>-7.9263977353149384</v>
       </c>
       <c r="D51" s="7">
-        <v>0.51998700032499801</v>
+        <v>0.51998700032500833</v>
       </c>
       <c r="E51" s="7">
-        <v>-1.1058030871129021</v>
+        <v>-1.1058030871129121</v>
       </c>
       <c r="F51" s="7">
-        <v>-2.7186874903831457</v>
+        <v>-2.7186874903831453</v>
       </c>
       <c r="G51" s="7">
-        <v>-4.5076661677252323</v>
+        <v>-4.5076661677252359</v>
       </c>
       <c r="H51" s="7">
-        <v>-0.47735874175082033</v>
+        <v>-0.47735874175084209</v>
       </c>
       <c r="I51" s="7">
-        <v>2.7867590454195508</v>
+        <v>2.7867590454195659</v>
       </c>
       <c r="J51" s="7">
-        <v>10.386824441215143</v>
+        <v>10.386824441215166</v>
       </c>
       <c r="K51" s="7">
-        <v>12.384159967803086</v>
+        <v>12.384159967803082</v>
       </c>
       <c r="L51" s="7">
-        <v>1.3242881712210968</v>
+        <v>1.3242881712211165</v>
       </c>
       <c r="M51" s="7">
-        <v>0.78546285200718058</v>
+        <v>0.78546285200717991</v>
       </c>
       <c r="N51" s="7">
-        <v>-4.1356211491617607</v>
+        <v>-4.1356211491617882</v>
       </c>
       <c r="O51" s="7">
-        <v>0.32135856453559447</v>
+        <v>0.32135856453560219</v>
       </c>
       <c r="P51" s="7">
-        <v>-1.9510401146672152</v>
+        <v>-1.951040114667232</v>
       </c>
       <c r="Q51" s="7">
-        <v>-3.5316520365983917</v>
+        <v>-3.5316520365984054</v>
       </c>
       <c r="R51" s="7">
-        <v>-6.2309661267118832</v>
+        <v>-6.2309661267118797</v>
       </c>
       <c r="S51" s="7">
-        <v>-4.5691525837693696</v>
+        <v>-4.5691525837693732</v>
       </c>
       <c r="T51" s="7">
-        <v>-0.45971705280976505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.45971705280977043</v>
+      </c>
+      <c r="U51" s="7">
+        <v>1.183403464512341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>-3.0930497240739672</v>
+        <v>-3.0930497240739503</v>
       </c>
       <c r="C52" s="7">
-        <v>-3.5927973643352158</v>
+        <v>-3.5927973643352167</v>
       </c>
       <c r="D52" s="7">
-        <v>-0.65782564278827715</v>
+        <v>-0.65782564278827593</v>
       </c>
       <c r="E52" s="7">
-        <v>-3.2723480898663335</v>
+        <v>-3.2723480898663415</v>
       </c>
       <c r="F52" s="7">
-        <v>-0.3868815570008815</v>
+        <v>-0.38688155700087057</v>
       </c>
       <c r="G52" s="7">
-        <v>-8.3911894965286198</v>
+        <v>-8.3911894965286251</v>
       </c>
       <c r="H52" s="7">
-        <v>-1.4473810667948082</v>
+        <v>-1.4473810667948139</v>
       </c>
       <c r="I52" s="7">
-        <v>3.5731786197299154</v>
+        <v>3.5731786197299025</v>
       </c>
       <c r="J52" s="7">
-        <v>1.9656993391525117</v>
+        <v>1.9656993391525064</v>
       </c>
       <c r="K52" s="7">
-        <v>9.4588800274418965</v>
+        <v>9.4588800274419036</v>
       </c>
       <c r="L52" s="7">
-        <v>-0.88547355281634288</v>
+        <v>-0.88547355281634232</v>
       </c>
       <c r="M52" s="7">
-        <v>1.6662881798569302</v>
+        <v>1.6662881798569356</v>
       </c>
       <c r="N52" s="7">
-        <v>3.6671039207112481</v>
+        <v>3.6671039207112432</v>
       </c>
       <c r="O52" s="7">
-        <v>4.3403321842682567</v>
+        <v>4.3403321842682461</v>
       </c>
       <c r="P52" s="7">
-        <v>6.4455507890904764</v>
+        <v>6.4455507890904853</v>
       </c>
       <c r="Q52" s="7">
-        <v>0.40951184326864859</v>
+        <v>0.40951184326865953</v>
       </c>
       <c r="R52" s="7">
-        <v>-2.2795227249294614</v>
+        <v>-2.2795227249294583</v>
       </c>
       <c r="S52" s="7">
-        <v>-0.333195675026289</v>
+        <v>-0.33319567502629088</v>
       </c>
       <c r="T52" s="7">
-        <v>0.47695194431863586</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.47695194431863153</v>
+      </c>
+      <c r="U52" s="7">
+        <v>3.2275107753626511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>10.181690168390995</v>
+        <v>10.181690168390997</v>
       </c>
       <c r="C53" s="7">
-        <v>6.173276328075068</v>
+        <v>6.1732763280750822</v>
       </c>
       <c r="D53" s="7">
-        <v>4.5029537185556237</v>
+        <v>4.5029537185555926</v>
       </c>
       <c r="E53" s="7">
-        <v>-3.2373932044753211</v>
+        <v>-3.2373932044753082</v>
       </c>
       <c r="F53" s="7">
-        <v>-20.083604025773468</v>
+        <v>-20.083604025773482</v>
       </c>
       <c r="G53" s="7">
-        <v>-22.112269268509422</v>
+        <v>-22.112269268509429</v>
       </c>
       <c r="H53" s="7">
-        <v>-19.597933513027858</v>
+        <v>-19.597933513027851</v>
       </c>
       <c r="I53" s="7">
         <v>-14.258991829574423</v>
       </c>
       <c r="J53" s="7">
-        <v>-7.2907990449219842</v>
+        <v>-7.2907990449219646</v>
       </c>
       <c r="K53" s="7">
-        <v>6.0507018148540181</v>
+        <v>6.0507018148539853</v>
       </c>
       <c r="L53" s="7">
-        <v>4.5257717558318085</v>
+        <v>4.5257717558318342</v>
       </c>
       <c r="M53" s="7">
-        <v>2.2946928163680593</v>
+        <v>2.2946928163680376</v>
       </c>
       <c r="N53" s="7">
-        <v>2.0507906085289793</v>
+        <v>2.0507906085289695</v>
       </c>
       <c r="O53" s="7">
-        <v>-1.63846240053795</v>
+        <v>-1.6384624005379185</v>
       </c>
       <c r="P53" s="7">
-        <v>-2.2250434317786953</v>
+        <v>-2.2250434317787122</v>
       </c>
       <c r="Q53" s="7">
-        <v>-0.60997845184819499</v>
+        <v>-0.609978451848184</v>
       </c>
       <c r="R53" s="7">
-        <v>1.5999154850220805</v>
+        <v>1.5999154850220814</v>
       </c>
       <c r="S53" s="7">
-        <v>-2.0497219943487495</v>
+        <v>-2.0497219943487486</v>
       </c>
       <c r="T53" s="7">
-        <v>-0.14806715414928651</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.14806715414929855</v>
+      </c>
+      <c r="U53" s="7">
+        <v>-0.84386778292916853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>-11.08053862028024</v>
+        <v>-11.080538620280249</v>
       </c>
       <c r="C54" s="7">
-        <v>-10.935991665631256</v>
+        <v>-10.935991665631237</v>
       </c>
       <c r="D54" s="7">
-        <v>-7.4628491094676637</v>
+        <v>-7.4628491094676805</v>
       </c>
       <c r="E54" s="7">
-        <v>-5.8811259659508579</v>
+        <v>-5.8811259659508686</v>
       </c>
       <c r="F54" s="7">
-        <v>-0.47263787037429811</v>
+        <v>-0.47263787037428118</v>
       </c>
       <c r="G54" s="7">
-        <v>-6.401244835542192</v>
+        <v>-6.4012448355421991</v>
       </c>
       <c r="H54" s="7">
-        <v>3.5904952444125988</v>
+        <v>3.5904952444126028</v>
       </c>
       <c r="I54" s="7">
-        <v>4.249817955401733</v>
+        <v>4.249817955401741</v>
       </c>
       <c r="J54" s="7">
-        <v>2.5277369620307004</v>
+        <v>2.5277369620307044</v>
       </c>
       <c r="K54" s="7">
-        <v>7.5945883971566106</v>
+        <v>7.5945883971566026</v>
       </c>
       <c r="L54" s="7">
-        <v>-2.0914020139426874</v>
+        <v>-2.0914020139426808</v>
       </c>
       <c r="M54" s="7">
-        <v>-2.6279559442824767</v>
+        <v>-2.6279559442825016</v>
       </c>
       <c r="N54" s="7">
-        <v>-0.78926598263613901</v>
+        <v>-0.78926598263615588</v>
       </c>
       <c r="O54" s="7">
-        <v>-0.82796982225822902</v>
+        <v>-0.82796982225822513</v>
       </c>
       <c r="P54" s="7">
-        <v>-0.32383966244726126</v>
+        <v>-0.32383966244727619</v>
       </c>
       <c r="Q54" s="7">
-        <v>-1.9898532041418915</v>
+        <v>-1.9898532041418739</v>
       </c>
       <c r="R54" s="7">
-        <v>-4.1022903320353503</v>
+        <v>-4.1022903320353477</v>
       </c>
       <c r="S54" s="7">
-        <v>0.4104569826039498</v>
+        <v>0.41045698260393831</v>
       </c>
       <c r="T54" s="7">
-        <v>1.1831564242853998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.1831564242854078</v>
+      </c>
+      <c r="U54" s="7">
+        <v>3.3413242251309949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>1.9268244183734382</v>
+        <v>1.9268244183734526</v>
       </c>
       <c r="C55" s="7">
-        <v>2.9514866052473185</v>
+        <v>2.9514866052473328</v>
       </c>
       <c r="D55" s="7">
-        <v>2.7205130222676859</v>
+        <v>2.7205130222677054</v>
       </c>
       <c r="E55" s="7">
-        <v>1.2743562555327574</v>
+        <v>1.2743562555327683</v>
       </c>
       <c r="F55" s="7">
-        <v>-1.5460699584463153</v>
+        <v>-1.5460699584463302</v>
       </c>
       <c r="G55" s="7">
-        <v>-11.193170918856699</v>
+        <v>-11.193170918856717</v>
       </c>
       <c r="H55" s="7">
-        <v>-2.1160880139413143</v>
+        <v>-2.116088013941301</v>
       </c>
       <c r="I55" s="7">
-        <v>-0.98744560884474664</v>
+        <v>-0.98744560884477339</v>
       </c>
       <c r="J55" s="7">
-        <v>3.1426788067331879</v>
+        <v>3.1426788067331701</v>
       </c>
       <c r="K55" s="7">
-        <v>12.384706771789624</v>
+        <v>12.38470677178961</v>
       </c>
       <c r="L55" s="7">
-        <v>1.8390264898071247</v>
+        <v>1.8390264898071051</v>
       </c>
       <c r="M55" s="7">
-        <v>3.9901434821835697</v>
+        <v>3.9901434821835919</v>
       </c>
       <c r="N55" s="7">
-        <v>-0.47932375966573776</v>
+        <v>-0.47932375966571367</v>
       </c>
       <c r="O55" s="7">
-        <v>-3.3827613711715858</v>
+        <v>-3.3827613711715623</v>
       </c>
       <c r="P55" s="7">
-        <v>-3.2543128289852996</v>
+        <v>-3.2543128289852987</v>
       </c>
       <c r="Q55" s="7">
-        <v>-6.0816105679528238</v>
+        <v>-6.0816105679528434</v>
       </c>
       <c r="R55" s="7">
-        <v>-6.2013782985541397</v>
+        <v>-6.2013782985541415</v>
       </c>
       <c r="S55" s="7">
-        <v>-2.0052319046719203</v>
+        <v>-2.0052319046719287</v>
       </c>
       <c r="T55" s="7">
-        <v>-0.66620333598092574</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.66620333598092429</v>
+      </c>
+      <c r="U55" s="7">
+        <v>1.5436114946410746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -7783,6 +8053,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/data/source/manufacturing_state_gdp.xlsx
+++ b/static/data/source/manufacturing_state_gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4DF6D4-41BD-4DE8-B545-7DC629034E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39ECA44-F0A3-4607-9689-B1F6CE0E5D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Geography</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>2023 Q4</t>
+  </si>
+  <si>
+    <t>2024 Q1</t>
   </si>
 </sst>
 </file>
@@ -702,29 +705,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:Y56"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
-    <col min="2" max="23" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="2"/>
-    <col min="25" max="25" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
+    <col min="2" max="26" width="8" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -800,693 +801,723 @@
       <c r="Y4" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>2650033.7153991922</v>
+        <v>2691176.2730025039</v>
       </c>
       <c r="C5" s="6">
-        <v>2666100.3991383314</v>
+        <v>2707492.3967609871</v>
       </c>
       <c r="D5" s="6">
-        <v>2679259.7782008653</v>
+        <v>2720856.0790774599</v>
       </c>
       <c r="E5" s="6">
-        <v>2705195.996236905</v>
+        <v>2747194.9645732981</v>
       </c>
       <c r="F5" s="6">
-        <v>2669798.2866655942</v>
+        <v>2711247.6950863525</v>
       </c>
       <c r="G5" s="6">
-        <v>2680126.8690693267</v>
+        <v>2721736.6317882352</v>
       </c>
       <c r="H5" s="6">
-        <v>2705680.5470163389</v>
+        <v>2747687.0381469666</v>
       </c>
       <c r="I5" s="6">
-        <v>2694816.4084879691</v>
+        <v>2736654.2306531351</v>
       </c>
       <c r="J5" s="6">
-        <v>2626800.780658944</v>
+        <v>2667582.6400755532</v>
       </c>
       <c r="K5" s="6">
-        <v>2360297.8519700379</v>
+        <v>2396942.1745578442</v>
       </c>
       <c r="L5" s="6">
-        <v>2632334.8606135361</v>
+        <v>2673202.6382590309</v>
       </c>
       <c r="M5" s="6">
-        <v>2665539.3403410916</v>
+        <v>2706922.6273598974</v>
       </c>
       <c r="N5" s="6">
-        <v>2678826.2327666343</v>
+        <v>2720415.8027220722</v>
       </c>
       <c r="O5" s="6">
-        <v>2697086.1463495297</v>
+        <v>2738959.206866635</v>
       </c>
       <c r="P5" s="6">
-        <v>2696882.124968715</v>
+        <v>2738752.0179935112</v>
       </c>
       <c r="Q5" s="6">
-        <v>2797209.6389842327</v>
+        <v>2840637.1463520438</v>
       </c>
       <c r="R5" s="6">
-        <v>2781448.9873163141</v>
+        <v>2824631.8059032452</v>
       </c>
       <c r="S5" s="6">
-        <v>2734702.5884371982</v>
+        <v>2777159.6553487992</v>
       </c>
       <c r="T5" s="6">
-        <v>2740262.1710643927</v>
+        <v>2782805.5521414177</v>
       </c>
       <c r="U5" s="6">
-        <v>2757170.4429993923</v>
+        <v>2799976.3300015368</v>
       </c>
       <c r="V5" s="6">
-        <v>2692189.6332099824</v>
+        <v>2733986.6739116684</v>
       </c>
       <c r="W5" s="6">
-        <v>2734753.5937824016</v>
+        <v>2777211.4525670805</v>
       </c>
       <c r="X5" s="8">
-        <v>2795857.9973363364</v>
+        <v>2839264.5200676001</v>
       </c>
       <c r="Y5" s="8">
-        <v>2853137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2897432.7961970526</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>2865707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>43766.117424537195</v>
+        <v>44739.775854257779</v>
       </c>
       <c r="C6" s="6">
-        <v>43485.595179545708</v>
+        <v>44453.012871804698</v>
       </c>
       <c r="D6" s="6">
-        <v>43593.748334241223</v>
+        <v>44563.572093955285</v>
       </c>
       <c r="E6" s="6">
-        <v>44192.392944411295</v>
+        <v>45175.53466343724</v>
       </c>
       <c r="F6" s="6">
-        <v>43865.821114022117</v>
+        <v>44841.697637177858</v>
       </c>
       <c r="G6" s="6">
-        <v>43704.436328499913</v>
+        <v>44676.722547875026</v>
       </c>
       <c r="H6" s="6">
-        <v>44039.880097360205</v>
+        <v>45019.628885326456</v>
       </c>
       <c r="I6" s="6">
-        <v>44331.80912038598</v>
+        <v>45318.052410740733</v>
       </c>
       <c r="J6" s="6">
-        <v>44703.163116391275</v>
+        <v>45697.667864921852</v>
       </c>
       <c r="K6" s="6">
-        <v>37825.298434973585</v>
+        <v>38666.792331282995</v>
       </c>
       <c r="L6" s="6">
-        <v>43673.173307220735</v>
+        <v>44644.764022722127</v>
       </c>
       <c r="M6" s="6">
-        <v>43340.686851184146</v>
+        <v>44304.88078900137</v>
       </c>
       <c r="N6" s="6">
-        <v>43102.411932245595</v>
+        <v>44061.305002700865</v>
       </c>
       <c r="O6" s="6">
-        <v>42215.21808513398</v>
+        <v>43154.373883496839</v>
       </c>
       <c r="P6" s="6">
-        <v>41637.274664729841</v>
+        <v>42563.573040129639</v>
       </c>
       <c r="Q6" s="6">
-        <v>43312.803615989214</v>
+        <v>44276.377239540678</v>
       </c>
       <c r="R6" s="6">
-        <v>44990.444933551225</v>
+        <v>45991.340798759345</v>
       </c>
       <c r="S6" s="6">
-        <v>44837.509613239607</v>
+        <v>45835.003148687028</v>
       </c>
       <c r="T6" s="6">
-        <v>45862.429743283785</v>
+        <v>46882.724527348444</v>
       </c>
       <c r="U6" s="6">
-        <v>46359.258297666296</v>
+        <v>47390.605954102706</v>
       </c>
       <c r="V6" s="6">
-        <v>46208.435343657322</v>
+        <v>47236.427663838018</v>
       </c>
       <c r="W6" s="6">
-        <v>46880.167827898971</v>
+        <v>47923.104082663922</v>
       </c>
       <c r="X6" s="8">
-        <v>47795.667383466061</v>
+        <v>48858.970623290174</v>
       </c>
       <c r="Y6" s="8">
-        <v>48860.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>49947.28796633501</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>49569.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>1883.9178376150235</v>
+        <v>1886.7643153018457</v>
       </c>
       <c r="C7" s="6">
-        <v>1681.4068353478899</v>
+        <v>1683.947332042452</v>
       </c>
       <c r="D7" s="6">
-        <v>1597.817883685123</v>
+        <v>1600.2320828941886</v>
       </c>
       <c r="E7" s="6">
-        <v>1667.2455536292327</v>
+        <v>1669.7646535454303</v>
       </c>
       <c r="F7" s="6">
-        <v>1722.1380466277897</v>
+        <v>1724.7400855413121</v>
       </c>
       <c r="G7" s="6">
-        <v>1854.0763248184471</v>
+        <v>1856.8777139145566</v>
       </c>
       <c r="H7" s="6">
-        <v>2045.5106809888098</v>
+        <v>2048.6013149832102</v>
       </c>
       <c r="I7" s="6">
-        <v>1987.3699732066</v>
+        <v>1990.3727603617735</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>1664.067444200623</v>
+        <v>1666.5817421995637</v>
       </c>
       <c r="O7" s="6">
-        <v>1787.803395851266</v>
+        <v>1790.5046508492853</v>
       </c>
       <c r="P7" s="6">
-        <v>1741.0664924893613</v>
+        <v>1743.6971310571337</v>
       </c>
       <c r="Q7" s="6">
-        <v>1778.7130681473759</v>
+        <v>1781.4005882497122</v>
       </c>
       <c r="R7" s="6">
-        <v>1745.8102881805946</v>
+        <v>1748.4480943160372</v>
       </c>
       <c r="S7" s="6">
-        <v>1745.2027084368901</v>
+        <v>1747.8395965587392</v>
       </c>
       <c r="T7" s="6">
-        <v>1699.6575961107137</v>
+        <v>1702.2256685212874</v>
       </c>
       <c r="U7" s="6">
-        <v>1640.9560454881612</v>
+        <v>1643.4354236623449</v>
       </c>
       <c r="V7" s="6">
-        <v>1800.1886752421708</v>
+        <v>1802.9086435942056</v>
       </c>
       <c r="W7" s="6">
-        <v>1829.2590291332758</v>
+        <v>1832.0229209049241</v>
       </c>
       <c r="X7" s="8">
-        <v>1888.4045803377667</v>
+        <v>1891.2578372018922</v>
       </c>
       <c r="Y7" s="8">
-        <v>1927.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1930.4123275080274</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1909.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>31494.893481483574</v>
+        <v>32187.831177974662</v>
       </c>
       <c r="C8" s="6">
-        <v>32057.838501178896</v>
+        <v>32763.161882524837</v>
       </c>
       <c r="D8" s="6">
-        <v>32024.312516059807</v>
+        <v>32728.898272466176</v>
       </c>
       <c r="E8" s="6">
-        <v>33263.024783633824</v>
+        <v>33994.864178024793</v>
       </c>
       <c r="F8" s="6">
-        <v>34499.113278459386</v>
+        <v>35258.148583665781</v>
       </c>
       <c r="G8" s="6">
-        <v>34708.140507419281</v>
+        <v>35471.774743770642</v>
       </c>
       <c r="H8" s="6">
-        <v>35394.694376597159</v>
+        <v>36173.433888884909</v>
       </c>
       <c r="I8" s="6">
-        <v>36543.323779807703</v>
+        <v>37347.334963938083</v>
       </c>
       <c r="J8" s="6">
-        <v>35940.147577969481</v>
+        <v>36730.887927317526</v>
       </c>
       <c r="K8" s="6">
-        <v>33957.44997105706</v>
+        <v>34704.567822891971</v>
       </c>
       <c r="L8" s="6">
-        <v>36494.638218808686</v>
+        <v>37297.578243244214</v>
       </c>
       <c r="M8" s="6">
-        <v>38671.203478801057</v>
+        <v>39522.031397139399</v>
       </c>
       <c r="N8" s="6">
-        <v>38794.812328283617</v>
+        <v>39648.359837703501</v>
       </c>
       <c r="O8" s="6">
-        <v>39141.441861384461</v>
+        <v>40002.615771266501</v>
       </c>
       <c r="P8" s="6">
-        <v>41128.803953183022</v>
+        <v>42033.702986656739</v>
       </c>
       <c r="Q8" s="6">
-        <v>40789.754208022139</v>
+        <v>41687.19360841134</v>
       </c>
       <c r="R8" s="6">
-        <v>40742.817828855412</v>
+        <v>41639.224554329216</v>
       </c>
       <c r="S8" s="6">
-        <v>40565.275872876926</v>
+        <v>41457.776393235967</v>
       </c>
       <c r="T8" s="6">
-        <v>41029.683649352672</v>
+        <v>41932.40187865722</v>
       </c>
       <c r="U8" s="6">
-        <v>42633.100328961307</v>
+        <v>43571.09627276699</v>
       </c>
       <c r="V8" s="6">
-        <v>39655.701320080763</v>
+        <v>40528.189755122803</v>
       </c>
       <c r="W8" s="6">
-        <v>40176.665975800868</v>
+        <v>41060.616460990823</v>
       </c>
       <c r="X8" s="8">
-        <v>40599.967979217552</v>
+        <v>41493.2317810358</v>
       </c>
       <c r="Y8" s="8">
-        <v>41297.599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>42206.2128146912</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>41599.300000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>22829.582653533416</v>
+        <v>22867.492689741975</v>
       </c>
       <c r="C9" s="6">
-        <v>22955.552799629801</v>
+        <v>22993.672017621146</v>
       </c>
       <c r="D9" s="6">
-        <v>23044.037019898198</v>
+        <v>23082.303171806165</v>
       </c>
       <c r="E9" s="6">
-        <v>23212.287803265684</v>
+        <v>23250.833346758969</v>
       </c>
       <c r="F9" s="6">
-        <v>22373.4312421498</v>
+        <v>22410.583808684707</v>
       </c>
       <c r="G9" s="6">
-        <v>22603.141508560853</v>
+        <v>22640.675524229075</v>
       </c>
       <c r="H9" s="6">
-        <v>22941.168665300458</v>
+        <v>22979.263997482696</v>
       </c>
       <c r="I9" s="6">
-        <v>23360.705916573017</v>
+        <v>23399.497918187539</v>
       </c>
       <c r="J9" s="6">
-        <v>22746.111086137367</v>
+        <v>22783.882512271866</v>
       </c>
       <c r="K9" s="6">
-        <v>21172.791908507967</v>
+        <v>21207.950733794838</v>
       </c>
       <c r="L9" s="6">
-        <v>23195.724254644014</v>
+        <v>23234.242293266205</v>
       </c>
       <c r="M9" s="6">
-        <v>23590.41618298407</v>
+        <v>23629.589633731906</v>
       </c>
       <c r="N9" s="6">
-        <v>23880.496225292522</v>
+        <v>23920.151373190685</v>
       </c>
       <c r="O9" s="6">
-        <v>24278.239333641832</v>
+        <v>24318.554960352423</v>
       </c>
       <c r="P9" s="6">
-        <v>24612.561486084487</v>
+        <v>24653.432276903714</v>
       </c>
       <c r="Q9" s="6">
-        <v>25892.749441396179</v>
+        <v>25935.746069225926</v>
       </c>
       <c r="R9" s="6">
-        <v>25591.336444767636</v>
+        <v>25633.832556324731</v>
       </c>
       <c r="S9" s="6">
-        <v>24998.317815826005</v>
+        <v>25039.82918061674</v>
       </c>
       <c r="T9" s="6">
-        <v>25147.389753421037</v>
+        <v>25189.148662051604</v>
       </c>
       <c r="U9" s="6">
-        <v>25254.18105374496</v>
+        <v>25296.117296412838</v>
       </c>
       <c r="V9" s="6">
-        <v>25297.769339591458</v>
+        <v>25339.777963499055</v>
       </c>
       <c r="W9" s="6">
-        <v>25870.737357043698</v>
+        <v>25913.697432347388</v>
       </c>
       <c r="X9" s="8">
-        <v>26219.443643815695</v>
+        <v>26262.982769037128</v>
       </c>
       <c r="Y9" s="8">
-        <v>26374.400000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>26418.196440528634</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>26016.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>363517.28391614149</v>
+        <v>370175.64650557929</v>
       </c>
       <c r="C10" s="6">
-        <v>372511.95728819142</v>
+        <v>379335.07076935982</v>
       </c>
       <c r="D10" s="6">
-        <v>385906.350736027</v>
+        <v>392974.80256061751</v>
       </c>
       <c r="E10" s="6">
-        <v>390902.22939577413</v>
+        <v>398062.18820790335</v>
       </c>
       <c r="F10" s="6">
-        <v>385847.08350838174</v>
+        <v>392914.44976508094</v>
       </c>
       <c r="G10" s="6">
-        <v>392251.43040158163</v>
+        <v>399436.10184747039</v>
       </c>
       <c r="H10" s="6">
-        <v>396794.08908521768</v>
+        <v>404061.9661171239</v>
       </c>
       <c r="I10" s="6">
-        <v>398966.05866304215</v>
+        <v>406273.71856531588</v>
       </c>
       <c r="J10" s="6">
-        <v>387077.75005889864</v>
+        <v>394167.65781357494</v>
       </c>
       <c r="K10" s="6">
-        <v>358765.44678199268</v>
+        <v>365336.77236932627</v>
       </c>
       <c r="L10" s="6">
-        <v>398174.66685860208</v>
+        <v>405467.83123668091</v>
       </c>
       <c r="M10" s="6">
-        <v>399060.18896577292</v>
+        <v>406369.57300528564</v>
       </c>
       <c r="N10" s="6">
-        <v>417227.33739280858</v>
+        <v>424869.47991945635</v>
       </c>
       <c r="O10" s="6">
-        <v>423938.47934676055</v>
+        <v>431703.54647285846</v>
       </c>
       <c r="P10" s="6">
-        <v>417962.94827711192</v>
+        <v>425618.56461699802</v>
       </c>
       <c r="Q10" s="6">
-        <v>433940.69558878045</v>
+        <v>441888.96826076007</v>
       </c>
       <c r="R10" s="6">
-        <v>422913.50493924791</v>
+        <v>430659.79812652065</v>
       </c>
       <c r="S10" s="6">
-        <v>414894.99766959099</v>
+        <v>422494.41990687139</v>
       </c>
       <c r="T10" s="6">
-        <v>410955.47018493345</v>
+        <v>418482.73408591322</v>
       </c>
       <c r="U10" s="6">
-        <v>406168.76997569919</v>
+        <v>413608.35830522695</v>
       </c>
       <c r="V10" s="6">
-        <v>401312.34361629392</v>
+        <v>408662.97923567414</v>
       </c>
       <c r="W10" s="6">
-        <v>407674.85481939127</v>
+        <v>415142.0293447437</v>
       </c>
       <c r="X10" s="8">
-        <v>414657.92875900981</v>
+        <v>422253.00872472522</v>
       </c>
       <c r="Y10" s="8">
-        <v>423220.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>430972.21259753336</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>423144.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>26246.514755418488</v>
+        <v>26585.674580478859</v>
       </c>
       <c r="C11" s="6">
-        <v>26799.696180930354</v>
+        <v>27146.004266140753</v>
       </c>
       <c r="D11" s="6">
-        <v>26900.829027670694</v>
+        <v>27248.443960625562</v>
       </c>
       <c r="E11" s="6">
-        <v>27706.588467403413</v>
+        <v>28064.615496332433</v>
       </c>
       <c r="F11" s="6">
-        <v>27257.335017561894</v>
+        <v>27609.556752992874</v>
       </c>
       <c r="G11" s="6">
-        <v>27736.318475113509</v>
+        <v>28094.729677876963</v>
       </c>
       <c r="H11" s="6">
-        <v>28592.390235586394</v>
+        <v>28961.863674659191</v>
       </c>
       <c r="I11" s="6">
-        <v>28944.576480767584</v>
+        <v>29318.600902186703</v>
       </c>
       <c r="J11" s="6">
-        <v>28760.606176646961</v>
+        <v>29132.253317244482</v>
       </c>
       <c r="K11" s="6">
-        <v>27873.025690053972</v>
+        <v>28233.20343574839</v>
       </c>
       <c r="L11" s="6">
-        <v>30270.229901482056</v>
+        <v>30661.384535672278</v>
       </c>
       <c r="M11" s="6">
-        <v>30390.674548102459</v>
+        <v>30783.385578852678</v>
       </c>
       <c r="N11" s="6">
-        <v>30056.529589651331</v>
+        <v>30444.922769185523</v>
       </c>
       <c r="O11" s="6">
-        <v>30283.951443502101</v>
+        <v>30675.283388692827</v>
       </c>
       <c r="P11" s="6">
-        <v>29838.763635740601</v>
+        <v>30224.342824026018</v>
       </c>
       <c r="Q11" s="6">
-        <v>30615.80947828322</v>
+        <v>31011.429722856552</v>
       </c>
       <c r="R11" s="6">
-        <v>29942.437508780949</v>
+        <v>30329.3563801813</v>
       </c>
       <c r="S11" s="6">
-        <v>29184.957568748396</v>
+        <v>29562.088216213411</v>
       </c>
       <c r="T11" s="6">
-        <v>29823.263375310547</v>
+        <v>30208.642267836134</v>
       </c>
       <c r="U11" s="6">
-        <v>29690.621802450096</v>
+        <v>30074.286688637465</v>
       </c>
       <c r="V11" s="6">
-        <v>28142.628580484878</v>
+        <v>28506.290158985536</v>
       </c>
       <c r="W11" s="6">
-        <v>28531.91380964619</v>
+        <v>28900.605766901943</v>
       </c>
       <c r="X11" s="8">
-        <v>29233.745273708559</v>
+        <v>29611.506360286483</v>
       </c>
       <c r="Y11" s="8">
-        <v>29661.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>30044.687279427031</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>29755.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>35230.695834266517</v>
+        <v>36062.052732946948</v>
       </c>
       <c r="C12" s="6">
-        <v>36045.505218365062</v>
+        <v>36896.089594293357</v>
       </c>
       <c r="D12" s="6">
-        <v>37486.177901135816</v>
+        <v>38370.758573339277</v>
       </c>
       <c r="E12" s="6">
-        <v>37354.278365061589</v>
+        <v>38235.746535889441</v>
       </c>
       <c r="F12" s="6">
-        <v>36578.379344104942</v>
+        <v>37441.538225590724</v>
       </c>
       <c r="G12" s="6">
-        <v>37184.12796352584</v>
+        <v>38061.581007579138</v>
       </c>
       <c r="H12" s="6">
-        <v>37236.228280275158</v>
+        <v>38114.91076237183</v>
       </c>
       <c r="I12" s="6">
-        <v>38538.076701327787</v>
+        <v>39447.479572001786</v>
       </c>
       <c r="J12" s="6">
-        <v>36330.078467445208</v>
+        <v>37187.378065091398</v>
       </c>
       <c r="K12" s="6">
-        <v>32889.808817789155</v>
+        <v>33665.926598305843</v>
       </c>
       <c r="L12" s="6">
-        <v>35757.964229723242</v>
+        <v>36601.763352652699</v>
       </c>
       <c r="M12" s="6">
-        <v>35772.143429851225</v>
+        <v>36616.277146678556</v>
       </c>
       <c r="N12" s="6">
-        <v>37087.181804511281</v>
+        <v>37962.347160053505</v>
       </c>
       <c r="O12" s="6">
-        <v>37136.314381698925</v>
+        <v>38012.639144003573</v>
       </c>
       <c r="P12" s="6">
-        <v>36973.088705807066</v>
+        <v>37845.561747659391</v>
       </c>
       <c r="Q12" s="6">
-        <v>37855.166853303468</v>
+        <v>38748.454748105221</v>
       </c>
       <c r="R12" s="6">
-        <v>38651.840051191808</v>
+        <v>39563.927454302277</v>
       </c>
       <c r="S12" s="6">
-        <v>38357.37433690609</v>
+        <v>39262.513080695499</v>
       </c>
       <c r="T12" s="6">
-        <v>39427.739072148455</v>
+        <v>40358.135764600986</v>
       </c>
       <c r="U12" s="6">
-        <v>40385.659452887543</v>
+        <v>41338.660686580479</v>
       </c>
       <c r="V12" s="6">
-        <v>39361.129806430967</v>
+        <v>40289.954685688819</v>
       </c>
       <c r="W12" s="6">
-        <v>39672.412711566154</v>
+        <v>40608.583094070447</v>
       </c>
       <c r="X12" s="8">
-        <v>40347.078838585825</v>
+        <v>41299.169665626396</v>
       </c>
       <c r="Y12" s="8">
-        <v>41225.199999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>42198.012304948737</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>41639.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>5232.9228473991725</v>
+        <v>5368.584858797356</v>
       </c>
       <c r="C13" s="6">
-        <v>5454.0396856067309</v>
+        <v>5595.4340870859469</v>
       </c>
       <c r="D13" s="6">
-        <v>5643.1167150368346</v>
+        <v>5789.4128838208053</v>
       </c>
       <c r="E13" s="6">
-        <v>5980.3778600626629</v>
+        <v>6135.4174264916792</v>
       </c>
       <c r="F13" s="6">
-        <v>6164.6594575869303</v>
+        <v>6324.4764711354355</v>
       </c>
       <c r="G13" s="6">
-        <v>6251.5568994849918</v>
+        <v>6413.6267040829789</v>
       </c>
       <c r="H13" s="6">
-        <v>6623.0184324985948</v>
+        <v>6794.7182699090699</v>
       </c>
       <c r="I13" s="6">
-        <v>6542.7608193932292</v>
+        <v>6712.3800013953605</v>
       </c>
       <c r="J13" s="6">
-        <v>6618.5391829162209</v>
+        <v>6790.1228970767224</v>
       </c>
       <c r="K13" s="6">
-        <v>6058.8437733350775</v>
+        <v>6215.9175458724485</v>
       </c>
       <c r="L13" s="6">
-        <v>6686.9399588917704</v>
+        <v>6860.2969433871585</v>
       </c>
       <c r="M13" s="6">
-        <v>6846.4012440242932</v>
+        <v>7023.8922162187309</v>
       </c>
       <c r="N13" s="6">
-        <v>6488.4828538656348</v>
+        <v>6656.6948953092669</v>
       </c>
       <c r="O13" s="6">
-        <v>6411.1235787253363</v>
+        <v>6577.330103334134</v>
       </c>
       <c r="P13" s="6">
-        <v>6374.7626115272396</v>
+        <v>6540.0264885774313</v>
       </c>
       <c r="Q13" s="6">
-        <v>6845.3473029460893</v>
+        <v>7022.8109520228845</v>
       </c>
       <c r="R13" s="6">
-        <v>6338.9813119221544</v>
+        <v>6503.3175691284432</v>
       </c>
       <c r="S13" s="6">
-        <v>6131.2495254078094</v>
+        <v>6290.200396127103</v>
       </c>
       <c r="T13" s="6">
-        <v>6298.1937921955941</v>
+        <v>6461.4726447491848</v>
       </c>
       <c r="U13" s="6">
-        <v>6610.2130483983947</v>
+        <v>6781.5809099295348</v>
       </c>
       <c r="V13" s="6">
-        <v>6147.9544914973694</v>
+        <v>6307.3384336312683</v>
       </c>
       <c r="W13" s="6">
-        <v>6269.3158066527576</v>
+        <v>6431.8460057829907</v>
       </c>
       <c r="X13" s="8">
-        <v>6573.6939900385678</v>
+        <v>6744.1151055434548</v>
       </c>
       <c r="Y13" s="8">
-        <v>6845.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>7022.8650152326773</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>6974.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1514,3157 +1545,3281 @@
       <c r="W14" s="6"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>61089.062558393198</v>
+        <v>62612.914941652045</v>
       </c>
       <c r="C15" s="6">
-        <v>61767.380352804001</v>
+        <v>63308.153214857746</v>
       </c>
       <c r="D15" s="6">
-        <v>62345.735524880569</v>
+        <v>63900.935321485769</v>
       </c>
       <c r="E15" s="6">
-        <v>63147.221550381757</v>
+        <v>64722.414228510395</v>
       </c>
       <c r="F15" s="6">
-        <v>63329.296326776239</v>
+        <v>64909.030817634048</v>
       </c>
       <c r="G15" s="6">
-        <v>63357.262060405454</v>
+        <v>64937.694149950417</v>
       </c>
       <c r="H15" s="6">
-        <v>64315.237191108434</v>
+        <v>65919.565746319888</v>
       </c>
       <c r="I15" s="6">
-        <v>65778.975589573849</v>
+        <v>67419.81675692166</v>
       </c>
       <c r="J15" s="6">
-        <v>66732.785611012892</v>
+        <v>68397.419346350391</v>
       </c>
       <c r="K15" s="6">
-        <v>61361.579707375786</v>
+        <v>62892.229967203108</v>
       </c>
       <c r="L15" s="6">
-        <v>67352.791875728726</v>
+        <v>69032.891522385777</v>
       </c>
       <c r="M15" s="6">
-        <v>67289.720221160707</v>
+        <v>68968.246560140338</v>
       </c>
       <c r="N15" s="6">
-        <v>68364.913426862739</v>
+        <v>70070.260208984822</v>
       </c>
       <c r="O15" s="6">
-        <v>68456.545830669114</v>
+        <v>70164.178361681028</v>
       </c>
       <c r="P15" s="6">
-        <v>68598.754561251728</v>
+        <v>70309.934455800467</v>
       </c>
       <c r="Q15" s="6">
-        <v>72361.038257795153</v>
+        <v>74166.067439554565</v>
       </c>
       <c r="R15" s="6">
-        <v>72654.380953097381</v>
+        <v>74466.727499809305</v>
       </c>
       <c r="S15" s="6">
-        <v>72859.661338248014</v>
+        <v>74677.128556174197</v>
       </c>
       <c r="T15" s="6">
-        <v>74986.842140895926</v>
+        <v>76857.371386621919</v>
       </c>
       <c r="U15" s="6">
-        <v>74813.097583029288</v>
+        <v>76679.292811379753</v>
       </c>
       <c r="V15" s="6">
-        <v>73758.134908037755</v>
+        <v>75598.014339104557</v>
       </c>
       <c r="W15" s="6">
-        <v>75098.705075412785</v>
+        <v>76972.024715887412</v>
       </c>
       <c r="X15" s="8">
-        <v>77067.016710422366</v>
+        <v>78989.435424452735</v>
       </c>
       <c r="Y15" s="8">
-        <v>79098.399999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>81071.491095263511</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>79958.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>70451.402548525308</v>
+        <v>71470.136639867487</v>
       </c>
       <c r="C16" s="6">
-        <v>68892.75251155789</v>
+        <v>69888.948372691826</v>
       </c>
       <c r="D16" s="6">
-        <v>69044.969909407548</v>
+        <v>70043.366848829159</v>
       </c>
       <c r="E16" s="6">
-        <v>69750.64134828659</v>
+        <v>70759.242364931182</v>
       </c>
       <c r="F16" s="6">
-        <v>69143.174682213765</v>
+        <v>70142.991672143544</v>
       </c>
       <c r="G16" s="6">
-        <v>70148.370678151798</v>
+        <v>71162.722899354485</v>
       </c>
       <c r="H16" s="6">
-        <v>70796.522178672923</v>
+        <v>71820.246733229505</v>
       </c>
       <c r="I16" s="6">
-        <v>70564.33803725247</v>
+        <v>71584.705186679028</v>
       </c>
       <c r="J16" s="6">
-        <v>70578.367290510505</v>
+        <v>71598.937304295381</v>
       </c>
       <c r="K16" s="6">
-        <v>61876.722957215774</v>
+        <v>62771.466352759002</v>
       </c>
       <c r="L16" s="6">
-        <v>69700.136036557669</v>
+        <v>70708.006741512349</v>
       </c>
       <c r="M16" s="6">
-        <v>71380.139114207064</v>
+        <v>72412.302826069339</v>
       </c>
       <c r="N16" s="6">
-        <v>70587.48630512823</v>
+        <v>71608.188180746001</v>
       </c>
       <c r="O16" s="6">
-        <v>70939.620561904841</v>
+        <v>71965.414332916189</v>
       </c>
       <c r="P16" s="6">
-        <v>71684.573909906379</v>
+        <v>72721.139778343975</v>
       </c>
       <c r="Q16" s="6">
-        <v>75912.990841877414</v>
+        <v>77010.700027909581</v>
       </c>
       <c r="R16" s="6">
-        <v>75626.794075413549</v>
+        <v>76720.3648285362</v>
       </c>
       <c r="S16" s="6">
-        <v>74424.487071200143</v>
+        <v>75500.672348815642</v>
       </c>
       <c r="T16" s="6">
-        <v>75029.147886621358</v>
+        <v>76114.076618079998</v>
       </c>
       <c r="U16" s="6">
-        <v>76251.797308058885</v>
+        <v>77354.405668344232</v>
       </c>
       <c r="V16" s="6">
-        <v>73916.628103259369</v>
+        <v>74985.469691104052</v>
       </c>
       <c r="W16" s="6">
-        <v>75113.32340616954</v>
+        <v>76199.469323778059</v>
       </c>
       <c r="X16" s="8">
-        <v>77153.878292550391</v>
+        <v>78269.530831075055</v>
       </c>
       <c r="Y16" s="8">
-        <v>78746.899999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>79885.587786410731</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>79040.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>2202.9402800910975</v>
+        <v>2229.8863572028581</v>
       </c>
       <c r="C17" s="6">
-        <v>2211.1000283263647</v>
+        <v>2238.1459144103196</v>
       </c>
       <c r="D17" s="6">
-        <v>2068.251172144985</v>
+        <v>2093.5497497209531</v>
       </c>
       <c r="E17" s="6">
-        <v>2040.6614228899691</v>
+        <v>2065.6225262649159</v>
       </c>
       <c r="F17" s="6">
-        <v>1907.1014707048732</v>
+        <v>1930.4288862294741</v>
       </c>
       <c r="G17" s="6">
-        <v>1835.83682880678</v>
+        <v>1858.2925445611772</v>
       </c>
       <c r="H17" s="6">
-        <v>1898.0895294424238</v>
+        <v>1921.3067120812859</v>
       </c>
       <c r="I17" s="6">
-        <v>1893.2320291874867</v>
+        <v>1916.3897955191417</v>
       </c>
       <c r="J17" s="6">
-        <v>1973.2529544398744</v>
+        <v>1997.3895262534088</v>
       </c>
       <c r="K17" s="6">
-        <v>1670.4048574050782</v>
+        <v>1690.837030942545</v>
       </c>
       <c r="L17" s="6">
-        <v>1818.2177379697926</v>
+        <v>1840.4579393116462</v>
       </c>
       <c r="M17" s="6">
-        <v>1804.4335157551241</v>
+        <v>1826.5051102953867</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6">
-        <v>1742.3512537249167</v>
+        <v>1763.6634661634234</v>
       </c>
       <c r="S17" s="6">
-        <v>1715.8480505795574</v>
+        <v>1736.836079306813</v>
       </c>
       <c r="T17" s="6">
-        <v>1785.3017822948887</v>
+        <v>1807.1393599760652</v>
       </c>
       <c r="U17" s="6">
-        <v>1811.2297551469005</v>
+        <v>1833.3844803976845</v>
       </c>
       <c r="V17" s="6">
-        <v>1747.0596202000972</v>
+        <v>1768.4294247609403</v>
       </c>
       <c r="W17" s="6">
-        <v>1784.5561133961046</v>
+        <v>1806.384570152929</v>
       </c>
       <c r="X17" s="8">
-        <v>1831.0858526802406</v>
+        <v>1853.4834551166241</v>
       </c>
       <c r="Y17" s="8">
-        <v>1880.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1903.2995834436094</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1874.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>9920.2138563258632</v>
+        <v>10121.421202983654</v>
       </c>
       <c r="C18" s="6">
-        <v>10079.245080396246</v>
+        <v>10283.677987621013</v>
       </c>
       <c r="D18" s="6">
-        <v>10171.860614690691</v>
+        <v>10378.172002176525</v>
       </c>
       <c r="E18" s="6">
-        <v>10555.331066279759</v>
+        <v>10769.420216745641</v>
       </c>
       <c r="F18" s="6">
-        <v>9910.7782479852831</v>
+        <v>10111.794216337543</v>
       </c>
       <c r="G18" s="6">
-        <v>10090.421237848197</v>
+        <v>10295.080826172716</v>
       </c>
       <c r="H18" s="6">
-        <v>10680.284170906487</v>
+        <v>10896.90769038928</v>
       </c>
       <c r="I18" s="6">
-        <v>10421.950039640082</v>
+        <v>10633.333881243339</v>
       </c>
       <c r="J18" s="6">
-        <v>10769.326999130226</v>
+        <v>10987.756535243838</v>
       </c>
       <c r="K18" s="6">
-        <v>9640.2602729392911</v>
+        <v>9835.789443852449</v>
       </c>
       <c r="L18" s="6">
-        <v>10489.648239287555</v>
+        <v>10702.405173781939</v>
       </c>
       <c r="M18" s="6">
-        <v>10699.705034675451</v>
+        <v>10916.722459020111</v>
       </c>
       <c r="N18" s="6">
-        <v>10065.04586396139</v>
+        <v>10269.190774706964</v>
       </c>
       <c r="O18" s="6">
-        <v>10141.263593469777</v>
+        <v>10346.954394993993</v>
       </c>
       <c r="P18" s="6">
-        <v>10001.378409624458</v>
+        <v>10204.231981318158</v>
       </c>
       <c r="Q18" s="6">
-        <v>10876.233357707493</v>
+        <v>11096.831228603171</v>
       </c>
       <c r="R18" s="6">
-        <v>10477.006356268135</v>
+        <v>10689.506880993946</v>
       </c>
       <c r="S18" s="6">
-        <v>10971.505519592976</v>
+        <v>11194.035753961956</v>
       </c>
       <c r="T18" s="6">
-        <v>11300.286085945858</v>
+        <v>11529.484832339538</v>
       </c>
       <c r="U18" s="6">
-        <v>11274.819104211085</v>
+        <v>11503.501314984016</v>
       </c>
       <c r="V18" s="6">
-        <v>11258.970946512825</v>
+        <v>11487.331716054141</v>
       </c>
       <c r="W18" s="6">
-        <v>11380.534560764783</v>
+        <v>11611.360951776362</v>
       </c>
       <c r="X18" s="8">
-        <v>11634.471515328782</v>
+        <v>11870.448398213435</v>
       </c>
       <c r="Y18" s="8">
-        <v>11901.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>12142.994932777112</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>12367.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>131306.06421537086</v>
+        <v>133593.24104970737</v>
       </c>
       <c r="C19" s="6">
-        <v>129595.74104468274</v>
+        <v>131853.12632629392</v>
       </c>
       <c r="D19" s="6">
-        <v>128759.95989186774</v>
+        <v>131002.78697845025</v>
       </c>
       <c r="E19" s="6">
-        <v>130350.36663628239</v>
+        <v>132620.89649108614</v>
       </c>
       <c r="F19" s="6">
-        <v>129133.03321805182</v>
+        <v>131382.3587453138</v>
       </c>
       <c r="G19" s="6">
-        <v>128477.73234316352</v>
+        <v>130715.6434015697</v>
       </c>
       <c r="H19" s="6">
-        <v>127620.14820375334</v>
+        <v>129843.1212881301</v>
       </c>
       <c r="I19" s="6">
-        <v>124421.16555942805</v>
+        <v>126588.41662486177</v>
       </c>
       <c r="J19" s="6">
-        <v>121113.16798212689</v>
+        <v>123222.79813361383</v>
       </c>
       <c r="K19" s="6">
-        <v>109711.41726988382</v>
+        <v>111622.44410281307</v>
       </c>
       <c r="L19" s="6">
-        <v>122576.39063806969</v>
+        <v>124711.50818027348</v>
       </c>
       <c r="M19" s="6">
-        <v>124028.71180071491</v>
+        <v>126189.12684413519</v>
       </c>
       <c r="N19" s="6">
-        <v>126474.28013047362</v>
+        <v>128677.29371847777</v>
       </c>
       <c r="O19" s="6">
-        <v>128511.64810008935</v>
+        <v>130750.14992583003</v>
       </c>
       <c r="P19" s="6">
-        <v>128156.74392940123</v>
+        <v>130389.06379696308</v>
       </c>
       <c r="Q19" s="6">
-        <v>132269.02945665771</v>
+        <v>134572.97986352726</v>
       </c>
       <c r="R19" s="6">
-        <v>133718.9280652368</v>
+        <v>136048.13377565605</v>
       </c>
       <c r="S19" s="6">
-        <v>128613.39537086684</v>
+        <v>130853.66949861101</v>
       </c>
       <c r="T19" s="6">
-        <v>128848.3831152815</v>
+        <v>131092.75041670038</v>
       </c>
       <c r="U19" s="6">
-        <v>130421.83198123323</v>
+        <v>132693.6066672061</v>
       </c>
       <c r="V19" s="6">
-        <v>127147.75016085789</v>
+        <v>129362.49470021846</v>
       </c>
       <c r="W19" s="6">
-        <v>129182.6955764075</v>
+        <v>131432.88615583786</v>
       </c>
       <c r="X19" s="8">
-        <v>132117.61982752456</v>
+        <v>134418.93288022224</v>
       </c>
       <c r="Y19" s="8">
-        <v>135541.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>137902.85945464842</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>137078.39999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>114437.92004549477</v>
+        <v>116122.98996310717</v>
       </c>
       <c r="C20" s="6">
-        <v>113189.29601920889</v>
+        <v>114855.98025850537</v>
       </c>
       <c r="D20" s="6">
-        <v>113071.41892581827</v>
+        <v>114736.36745422478</v>
       </c>
       <c r="E20" s="6">
-        <v>113285.34402123089</v>
+        <v>114953.44254347475</v>
       </c>
       <c r="F20" s="6">
-        <v>113154.36947301908</v>
+        <v>114820.53942760742</v>
       </c>
       <c r="G20" s="6">
-        <v>113467.61693415898</v>
+        <v>115138.39937972341</v>
       </c>
       <c r="H20" s="6">
-        <v>113495.99475293822</v>
+        <v>115167.19505482801</v>
       </c>
       <c r="I20" s="6">
-        <v>113429.41602426386</v>
+        <v>115099.63597092879</v>
       </c>
       <c r="J20" s="6">
-        <v>112487.49073170731</v>
+        <v>114143.84106264963</v>
       </c>
       <c r="K20" s="6">
-        <v>92758.357952736013</v>
+        <v>94124.201709168672</v>
       </c>
       <c r="L20" s="6">
-        <v>111364.3839807911</v>
+        <v>113004.19684408735</v>
       </c>
       <c r="M20" s="6">
-        <v>113365.0202047264</v>
+        <v>115034.29193896068</v>
       </c>
       <c r="N20" s="6">
-        <v>117850.89848098067</v>
+        <v>119586.22365741647</v>
       </c>
       <c r="O20" s="6">
-        <v>116802.01064071781</v>
+        <v>118521.89120451234</v>
       </c>
       <c r="P20" s="6">
-        <v>117706.82647794767</v>
+        <v>119440.03022996242</v>
       </c>
       <c r="Q20" s="6">
-        <v>123530.82805509921</v>
+        <v>125349.78878219602</v>
       </c>
       <c r="R20" s="6">
-        <v>127494.99104764313</v>
+        <v>129372.32308911363</v>
       </c>
       <c r="S20" s="6">
-        <v>127269.05995197776</v>
+        <v>129143.0652142425</v>
       </c>
       <c r="T20" s="6">
-        <v>126390.43902439025</v>
+        <v>128251.50681196587</v>
       </c>
       <c r="U20" s="6">
-        <v>125768.30992038418</v>
+        <v>127620.21701159611</v>
       </c>
       <c r="V20" s="6">
-        <v>122667.48749146973</v>
+        <v>124473.73574343724</v>
       </c>
       <c r="W20" s="6">
-        <v>124639.7458966258</v>
+        <v>126475.035163206</v>
       </c>
       <c r="X20" s="8">
-        <v>127213.39576898774</v>
+        <v>129086.58138999889</v>
       </c>
       <c r="Y20" s="8">
-        <v>129550.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>131457.79448226502</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>129987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>38559.826093193151</v>
+        <v>39428.708339419522</v>
       </c>
       <c r="C21" s="6">
-        <v>39275.898416785458</v>
+        <v>40160.916174813137</v>
       </c>
       <c r="D21" s="6">
-        <v>39392.891560940836</v>
+        <v>40280.545567006593</v>
       </c>
       <c r="E21" s="6">
-        <v>39459.373379365643</v>
+        <v>40348.525443840335</v>
       </c>
       <c r="F21" s="6">
-        <v>37679.591960976475</v>
+        <v>38528.639579106821</v>
       </c>
       <c r="G21" s="6">
-        <v>37318.213137918741</v>
+        <v>38159.11767877591</v>
       </c>
       <c r="H21" s="6">
-        <v>38572.825331432643</v>
+        <v>39442.000494107677</v>
       </c>
       <c r="I21" s="6">
-        <v>37900.579011047754</v>
+        <v>38754.606208805584</v>
       </c>
       <c r="J21" s="6">
-        <v>39616.107051853171</v>
+        <v>40508.790851794751</v>
       </c>
       <c r="K21" s="6">
-        <v>35730.449038667139</v>
+        <v>36535.575927578968</v>
       </c>
       <c r="L21" s="6">
-        <v>39606.079068068429</v>
+        <v>40498.536903892462</v>
       </c>
       <c r="M21" s="6">
-        <v>39905.061547576617</v>
+        <v>40804.256461720179</v>
       </c>
       <c r="N21" s="6">
-        <v>41382.51782519601</v>
+        <v>42315.004785991878</v>
       </c>
       <c r="O21" s="6">
-        <v>39893.176529757664</v>
+        <v>40792.103634576721</v>
       </c>
       <c r="P21" s="6">
-        <v>39028.912890235209</v>
+        <v>39908.365235738056</v>
       </c>
       <c r="Q21" s="6">
-        <v>40209.615129187456</v>
+        <v>41115.672657271411</v>
       </c>
       <c r="R21" s="6">
-        <v>41287.066275837489</v>
+        <v>42217.402392995937</v>
       </c>
       <c r="S21" s="6">
-        <v>39629.849103706343</v>
+        <v>40522.842558179378</v>
       </c>
       <c r="T21" s="6">
-        <v>39994.570588025657</v>
+        <v>40895.782441144387</v>
       </c>
       <c r="U21" s="6">
-        <v>40227.071249109053</v>
+        <v>41133.522122138369</v>
       </c>
       <c r="V21" s="6">
-        <v>39482.400601389883</v>
+        <v>40372.071546430801</v>
       </c>
       <c r="W21" s="6">
-        <v>39767.641029044898</v>
+        <v>40663.739397873898</v>
       </c>
       <c r="X21" s="8">
-        <v>40563.194409301497</v>
+        <v>41477.219264789426</v>
       </c>
       <c r="Y21" s="8">
-        <v>41686.699999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>42626.041205694863</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>42119.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>31780.266773593554</v>
+        <v>32051.891139412379</v>
       </c>
       <c r="C22" s="6">
-        <v>32342.223373857727</v>
+        <v>32618.650754901435</v>
       </c>
       <c r="D22" s="6">
-        <v>32739.075203745138</v>
+        <v>33018.894457720096</v>
       </c>
       <c r="E22" s="6">
-        <v>32519.936144881438</v>
+        <v>32797.882428175748</v>
       </c>
       <c r="F22" s="6">
-        <v>32238.957844749351</v>
+        <v>32514.50262043122</v>
       </c>
       <c r="G22" s="6">
-        <v>32263.573465060072</v>
+        <v>32539.328629229352</v>
       </c>
       <c r="H22" s="6">
-        <v>31489.382187238862</v>
+        <v>31758.520376907622</v>
       </c>
       <c r="I22" s="6">
-        <v>31089.828642927099</v>
+        <v>31355.551868245264</v>
       </c>
       <c r="J22" s="6">
-        <v>30753.01491135851</v>
+        <v>31015.859406397656</v>
       </c>
       <c r="K22" s="6">
-        <v>26377.138115391179</v>
+        <v>26602.582208222451</v>
       </c>
       <c r="L22" s="6">
-        <v>29407.861318525305</v>
+        <v>29659.20885244121</v>
       </c>
       <c r="M22" s="6">
-        <v>30574.101378368421</v>
+        <v>30835.416708303921</v>
       </c>
       <c r="N22" s="6">
-        <v>29916.684201777327</v>
+        <v>30172.38061967089</v>
       </c>
       <c r="O22" s="6">
-        <v>30988.96463775148</v>
+        <v>31253.825783413893</v>
       </c>
       <c r="P22" s="6">
-        <v>31814.788680126876</v>
+        <v>32086.70810297073</v>
       </c>
       <c r="Q22" s="6">
-        <v>33417.805905239424</v>
+        <v>33703.426236897845</v>
       </c>
       <c r="R22" s="6">
-        <v>33162.643987384428</v>
+        <v>33446.083462770868</v>
       </c>
       <c r="S22" s="6">
-        <v>32045.635168162746</v>
+        <v>32319.52762450443</v>
       </c>
       <c r="T22" s="6">
-        <v>32486.014619331305</v>
+        <v>32763.670977027105</v>
       </c>
       <c r="U22" s="6">
-        <v>32987.032549801872</v>
+        <v>33268.97108293054</v>
       </c>
       <c r="V22" s="6">
-        <v>31824.394775857887</v>
+        <v>32096.3963015261</v>
       </c>
       <c r="W22" s="6">
-        <v>32240.158606715726</v>
+        <v>32515.713645250642</v>
       </c>
       <c r="X22" s="8">
-        <v>32897.275592815233</v>
+        <v>33178.446977678817</v>
       </c>
       <c r="Y22" s="8">
-        <v>33408.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>33694.040794547334</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>33447.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6">
-        <v>40336.069617042413</v>
+        <v>40793.420285419415</v>
       </c>
       <c r="C23" s="6">
-        <v>40970.045773985847</v>
+        <v>41434.584783266313</v>
       </c>
       <c r="D23" s="6">
-        <v>40876.561846142933</v>
+        <v>41340.040887576077</v>
       </c>
       <c r="E23" s="6">
-        <v>41709.752661546372</v>
+        <v>42182.678839994311</v>
       </c>
       <c r="F23" s="6">
-        <v>42751.139124110894</v>
+        <v>43235.873066657179</v>
       </c>
       <c r="G23" s="6">
-        <v>44040.319229473003</v>
+        <v>44539.670545215136</v>
       </c>
       <c r="H23" s="6">
-        <v>44061.955247707396</v>
+        <v>44561.551883518994</v>
       </c>
       <c r="I23" s="6">
-        <v>43931.322684782797</v>
+        <v>44429.438142816471</v>
       </c>
       <c r="J23" s="6">
-        <v>43485.539063802607</v>
+        <v>43978.600002669133</v>
       </c>
       <c r="K23" s="6">
-        <v>35394.892924419524</v>
+        <v>35796.218043346737</v>
       </c>
       <c r="L23" s="6">
-        <v>42200.84945279103</v>
+        <v>42679.343933947835</v>
       </c>
       <c r="M23" s="6">
-        <v>41730.16399950334</v>
+        <v>42203.321611979074</v>
       </c>
       <c r="N23" s="6">
-        <v>41235.393167426431</v>
+        <v>41702.940819068295</v>
       </c>
       <c r="O23" s="6">
-        <v>40938.61231353211</v>
+        <v>41402.794914409773</v>
       </c>
       <c r="P23" s="6">
-        <v>41370.516224701554</v>
+        <v>41839.595969607457</v>
       </c>
       <c r="Q23" s="6">
-        <v>42362.915476169357</v>
+        <v>42843.247543506885</v>
       </c>
       <c r="R23" s="6">
-        <v>43533.301594621917</v>
+        <v>44026.904089113494</v>
       </c>
       <c r="S23" s="6">
-        <v>43312.859144686656</v>
+        <v>43803.962151677995</v>
       </c>
       <c r="T23" s="6">
-        <v>43297.346527839363</v>
+        <v>43788.273644969573</v>
       </c>
       <c r="U23" s="6">
-        <v>43118.543207336319</v>
+        <v>43607.442962383007</v>
       </c>
       <c r="V23" s="6">
-        <v>43335.311616439329</v>
+        <v>43826.669200861244</v>
       </c>
       <c r="W23" s="6">
-        <v>44215.040282384653</v>
+        <v>44716.372673404745</v>
       </c>
       <c r="X23" s="8">
-        <v>45268.67354772336</v>
+        <v>45781.952563258485</v>
       </c>
       <c r="Y23" s="8">
-        <v>46029.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>46551.102247410949</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>46403.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6">
-        <v>68660.618212366317</v>
+        <v>68722.865858229532</v>
       </c>
       <c r="C24" s="6">
-        <v>67785.268868554413</v>
+        <v>67846.722923602705</v>
       </c>
       <c r="D24" s="6">
-        <v>68486.712028108275</v>
+        <v>68548.802010803673</v>
       </c>
       <c r="E24" s="6">
-        <v>70005.966797648885</v>
+        <v>70069.434135156</v>
       </c>
       <c r="F24" s="6">
-        <v>70878.083684504338</v>
+        <v>70942.341682284212</v>
       </c>
       <c r="G24" s="6">
-        <v>69897.356243911505</v>
+        <v>69960.725115202295</v>
       </c>
       <c r="H24" s="6">
-        <v>70404.205494685913</v>
+        <v>70468.033874986228</v>
       </c>
       <c r="I24" s="6">
-        <v>67794.966239423826</v>
+        <v>67856.429086098564</v>
       </c>
       <c r="J24" s="6">
-        <v>60819.970618754174</v>
+        <v>60875.109941572045</v>
       </c>
       <c r="K24" s="6">
-        <v>54104.864537384659</v>
+        <v>54153.915951934745</v>
       </c>
       <c r="L24" s="6">
-        <v>55880.129897877654</v>
+        <v>55930.790766177939</v>
       </c>
       <c r="M24" s="6">
-        <v>55194.202531714844</v>
+        <v>55244.241538970346</v>
       </c>
       <c r="N24" s="6">
-        <v>55271.781498670112</v>
+        <v>55321.890838937281</v>
       </c>
       <c r="O24" s="6">
-        <v>57476.963634373526</v>
+        <v>57529.072190497202</v>
       </c>
       <c r="P24" s="6">
-        <v>57274.611828898545</v>
+        <v>57326.536933083458</v>
       </c>
       <c r="Q24" s="6">
-        <v>58374.293685489429</v>
+        <v>58427.215760114654</v>
       </c>
       <c r="R24" s="6">
-        <v>57594.625067589011</v>
+        <v>57646.840295447037</v>
       </c>
       <c r="S24" s="6">
-        <v>54358.93565416315</v>
+        <v>54408.217409326426</v>
       </c>
       <c r="T24" s="6">
-        <v>53488.758241481584</v>
+        <v>53537.251094697393</v>
       </c>
       <c r="U24" s="6">
-        <v>53483.586310351246</v>
+        <v>53532.074474699599</v>
       </c>
       <c r="V24" s="6">
-        <v>54431.342689988058</v>
+        <v>54480.69008929556</v>
       </c>
       <c r="W24" s="6">
-        <v>55714.628101706418</v>
+        <v>55765.138926248488</v>
       </c>
       <c r="X24" s="8">
-        <v>57965.711126191702</v>
+        <v>58018.262780288846</v>
       </c>
       <c r="Y24" s="8">
-        <v>59064.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>59117.647452320591</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>58696.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="6">
-        <v>7357.3975619920802</v>
+        <v>7481.1091714082813</v>
       </c>
       <c r="C25" s="6">
-        <v>7341.3399197749532</v>
+        <v>7464.7815265515819</v>
       </c>
       <c r="D25" s="6">
-        <v>7354.0432989511692</v>
+        <v>7477.6985078159933</v>
       </c>
       <c r="E25" s="6">
-        <v>7281.6054907272346</v>
+        <v>7404.0426876846605</v>
       </c>
       <c r="F25" s="6">
-        <v>7294.1661353059653</v>
+        <v>7416.814534328123</v>
       </c>
       <c r="G25" s="6">
-        <v>7463.8775717163298</v>
+        <v>7589.3795986358182</v>
       </c>
       <c r="H25" s="6">
-        <v>7626.9518493436126</v>
+        <v>7755.1959030694097</v>
       </c>
       <c r="I25" s="6">
-        <v>7787.3855369174125</v>
+        <v>7918.3272170154569</v>
       </c>
       <c r="J25" s="6">
-        <v>8009.9801416961864</v>
+        <v>8144.6646583845486</v>
       </c>
       <c r="K25" s="6">
-        <v>7266.19015419879</v>
+        <v>7388.3681486222276</v>
       </c>
       <c r="L25" s="6">
-        <v>8232.4320118774722</v>
+        <v>8370.8569651326925</v>
       </c>
       <c r="M25" s="6">
-        <v>8648.78883274293</v>
+        <v>8794.2146544392908</v>
       </c>
       <c r="N25" s="6">
-        <v>8435.9001805931784</v>
+        <v>8577.7463672946942</v>
       </c>
       <c r="O25" s="6">
-        <v>8095.3354309925671</v>
+        <v>8231.4551617117158</v>
       </c>
       <c r="P25" s="6">
-        <v>8119.8857817600874</v>
+        <v>8256.4183165148461</v>
       </c>
       <c r="Q25" s="6">
-        <v>8146.5771514898934</v>
+        <v>8283.5584906322056</v>
       </c>
       <c r="R25" s="6">
-        <v>8369.8854292560936</v>
+        <v>8510.6216051060401</v>
       </c>
       <c r="S25" s="6">
-        <v>8276.1087987080646</v>
+        <v>8415.2681591429155</v>
       </c>
       <c r="T25" s="6">
-        <v>8012.2638952559555</v>
+        <v>8146.986812319723</v>
       </c>
       <c r="U25" s="6">
-        <v>8238.2841303743844</v>
+        <v>8376.807484591578</v>
       </c>
       <c r="V25" s="6">
-        <v>7765.404408904632</v>
+        <v>7895.9764853893967</v>
       </c>
       <c r="W25" s="6">
-        <v>7888.5129992359516</v>
+        <v>8021.1550959574261</v>
       </c>
       <c r="X25" s="8">
-        <v>8040.6680801555867</v>
+        <v>8175.8686018884628</v>
       </c>
       <c r="Y25" s="8">
-        <v>8219.7999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>8358.0125511787537</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>8277.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>25908.478378126772</v>
+        <v>25880.409569792282</v>
       </c>
       <c r="C26" s="6">
-        <v>25749.755732226142</v>
+        <v>25721.858881328171</v>
       </c>
       <c r="D26" s="6">
-        <v>25891.408687476145</v>
+        <v>25863.358372156497</v>
       </c>
       <c r="E26" s="6">
-        <v>26350.761706029658</v>
+        <v>26322.213735400135</v>
       </c>
       <c r="F26" s="6">
-        <v>24211.190630149231</v>
+        <v>24184.96063472344</v>
       </c>
       <c r="G26" s="6">
-        <v>25780.583083998175</v>
+        <v>25752.652835267432</v>
       </c>
       <c r="H26" s="6">
-        <v>26817.503098148372</v>
+        <v>26788.449467769715</v>
       </c>
       <c r="I26" s="6">
-        <v>27382.331518632644</v>
+        <v>27352.665962673294</v>
       </c>
       <c r="J26" s="6">
-        <v>26623.367213435238</v>
+        <v>26594.523906598526</v>
       </c>
       <c r="K26" s="6">
-        <v>25962.99947960789</v>
+        <v>25934.871604031963</v>
       </c>
       <c r="L26" s="6">
-        <v>28213.39615896629</v>
+        <v>28182.830241597727</v>
       </c>
       <c r="M26" s="6">
-        <v>27690.350264850727</v>
+        <v>27660.351006578763</v>
       </c>
       <c r="N26" s="6">
-        <v>28972.105692661447</v>
+        <v>28940.717802185391</v>
       </c>
       <c r="O26" s="6">
-        <v>27463.85839935207</v>
+        <v>27434.104518545708</v>
       </c>
       <c r="P26" s="6">
-        <v>26917.883070034164</v>
+        <v>26888.720689687627</v>
       </c>
       <c r="Q26" s="6">
-        <v>27655.446569042721</v>
+        <v>27625.485124845884</v>
       </c>
       <c r="R26" s="6">
-        <v>27192.781520959979</v>
+        <v>27163.321320269926</v>
       </c>
       <c r="S26" s="6">
-        <v>26407.320979528758</v>
+        <v>26378.711733536624</v>
       </c>
       <c r="T26" s="6">
-        <v>26533.942416146117</v>
+        <v>26505.195990625969</v>
       </c>
       <c r="U26" s="6">
-        <v>26597.89006321042</v>
+        <v>26569.074357888396</v>
       </c>
       <c r="V26" s="6">
-        <v>26360.188251612843</v>
+        <v>26331.630068422885</v>
       </c>
       <c r="W26" s="6">
-        <v>26708.715666688389</v>
+        <v>26679.779894777461</v>
       </c>
       <c r="X26" s="8">
-        <v>27163.482798201436</v>
+        <v>27134.054339253278</v>
       </c>
       <c r="Y26" s="8">
-        <v>27367.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>27337.650728934317</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>27040.400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="6">
-        <v>57997.877662916224</v>
+        <v>58834.840373354979</v>
       </c>
       <c r="C27" s="6">
-        <v>58517.436508843079</v>
+        <v>59361.896931223069</v>
       </c>
       <c r="D27" s="6">
-        <v>57881.264349762976</v>
+        <v>58716.544222853496</v>
       </c>
       <c r="E27" s="6">
-        <v>58302.824214213644</v>
+        <v>59144.187583821273</v>
       </c>
       <c r="F27" s="6">
-        <v>56856.928627182213</v>
+        <v>57677.426393800612</v>
       </c>
       <c r="G27" s="6">
-        <v>57367.180307270552</v>
+        <v>58195.041474868107</v>
       </c>
       <c r="H27" s="6">
-        <v>58328.555790355436</v>
+        <v>59170.290490269967</v>
       </c>
       <c r="I27" s="6">
-        <v>57870.862223237564</v>
+        <v>58705.991984076361</v>
       </c>
       <c r="J27" s="6">
-        <v>57640.920478991757</v>
+        <v>58472.731969003042</v>
       </c>
       <c r="K27" s="6">
-        <v>52787.507234374702</v>
+        <v>53549.279507990803</v>
       </c>
       <c r="L27" s="6">
-        <v>58602.295962076641</v>
+        <v>59447.980984404901</v>
       </c>
       <c r="M27" s="6">
-        <v>59074.771498467453</v>
+        <v>59927.274777281775</v>
       </c>
       <c r="N27" s="6">
-        <v>59191.932291964134</v>
+        <v>60046.126308771527</v>
       </c>
       <c r="O27" s="6">
-        <v>60821.781274392211</v>
+        <v>61699.495510850858</v>
       </c>
       <c r="P27" s="6">
-        <v>59460.197660250917</v>
+        <v>60318.262993023745</v>
       </c>
       <c r="Q27" s="6">
-        <v>60520.667085498877</v>
+        <v>61394.03596730245</v>
       </c>
       <c r="R27" s="6">
-        <v>60268.278647171923</v>
+        <v>61138.005331710046</v>
       </c>
       <c r="S27" s="6">
-        <v>58233.841690939895</v>
+        <v>59074.209579299277</v>
       </c>
       <c r="T27" s="6">
-        <v>57740.014421154832</v>
+        <v>58573.25592787988</v>
       </c>
       <c r="U27" s="6">
-        <v>59499.616244978766</v>
+        <v>60358.250424179176</v>
       </c>
       <c r="V27" s="6">
-        <v>54518.640080339639</v>
+        <v>55305.394192900072</v>
       </c>
       <c r="W27" s="6">
-        <v>55453.736506939291</v>
+        <v>56253.984920864976</v>
       </c>
       <c r="X27" s="8">
-        <v>56467.122622651208</v>
+        <v>57281.995130152471</v>
       </c>
       <c r="Y27" s="8">
-        <v>57515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+        <v>58344.994341700971</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>57478.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>103996.74261803167</v>
+        <v>105434.63951743957</v>
       </c>
       <c r="C28" s="6">
-        <v>105166.52021381051</v>
+        <v>106620.59088496957</v>
       </c>
       <c r="D28" s="6">
-        <v>103423.40098095895</v>
+        <v>104853.3706497489</v>
       </c>
       <c r="E28" s="6">
-        <v>101871.06092681809</v>
+        <v>103279.56737575631</v>
       </c>
       <c r="F28" s="6">
-        <v>100965.36187841247</v>
+        <v>102361.3458019262</v>
       </c>
       <c r="G28" s="6">
-        <v>101725.46629043359</v>
+        <v>103131.95969481909</v>
       </c>
       <c r="H28" s="6">
-        <v>101653.17102271163</v>
+        <v>103058.66484635371</v>
       </c>
       <c r="I28" s="6">
-        <v>101570.83474558385</v>
+        <v>102975.19015782372</v>
       </c>
       <c r="J28" s="6">
-        <v>98094.637289286533</v>
+        <v>99450.929527447021</v>
       </c>
       <c r="K28" s="6">
-        <v>79829.037079146598</v>
+        <v>80932.782465869139</v>
       </c>
       <c r="L28" s="6">
-        <v>101362.98585088323</v>
+        <v>102764.46746848576</v>
       </c>
       <c r="M28" s="6">
-        <v>103066.94514705207</v>
+        <v>104491.98632745436</v>
       </c>
       <c r="N28" s="6">
-        <v>102303.82843220922</v>
+        <v>103718.31848254208</v>
       </c>
       <c r="O28" s="6">
-        <v>107501.05490066529</v>
+        <v>108987.40369999726</v>
       </c>
       <c r="P28" s="6">
-        <v>106220.82620142234</v>
+        <v>107689.47409175627</v>
       </c>
       <c r="Q28" s="6">
-        <v>108606.57003624685</v>
+        <v>110108.20409111358</v>
       </c>
       <c r="R28" s="6">
-        <v>108058.33092268869</v>
+        <v>109552.38482358451</v>
       </c>
       <c r="S28" s="6">
-        <v>108012.14227942188</v>
+        <v>109505.55755928718</v>
       </c>
       <c r="T28" s="6">
-        <v>106142.5063280569</v>
+        <v>107610.07133925211</v>
       </c>
       <c r="U28" s="6">
-        <v>106090.29307914659</v>
+        <v>107557.136170916</v>
       </c>
       <c r="V28" s="6">
-        <v>104673.5066519844</v>
+        <v>106120.76073779598</v>
       </c>
       <c r="W28" s="6">
-        <v>106999.00443037394</v>
+        <v>108478.4116967655</v>
       </c>
       <c r="X28" s="8">
-        <v>108136.65079605413</v>
+        <v>109631.78757608865</v>
       </c>
       <c r="Y28" s="8">
-        <v>109421.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>110934.80710436196</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>110877.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="6">
-        <v>58609.895039902622</v>
+        <v>59526.580614654849</v>
       </c>
       <c r="C29" s="6">
-        <v>59395.359726325914</v>
+        <v>60324.330328154734</v>
       </c>
       <c r="D29" s="6">
-        <v>59011.165042749308</v>
+        <v>59934.126663942829</v>
       </c>
       <c r="E29" s="6">
-        <v>59194.440136248078</v>
+        <v>60120.26826375947</v>
       </c>
       <c r="F29" s="6">
-        <v>57372.503570131441</v>
+        <v>58269.835776141263</v>
       </c>
       <c r="G29" s="6">
-        <v>57503.983528510995</v>
+        <v>58403.372141227119</v>
       </c>
       <c r="H29" s="6">
-        <v>58616.725167610646</v>
+        <v>59533.517568685282</v>
       </c>
       <c r="I29" s="6">
-        <v>58675.350430437902</v>
+        <v>59593.059757446499</v>
       </c>
       <c r="J29" s="6">
-        <v>56112.914185309157</v>
+        <v>56990.54583702876</v>
       </c>
       <c r="K29" s="6">
-        <v>51218.558505197645</v>
+        <v>52019.640194720421</v>
       </c>
       <c r="L29" s="6">
-        <v>55133.360036516046</v>
+        <v>55995.67101316405</v>
       </c>
       <c r="M29" s="6">
-        <v>56341.154286219113</v>
+        <v>57222.355717545761</v>
       </c>
       <c r="N29" s="6">
-        <v>56751.531126009839</v>
+        <v>57639.151038874319</v>
       </c>
       <c r="O29" s="6">
-        <v>56270.576299902823</v>
+        <v>57150.673859231276</v>
       </c>
       <c r="P29" s="6">
-        <v>56018.999929323763</v>
+        <v>56895.162719110303</v>
       </c>
       <c r="Q29" s="6">
-        <v>56982.61711346481</v>
+        <v>57873.851316904002</v>
       </c>
       <c r="R29" s="6">
-        <v>56701.443522817623</v>
+        <v>57588.280042651146</v>
       </c>
       <c r="S29" s="6">
-        <v>55742.948934457614</v>
+        <v>56614.794160380276</v>
       </c>
       <c r="T29" s="6">
-        <v>56123.728554180212</v>
+        <v>57001.529347576958</v>
       </c>
       <c r="U29" s="6">
-        <v>56659.893579260453</v>
+        <v>57546.080238966002</v>
       </c>
       <c r="V29" s="6">
-        <v>55346.232350082944</v>
+        <v>56211.872747112575</v>
       </c>
       <c r="W29" s="6">
-        <v>56105.514880292125</v>
+        <v>56983.030803495792</v>
       </c>
       <c r="X29" s="8">
-        <v>56986.601354627819</v>
+        <v>57877.897873421753</v>
       </c>
       <c r="Y29" s="8">
-        <v>57983.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>58890.693161865085</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>58009.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6">
-        <v>21707.791132426348</v>
+        <v>22301.604473078878</v>
       </c>
       <c r="C30" s="6">
-        <v>21302.584809631007</v>
+        <v>21885.31379265706</v>
       </c>
       <c r="D30" s="6">
-        <v>20930.098355681705</v>
+        <v>21502.638028140962</v>
       </c>
       <c r="E30" s="6">
-        <v>20603.98310658706</v>
+        <v>21167.601945769395</v>
       </c>
       <c r="F30" s="6">
-        <v>20639.953293530391</v>
+        <v>21204.556091731971</v>
       </c>
       <c r="G30" s="6">
-        <v>20958.484467064696</v>
+        <v>21531.800637304204</v>
       </c>
       <c r="H30" s="6">
-        <v>21336.821493589116</v>
+        <v>21920.487015922648</v>
       </c>
       <c r="I30" s="6">
-        <v>21783.4152001566</v>
+        <v>22379.297225735139</v>
       </c>
       <c r="J30" s="6">
-        <v>22050.157972007441</v>
+        <v>22653.336705734746</v>
       </c>
       <c r="K30" s="6">
-        <v>19262.901859645688</v>
+        <v>19789.835624309173</v>
       </c>
       <c r="L30" s="6">
-        <v>22746.592796319859</v>
+        <v>23368.822399251167</v>
       </c>
       <c r="M30" s="6">
-        <v>22250.377566800431</v>
+        <v>22859.033277237286</v>
       </c>
       <c r="N30" s="6">
-        <v>22010.070715474209</v>
+        <v>22612.152868366808</v>
       </c>
       <c r="O30" s="6">
-        <v>21642.351394734265</v>
+        <v>22234.374641267437</v>
       </c>
       <c r="P30" s="6">
-        <v>21560.876754428889</v>
+        <v>22150.671274508826</v>
       </c>
       <c r="Q30" s="6">
-        <v>22454.064167563862</v>
+        <v>23068.291694133815</v>
       </c>
       <c r="R30" s="6">
-        <v>22447.563531369284</v>
+        <v>23061.613234020097</v>
       </c>
       <c r="S30" s="6">
-        <v>21837.370480571597</v>
+        <v>22434.728444679011</v>
       </c>
       <c r="T30" s="6">
-        <v>21714.508456494077</v>
+        <v>22308.50554852972</v>
       </c>
       <c r="U30" s="6">
-        <v>21643.001458353723</v>
+        <v>22235.04248727881</v>
       </c>
       <c r="V30" s="6">
-        <v>20994.237966134871</v>
+        <v>21568.532167929658</v>
       </c>
       <c r="W30" s="6">
-        <v>21226.527366154449</v>
+        <v>21807.175809326549</v>
       </c>
       <c r="X30" s="8">
-        <v>21469.867847704802</v>
+        <v>22057.17283291676</v>
       </c>
       <c r="Y30" s="8">
-        <v>22139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>22744.608993955568</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>22355.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="6">
-        <v>40945.646158859687</v>
+        <v>41579.568691201355</v>
       </c>
       <c r="C31" s="6">
-        <v>41136.98289346719</v>
+        <v>41773.867710659899</v>
       </c>
       <c r="D31" s="6">
-        <v>40907.876868514162</v>
+        <v>41541.214654822332</v>
       </c>
       <c r="E31" s="6">
-        <v>41693.561117130237</v>
+        <v>42339.062906091371</v>
       </c>
       <c r="F31" s="6">
-        <v>41241.159727277343</v>
+        <v>41879.657415397625</v>
       </c>
       <c r="G31" s="6">
-        <v>42414.498010868279</v>
+        <v>43071.161380710655</v>
       </c>
       <c r="H31" s="6">
-        <v>43482.829366355749</v>
+        <v>44156.032695431473</v>
       </c>
       <c r="I31" s="6">
-        <v>43778.342934773405</v>
+        <v>44456.121419627743</v>
       </c>
       <c r="J31" s="6">
-        <v>42228.141842020617</v>
+        <v>42881.920036379015</v>
       </c>
       <c r="K31" s="6">
-        <v>39990.622674408762</v>
+        <v>40609.7594856176</v>
       </c>
       <c r="L31" s="6">
-        <v>44804.754528448815</v>
+        <v>45498.42396869712</v>
       </c>
       <c r="M31" s="6">
-        <v>45367.143412165024</v>
+        <v>46069.51978510998</v>
       </c>
       <c r="N31" s="6">
-        <v>43952.247689221447</v>
+        <v>44632.718576142135</v>
       </c>
       <c r="O31" s="6">
-        <v>44849.164573140799</v>
+        <v>45543.521571912017</v>
       </c>
       <c r="P31" s="6">
-        <v>44452.794548086204</v>
+        <v>45141.014926395932</v>
       </c>
       <c r="Q31" s="6">
-        <v>46662.505556872246</v>
+        <v>47384.936791032153</v>
       </c>
       <c r="R31" s="6">
-        <v>46962.169596756452</v>
+        <v>47689.240244500841</v>
       </c>
       <c r="S31" s="6">
-        <v>46498.146886797251</v>
+        <v>47218.033511844333</v>
       </c>
       <c r="T31" s="6">
-        <v>46691.973904284678</v>
+        <v>47414.861368866332</v>
       </c>
       <c r="U31" s="6">
-        <v>46766.26734353575</v>
+        <v>47490.305022842644</v>
       </c>
       <c r="V31" s="6">
-        <v>46363.671611281337</v>
+        <v>47081.476283417927</v>
       </c>
       <c r="W31" s="6">
-        <v>47171.768405816729</v>
+        <v>47902.084072758029</v>
       </c>
       <c r="X31" s="8">
-        <v>48027.180575070677</v>
+        <v>48770.739775803726</v>
       </c>
       <c r="Y31" s="8">
-        <v>49034.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>49793.654570219958</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>49818.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6">
-        <v>5705.2480191893037</v>
+        <v>5726.033551546393</v>
       </c>
       <c r="C32" s="6">
-        <v>5588.2372634829098</v>
+        <v>5608.5964987113412</v>
       </c>
       <c r="D32" s="6">
-        <v>5441.1412531737633</v>
+        <v>5460.9645837628877</v>
       </c>
       <c r="E32" s="6">
-        <v>5441.0283629125888</v>
+        <v>5460.8512822164957</v>
       </c>
       <c r="F32" s="6">
-        <v>5157.3915817140241</v>
+        <v>5176.1811469072172</v>
       </c>
       <c r="G32" s="6">
-        <v>4917.8948926343191</v>
+        <v>4935.811916237114</v>
       </c>
       <c r="H32" s="6">
-        <v>4844.1775520879855</v>
+        <v>4861.8260064432998</v>
       </c>
       <c r="I32" s="6">
-        <v>4666.6011712619775</v>
+        <v>4683.6026739690733</v>
       </c>
       <c r="J32" s="6">
-        <v>4412.4851933602977</v>
+        <v>4428.5608930412373</v>
       </c>
       <c r="K32" s="6">
-        <v>3975.1483215739313</v>
+        <v>3989.6307023195877</v>
       </c>
       <c r="L32" s="6">
-        <v>4452.8434617298453</v>
+        <v>4469.0661958762894</v>
       </c>
       <c r="M32" s="6">
-        <v>4319.0685022391772</v>
+        <v>4334.8038634020622</v>
       </c>
       <c r="N32" s="6">
-        <v>4621.7272924454874</v>
+        <v>4638.5653092783514</v>
       </c>
       <c r="O32" s="6">
-        <v>4703.0647256210368</v>
+        <v>4720.1990734536093</v>
       </c>
       <c r="P32" s="6">
-        <v>4636.7981423121582</v>
+        <v>4653.6910657216504</v>
       </c>
       <c r="Q32" s="6">
-        <v>4756.6875996784775</v>
+        <v>4774.0173079896913</v>
       </c>
       <c r="R32" s="6">
-        <v>4603.6084055271322</v>
+        <v>4620.3804110824749</v>
       </c>
       <c r="S32" s="6">
-        <v>4314.9480077063427</v>
+        <v>4330.6683569587631</v>
       </c>
       <c r="T32" s="6">
-        <v>4213.685443433661</v>
+        <v>4229.0368698453613</v>
       </c>
       <c r="U32" s="6">
-        <v>4250.9392296209353</v>
+        <v>4266.4263801546404</v>
       </c>
       <c r="V32" s="6">
-        <v>4134.7187057427564</v>
+        <v>4149.7824381443297</v>
       </c>
       <c r="W32" s="6">
-        <v>4232.9332329637527</v>
+        <v>4248.3547835051559</v>
       </c>
       <c r="X32" s="8">
-        <v>4359.7654413922455</v>
+        <v>4375.6490708762894</v>
       </c>
       <c r="Y32" s="8">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4440.1176507731961</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>4396.1000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6">
-        <v>14657.257219196317</v>
+        <v>15040.480575432797</v>
       </c>
       <c r="C33" s="6">
-        <v>14924.446464834835</v>
+        <v>15314.655654637078</v>
       </c>
       <c r="D33" s="6">
-        <v>15017.546031419404</v>
+        <v>15410.189368882235</v>
       </c>
       <c r="E33" s="6">
-        <v>14898.534837211997</v>
+        <v>15288.066550952064</v>
       </c>
       <c r="F33" s="6">
-        <v>14800.096694082016</v>
+        <v>15187.054679666275</v>
       </c>
       <c r="G33" s="6">
-        <v>14705.043989736929</v>
+        <v>15089.516761625766</v>
       </c>
       <c r="H33" s="6">
-        <v>15025.358582461467</v>
+        <v>15418.206184063645</v>
       </c>
       <c r="I33" s="6">
-        <v>15284.73527705792</v>
+        <v>15684.364448086511</v>
       </c>
       <c r="J33" s="6">
-        <v>15079.655812203797</v>
+        <v>15473.923049574458</v>
       </c>
       <c r="K33" s="6">
-        <v>14377.307473522435</v>
+        <v>14753.211364765548</v>
       </c>
       <c r="L33" s="6">
-        <v>15873.150579709214</v>
+        <v>16288.16424483317</v>
       </c>
       <c r="M33" s="6">
-        <v>16320.419126867258</v>
+        <v>16747.126913968987</v>
       </c>
       <c r="N33" s="6">
-        <v>17890.221049585554</v>
+        <v>18357.972311087306</v>
       </c>
       <c r="O33" s="6">
-        <v>17421.85861461395</v>
+        <v>17877.364240961677</v>
       </c>
       <c r="P33" s="6">
-        <v>17658.969538740526</v>
+        <v>18120.674581717522</v>
       </c>
       <c r="Q33" s="6">
-        <v>18346.604239626005</v>
+        <v>18826.287931268107</v>
       </c>
       <c r="R33" s="6">
-        <v>19337.496130127518</v>
+        <v>19843.087323443819</v>
       </c>
       <c r="S33" s="6">
-        <v>18698.299245702823</v>
+        <v>19187.17822801799</v>
       </c>
       <c r="T33" s="6">
-        <v>19029.681619070281</v>
+        <v>19527.224805296199</v>
       </c>
       <c r="U33" s="6">
-        <v>19077.598598794924</v>
+        <v>19576.394605075522</v>
       </c>
       <c r="V33" s="6">
-        <v>18700.122174279306</v>
+        <v>19189.048818226984</v>
       </c>
       <c r="W33" s="6">
-        <v>18924.081970818414</v>
+        <v>19418.864186760788</v>
       </c>
       <c r="X33" s="8">
-        <v>19527.210911265585</v>
+        <v>20037.762318765766</v>
       </c>
       <c r="Y33" s="8">
-        <v>20248.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>20778.115200769134</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>20707.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="6">
-        <v>8917.9339056196659</v>
+        <v>9237.7097067159393</v>
       </c>
       <c r="C34" s="6">
-        <v>8775.4343504706521</v>
+        <v>9090.1004580116805</v>
       </c>
       <c r="D34" s="6">
-        <v>8879.3491486068106</v>
+        <v>9197.7413925120964</v>
       </c>
       <c r="E34" s="6">
-        <v>9037.4359234762487</v>
+        <v>9361.4967813914154</v>
       </c>
       <c r="F34" s="6">
-        <v>9274.4809097163579</v>
+        <v>9607.0416344362147</v>
       </c>
       <c r="G34" s="6">
-        <v>8995.6996520936918</v>
+        <v>9318.2639470428876</v>
       </c>
       <c r="H34" s="6">
-        <v>9199.9518536760788</v>
+        <v>9529.8401445281288</v>
       </c>
       <c r="I34" s="6">
-        <v>8959.670177002221</v>
+        <v>9280.9425410644653</v>
       </c>
       <c r="J34" s="6">
-        <v>9456.5021585827308</v>
+        <v>9795.5897303603015</v>
       </c>
       <c r="K34" s="6">
-        <v>7874.7826492478971</v>
+        <v>8157.1535388252978</v>
       </c>
       <c r="L34" s="6">
-        <v>9366.300706757982</v>
+        <v>9702.1538700029741</v>
       </c>
       <c r="M34" s="6">
-        <v>9511.2703677643312</v>
+        <v>9852.3217966584707</v>
       </c>
       <c r="N34" s="6">
-        <v>9674.1270022203462</v>
+        <v>10021.01808089191</v>
       </c>
       <c r="O34" s="6">
-        <v>9712.7117592331997</v>
+        <v>10060.986395095752</v>
       </c>
       <c r="P34" s="6">
-        <v>9725.4029927760585</v>
+        <v>10074.132705948672</v>
       </c>
       <c r="Q34" s="6">
-        <v>10191.401239171906</v>
+        <v>10556.840535991105</v>
       </c>
       <c r="R34" s="6">
-        <v>10462.175946774243</v>
+        <v>10837.324577611449</v>
       </c>
       <c r="S34" s="6">
-        <v>10318.569102792633</v>
+        <v>10688.568335342843</v>
       </c>
       <c r="T34" s="6">
-        <v>10235.692792475842</v>
+        <v>10602.720278565053</v>
       </c>
       <c r="U34" s="6">
-        <v>10272.574028207775</v>
+        <v>10640.923987285281</v>
       </c>
       <c r="V34" s="6">
-        <v>9918.6674820965072</v>
+        <v>10274.327198064606</v>
       </c>
       <c r="W34" s="6">
-        <v>10141.48806564093</v>
+        <v>10505.137595321234</v>
       </c>
       <c r="X34" s="8">
-        <v>10527.931868217782</v>
+        <v>10905.438349278926</v>
       </c>
       <c r="Y34" s="8">
-        <v>10894.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>11285.357909900882</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>11269.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="6">
-        <v>10051.425590282515</v>
+        <v>10229.697113966324</v>
       </c>
       <c r="C35" s="6">
-        <v>9967.4176516082061</v>
+        <v>10144.199215176954</v>
       </c>
       <c r="D35" s="6">
-        <v>10192.499276648014</v>
+        <v>10373.272875365277</v>
       </c>
       <c r="E35" s="6">
-        <v>9936.7970065056179</v>
+        <v>10113.035484020595</v>
       </c>
       <c r="F35" s="6">
-        <v>10113.859892634548</v>
+        <v>10293.238747622801</v>
       </c>
       <c r="G35" s="6">
-        <v>10140.802083617669</v>
+        <v>10320.658783802588</v>
       </c>
       <c r="H35" s="6">
-        <v>10287.144906965106</v>
+        <v>10469.597135303122</v>
       </c>
       <c r="I35" s="6">
-        <v>9963.5403621309306</v>
+        <v>10140.253158309753</v>
       </c>
       <c r="J35" s="6">
-        <v>9968.809499112871</v>
+        <v>10145.615748411337</v>
       </c>
       <c r="K35" s="6">
-        <v>8969.2641554069414</v>
+        <v>9128.3425242358171</v>
       </c>
       <c r="L35" s="6">
-        <v>10146.568308994132</v>
+        <v>10326.527278630734</v>
       </c>
       <c r="M35" s="6">
-        <v>10743.273217778989</v>
+        <v>10933.815312398532</v>
       </c>
       <c r="N35" s="6">
-        <v>10791.689627405487</v>
+        <v>10983.090432765897</v>
       </c>
       <c r="O35" s="6">
-        <v>10930.277871798371</v>
+        <v>11124.136670532027</v>
       </c>
       <c r="P35" s="6">
-        <v>11178.026727628407</v>
+        <v>11376.279586251681</v>
       </c>
       <c r="Q35" s="6">
-        <v>11486.718620626905</v>
+        <v>11690.44642144812</v>
       </c>
       <c r="R35" s="6">
-        <v>11179.219739775261</v>
+        <v>11377.493757595434</v>
       </c>
       <c r="S35" s="6">
-        <v>10895.779937218507</v>
+        <v>11089.026882508464</v>
       </c>
       <c r="T35" s="6">
-        <v>10214.768836722624</v>
+        <v>10395.937407115356</v>
       </c>
       <c r="U35" s="6">
-        <v>10212.382812428916</v>
+        <v>10393.509064427848</v>
       </c>
       <c r="V35" s="6">
-        <v>10349.082120922614</v>
+        <v>10532.632864233034</v>
       </c>
       <c r="W35" s="6">
-        <v>10519.88169328056</v>
+        <v>10706.461728280532</v>
       </c>
       <c r="X35" s="8">
-        <v>10758.285287293571</v>
+        <v>10949.093635140776</v>
       </c>
       <c r="Y35" s="8">
-        <v>10926.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>11120.291794610139</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>10906.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="6">
-        <v>63890.983509200763</v>
+        <v>64300.716401801736</v>
       </c>
       <c r="C36" s="6">
-        <v>65692.782348992128</v>
+        <v>66114.070177985763</v>
       </c>
       <c r="D36" s="6">
-        <v>67849.776565162756</v>
+        <v>68284.897198583116</v>
       </c>
       <c r="E36" s="6">
-        <v>68868.88317008935</v>
+        <v>69310.539334412038</v>
       </c>
       <c r="F36" s="6">
-        <v>66209.795328180669</v>
+        <v>66634.398761534088</v>
       </c>
       <c r="G36" s="6">
-        <v>66605.732015905523</v>
+        <v>67032.874591332496</v>
       </c>
       <c r="H36" s="6">
-        <v>67527.862823403848</v>
+        <v>67960.919023920942</v>
       </c>
       <c r="I36" s="6">
-        <v>66281.522989000398</v>
+        <v>66706.586411859898</v>
       </c>
       <c r="J36" s="6">
-        <v>67406.212710653606</v>
+        <v>67838.488768968396</v>
       </c>
       <c r="K36" s="6">
-        <v>59634.951026801849</v>
+        <v>60017.389982070243</v>
       </c>
       <c r="L36" s="6">
-        <v>64872.217909214531</v>
+        <v>65288.243458258636</v>
       </c>
       <c r="M36" s="6">
-        <v>67108.97328421667</v>
+        <v>67539.343146018276</v>
       </c>
       <c r="N36" s="6">
-        <v>64457.345119033271</v>
+        <v>64870.710088774227</v>
       </c>
       <c r="O36" s="6">
-        <v>63337.819788959081</v>
+        <v>63744.005242489184</v>
       </c>
       <c r="P36" s="6">
-        <v>64269.131737042328</v>
+        <v>64681.289694319334</v>
       </c>
       <c r="Q36" s="6">
-        <v>67220.294613808888</v>
+        <v>67651.378379323927</v>
       </c>
       <c r="R36" s="6">
-        <v>64416.603807687665</v>
+        <v>64829.707503389174</v>
       </c>
       <c r="S36" s="6">
-        <v>64241.588315287547</v>
+        <v>64653.569636594228</v>
       </c>
       <c r="T36" s="6">
-        <v>64702.366808393439</v>
+        <v>65117.303102287144</v>
       </c>
       <c r="U36" s="6">
-        <v>66000.350558587088</v>
+        <v>66423.610822582777</v>
       </c>
       <c r="V36" s="6">
-        <v>62745.062399944916</v>
+        <v>63147.446500196798</v>
       </c>
       <c r="W36" s="6">
-        <v>63484.718038317864</v>
+        <v>63891.845550356418</v>
       </c>
       <c r="X36" s="8">
-        <v>65419.069595304078</v>
+        <v>65838.602104342513</v>
       </c>
       <c r="Y36" s="8">
-        <v>66670</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <v>67097.554726024406</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>66028.600000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="6">
-        <v>4224.5494155373945</v>
+        <v>4341.5123820643676</v>
       </c>
       <c r="C37" s="6">
-        <v>4263.6430630918685</v>
+        <v>4381.6883956987631</v>
       </c>
       <c r="D37" s="6">
-        <v>4355.3514693850684</v>
+        <v>4475.9358863298248</v>
       </c>
       <c r="E37" s="6">
-        <v>4558.923975662281</v>
+        <v>4685.1446017965764</v>
       </c>
       <c r="F37" s="6">
-        <v>4692.1615091642607</v>
+        <v>4822.0710156117593</v>
       </c>
       <c r="G37" s="6">
-        <v>4972.1996783809964</v>
+        <v>5109.8624602173213</v>
       </c>
       <c r="H37" s="6">
-        <v>5154.2727780546747</v>
+        <v>5296.9765258658035</v>
       </c>
       <c r="I37" s="6">
-        <v>5101.2801000592453</v>
+        <v>5242.5166663527998</v>
       </c>
       <c r="J37" s="6">
-        <v>4739.4014162521044</v>
+        <v>4870.6188301538587</v>
       </c>
       <c r="K37" s="6">
-        <v>4255.6227766440652</v>
+        <v>4373.4460556298372</v>
       </c>
       <c r="L37" s="6">
-        <v>4538.97823711408</v>
+        <v>4664.6466356565788</v>
       </c>
       <c r="M37" s="6">
-        <v>4632.576239690794</v>
+        <v>4760.8360388693245</v>
       </c>
       <c r="N37" s="6">
-        <v>4476.0756763873351</v>
+        <v>4600.0025234929662</v>
       </c>
       <c r="O37" s="6">
-        <v>4479.5609317547041</v>
+        <v>4603.5842733658501</v>
       </c>
       <c r="P37" s="6">
-        <v>4365.093388002294</v>
+        <v>4485.9475245287285</v>
       </c>
       <c r="Q37" s="6">
-        <v>4559.3018949189845</v>
+        <v>4685.532984312913</v>
       </c>
       <c r="R37" s="6">
-        <v>4441.4330778562489</v>
+        <v>4564.4007928287601</v>
       </c>
       <c r="S37" s="6">
-        <v>4312.4786292635672</v>
+        <v>4431.8760475320614</v>
       </c>
       <c r="T37" s="6">
-        <v>4345.2316315111393</v>
+        <v>4465.5358656145836</v>
       </c>
       <c r="U37" s="6">
-        <v>4345.7355238534092</v>
+        <v>4466.0537089696991</v>
       </c>
       <c r="V37" s="6">
-        <v>4105.0009573337593</v>
+        <v>4218.6540460631632</v>
       </c>
       <c r="W37" s="6">
-        <v>4196.1214892276439</v>
+        <v>4312.2973861132559</v>
       </c>
       <c r="X37" s="8">
-        <v>4316.5097680017307</v>
+        <v>4436.0187943729879</v>
       </c>
       <c r="Y37" s="8">
-        <v>4465.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4588.8257377450527</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="6">
-        <v>80099.846125995653</v>
+        <v>80896.614438402772</v>
       </c>
       <c r="C38" s="6">
-        <v>79969.743060584122</v>
+        <v>80765.217213203417</v>
       </c>
       <c r="D38" s="6">
-        <v>79776.235336712532</v>
+        <v>80569.784631419563</v>
       </c>
       <c r="E38" s="6">
-        <v>83590.396089789996</v>
+        <v>84421.885562580501</v>
       </c>
       <c r="F38" s="6">
-        <v>83737.791334781548</v>
+        <v>84570.74697593927</v>
       </c>
       <c r="G38" s="6">
-        <v>85773.327902486111</v>
+        <v>86626.53141070393</v>
       </c>
       <c r="H38" s="6">
-        <v>87432.553705044658</v>
+        <v>88302.261845999557</v>
       </c>
       <c r="I38" s="6">
-        <v>87516.544291576152</v>
+        <v>88387.087902773812</v>
       </c>
       <c r="J38" s="6">
-        <v>84126.453656770464</v>
+        <v>84963.275395522171</v>
       </c>
       <c r="K38" s="6">
-        <v>75294.267076997334</v>
+        <v>76043.233386102394</v>
       </c>
       <c r="L38" s="6">
-        <v>82005.27962828867</v>
+        <v>82821.001647968063</v>
       </c>
       <c r="M38" s="6">
-        <v>82301.716992517497</v>
+        <v>83120.387730700779</v>
       </c>
       <c r="N38" s="6">
-        <v>83167.149408641082</v>
+        <v>83994.428766678786</v>
       </c>
       <c r="O38" s="6">
-        <v>83227.260318609697</v>
+        <v>84055.137611232916</v>
       </c>
       <c r="P38" s="6">
-        <v>84062.225561187544</v>
+        <v>84898.408410930075</v>
       </c>
       <c r="Q38" s="6">
-        <v>85582.290489983105</v>
+        <v>86433.593712942849</v>
       </c>
       <c r="R38" s="6">
-        <v>85578.1733043688</v>
+        <v>86429.435572904884</v>
       </c>
       <c r="S38" s="6">
-        <v>83420.768042481286</v>
+        <v>84250.5701930168</v>
       </c>
       <c r="T38" s="6">
-        <v>82113.973328505919</v>
+        <v>82930.776544970067</v>
       </c>
       <c r="U38" s="6">
-        <v>82914.354211923725</v>
+        <v>83739.118968348397</v>
       </c>
       <c r="V38" s="6">
-        <v>80652.372435433266</v>
+        <v>81454.636831496246</v>
       </c>
       <c r="W38" s="6">
-        <v>81952.579652425775</v>
+        <v>82767.777455482254</v>
       </c>
       <c r="X38" s="8">
-        <v>83800.37255611876</v>
+        <v>84633.950704516188</v>
       </c>
       <c r="Y38" s="8">
-        <v>85287.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>86135.870886225297</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>84577.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="6">
-        <v>107488.20451540628</v>
+        <v>108429.28595759436</v>
       </c>
       <c r="C39" s="6">
-        <v>108184.72978210187</v>
+        <v>109131.90944693176</v>
       </c>
       <c r="D39" s="6">
-        <v>106742.76297043894</v>
+        <v>107677.31791786075</v>
       </c>
       <c r="E39" s="6">
-        <v>105665.54145110665</v>
+        <v>106590.66510152673</v>
       </c>
       <c r="F39" s="6">
-        <v>100678.20786209543</v>
+        <v>101559.66637634749</v>
       </c>
       <c r="G39" s="6">
-        <v>100865.36579635256</v>
+        <v>101748.46291699387</v>
       </c>
       <c r="H39" s="6">
-        <v>102365.81946247087</v>
+        <v>103262.05336501688</v>
       </c>
       <c r="I39" s="6">
-        <v>102556.16758878921</v>
+        <v>103454.06802851518</v>
       </c>
       <c r="J39" s="6">
-        <v>102645.49296650283</v>
+        <v>103544.17546836914</v>
       </c>
       <c r="K39" s="6">
-        <v>93185.5101076875</v>
+        <v>94001.368504788217</v>
       </c>
       <c r="L39" s="6">
-        <v>102122.30146846586</v>
+        <v>103016.40332065312</v>
       </c>
       <c r="M39" s="6">
-        <v>101985.12320983419</v>
+        <v>102878.02403802026</v>
       </c>
       <c r="N39" s="6">
-        <v>100306.01878828861</v>
+        <v>101184.21871028934</v>
       </c>
       <c r="O39" s="6">
-        <v>98179.224080821135</v>
+        <v>99038.803475671317</v>
       </c>
       <c r="P39" s="6">
-        <v>97221.103065107032</v>
+        <v>98072.2939124759</v>
       </c>
       <c r="Q39" s="6">
-        <v>101766.06335496504</v>
+        <v>102657.0462688546</v>
       </c>
       <c r="R39" s="6">
-        <v>101425.77620177025</v>
+        <v>102313.77983131573</v>
       </c>
       <c r="S39" s="6">
-        <v>100870.68278312123</v>
+        <v>101753.82645508042</v>
       </c>
       <c r="T39" s="6">
-        <v>101165.24385010547</v>
+        <v>102050.96646507502</v>
       </c>
       <c r="U39" s="6">
-        <v>101792.64828880838</v>
+        <v>102683.86395928734</v>
       </c>
       <c r="V39" s="6">
-        <v>99645.649031619963</v>
+        <v>100518.06727994044</v>
       </c>
       <c r="W39" s="6">
-        <v>101319.43646639686</v>
+        <v>102206.50906958482</v>
       </c>
       <c r="X39" s="8">
-        <v>103573.83885631239</v>
+        <v>104480.64921827991</v>
       </c>
       <c r="Y39" s="8">
-        <v>105364.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+        <v>106287.08884582829</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>105182.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="6">
-        <v>4326.6314303901627</v>
+        <v>4442.3601184368217</v>
       </c>
       <c r="C40" s="6">
-        <v>4144.5502616094018</v>
+        <v>4255.4086446347019</v>
       </c>
       <c r="D40" s="6">
-        <v>4088.991019888525</v>
+        <v>4198.3633049513164</v>
       </c>
       <c r="E40" s="6">
-        <v>4200.1985405766272</v>
+        <v>4312.5454031316822</v>
       </c>
       <c r="F40" s="6">
-        <v>4467.5328727351762</v>
+        <v>4587.0303909511758</v>
       </c>
       <c r="G40" s="6">
-        <v>4632.3408157245103</v>
+        <v>4756.2466149158327</v>
       </c>
       <c r="H40" s="6">
-        <v>4717.0152370010401</v>
+        <v>4843.1859066448387</v>
       </c>
       <c r="I40" s="6">
-        <v>4767.2767625642373</v>
+        <v>4894.7918269193106</v>
       </c>
       <c r="J40" s="6">
-        <v>4713.765377509354</v>
+        <v>4839.8491199486143</v>
       </c>
       <c r="K40" s="6">
-        <v>4281.0443602602118</v>
+        <v>4395.5536858760952</v>
       </c>
       <c r="L40" s="6">
-        <v>4772.5744787219173</v>
+        <v>4900.2312463282233</v>
       </c>
       <c r="M40" s="6">
-        <v>4768.5232840131039</v>
+        <v>4896.0716903096427</v>
       </c>
       <c r="N40" s="6">
-        <v>4891.0830536105195</v>
+        <v>5021.9096872233922</v>
       </c>
       <c r="O40" s="6">
-        <v>4738.6512878634967</v>
+        <v>4865.4006783484638</v>
       </c>
       <c r="P40" s="6">
-        <v>4738.5177319939758</v>
+        <v>4865.2635501280711</v>
       </c>
       <c r="Q40" s="6">
-        <v>4993.0307006784769</v>
+        <v>5126.5842287898613</v>
       </c>
       <c r="R40" s="6">
-        <v>5053.3979537021223</v>
+        <v>5188.5661844073857</v>
       </c>
       <c r="S40" s="6">
-        <v>5103.1252557872349</v>
+        <v>5239.6235918002867</v>
       </c>
       <c r="T40" s="6">
-        <v>5342.0121877377387</v>
+        <v>5484.9002686761241</v>
       </c>
       <c r="U40" s="6">
-        <v>5368.144619540747</v>
+        <v>5511.7316904663048</v>
       </c>
       <c r="V40" s="6">
-        <v>5428.8235029266089</v>
+        <v>5574.0336119314125</v>
       </c>
       <c r="W40" s="6">
-        <v>5458.6509804530415</v>
+        <v>5604.6589144857935</v>
       </c>
       <c r="X40" s="8">
-        <v>5584.8612771507087</v>
+        <v>5734.2450827569455</v>
       </c>
       <c r="Y40" s="8">
-        <v>5734.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5888.1943648512106</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>5835.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="6">
-        <v>132188.14357665306</v>
+        <v>133751.061424905</v>
       </c>
       <c r="C41" s="6">
-        <v>131599.8388787983</v>
+        <v>133155.80094502916</v>
       </c>
       <c r="D41" s="6">
-        <v>130880.79980364241</v>
+        <v>132428.26035851421</v>
       </c>
       <c r="E41" s="6">
-        <v>133717.73579107554</v>
+        <v>135298.7386725822</v>
       </c>
       <c r="F41" s="6">
-        <v>130913.48339796769</v>
+        <v>132461.33038517399</v>
       </c>
       <c r="G41" s="6">
-        <v>132160.68935741985</v>
+        <v>133723.28260251076</v>
       </c>
       <c r="H41" s="6">
-        <v>132860.11827598055</v>
+        <v>134430.98117302987</v>
       </c>
       <c r="I41" s="6">
-        <v>130591.87682980708</v>
+        <v>132135.92132284187</v>
       </c>
       <c r="J41" s="6">
-        <v>125752.09018212164</v>
+        <v>127238.91177506316</v>
       </c>
       <c r="K41" s="6">
-        <v>109049.46613813755</v>
+        <v>110338.8053508545</v>
       </c>
       <c r="L41" s="6">
-        <v>127097.34692454961</v>
+        <v>128600.0740723793</v>
       </c>
       <c r="M41" s="6">
-        <v>129583.91478081587</v>
+        <v>131116.04170065455</v>
       </c>
       <c r="N41" s="6">
-        <v>128617.78773256099</v>
+        <v>130138.49171259177</v>
       </c>
       <c r="O41" s="6">
-        <v>131103.04824505423</v>
+        <v>132653.13653980065</v>
       </c>
       <c r="P41" s="6">
-        <v>131195.86965293798</v>
+        <v>132747.05541551439</v>
       </c>
       <c r="Q41" s="6">
-        <v>136720.70443768101</v>
+        <v>138337.21272208187</v>
       </c>
       <c r="R41" s="6">
-        <v>135856.55020372098</v>
+        <v>137462.84121719754</v>
       </c>
       <c r="S41" s="6">
-        <v>131007.61214962446</v>
+        <v>132556.57206195412</v>
       </c>
       <c r="T41" s="6">
-        <v>130272.88494919248</v>
+        <v>131813.15786264252</v>
       </c>
       <c r="U41" s="6">
-        <v>130276.80698051151</v>
+        <v>131817.12626584168</v>
       </c>
       <c r="V41" s="6">
-        <v>126101.1509695155</v>
+        <v>127592.09965978951</v>
       </c>
       <c r="W41" s="6">
-        <v>128806.04523587452</v>
+        <v>130328.97506615205</v>
       </c>
       <c r="X41" s="8">
-        <v>130896.48792891855</v>
+        <v>132444.13397131089</v>
       </c>
       <c r="Y41" s="8">
-        <v>133159.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>134733.90261723337</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>132975.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="6">
-        <v>21017.560505141693</v>
+        <v>21490.721050550968</v>
       </c>
       <c r="C42" s="6">
-        <v>21479.564724468164</v>
+        <v>21963.126199535502</v>
       </c>
       <c r="D42" s="6">
-        <v>21654.480732396572</v>
+        <v>22141.980026683796</v>
       </c>
       <c r="E42" s="6">
-        <v>22318.233519114528</v>
+        <v>22820.675633740178</v>
       </c>
       <c r="F42" s="6">
-        <v>22378.758089331968</v>
+        <v>22882.562771161738</v>
       </c>
       <c r="G42" s="6">
-        <v>22377.749346495009</v>
+        <v>22881.531318871374</v>
       </c>
       <c r="H42" s="6">
-        <v>22798.39510950624</v>
+        <v>23311.646923951179</v>
       </c>
       <c r="I42" s="6">
-        <v>22433.431951095059</v>
+        <v>22938.467485299203</v>
       </c>
       <c r="J42" s="6">
-        <v>20480.909315880363</v>
+        <v>20941.988432079856</v>
       </c>
       <c r="K42" s="6">
-        <v>18639.953638433155</v>
+        <v>19059.588002174234</v>
       </c>
       <c r="L42" s="6">
-        <v>19721.527708218855</v>
+        <v>20165.511147897414</v>
       </c>
       <c r="M42" s="6">
-        <v>19626.504132977469</v>
+        <v>20068.348342145575</v>
       </c>
       <c r="N42" s="6">
-        <v>18533.026897715674</v>
+        <v>18950.254059396153</v>
       </c>
       <c r="O42" s="6">
-        <v>19152.193251040109</v>
+        <v>19583.359475218658</v>
       </c>
       <c r="P42" s="6">
-        <v>18556.026234398301</v>
+        <v>18973.771171616347</v>
       </c>
       <c r="Q42" s="6">
-        <v>18932.085564016012</v>
+        <v>19358.296585462274</v>
       </c>
       <c r="R42" s="6">
-        <v>19426.773051259908</v>
+        <v>19864.120788654443</v>
       </c>
       <c r="S42" s="6">
-        <v>18987.566420048664</v>
+        <v>19415.026461432029</v>
       </c>
       <c r="T42" s="6">
-        <v>19376.941155114215</v>
+        <v>19813.167045510698</v>
       </c>
       <c r="U42" s="6">
-        <v>19835.112151660254</v>
+        <v>20281.652675791865</v>
       </c>
       <c r="V42" s="6">
-        <v>19243.58535206845</v>
+        <v>19676.809052725206</v>
       </c>
       <c r="W42" s="6">
-        <v>19488.5081128817</v>
+        <v>19927.245668824431</v>
       </c>
       <c r="X42" s="8">
-        <v>20053.605850145221</v>
+        <v>20505.065241883676</v>
       </c>
       <c r="Y42" s="8">
-        <v>20560.599999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+        <v>21023.473163018236</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>20873.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6">
-        <v>37753.282068641849</v>
+        <v>38224.896956026983</v>
       </c>
       <c r="C43" s="6">
-        <v>37824.004551491373</v>
+        <v>38296.502905795329</v>
       </c>
       <c r="D43" s="6">
-        <v>37764.332456587086</v>
+        <v>38236.085385678292</v>
       </c>
       <c r="E43" s="6">
-        <v>37208.497942941591</v>
+        <v>37673.307374217664</v>
       </c>
       <c r="F43" s="6">
-        <v>36273.635122774438</v>
+        <v>36726.766225717307</v>
       </c>
       <c r="G43" s="6">
-        <v>36230.906956052844</v>
+        <v>36683.504297732259</v>
       </c>
       <c r="H43" s="6">
-        <v>37068.158016037065</v>
+        <v>37531.214317646103</v>
       </c>
       <c r="I43" s="6">
-        <v>38246.86606352916</v>
+        <v>38724.64681378525</v>
       </c>
       <c r="J43" s="6">
-        <v>38610.792173192342</v>
+        <v>39093.119096968214</v>
       </c>
       <c r="K43" s="6">
-        <v>36756.537075981345</v>
+        <v>37215.700601479308</v>
       </c>
       <c r="L43" s="6">
-        <v>39319.858733011795</v>
+        <v>39811.043332926929</v>
       </c>
       <c r="M43" s="6">
-        <v>38004.862567528435</v>
+        <v>38479.620204421692</v>
       </c>
       <c r="N43" s="6">
-        <v>39048.755882088619</v>
+        <v>39536.553858814914</v>
       </c>
       <c r="O43" s="6">
-        <v>37440.187743526767</v>
+        <v>37907.891449240022</v>
       </c>
       <c r="P43" s="6">
-        <v>36769.060848985951</v>
+        <v>37228.38082175079</v>
       </c>
       <c r="Q43" s="6">
-        <v>38842.113627512656</v>
+        <v>39327.330224335528</v>
       </c>
       <c r="R43" s="6">
-        <v>38634.734680407018</v>
+        <v>39117.360694546041</v>
       </c>
       <c r="S43" s="6">
-        <v>38141.150685519708</v>
+        <v>38617.610836787768</v>
       </c>
       <c r="T43" s="6">
-        <v>39047.282497029257</v>
+        <v>39535.062068194748</v>
       </c>
       <c r="U43" s="6">
-        <v>38798.648768261388</v>
+        <v>39283.322401040394</v>
       </c>
       <c r="V43" s="6">
-        <v>35860.718959887359</v>
+        <v>36308.69190441355</v>
       </c>
       <c r="W43" s="6">
-        <v>36155.027625495546</v>
+        <v>36606.677080793299</v>
       </c>
       <c r="X43" s="8">
-        <v>36567.207095852937</v>
+        <v>37024.005506786962</v>
       </c>
       <c r="Y43" s="8">
-        <v>36887.300000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+        <v>37348.097019019748</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>36707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="6">
-        <v>107809.02996207828</v>
+        <v>109196.99151703705</v>
       </c>
       <c r="C44" s="6">
-        <v>106984.15873959106</v>
+        <v>108361.5006874074</v>
       </c>
       <c r="D44" s="6">
-        <v>106504.53163141639</v>
+        <v>107875.69873481483</v>
       </c>
       <c r="E44" s="6">
-        <v>107599.26138629344</v>
+        <v>108984.52232592592</v>
       </c>
       <c r="F44" s="6">
-        <v>107735.82946948669</v>
+        <v>109122.84862222223</v>
       </c>
       <c r="G44" s="6">
-        <v>109578.9523202627</v>
+        <v>110989.70031703703</v>
       </c>
       <c r="H44" s="6">
-        <v>111880.94393056803</v>
+        <v>113321.32836740742</v>
       </c>
       <c r="I44" s="6">
-        <v>112098.36031901168</v>
+        <v>113541.54383111109</v>
       </c>
       <c r="J44" s="6">
-        <v>110013.78509715</v>
+        <v>111430.13124444445</v>
       </c>
       <c r="K44" s="6">
-        <v>97312.95336017826</v>
+        <v>98565.785688888893</v>
       </c>
       <c r="L44" s="6">
-        <v>106477.21801477774</v>
+        <v>107848.03347555555</v>
       </c>
       <c r="M44" s="6">
-        <v>109560.37906094843</v>
+        <v>110970.88794074074</v>
       </c>
       <c r="N44" s="6">
-        <v>105076.57575354783</v>
+        <v>106429.35898074074</v>
       </c>
       <c r="O44" s="6">
-        <v>104651.57587865046</v>
+        <v>105998.88754666667</v>
       </c>
       <c r="P44" s="6">
-        <v>105644.69897963172</v>
+        <v>107004.79637333333</v>
       </c>
       <c r="Q44" s="6">
-        <v>109328.75959185269</v>
+        <v>110736.28654222222</v>
       </c>
       <c r="R44" s="6">
-        <v>108900.48208295868</v>
+        <v>110302.49527703703</v>
       </c>
       <c r="S44" s="6">
-        <v>106408.38770084834</v>
+        <v>107778.31702222221</v>
       </c>
       <c r="T44" s="6">
-        <v>106870.53409437429</v>
+        <v>108246.41320888889</v>
       </c>
       <c r="U44" s="6">
-        <v>108478.75984205795</v>
+        <v>109875.34367407409</v>
       </c>
       <c r="V44" s="6">
-        <v>105013.20816294616</v>
+        <v>106365.17557925924</v>
       </c>
       <c r="W44" s="6">
-        <v>106905.49552367177</v>
+        <v>108281.82474074073</v>
       </c>
       <c r="X44" s="8">
-        <v>109527.60272098205</v>
+        <v>110937.68962962963</v>
       </c>
       <c r="Y44" s="8">
-        <v>111784.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+        <v>113223.9466548148</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>112044.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="6">
-        <v>5804.1595514927731</v>
+        <v>5914.2324280517232</v>
       </c>
       <c r="C45" s="6">
-        <v>5861.0402485702707</v>
+        <v>5972.1918380578463</v>
       </c>
       <c r="D45" s="6">
-        <v>5791.4639573107579</v>
+        <v>5901.2960685084454</v>
       </c>
       <c r="E45" s="6">
-        <v>5654.8061422074124</v>
+        <v>5762.0466087958785</v>
       </c>
       <c r="F45" s="6">
-        <v>5536.0552132210569</v>
+        <v>5641.043630011166</v>
       </c>
       <c r="G45" s="6">
-        <v>5440.8105372179944</v>
+        <v>5543.9926881100746</v>
       </c>
       <c r="H45" s="6">
-        <v>5520.8094123474575</v>
+        <v>5625.508700428627</v>
       </c>
       <c r="I45" s="6">
-        <v>5583.6221119466836</v>
+        <v>5689.5126103086832</v>
       </c>
       <c r="J45" s="6">
-        <v>5674.2653280497143</v>
+        <v>5781.8748280085001</v>
       </c>
       <c r="K45" s="6">
-        <v>5337.139091277525</v>
+        <v>5438.3551669488161</v>
       </c>
       <c r="L45" s="6">
-        <v>5884.9345764848922</v>
+        <v>5996.5393095126592</v>
       </c>
       <c r="M45" s="6">
-        <v>5916.9230386814961</v>
+        <v>6029.1344163094755</v>
       </c>
       <c r="N45" s="6">
-        <v>5751.1596037285535</v>
+        <v>5860.2273637575181</v>
       </c>
       <c r="O45" s="6">
-        <v>5886.2096798306839</v>
+        <v>5997.8385945322907</v>
       </c>
       <c r="P45" s="6">
-        <v>5877.3393956860446</v>
+        <v>5988.8000900479046</v>
       </c>
       <c r="Q45" s="6">
-        <v>6182.4217309857249</v>
+        <v>6299.6681536577453</v>
       </c>
       <c r="R45" s="6">
-        <v>6022.9783734858383</v>
+        <v>6137.2010355509128</v>
       </c>
       <c r="S45" s="6">
-        <v>5966.319433511956</v>
+        <v>6079.4675881568992</v>
       </c>
       <c r="T45" s="6">
-        <v>5982.674019903634</v>
+        <v>6096.1323307999855</v>
       </c>
       <c r="U45" s="6">
-        <v>6031.6269005268605</v>
+        <v>6146.0135774231876</v>
       </c>
       <c r="V45" s="6">
-        <v>5836.3143315170892</v>
+        <v>5946.9970068076209</v>
       </c>
       <c r="W45" s="6">
-        <v>5931.2263718647273</v>
+        <v>6043.7090047905485</v>
       </c>
       <c r="X45" s="8">
-        <v>6037.7252208763002</v>
+        <v>6152.227549256203</v>
       </c>
       <c r="Y45" s="8">
-        <v>6155.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>6272.4396588985328</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>6273.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="6">
-        <v>40257.336594163593</v>
+        <v>41015.151742727612</v>
       </c>
       <c r="C46" s="6">
-        <v>40232.288036992846</v>
+        <v>40989.631664644665</v>
       </c>
       <c r="D46" s="6">
-        <v>40724.257355174661</v>
+        <v>41490.86194824268</v>
       </c>
       <c r="E46" s="6">
-        <v>41997.819933825129</v>
+        <v>42788.398418272875</v>
       </c>
       <c r="F46" s="6">
-        <v>42491.354786830118</v>
+        <v>43291.223706751072</v>
       </c>
       <c r="G46" s="6">
-        <v>42821.68263451942</v>
+        <v>43627.769736470036</v>
       </c>
       <c r="H46" s="6">
-        <v>43335.178056519857</v>
+        <v>44150.931337170594</v>
       </c>
       <c r="I46" s="6">
-        <v>43113.263495335224</v>
+        <v>43924.839395404422</v>
       </c>
       <c r="J46" s="6">
-        <v>40769.657865046654</v>
+        <v>41537.117089768035</v>
       </c>
       <c r="K46" s="6">
-        <v>35867.185566283355</v>
+        <v>36542.35930746988</v>
       </c>
       <c r="L46" s="6">
-        <v>40755.568051638103</v>
+        <v>41522.762045846379</v>
       </c>
       <c r="M46" s="6">
-        <v>40047.163544152754</v>
+        <v>40801.022337562827</v>
       </c>
       <c r="N46" s="6">
-        <v>39805.679797678458</v>
+        <v>40554.99283479435</v>
       </c>
       <c r="O46" s="6">
-        <v>39494.529751573005</v>
+        <v>40237.985614857658</v>
       </c>
       <c r="P46" s="6">
-        <v>39044.047106205253</v>
+        <v>39779.022960584531</v>
       </c>
       <c r="Q46" s="6">
-        <v>40364.575729550881</v>
+        <v>41124.409577020262</v>
       </c>
       <c r="R46" s="6">
-        <v>40757.524970167069</v>
+        <v>41524.755801946609</v>
       </c>
       <c r="S46" s="6">
-        <v>40661.244578541991</v>
+        <v>41426.66300181525</v>
       </c>
       <c r="T46" s="6">
-        <v>40527.391351160775</v>
+        <v>41290.29008455947</v>
       </c>
       <c r="U46" s="6">
-        <v>40420.543599479286</v>
+        <v>41181.431001486861</v>
       </c>
       <c r="V46" s="6">
-        <v>40606.05947602517</v>
+        <v>41370.439079788739</v>
       </c>
       <c r="W46" s="6">
-        <v>41435.792932306358</v>
+        <v>42215.791666286597</v>
       </c>
       <c r="X46" s="8">
-        <v>42341.454827511392</v>
+        <v>43138.5019894734</v>
       </c>
       <c r="Y46" s="8">
-        <v>43293.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+        <v>44108.264956625651</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>43713.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="6">
-        <v>5182.4217642818858</v>
+        <v>5335.918034981848</v>
       </c>
       <c r="C47" s="6">
-        <v>5159.1769124142911</v>
+        <v>5311.98470227712</v>
       </c>
       <c r="D47" s="6">
-        <v>5071.8932633485501</v>
+        <v>5222.1158304653236</v>
       </c>
       <c r="E47" s="6">
-        <v>4805.7320124937623</v>
+        <v>4948.0712460515761</v>
       </c>
       <c r="F47" s="6">
-        <v>4715.9340196277753</v>
+        <v>4855.6135590024041</v>
       </c>
       <c r="G47" s="6">
-        <v>4476.4042878000992</v>
+        <v>4608.9892829192395</v>
       </c>
       <c r="H47" s="6">
-        <v>4442.5889293437076</v>
+        <v>4574.172359624723</v>
       </c>
       <c r="I47" s="6">
-        <v>4502.7792411333103</v>
+        <v>4636.1454264296826</v>
       </c>
       <c r="J47" s="6">
-        <v>4650.4584545437747</v>
+        <v>4788.1986969025502</v>
       </c>
       <c r="K47" s="6">
-        <v>4498.725503169645</v>
+        <v>4631.9716222714624</v>
       </c>
       <c r="L47" s="6">
-        <v>5010.8819413384599</v>
+        <v>5159.2974362359146</v>
       </c>
       <c r="M47" s="6">
-        <v>5091.5975086402868</v>
+        <v>5242.4036886521135</v>
       </c>
       <c r="N47" s="6">
-        <v>5236.3518731402592</v>
+        <v>5391.44548017538</v>
       </c>
       <c r="O47" s="6">
-        <v>5171.0302474726004</v>
+        <v>5324.1891169676101</v>
       </c>
       <c r="P47" s="6">
-        <v>5010.9332544772396</v>
+        <v>5159.3502691999429</v>
       </c>
       <c r="Q47" s="6">
-        <v>5236.3518731402592</v>
+        <v>5391.44548017538</v>
       </c>
       <c r="R47" s="6">
-        <v>5260.2124826732215</v>
+        <v>5416.0128084484468</v>
       </c>
       <c r="S47" s="6">
-        <v>5182.9348956696922</v>
+        <v>5336.4463646221302</v>
       </c>
       <c r="T47" s="6">
-        <v>5422.3620012198053</v>
+        <v>5582.9649747772373</v>
       </c>
       <c r="U47" s="6">
-        <v>5357.7074463562949</v>
+        <v>5516.3954401018336</v>
       </c>
       <c r="V47" s="6">
-        <v>5217.160759236328</v>
+        <v>5371.6859516288714</v>
       </c>
       <c r="W47" s="6">
-        <v>5267.3450089637199</v>
+        <v>5423.3565904483512</v>
       </c>
       <c r="X47" s="8">
-        <v>5381.8246215831596</v>
+        <v>5541.2269331950401</v>
       </c>
       <c r="Y47" s="8">
-        <v>5552.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5717.266369336664</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>5603.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="6">
-        <v>62803.263717899717</v>
+        <v>63596.162454873651</v>
       </c>
       <c r="C48" s="6">
-        <v>62252.069898399095</v>
+        <v>63038.009747292417</v>
       </c>
       <c r="D48" s="6">
-        <v>61587.227868692164</v>
+        <v>62364.774007220214</v>
       </c>
       <c r="E48" s="6">
-        <v>61087.807122729981</v>
+        <v>61859.048014440436</v>
       </c>
       <c r="F48" s="6">
-        <v>61063.814722797542</v>
+        <v>61834.752707581232</v>
       </c>
       <c r="G48" s="6">
-        <v>61021.512333442959</v>
+        <v>61791.916245487366</v>
       </c>
       <c r="H48" s="6">
-        <v>62134.002035573649</v>
+        <v>62918.451263537907</v>
       </c>
       <c r="I48" s="6">
-        <v>62754.016160143641</v>
+        <v>63546.293140794223</v>
       </c>
       <c r="J48" s="6">
-        <v>63718.131810060535</v>
+        <v>64522.580866425997</v>
       </c>
       <c r="K48" s="6">
-        <v>54139.481826505129</v>
+        <v>54822.999277978342</v>
       </c>
       <c r="L48" s="6">
-        <v>64398.126934461638</v>
+        <v>65211.161010830321</v>
       </c>
       <c r="M48" s="6">
-        <v>65427.905994719957</v>
+        <v>66253.941155234657</v>
       </c>
       <c r="N48" s="6">
-        <v>63821.677957137399</v>
+        <v>64627.434296028878</v>
       </c>
       <c r="O48" s="6">
-        <v>62762.855465381923</v>
+        <v>63555.244043321305</v>
       </c>
       <c r="P48" s="6">
-        <v>62638.473813100565</v>
+        <v>63429.292057761733</v>
       </c>
       <c r="Q48" s="6">
-        <v>65527.032489177684</v>
+        <v>66354.319133574012</v>
       </c>
       <c r="R48" s="6">
-        <v>68211.65576582904</v>
+        <v>69072.836101083041</v>
       </c>
       <c r="S48" s="6">
-        <v>67073.910905874713</v>
+        <v>67920.727075812276</v>
       </c>
       <c r="T48" s="6">
-        <v>68526.082480733166</v>
+        <v>69391.23249097474</v>
       </c>
       <c r="U48" s="6">
-        <v>69192.187268331283</v>
+        <v>70065.746931407935</v>
       </c>
       <c r="V48" s="6">
-        <v>67251.959768531276</v>
+        <v>68101.023826714809</v>
       </c>
       <c r="W48" s="6">
-        <v>68323.409839198575</v>
+        <v>69186.00108303249</v>
       </c>
       <c r="X48" s="8">
-        <v>69831.774140214591</v>
+        <v>70713.408664259929</v>
       </c>
       <c r="Y48" s="8">
-        <v>71029.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+        <v>71926.255956678695</v>
+      </c>
+      <c r="Z48" s="6">
+        <v>71371.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="6">
-        <v>295456.71558458626</v>
+        <v>300568.35494124197</v>
       </c>
       <c r="C49" s="6">
-        <v>298481.1530937861</v>
+        <v>303645.11765744607</v>
       </c>
       <c r="D49" s="6">
-        <v>298380.16133161599</v>
+        <v>303542.37865637778</v>
       </c>
       <c r="E49" s="6">
-        <v>297322.40550678159</v>
+        <v>302466.32280308317</v>
       </c>
       <c r="F49" s="6">
-        <v>284629.33560876874</v>
+        <v>289553.65256354789</v>
       </c>
       <c r="G49" s="6">
-        <v>277551.93922300491</v>
+        <v>282353.81151499634</v>
       </c>
       <c r="H49" s="6">
-        <v>276805.13171853643</v>
+        <v>281594.08363867528</v>
       </c>
       <c r="I49" s="6">
-        <v>269913.7727894017</v>
+        <v>274583.49864472327</v>
       </c>
       <c r="J49" s="6">
-        <v>256856.60101198612</v>
+        <v>261300.42726975749</v>
       </c>
       <c r="K49" s="6">
-        <v>234369.98786142361</v>
+        <v>238424.77758451723</v>
       </c>
       <c r="L49" s="6">
-        <v>254159.05789086322</v>
+        <v>258556.21447806395</v>
       </c>
       <c r="M49" s="6">
-        <v>263322.73146882554</v>
+        <v>267878.42699605337</v>
       </c>
       <c r="N49" s="6">
-        <v>266238.20418199978</v>
+        <v>270844.33973742067</v>
       </c>
       <c r="O49" s="6">
-        <v>271221.35034170962</v>
+        <v>275913.69834276586</v>
       </c>
       <c r="P49" s="6">
-        <v>277474.86656240141</v>
+        <v>282275.40543523367</v>
       </c>
       <c r="Q49" s="6">
-        <v>289019.8195852171</v>
+        <v>294020.09545209736</v>
       </c>
       <c r="R49" s="6">
-        <v>282673.28463621065</v>
+        <v>287563.76033232978</v>
       </c>
       <c r="S49" s="6">
-        <v>277158.60288613179</v>
+        <v>281953.67014241446</v>
       </c>
       <c r="T49" s="6">
-        <v>278774.47108085372</v>
+        <v>283597.49415950768</v>
       </c>
       <c r="U49" s="6">
-        <v>284639.96632057615</v>
+        <v>289564.46719523933</v>
       </c>
       <c r="V49" s="6">
-        <v>280129.88683629478</v>
+        <v>284976.35970016156</v>
       </c>
       <c r="W49" s="6">
-        <v>284517.71313479129</v>
+        <v>289440.09893078823</v>
       </c>
       <c r="X49" s="8">
-        <v>295515.1844995268</v>
+        <v>300627.83541554463</v>
       </c>
       <c r="Y49" s="8">
-        <v>303326.09999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+        <v>308573.88605080306</v>
+      </c>
+      <c r="Z49" s="6">
+        <v>306219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="6">
-        <v>24534.904850455525</v>
+        <v>24928.309763090958</v>
       </c>
       <c r="C50" s="6">
-        <v>25155.348706844881</v>
+        <v>25558.702126010325</v>
       </c>
       <c r="D50" s="6">
-        <v>25839.193877367536</v>
+        <v>26253.512411384883</v>
       </c>
       <c r="E50" s="6">
-        <v>26314.586756772955</v>
+        <v>26736.527977543312</v>
       </c>
       <c r="F50" s="6">
-        <v>26732.66110495085</v>
+        <v>27161.305938530084</v>
       </c>
       <c r="G50" s="6">
-        <v>26767.520130064731</v>
+        <v>27196.723910654891</v>
       </c>
       <c r="H50" s="6">
-        <v>27058.791849976024</v>
+        <v>27492.666026731291</v>
       </c>
       <c r="I50" s="6">
-        <v>27379.307718472788</v>
+        <v>27818.321206670786</v>
       </c>
       <c r="J50" s="6">
-        <v>26488.881882342361</v>
+        <v>26913.617838167345</v>
       </c>
       <c r="K50" s="6">
-        <v>25233.255118676574</v>
+        <v>25637.857728141607</v>
       </c>
       <c r="L50" s="6">
-        <v>27008.959820786378</v>
+        <v>27442.03496590858</v>
       </c>
       <c r="M50" s="6">
-        <v>28223.410823243823</v>
+        <v>28675.959082015084</v>
       </c>
       <c r="N50" s="6">
-        <v>29138.401744186049</v>
+        <v>29605.621424163524</v>
       </c>
       <c r="O50" s="6">
-        <v>29428.737651342602</v>
+        <v>29900.612722196307</v>
       </c>
       <c r="P50" s="6">
-        <v>29854.766407935746</v>
+        <v>30333.472636553834</v>
       </c>
       <c r="Q50" s="6">
-        <v>31350.663096379758</v>
+        <v>31853.355279278738</v>
       </c>
       <c r="R50" s="6">
-        <v>30465.384230400381</v>
+        <v>30953.881410015205</v>
       </c>
       <c r="S50" s="6">
-        <v>29789.025561915605</v>
+        <v>30266.677668989603</v>
       </c>
       <c r="T50" s="6">
-        <v>29752.060958103575</v>
+        <v>30229.120356266656</v>
       </c>
       <c r="U50" s="6">
-        <v>29640.231333912732</v>
+        <v>30115.49760005419</v>
       </c>
       <c r="V50" s="6">
-        <v>29443.47670222968</v>
+        <v>29915.588106383304</v>
       </c>
       <c r="W50" s="6">
-        <v>30156.799974526493</v>
+        <v>30640.34916013186</v>
       </c>
       <c r="X50" s="8">
-        <v>30590.783139534884</v>
+        <v>31081.291027860145</v>
       </c>
       <c r="Y50" s="8">
-        <v>31226.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+        <v>31726.896479477422</v>
+      </c>
+      <c r="Z50" s="6">
+        <v>31585.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="6">
-        <v>3556.2424525608571</v>
+        <v>3610.2563559525984</v>
       </c>
       <c r="C51" s="6">
-        <v>3696.476416512819</v>
+        <v>3752.6202601103209</v>
       </c>
       <c r="D51" s="6">
-        <v>3601.1283359661979</v>
+        <v>3655.823987523946</v>
       </c>
       <c r="E51" s="6">
-        <v>3617.1</v>
+        <v>3672.0382367947323</v>
       </c>
       <c r="F51" s="6">
-        <v>3579.3049846786321</v>
+        <v>3633.66917278757</v>
       </c>
       <c r="G51" s="6">
-        <v>3403.4789935478962</v>
+        <v>3455.1726527979672</v>
       </c>
       <c r="H51" s="6">
-        <v>3619.8537351782425</v>
+        <v>3674.8337970138336</v>
       </c>
       <c r="I51" s="6">
-        <v>3577.1019965360388</v>
+        <v>3631.4327246122889</v>
       </c>
       <c r="J51" s="6">
-        <v>3481.9948678175138</v>
+        <v>3534.8810635450859</v>
       </c>
       <c r="K51" s="6">
-        <v>3250.0615224301023</v>
+        <v>3299.425004091298</v>
       </c>
       <c r="L51" s="6">
-        <v>3602.5740469347747</v>
+        <v>3657.291656638974</v>
       </c>
       <c r="M51" s="6">
-        <v>3676.7872099883907</v>
+        <v>3732.6320045437478</v>
       </c>
       <c r="N51" s="6">
-        <v>3843.663561789841</v>
+        <v>3902.0429538212729</v>
       </c>
       <c r="O51" s="6">
-        <v>3652.5543404198625</v>
+        <v>3708.0310746156583</v>
       </c>
       <c r="P51" s="6">
-        <v>3650.2825088978138</v>
+        <v>3705.7247374349004</v>
       </c>
       <c r="Q51" s="6">
-        <v>3705.6670076702007</v>
+        <v>3761.9504423415701</v>
       </c>
       <c r="R51" s="6">
-        <v>3684.704198625835</v>
+        <v>3740.6692401736636</v>
       </c>
       <c r="S51" s="6">
-        <v>3664.2921366171186</v>
+        <v>3719.947150049577</v>
       </c>
       <c r="T51" s="6">
-        <v>3579.064032850536</v>
+        <v>3633.4245612683985</v>
       </c>
       <c r="U51" s="6">
-        <v>3574.7957433242609</v>
+        <v>3629.0914429287918</v>
       </c>
       <c r="V51" s="6">
-        <v>3455.1115281399289</v>
+        <v>3507.5894069061119</v>
       </c>
       <c r="W51" s="6">
-        <v>3496.8650377800195</v>
+        <v>3549.9770887282316</v>
       </c>
       <c r="X51" s="8">
-        <v>3562.610465160541</v>
+        <v>3616.7210889592698</v>
       </c>
       <c r="Y51" s="8">
-        <v>3617.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3672.0382367947323</v>
+      </c>
+      <c r="Z51" s="6">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="6">
-        <v>49365.527540474286</v>
+        <v>50212.561280974944</v>
       </c>
       <c r="C52" s="6">
-        <v>49871.189332567097</v>
+        <v>50726.899423155039</v>
       </c>
       <c r="D52" s="6">
-        <v>49451.456995339737</v>
+        <v>50299.965148273521</v>
       </c>
       <c r="E52" s="6">
-        <v>49806.034031625168</v>
+        <v>50660.626161137428</v>
       </c>
       <c r="F52" s="6">
-        <v>47838.627227095996</v>
+        <v>48659.461792823284</v>
       </c>
       <c r="G52" s="6">
-        <v>48079.418556664001</v>
+        <v>48904.384717670946</v>
       </c>
       <c r="H52" s="6">
-        <v>49126.152630491975</v>
+        <v>49969.079079214622</v>
       </c>
       <c r="I52" s="6">
-        <v>48176.207228353102</v>
+        <v>49002.83412863913</v>
       </c>
       <c r="J52" s="6">
-        <v>47653.548401231965</v>
+        <v>48471.207309410958</v>
       </c>
       <c r="K52" s="6">
-        <v>44044.983436745177</v>
+        <v>44800.725123899792</v>
       </c>
       <c r="L52" s="6">
-        <v>48415.109998473512</v>
+        <v>49245.836089370336</v>
       </c>
       <c r="M52" s="6">
-        <v>49897.629164833386</v>
+        <v>50753.792920785367</v>
       </c>
       <c r="N52" s="6">
-        <v>48590.273887237701</v>
+        <v>49424.005511171286</v>
       </c>
       <c r="O52" s="6">
-        <v>48211.145578133561</v>
+        <v>49038.371964793492</v>
       </c>
       <c r="P52" s="6">
-        <v>47986.407003870088</v>
+        <v>48809.777234935675</v>
       </c>
       <c r="Q52" s="6">
-        <v>50729.067461635852</v>
+        <v>51599.497373053477</v>
       </c>
       <c r="R52" s="6">
-        <v>50372.129726040926</v>
+        <v>51236.435155043997</v>
       </c>
       <c r="S52" s="6">
-        <v>50303.669446065709</v>
+        <v>51166.800205822605</v>
       </c>
       <c r="T52" s="6">
-        <v>51079.395239164209</v>
+        <v>51955.836216655378</v>
       </c>
       <c r="U52" s="6">
-        <v>50936.809000870999</v>
+        <v>51810.803425863232</v>
       </c>
       <c r="V52" s="6">
-        <v>49223.885581904877</v>
+        <v>50068.488972241023</v>
       </c>
       <c r="W52" s="6">
-        <v>50136.059795091896</v>
+        <v>50996.314640487471</v>
       </c>
       <c r="X52" s="8">
-        <v>51323.019407903601</v>
+        <v>52203.640587677721</v>
       </c>
       <c r="Y52" s="8">
-        <v>52580.800000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+        <v>53483.002689234934</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>53198.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="6">
-        <v>79520.790592482968</v>
+        <v>80954.157783586954</v>
       </c>
       <c r="C53" s="6">
-        <v>79118.761992061365</v>
+        <v>80544.882592664464</v>
       </c>
       <c r="D53" s="6">
-        <v>79506.793465195573</v>
+        <v>80939.90835721053</v>
       </c>
       <c r="E53" s="6">
-        <v>82916.649196044134</v>
+        <v>84411.22694946405</v>
       </c>
       <c r="F53" s="6">
-        <v>87617.351110064599</v>
+        <v>89196.65930754217</v>
       </c>
       <c r="G53" s="6">
-        <v>84002.981797183355</v>
+        <v>85517.140763233299</v>
       </c>
       <c r="H53" s="6">
-        <v>83086.947578040912</v>
+        <v>84584.59497037706</v>
       </c>
       <c r="I53" s="6">
-        <v>80232.311229592771</v>
+        <v>81678.503624387857</v>
       </c>
       <c r="J53" s="6">
-        <v>70020.629255247579</v>
+        <v>71282.755447997173</v>
       </c>
       <c r="K53" s="6">
-        <v>65428.01626861321</v>
+        <v>66607.360326936905</v>
       </c>
       <c r="L53" s="6">
-        <v>66803.622833692149</v>
+        <v>68007.762285818651</v>
       </c>
       <c r="M53" s="6">
-        <v>68791.992526686416</v>
+        <v>70031.972466067731</v>
       </c>
       <c r="N53" s="6">
-        <v>64915.565886257638</v>
+        <v>66085.672994600522</v>
       </c>
       <c r="O53" s="6">
-        <v>69386.87043640115</v>
+        <v>70637.573087065219</v>
       </c>
       <c r="P53" s="6">
-        <v>69827.002327771814</v>
+        <v>71085.638383123485</v>
       </c>
       <c r="Q53" s="6">
-        <v>70370.557437432726</v>
+        <v>71638.991107407448</v>
       </c>
       <c r="R53" s="6">
-        <v>66246.848214926446</v>
+        <v>67440.951769956955</v>
       </c>
       <c r="S53" s="6">
-        <v>68249.992653390756</v>
+        <v>69480.203011381149</v>
       </c>
       <c r="T53" s="6">
-        <v>68273.321198869759</v>
+        <v>69503.952055341841</v>
       </c>
       <c r="U53" s="6">
-        <v>69941.312200618937</v>
+        <v>71202.008698530844</v>
       </c>
       <c r="V53" s="6">
-        <v>67306.741797856128</v>
+        <v>68519.950000570781</v>
       </c>
       <c r="W53" s="6">
-        <v>66851.057542832801</v>
+        <v>68056.052008538711</v>
       </c>
       <c r="X53" s="8">
-        <v>68172.230835127382</v>
+        <v>69401.039531512215</v>
       </c>
       <c r="Y53" s="8">
-        <v>69351.100000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70601.157886325498</v>
+      </c>
+      <c r="Z53" s="6">
+        <v>69348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="6">
-        <v>10083.231791960914</v>
+        <v>10215.253985992056</v>
       </c>
       <c r="C54" s="6">
-        <v>9941.0899870668418</v>
+        <v>10071.251084047668</v>
       </c>
       <c r="D54" s="6">
-        <v>9597.1372238873391</v>
+        <v>9722.7948641020284</v>
       </c>
       <c r="E54" s="6">
-        <v>9565.8774285596992</v>
+        <v>9691.1257767091793</v>
       </c>
       <c r="F54" s="6">
-        <v>8965.9553990803088</v>
+        <v>9083.3488229144896</v>
       </c>
       <c r="G54" s="6">
-        <v>8853.9332146083107</v>
+        <v>8969.8599048714204</v>
       </c>
       <c r="H54" s="6">
-        <v>8880.9173540400716</v>
+        <v>8997.1973541710213</v>
       </c>
       <c r="I54" s="6">
-        <v>9003.2961272376415</v>
+        <v>9121.1784622621799</v>
       </c>
       <c r="J54" s="6">
-        <v>8923.5788984233877</v>
+        <v>9040.4174764791987</v>
       </c>
       <c r="K54" s="6">
-        <v>8287.1712719658408</v>
+        <v>8395.6772109554677</v>
       </c>
       <c r="L54" s="6">
-        <v>9199.7862692970939</v>
+        <v>9320.2412973029477</v>
       </c>
       <c r="M54" s="6">
-        <v>9385.9198226309763</v>
+        <v>9508.8119422956315</v>
       </c>
       <c r="N54" s="6">
-        <v>9149.1435005748081</v>
+        <v>9268.935450554045</v>
       </c>
       <c r="O54" s="6">
-        <v>8916.5478198390538</v>
+        <v>9033.2943382814137</v>
       </c>
       <c r="P54" s="6">
-        <v>9007.3817539825923</v>
+        <v>9125.3175831068365</v>
       </c>
       <c r="Q54" s="6">
-        <v>9139.261984726556</v>
+        <v>9258.924553627432</v>
       </c>
       <c r="R54" s="6">
-        <v>9076.9324232222043</v>
+        <v>9195.7788960903199</v>
       </c>
       <c r="S54" s="6">
-        <v>8842.7214947035627</v>
+        <v>8958.501387204682</v>
       </c>
       <c r="T54" s="6">
-        <v>8978.2122793151575</v>
+        <v>9095.7661854484631</v>
       </c>
       <c r="U54" s="6">
-        <v>8957.4040872885544</v>
+        <v>9074.6855467279966</v>
       </c>
       <c r="V54" s="6">
-        <v>8704.570301978978</v>
+        <v>8818.541347480661</v>
       </c>
       <c r="W54" s="6">
-        <v>8879.0170625307928</v>
+        <v>8995.2721816851354</v>
       </c>
       <c r="X54" s="8">
-        <v>9084.4385746838561</v>
+        <v>9203.3833274095759</v>
       </c>
       <c r="Y54" s="8">
-        <v>9256.7000000000007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+        <v>9377.9002132552814</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>9208.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="6">
-        <v>67764.25858139238</v>
+        <v>68954.360551055404</v>
       </c>
       <c r="C55" s="6">
-        <v>68229.809413364361</v>
+        <v>69428.087565777809</v>
       </c>
       <c r="D55" s="6">
-        <v>68499.977117591232</v>
+        <v>69703.00005912612</v>
       </c>
       <c r="E55" s="6">
-        <v>69257.928906257628</v>
+        <v>70474.263288594564</v>
       </c>
       <c r="F55" s="6">
-        <v>69069.956862668376</v>
+        <v>70282.9900076864</v>
       </c>
       <c r="G55" s="6">
-        <v>70243.603098985594</v>
+        <v>71477.248270561118</v>
       </c>
       <c r="H55" s="6">
-        <v>70363.5279153257</v>
+        <v>71599.279252645894</v>
       </c>
       <c r="I55" s="6">
-        <v>70140.52165572696</v>
+        <v>71372.3564713534</v>
       </c>
       <c r="J55" s="6">
-        <v>68002.087009302821</v>
+        <v>69196.365813279728</v>
       </c>
       <c r="K55" s="6">
-        <v>62381.116544552802</v>
+        <v>63476.67770354166</v>
       </c>
       <c r="L55" s="6">
-        <v>68874.573734923251</v>
+        <v>70084.175486312306</v>
       </c>
       <c r="M55" s="6">
-        <v>69447.922154616666</v>
+        <v>70667.593271448</v>
       </c>
       <c r="N55" s="6">
-        <v>70139.174185880431</v>
+        <v>71370.985336723228</v>
       </c>
       <c r="O55" s="6">
-        <v>70106.834909564001</v>
+        <v>71338.078105599256</v>
       </c>
       <c r="P55" s="6">
-        <v>70141.195390650217</v>
+        <v>71373.042038668485</v>
       </c>
       <c r="Q55" s="6">
-        <v>72218.993893981038</v>
+        <v>73487.331638384683</v>
       </c>
       <c r="R55" s="6">
-        <v>69802.980459174185</v>
+        <v>71028.887246496772</v>
       </c>
       <c r="S55" s="6">
-        <v>67735.28797969225</v>
+        <v>68924.881156506832</v>
       </c>
       <c r="T55" s="6">
-        <v>67858.581470648642</v>
+        <v>69050.339975167037</v>
       </c>
       <c r="U55" s="6">
-        <v>67826.915929255469</v>
+        <v>69018.118311358136</v>
       </c>
       <c r="V55" s="6">
-        <v>65474.233577234969</v>
+        <v>66624.117247088041</v>
       </c>
       <c r="W55" s="6">
-        <v>66377.038374402051</v>
+        <v>67542.777449299363</v>
       </c>
       <c r="X55" s="8">
-        <v>67406.505337141847</v>
+        <v>68590.324306746305</v>
       </c>
       <c r="Y55" s="8">
-        <v>68873.899999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70083.48991899722</v>
+      </c>
+      <c r="Z55" s="6">
+        <v>69570</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -4692,6 +4847,7 @@
       <c r="W56" s="6"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
+      <c r="Z56" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4702,29 +4858,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:U56"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:V56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="2"/>
-    <col min="21" max="21" width="9.140625" style="2"/>
+    <col min="20" max="20" width="8.88671875" style="2"/>
+    <col min="21" max="21" width="9.109375" style="2"/>
+    <col min="22" max="22" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4788,152 +4945,161 @@
       <c r="U4" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>0.74582338902147727</v>
+        <v>0.74582338902145739</v>
       </c>
       <c r="C5" s="7">
-        <v>0.52610434083909707</v>
+        <v>0.5261043408390963</v>
       </c>
       <c r="D5" s="7">
-        <v>0.98612195168380856</v>
+        <v>0.98612195168382821</v>
       </c>
       <c r="E5" s="7">
-        <v>-0.38369078482204472</v>
+        <v>-0.38369078482204577</v>
       </c>
       <c r="F5" s="7">
-        <v>-1.610515154699244</v>
+        <v>-1.6105151546992316</v>
       </c>
       <c r="G5" s="7">
-        <v>-11.933353633007281</v>
+        <v>-11.933353633007266</v>
       </c>
       <c r="H5" s="7">
-        <v>-2.7108036269722979</v>
+        <v>-2.7108036269722997</v>
       </c>
       <c r="I5" s="7">
-        <v>-1.086421622440116</v>
+        <v>-1.0864216224401115</v>
       </c>
       <c r="J5" s="7">
-        <v>1.9805632955019707</v>
+        <v>1.980563295501977</v>
       </c>
       <c r="K5" s="7">
-        <v>14.268889585201684</v>
+        <v>14.268889585201677</v>
       </c>
       <c r="L5" s="7">
-        <v>2.4520916894340128</v>
+        <v>2.4520916894340061</v>
       </c>
       <c r="M5" s="7">
-        <v>4.9397244546498449</v>
+        <v>4.939724454649828</v>
       </c>
       <c r="N5" s="7">
-        <v>3.8308850829675962</v>
+        <v>3.830885082967594</v>
       </c>
       <c r="O5" s="7">
-        <v>1.3947067333604384</v>
+        <v>1.3947067333604224</v>
       </c>
       <c r="P5" s="7">
-        <v>1.6085258489442091</v>
+        <v>1.6085258489442018</v>
       </c>
       <c r="Q5" s="7">
-        <v>-1.4313977553495083</v>
+        <v>-1.4313977553494943</v>
       </c>
       <c r="R5" s="7">
-        <v>-3.2090954935130322</v>
+        <v>-3.209095493513034</v>
       </c>
       <c r="S5" s="7">
-        <v>1.8651148910710665E-3</v>
+        <v>1.865114891092012E-3</v>
       </c>
       <c r="T5" s="7">
-        <v>2.0288506281991556</v>
+        <v>2.0288506281991623</v>
       </c>
       <c r="U5" s="7">
-        <v>3.4806175020580281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.4806175020580383</v>
+      </c>
+      <c r="V5" s="7">
+        <v>4.8178847155780744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>0.22781022250108088</v>
+        <v>0.22781022250110175</v>
       </c>
       <c r="C6" s="7">
-        <v>0.50324974983242532</v>
+        <v>0.50324974983241411</v>
       </c>
       <c r="D6" s="7">
-        <v>1.0233847286964353</v>
+        <v>1.0233847286964499</v>
       </c>
       <c r="E6" s="7">
-        <v>0.31547550762877791</v>
+        <v>0.31547550762877713</v>
       </c>
       <c r="F6" s="7">
-        <v>1.908871146382106</v>
+        <v>1.9088711463821038</v>
       </c>
       <c r="G6" s="7">
-        <v>-13.452039169059155</v>
+        <v>-13.452039169059153</v>
       </c>
       <c r="H6" s="7">
-        <v>-0.83266981955623021</v>
+        <v>-0.8326698195562221</v>
       </c>
       <c r="I6" s="7">
-        <v>-2.2356910057750543</v>
+        <v>-2.235691005775069</v>
       </c>
       <c r="J6" s="7">
-        <v>-3.580845453772227</v>
+        <v>-3.5808454537722296</v>
       </c>
       <c r="K6" s="7">
-        <v>11.605776641015046</v>
+        <v>11.605776641015058</v>
       </c>
       <c r="L6" s="7">
-        <v>-4.6616686819830599</v>
+        <v>-4.6616686819830839</v>
       </c>
       <c r="M6" s="7">
-        <v>-6.4335009942671245E-2</v>
+        <v>-6.4335009942671398E-2</v>
       </c>
       <c r="N6" s="7">
-        <v>4.3803418803418808</v>
+        <v>4.3803418803418861</v>
       </c>
       <c r="O6" s="7">
-        <v>6.2117209078899966</v>
+        <v>6.2117209078899878</v>
       </c>
       <c r="P6" s="7">
-        <v>10.147530338081888</v>
+        <v>10.147530338081904</v>
       </c>
       <c r="Q6" s="7">
-        <v>7.033612297848256</v>
+        <v>7.0336122978482765</v>
       </c>
       <c r="R6" s="7">
-        <v>2.7072201928765347</v>
+        <v>2.7072201928765245</v>
       </c>
       <c r="S6" s="7">
-        <v>4.5556906087759366</v>
+        <v>4.5556906087759446</v>
       </c>
       <c r="T6" s="7">
-        <v>4.2152970328951769</v>
+        <v>4.2152970328951582</v>
       </c>
       <c r="U6" s="7">
-        <v>5.3949131072694669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.3949131072694518</v>
+      </c>
+      <c r="V6" s="7">
+        <v>4.938926272674081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>-8.5874122404425854</v>
+        <v>-8.5874122404425979</v>
       </c>
       <c r="C7" s="7">
-        <v>10.269346230820524</v>
+        <v>10.26934623082054</v>
       </c>
       <c r="D7" s="7">
-        <v>28.019012797074954</v>
+        <v>28.019012797074943</v>
       </c>
       <c r="E7" s="7">
-        <v>19.200796120315069</v>
+        <v>19.200796120315065</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4944,421 +5110,442 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
-        <v>4.9122314281702035</v>
+        <v>4.9122314281702062</v>
       </c>
       <c r="O7" s="7">
-        <v>-2.3828507940657255</v>
+        <v>-2.382850794065734</v>
       </c>
       <c r="P7" s="7">
-        <v>-2.3783638681967569</v>
+        <v>-2.3783638681967552</v>
       </c>
       <c r="Q7" s="7">
-        <v>-7.7447580009459296</v>
+        <v>-7.7447580009459234</v>
       </c>
       <c r="R7" s="7">
-        <v>3.1147935964019835</v>
+        <v>3.1147935964019813</v>
       </c>
       <c r="S7" s="7">
-        <v>4.8164216277014402</v>
+        <v>4.8164216277014527</v>
       </c>
       <c r="T7" s="7">
-        <v>11.105000481212111</v>
+        <v>11.1050004812121</v>
       </c>
       <c r="U7" s="7">
-        <v>17.462012788197264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>17.46201278819726</v>
+      </c>
+      <c r="V7" s="7">
+        <v>5.9232816252352922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>9.5387520479853301</v>
+        <v>9.5387520479853318</v>
       </c>
       <c r="C8" s="7">
-        <v>8.2672511003601272</v>
+        <v>8.2672511003601308</v>
       </c>
       <c r="D8" s="7">
-        <v>10.524447195695917</v>
+        <v>10.524447195695906</v>
       </c>
       <c r="E8" s="7">
-        <v>9.8616978387000493</v>
+        <v>9.8616978387000565</v>
       </c>
       <c r="F8" s="7">
-        <v>4.1770183711065121</v>
+        <v>4.177018371106497</v>
       </c>
       <c r="G8" s="7">
-        <v>-2.1628659023140457</v>
+        <v>-2.1628659023140737</v>
       </c>
       <c r="H8" s="7">
-        <v>3.107651758504252</v>
+        <v>3.1076517585042525</v>
       </c>
       <c r="I8" s="7">
-        <v>5.8228958915038014</v>
+        <v>5.8228958915038076</v>
       </c>
       <c r="J8" s="7">
-        <v>7.9428297953455891</v>
+        <v>7.9428297953455962</v>
       </c>
       <c r="K8" s="7">
-        <v>15.266140109890085</v>
+        <v>15.266140109890113</v>
       </c>
       <c r="L8" s="7">
-        <v>12.698209820822306</v>
+        <v>12.698209820822319</v>
       </c>
       <c r="M8" s="7">
-        <v>5.4783677223348848</v>
+        <v>5.4783677223348795</v>
       </c>
       <c r="N8" s="7">
-        <v>5.0213040962479116</v>
+        <v>5.0213040962479027</v>
       </c>
       <c r="O8" s="7">
-        <v>3.6376636725208846</v>
+        <v>3.6376636725208704</v>
       </c>
       <c r="P8" s="7">
-        <v>-0.24099972355913621</v>
+        <v>-0.240999723559156</v>
       </c>
       <c r="Q8" s="7">
-        <v>4.5191400554618602</v>
+        <v>4.5191400554618522</v>
       </c>
       <c r="R8" s="7">
-        <v>-2.6682408500590173</v>
+        <v>-2.6682408500590067</v>
       </c>
       <c r="S8" s="7">
-        <v>-0.9579865752518969</v>
+        <v>-0.95798657525188058</v>
       </c>
       <c r="T8" s="7">
-        <v>-1.0473287432765748</v>
+        <v>-1.0473287432765657</v>
       </c>
       <c r="U8" s="7">
-        <v>-3.1325433024022491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-3.1325433024022304</v>
+      </c>
+      <c r="V8" s="7">
+        <v>2.64287709702556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>-1.9980716174547164</v>
+        <v>-1.9980716174547248</v>
       </c>
       <c r="C9" s="7">
-        <v>-1.5351897388183593</v>
+        <v>-1.5351897388183713</v>
       </c>
       <c r="D9" s="7">
-        <v>-0.44639901640895102</v>
+        <v>-0.4463990164089241</v>
       </c>
       <c r="E9" s="7">
-        <v>0.63939459378257379</v>
+        <v>0.63939459378256047</v>
       </c>
       <c r="F9" s="7">
-        <v>1.665725028736172</v>
+        <v>1.6657250287361809</v>
       </c>
       <c r="G9" s="7">
-        <v>-6.3281008947855639</v>
+        <v>-6.3281008947855657</v>
       </c>
       <c r="H9" s="7">
-        <v>1.1096016644024873</v>
+        <v>1.1096016644024835</v>
       </c>
       <c r="I9" s="7">
-        <v>0.9833190282494324</v>
+        <v>0.98331902824943129</v>
       </c>
       <c r="J9" s="7">
-        <v>4.9871608155756615</v>
+        <v>4.987160815575665</v>
       </c>
       <c r="K9" s="7">
-        <v>14.66716075307002</v>
+        <v>14.667160753070036</v>
       </c>
       <c r="L9" s="7">
-        <v>6.1081827662993033</v>
+        <v>6.1081827662992962</v>
       </c>
       <c r="M9" s="7">
-        <v>9.7596127196467091</v>
+        <v>9.7596127196467126</v>
       </c>
       <c r="N9" s="7">
-        <v>7.1641736559188995</v>
+        <v>7.1641736559188809</v>
       </c>
       <c r="O9" s="7">
         <v>2.9659419379162979</v>
       </c>
       <c r="P9" s="7">
-        <v>2.1729890553607465</v>
+        <v>2.1729890553607443</v>
       </c>
       <c r="Q9" s="7">
-        <v>-2.4662054105011522</v>
+        <v>-2.4662054105011468</v>
       </c>
       <c r="R9" s="7">
-        <v>-1.147134718070578</v>
+        <v>-1.1471347180705638</v>
       </c>
       <c r="S9" s="7">
-        <v>3.4899129919269147</v>
+        <v>3.489912991926905</v>
       </c>
       <c r="T9" s="7">
-        <v>4.2630821763472149</v>
+        <v>4.2630821763472087</v>
       </c>
       <c r="U9" s="7">
-        <v>4.4357761745313979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.4357761745313962</v>
+      </c>
+      <c r="V9" s="7">
+        <v>2.6698025431613792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>6.1427064352162768</v>
+        <v>6.1427064352162679</v>
       </c>
       <c r="C10" s="7">
-        <v>5.2990173139915875</v>
+        <v>5.2990173139915733</v>
       </c>
       <c r="D10" s="7">
-        <v>2.8213421024102976</v>
+        <v>2.8213421024102847</v>
       </c>
       <c r="E10" s="7">
-        <v>2.0628762541806025</v>
+        <v>2.0628762541806003</v>
       </c>
       <c r="F10" s="7">
-        <v>0.31895188615315112</v>
+        <v>0.31895188615315306</v>
       </c>
       <c r="G10" s="7">
-        <v>-8.5368671786120593</v>
+        <v>-8.5368671786120558</v>
       </c>
       <c r="H10" s="7">
-        <v>0.34793304924658297</v>
+        <v>0.34793304924658514</v>
       </c>
       <c r="I10" s="7">
-        <v>2.3593561579200267E-2</v>
+        <v>2.3593561579186004E-2</v>
       </c>
       <c r="J10" s="7">
-        <v>7.7890261915913026</v>
+        <v>7.7890261915913213</v>
       </c>
       <c r="K10" s="7">
-        <v>18.16591679866286</v>
+        <v>18.165916798662877</v>
       </c>
       <c r="L10" s="7">
-        <v>4.9697489733913587</v>
+        <v>4.9697489733913462</v>
       </c>
       <c r="M10" s="7">
-        <v>8.7406630847857407</v>
+        <v>8.7406630847857372</v>
       </c>
       <c r="N10" s="7">
-        <v>1.3628463518165772</v>
+        <v>1.3628463518165579</v>
       </c>
       <c r="O10" s="7">
-        <v>-2.1332061413968617</v>
+        <v>-2.1332061413968613</v>
       </c>
       <c r="P10" s="7">
-        <v>-1.6765787783496229</v>
+        <v>-1.676578778349606</v>
       </c>
       <c r="Q10" s="7">
-        <v>-6.3999357274845332</v>
+        <v>-6.3999357274845208</v>
       </c>
       <c r="R10" s="7">
-        <v>-5.1077019463015327</v>
+        <v>-5.1077019463015247</v>
       </c>
       <c r="S10" s="7">
-        <v>-1.7402337677615491</v>
+        <v>-1.7402337677615598</v>
       </c>
       <c r="T10" s="7">
-        <v>0.90093911450070729</v>
+        <v>0.90093911450071285</v>
       </c>
       <c r="U10" s="7">
-        <v>4.1981391196868669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.1981391196868794</v>
+      </c>
+      <c r="V10" s="7">
+        <v>3.5435362389345868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>3.8512551916430229</v>
+        <v>3.8512551916430366</v>
       </c>
       <c r="C11" s="7">
-        <v>3.4948989266886525</v>
+        <v>3.4948989266886561</v>
       </c>
       <c r="D11" s="7">
-        <v>6.2881378346211134</v>
+        <v>6.2881378346211187</v>
       </c>
       <c r="E11" s="7">
-        <v>4.4682080394728283</v>
+        <v>4.4682080394728523</v>
       </c>
       <c r="F11" s="7">
-        <v>5.5151068808322954</v>
+        <v>5.5151068808322963</v>
       </c>
       <c r="G11" s="7">
-        <v>0.49288161679829268</v>
+        <v>0.49288161679828163</v>
       </c>
       <c r="H11" s="7">
-        <v>5.8681336260142585</v>
+        <v>5.8681336260142656</v>
       </c>
       <c r="I11" s="7">
-        <v>4.9960933727800247</v>
+        <v>4.9960933727800274</v>
       </c>
       <c r="J11" s="7">
-        <v>4.5058974245703958</v>
+        <v>4.5058974245703896</v>
       </c>
       <c r="K11" s="7">
-        <v>8.6496736316230951</v>
+        <v>8.6496736316231058</v>
       </c>
       <c r="L11" s="7">
-        <v>-1.42538152880144</v>
+        <v>-1.4253815288014586</v>
       </c>
       <c r="M11" s="7">
-        <v>0.74080267558528889</v>
+        <v>0.74080267558528023</v>
       </c>
       <c r="N11" s="7">
-        <v>-0.37959166420085971</v>
+        <v>-0.37959166420087787</v>
       </c>
       <c r="O11" s="7">
-        <v>-3.628964591374392</v>
+        <v>-3.6289645913744013</v>
       </c>
       <c r="P11" s="7">
-        <v>-5.1946724801584562E-2</v>
+        <v>-5.1946724801583952E-2</v>
       </c>
       <c r="Q11" s="7">
-        <v>-3.0219278588383855</v>
+        <v>-3.0219278588383767</v>
       </c>
       <c r="R11" s="7">
-        <v>-6.0108965002206585</v>
+        <v>-6.0108965002206443</v>
       </c>
       <c r="S11" s="7">
-        <v>-2.2376039353968178</v>
+        <v>-2.2376039353968116</v>
       </c>
       <c r="T11" s="7">
-        <v>-1.976705547555961</v>
+        <v>-1.9767055475559592</v>
       </c>
       <c r="U11" s="7">
-        <v>-9.8420985065671457E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-9.8420985065680464E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <v>4.3836284344442253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>3.8253105081382603</v>
+        <v>3.8253105081382497</v>
       </c>
       <c r="C12" s="7">
         <v>3.1588480679156996</v>
       </c>
       <c r="D12" s="7">
-        <v>-0.66677808956640661</v>
+        <v>-0.66677808956639928</v>
       </c>
       <c r="E12" s="7">
-        <v>3.1691104421747704</v>
+        <v>3.1691104421747589</v>
       </c>
       <c r="F12" s="7">
-        <v>-0.67881869320640309</v>
+        <v>-0.67881869320639177</v>
       </c>
       <c r="G12" s="7">
-        <v>-11.548796169024083</v>
+        <v>-11.548796169024076</v>
       </c>
       <c r="H12" s="7">
-        <v>-3.9699618323990791</v>
+        <v>-3.9699618323990808</v>
       </c>
       <c r="I12" s="7">
-        <v>-7.1771440305978347</v>
+        <v>-7.1771440305978436</v>
       </c>
       <c r="J12" s="7">
-        <v>2.08395734059452</v>
+        <v>2.0839573405945164</v>
       </c>
       <c r="K12" s="7">
-        <v>12.911311182851744</v>
+        <v>12.911311182851767</v>
       </c>
       <c r="L12" s="7">
-        <v>3.3981925488749454</v>
+        <v>3.3981925488749658</v>
       </c>
       <c r="M12" s="7">
-        <v>5.8230321801572469</v>
+        <v>5.8230321801572718</v>
       </c>
       <c r="N12" s="7">
-        <v>4.2188653075014768</v>
+        <v>4.218865307501483</v>
       </c>
       <c r="O12" s="7">
-        <v>3.2880483040312516</v>
+        <v>3.2880483040312414</v>
       </c>
       <c r="P12" s="7">
-        <v>6.6390189520624423</v>
+        <v>6.6390189520624263</v>
       </c>
       <c r="Q12" s="7">
-        <v>6.6846689895470615</v>
+        <v>6.6846689895470401</v>
       </c>
       <c r="R12" s="7">
-        <v>1.8350737100737022</v>
+        <v>1.8350737100737269</v>
       </c>
       <c r="S12" s="7">
-        <v>3.4283847562391174</v>
+        <v>3.4283847562391041</v>
       </c>
       <c r="T12" s="7">
-        <v>2.3317080514180089</v>
+        <v>2.331708051418004</v>
       </c>
       <c r="U12" s="7">
-        <v>2.0788085634501816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.078808563450206</v>
+      </c>
+      <c r="V12" s="7">
+        <v>3.3493344056564838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>17.805280860405624</v>
+        <v>17.805280860405617</v>
       </c>
       <c r="C13" s="7">
-        <v>14.622504782701112</v>
+        <v>14.622504782701132</v>
       </c>
       <c r="D13" s="7">
-        <v>17.364548120202475</v>
+        <v>17.364548120202461</v>
       </c>
       <c r="E13" s="7">
-        <v>9.4038031122781547</v>
+        <v>9.4038031122781636</v>
       </c>
       <c r="F13" s="7">
-        <v>7.3626082422232519</v>
+        <v>7.3626082422232368</v>
       </c>
       <c r="G13" s="7">
-        <v>-3.082642120169941</v>
+        <v>-3.0826421201699623</v>
       </c>
       <c r="H13" s="7">
-        <v>0.96514190689124457</v>
+        <v>0.96514190689125079</v>
       </c>
       <c r="I13" s="7">
-        <v>4.6408608386088517</v>
+        <v>4.6408608386088641</v>
       </c>
       <c r="J13" s="7">
-        <v>-1.9650307334628707</v>
+        <v>-1.9650307334628478</v>
       </c>
       <c r="K13" s="7">
-        <v>5.8143074581430767</v>
+        <v>5.8143074581430705</v>
       </c>
       <c r="L13" s="7">
-        <v>-4.6684634419278987</v>
+        <v>-4.6684634419279076</v>
       </c>
       <c r="M13" s="7">
-        <v>-1.5394088669924796E-2</v>
+        <v>-1.5394088669949828E-2</v>
       </c>
       <c r="N13" s="7">
-        <v>-2.3041062958872121</v>
+        <v>-2.3041062958872156</v>
       </c>
       <c r="O13" s="7">
-        <v>-4.365444681900386</v>
+        <v>-4.365444681900355</v>
       </c>
       <c r="P13" s="7">
-        <v>-1.2011242456807574</v>
+        <v>-1.2011242456807436</v>
       </c>
       <c r="Q13" s="7">
-        <v>-3.4349499615088614</v>
+        <v>-3.4349499615088557</v>
       </c>
       <c r="R13" s="7">
-        <v>-3.0135255339135933</v>
+        <v>-3.0135255339136</v>
       </c>
       <c r="S13" s="7">
-        <v>2.2518457399719831</v>
+        <v>2.2518457399719631</v>
       </c>
       <c r="T13" s="7">
-        <v>4.3742731159584149</v>
+        <v>4.3742731159584016</v>
       </c>
       <c r="U13" s="7">
-        <v>3.5579330027583453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.5579330027583436</v>
+      </c>
+      <c r="V13" s="7">
+        <v>10.57120326401866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -5382,138 +5569,145 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>3.667160166751076</v>
+        <v>3.6671601667510858</v>
       </c>
       <c r="C15" s="7">
-        <v>2.573982737361272</v>
+        <v>2.573982737361284</v>
       </c>
       <c r="D15" s="7">
-        <v>3.1589998091238938</v>
+        <v>3.1589998091238942</v>
       </c>
       <c r="E15" s="7">
-        <v>4.1676481950870281</v>
+        <v>4.1676481950870308</v>
       </c>
       <c r="F15" s="7">
-        <v>5.3742730168274822</v>
+        <v>5.3742730168274848</v>
       </c>
       <c r="G15" s="7">
-        <v>-3.149887302779852</v>
+        <v>-3.1498873027798622</v>
       </c>
       <c r="H15" s="7">
-        <v>4.7229160884447978</v>
+        <v>4.7229160884447996</v>
       </c>
       <c r="I15" s="7">
-        <v>2.2966983265490617</v>
+        <v>2.296698326549083</v>
       </c>
       <c r="J15" s="7">
-        <v>2.445766051732893</v>
+        <v>2.4457660517329045</v>
       </c>
       <c r="K15" s="7">
-        <v>11.562554544925607</v>
+        <v>11.562554544925627</v>
       </c>
       <c r="L15" s="7">
-        <v>1.8499050311409544</v>
+        <v>1.8499050311409519</v>
       </c>
       <c r="M15" s="7">
-        <v>7.5365420155806504</v>
+        <v>7.5365420155806406</v>
       </c>
       <c r="N15" s="7">
-        <v>6.2743698649213462</v>
+        <v>6.2743698649212982</v>
       </c>
       <c r="O15" s="7">
-        <v>6.4319860930030535</v>
+        <v>6.4319860930030357</v>
       </c>
       <c r="P15" s="7">
-        <v>9.3122500845700973</v>
+        <v>9.3122500845700866</v>
       </c>
       <c r="Q15" s="7">
-        <v>3.38864585731671</v>
+        <v>3.3886458573167175</v>
       </c>
       <c r="R15" s="7">
-        <v>1.519184308586857</v>
+        <v>1.5191843085868766</v>
       </c>
       <c r="S15" s="7">
-        <v>3.0730910575745085</v>
+        <v>3.0730910575745161</v>
       </c>
       <c r="T15" s="7">
-        <v>2.7740527673080466</v>
+        <v>2.7740527673080573</v>
       </c>
       <c r="U15" s="7">
-        <v>5.7280109438254163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.728010943825403</v>
+      </c>
+      <c r="V15" s="7">
+        <v>5.7679896740884322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>-1.8569223876138814</v>
+        <v>-1.8569223876138989</v>
       </c>
       <c r="C16" s="7">
-        <v>1.8225693136346337</v>
+        <v>1.8225693136346708</v>
       </c>
       <c r="D16" s="7">
-        <v>2.5368282027837084</v>
+        <v>2.5368282027837004</v>
       </c>
       <c r="E16" s="7">
-        <v>1.1665795084275137</v>
+        <v>1.1665795084275117</v>
       </c>
       <c r="F16" s="7">
-        <v>2.0756822562645882</v>
+        <v>2.0756822562645967</v>
       </c>
       <c r="G16" s="7">
-        <v>-11.79164625061247</v>
+        <v>-11.791646250612482</v>
       </c>
       <c r="H16" s="7">
-        <v>-1.5486440694759647</v>
+        <v>-1.5486440694759549</v>
       </c>
       <c r="I16" s="7">
-        <v>1.1561095868622973</v>
+        <v>1.156109586862301</v>
       </c>
       <c r="J16" s="7">
-        <v>1.2920410272725485E-2</v>
+        <v>1.2920410272716639E-2</v>
       </c>
       <c r="K16" s="7">
-        <v>14.646699391232376</v>
+        <v>14.646699391232374</v>
       </c>
       <c r="L16" s="7">
-        <v>2.8471076043637473</v>
+        <v>2.8471076043637438</v>
       </c>
       <c r="M16" s="7">
-        <v>6.3502982537171304</v>
+        <v>6.3502982537171313</v>
       </c>
       <c r="N16" s="7">
-        <v>7.1390950918721261</v>
+        <v>7.1390950918721323</v>
       </c>
       <c r="O16" s="7">
-        <v>4.9124403002046835</v>
+        <v>4.9124403002046853</v>
       </c>
       <c r="P16" s="7">
-        <v>4.6656816024580969</v>
+        <v>4.6656816024580854</v>
       </c>
       <c r="Q16" s="7">
-        <v>0.44630894188741255</v>
+        <v>0.44630894188741088</v>
       </c>
       <c r="R16" s="7">
-        <v>-2.2613228460389796</v>
+        <v>-2.2613228460389858</v>
       </c>
       <c r="S16" s="7">
-        <v>0.92555066494499838</v>
+        <v>0.92555066494501093</v>
       </c>
       <c r="T16" s="7">
-        <v>2.8318732996138678</v>
+        <v>2.8318732996138776</v>
       </c>
       <c r="U16" s="7">
-        <v>3.2721886959081643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2721886959081576</v>
+      </c>
+      <c r="V16" s="7">
+        <v>5.4073546856464922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -5521,25 +5715,25 @@
         <v>-13.429270509956382</v>
       </c>
       <c r="C17" s="7">
-        <v>-16.971787558775915</v>
+        <v>-16.971787558775929</v>
       </c>
       <c r="D17" s="7">
-        <v>-8.2273200177175028</v>
+        <v>-8.2273200177175259</v>
       </c>
       <c r="E17" s="7">
-        <v>-7.2245886578134098</v>
+        <v>-7.2245886578134249</v>
       </c>
       <c r="F17" s="7">
         <v>3.468692397922136</v>
       </c>
       <c r="G17" s="7">
-        <v>-9.0112568179180634</v>
+        <v>-9.0112568179180688</v>
       </c>
       <c r="H17" s="7">
-        <v>-4.2080096978404438</v>
+        <v>-4.2080096978404349</v>
       </c>
       <c r="I17" s="7">
-        <v>-4.6903132877205769</v>
+        <v>-4.6903132877205511</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5550,2489 +5744,2606 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>0.27023061309335406</v>
+        <v>0.27023061309334895</v>
       </c>
       <c r="S17" s="7">
-        <v>4.0043209416672934</v>
+        <v>4.0043209416673013</v>
       </c>
       <c r="T17" s="7">
-        <v>2.5645003460703153</v>
+        <v>2.5645003460703069</v>
       </c>
       <c r="U17" s="7">
-        <v>3.8134446862318399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.8134446862318536</v>
+      </c>
+      <c r="V17" s="7">
+        <v>5.9753911442264318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>-9.5114969064535149E-2</v>
+        <v>-9.5114969064558991E-2</v>
       </c>
       <c r="C18" s="7">
-        <v>0.11088288222784311</v>
+        <v>0.11088288222783012</v>
       </c>
       <c r="D18" s="7">
-        <v>4.9983338887037609</v>
+        <v>4.9983338887037636</v>
       </c>
       <c r="E18" s="7">
-        <v>-1.2636366003315516</v>
+        <v>-1.2636366003315305</v>
       </c>
       <c r="F18" s="7">
-        <v>8.6627783375081897</v>
+        <v>8.6627783375081933</v>
       </c>
       <c r="G18" s="7">
-        <v>-4.4612702908813713</v>
+        <v>-4.4612702908813642</v>
       </c>
       <c r="H18" s="7">
-        <v>-1.7849331400584978</v>
+        <v>-1.7849331400584951</v>
       </c>
       <c r="I18" s="7">
-        <v>2.6650962054022833</v>
+        <v>2.665096205402286</v>
       </c>
       <c r="J18" s="7">
-        <v>-6.5396949616788183</v>
+        <v>-6.5396949616787996</v>
       </c>
       <c r="K18" s="7">
-        <v>5.1969895661098331</v>
+        <v>5.196989566109826</v>
       </c>
       <c r="L18" s="7">
-        <v>-4.6547779155677356</v>
+        <v>-4.6547779155677373</v>
       </c>
       <c r="M18" s="7">
-        <v>1.6498428924905078</v>
+        <v>1.6498428924905166</v>
       </c>
       <c r="N18" s="7">
-        <v>4.0929817695297261</v>
+        <v>4.0929817695297039</v>
       </c>
       <c r="O18" s="7">
-        <v>8.1867700062328836</v>
+        <v>8.1867700062328872</v>
       </c>
       <c r="P18" s="7">
-        <v>12.987286583131819</v>
+        <v>12.987286583131823</v>
       </c>
       <c r="Q18" s="7">
-        <v>3.6647406633761852</v>
+        <v>3.6647406633761674</v>
       </c>
       <c r="R18" s="7">
-        <v>7.4636261891438087</v>
+        <v>7.4636261891438229</v>
       </c>
       <c r="S18" s="7">
-        <v>3.7281031344455018</v>
+        <v>3.7281031344454969</v>
       </c>
       <c r="T18" s="7">
-        <v>2.9573183089457307</v>
+        <v>2.9573183089457218</v>
       </c>
       <c r="U18" s="7">
-        <v>5.5591215255490551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.5591215255490622</v>
+      </c>
+      <c r="V18" s="7">
+        <v>7.6620777191954703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>-1.6549357490106442</v>
+        <v>-1.654935749010644</v>
       </c>
       <c r="C19" s="7">
-        <v>-0.86268938508847481</v>
+        <v>-0.86268938508846049</v>
       </c>
       <c r="D19" s="7">
         <v>-0.88522215219048295</v>
       </c>
       <c r="E19" s="7">
-        <v>-4.5486646718828458</v>
+        <v>-4.5486646718828592</v>
       </c>
       <c r="F19" s="7">
-        <v>-6.2105450759316696</v>
+        <v>-6.2105450759316714</v>
       </c>
       <c r="G19" s="7">
-        <v>-14.606667420899786</v>
+        <v>-14.606667420899795</v>
       </c>
       <c r="H19" s="7">
-        <v>-3.9521640091116255</v>
+        <v>-3.9521640091116192</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.31542363146058483</v>
+        <v>-0.31542363146057684</v>
       </c>
       <c r="J19" s="7">
-        <v>4.4265311837420418</v>
+        <v>4.4265311837420525</v>
       </c>
       <c r="K19" s="7">
-        <v>17.136075075903939</v>
+        <v>17.136075075903946</v>
       </c>
       <c r="L19" s="7">
-        <v>4.5525514842483883</v>
+        <v>4.5525514842483954</v>
       </c>
       <c r="M19" s="7">
-        <v>6.6438790956589608</v>
+        <v>6.6438790956589653</v>
       </c>
       <c r="N19" s="7">
-        <v>5.7281590591300029</v>
+        <v>5.7281590591299851</v>
       </c>
       <c r="O19" s="7">
-        <v>7.9173578645760204E-2</v>
+        <v>7.9173578645760564E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>0.53968223963405015</v>
+        <v>0.53968223963403572</v>
       </c>
       <c r="Q19" s="7">
-        <v>-1.3965457242806547</v>
+        <v>-1.3965457242806583</v>
       </c>
       <c r="R19" s="7">
-        <v>-4.9141718374926437</v>
+        <v>-4.9141718374926313</v>
       </c>
       <c r="S19" s="7">
-        <v>0.44264456583160117</v>
+        <v>0.44264456583160267</v>
       </c>
       <c r="T19" s="7">
-        <v>2.5372741459379053</v>
+        <v>2.5372741459379213</v>
       </c>
       <c r="U19" s="7">
-        <v>3.9257752639937626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.92577526399374</v>
+      </c>
+      <c r="V19" s="7">
+        <v>5.9645613032294902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>-1.1216129862945952</v>
+        <v>-1.1216129862945723</v>
       </c>
       <c r="C20" s="7">
-        <v>0.24588978352057081</v>
+        <v>0.24588978352055035</v>
       </c>
       <c r="D20" s="7">
-        <v>0.3754934988465054</v>
+        <v>0.37549349884649458</v>
       </c>
       <c r="E20" s="7">
-        <v>0.12717620648790001</v>
+        <v>0.12717620648790084</v>
       </c>
       <c r="F20" s="7">
-        <v>-0.58935306203158233</v>
+        <v>-0.58935306203158588</v>
       </c>
       <c r="G20" s="7">
-        <v>-18.251250480954212</v>
+        <v>-18.251250480954205</v>
       </c>
       <c r="H20" s="7">
-        <v>-1.8781374415786916</v>
+        <v>-1.8781374415786745</v>
       </c>
       <c r="I20" s="7">
-        <v>-5.6771710368043328E-2</v>
+        <v>-5.6771710368062833E-2</v>
       </c>
       <c r="J20" s="7">
-        <v>4.7680037259125712</v>
+        <v>4.7680037259125534</v>
       </c>
       <c r="K20" s="7">
-        <v>25.920739886569546</v>
+        <v>25.92073988656956</v>
       </c>
       <c r="L20" s="7">
-        <v>5.6952162535650199</v>
+        <v>5.6952162535650181</v>
       </c>
       <c r="M20" s="7">
-        <v>8.967323281920935</v>
+        <v>8.9673232819209492</v>
       </c>
       <c r="N20" s="7">
-        <v>8.1832999925909462</v>
+        <v>8.1832999925909533</v>
       </c>
       <c r="O20" s="7">
-        <v>8.96136055693127</v>
+        <v>8.9613605569312629</v>
       </c>
       <c r="P20" s="7">
-        <v>7.3773227995994288</v>
+        <v>7.3773227995994164</v>
       </c>
       <c r="Q20" s="7">
-        <v>1.811274076691999</v>
+        <v>1.8112740766919957</v>
       </c>
       <c r="R20" s="7">
-        <v>-3.7864260521179416</v>
+        <v>-3.7864260521179425</v>
       </c>
       <c r="S20" s="7">
-        <v>-2.0659491445478402</v>
+        <v>-2.0659491445478313</v>
       </c>
       <c r="T20" s="7">
-        <v>0.65112262521588893</v>
+        <v>0.6511226252158977</v>
       </c>
       <c r="U20" s="7">
-        <v>3.0070294194220177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.0070294194220133</v>
+      </c>
+      <c r="V20" s="7">
+        <v>4.4292590911922094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>-2.2827751610945697</v>
+        <v>-2.2827751610945919</v>
       </c>
       <c r="C21" s="7">
-        <v>-4.9844442973456076</v>
+        <v>-4.9844442973456164</v>
       </c>
       <c r="D21" s="7">
-        <v>-2.0817619550460007</v>
+        <v>-2.0817619550460122</v>
       </c>
       <c r="E21" s="7">
-        <v>-3.9503779072503575</v>
+        <v>-3.9503779072503411</v>
       </c>
       <c r="F21" s="7">
-        <v>5.1394269154567302</v>
+        <v>5.1394269154567285</v>
       </c>
       <c r="G21" s="7">
-        <v>-4.2546627122355121</v>
+        <v>-4.2546627122354979</v>
       </c>
       <c r="H21" s="7">
-        <v>2.6787089816669392</v>
+        <v>2.6787089816669498</v>
       </c>
       <c r="I21" s="7">
-        <v>5.2887913294004578</v>
+        <v>5.2887913294004409</v>
       </c>
       <c r="J21" s="7">
-        <v>4.458819669057335</v>
+        <v>4.4588196690573456</v>
       </c>
       <c r="K21" s="7">
-        <v>11.6503643337526</v>
+        <v>11.650364333752579</v>
       </c>
       <c r="L21" s="7">
-        <v>-1.4572666404096237</v>
+        <v>-1.4572666404096248</v>
       </c>
       <c r="M21" s="7">
-        <v>0.76319536870714022</v>
+        <v>0.76319536870713867</v>
       </c>
       <c r="N21" s="7">
-        <v>-0.23065669846797998</v>
+        <v>-0.23065669846799053</v>
       </c>
       <c r="O21" s="7">
-        <v>-0.66008136969212272</v>
+        <v>-0.66008136969211872</v>
       </c>
       <c r="P21" s="7">
-        <v>2.4742111073046296</v>
+        <v>2.4742111073046313</v>
       </c>
       <c r="Q21" s="7">
-        <v>4.3412800310355978E-2</v>
+        <v>4.3412800310350073E-2</v>
       </c>
       <c r="R21" s="7">
-        <v>-4.3710193947680747</v>
+        <v>-4.3710193947680782</v>
       </c>
       <c r="S21" s="7">
-        <v>0.34769732526099484</v>
+        <v>0.34769732526101055</v>
       </c>
       <c r="T21" s="7">
-        <v>1.4217525351955782</v>
+        <v>1.4217525351955798</v>
       </c>
       <c r="U21" s="7">
-        <v>3.6284738251315583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.6284738251315676</v>
+      </c>
+      <c r="V21" s="7">
+        <v>4.3290531959926488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>1.4433203925680296</v>
+        <v>1.4433203925680196</v>
       </c>
       <c r="C22" s="7">
-        <v>-0.24318027826506269</v>
+        <v>-0.24318027826507599</v>
       </c>
       <c r="D22" s="7">
-        <v>-3.8171298631041353</v>
+        <v>-3.8171298631041499</v>
       </c>
       <c r="E22" s="7">
-        <v>-4.3976331797915726</v>
+        <v>-4.3976331797915655</v>
       </c>
       <c r="F22" s="7">
-        <v>-4.6091531263094208</v>
+        <v>-4.6091531263094199</v>
       </c>
       <c r="G22" s="7">
-        <v>-18.244833778389815</v>
+        <v>-18.244833778389808</v>
       </c>
       <c r="H22" s="7">
-        <v>-6.6102308909607546</v>
+        <v>-6.6102308909607475</v>
       </c>
       <c r="I22" s="7">
-        <v>-1.6588295499531662</v>
+        <v>-1.6588295499531609</v>
       </c>
       <c r="J22" s="7">
-        <v>-2.7195080286983107</v>
+        <v>-2.7195080286983155</v>
       </c>
       <c r="K22" s="7">
-        <v>17.484180816679576</v>
+        <v>17.484180816679569</v>
       </c>
       <c r="L22" s="7">
-        <v>8.1846392552366307</v>
+        <v>8.1846392552366254</v>
       </c>
       <c r="M22" s="7">
-        <v>9.3010240650374794</v>
+        <v>9.3010240650374421</v>
       </c>
       <c r="N22" s="7">
-        <v>10.849998494867494</v>
+        <v>10.849998494867478</v>
       </c>
       <c r="O22" s="7">
-        <v>3.4098284430064663</v>
+        <v>3.4098284430064698</v>
       </c>
       <c r="P22" s="7">
-        <v>2.1097922288690558</v>
+        <v>2.109792228869058</v>
       </c>
       <c r="Q22" s="7">
-        <v>-1.2890533766910557</v>
+        <v>-1.2890533766910377</v>
       </c>
       <c r="R22" s="7">
-        <v>-4.0354116880295541</v>
+        <v>-4.0354116880295337</v>
       </c>
       <c r="S22" s="7">
-        <v>0.60702007475339026</v>
+        <v>0.60702007475339925</v>
       </c>
       <c r="T22" s="7">
-        <v>1.2659631484595859</v>
+        <v>1.2659631484595888</v>
       </c>
       <c r="U22" s="7">
-        <v>1.2776761582352745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.2776761582352822</v>
+      </c>
+      <c r="V22" s="7">
+        <v>4.2107646159941048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>5.9873694437697251</v>
+        <v>5.9873694437697278</v>
       </c>
       <c r="C23" s="7">
-        <v>7.4939468518647434</v>
+        <v>7.4939468518647665</v>
       </c>
       <c r="D23" s="7">
-        <v>7.7927136180241954</v>
+        <v>7.7927136180242105</v>
       </c>
       <c r="E23" s="7">
-        <v>5.3262603623266402</v>
+        <v>5.3262603623266305</v>
       </c>
       <c r="F23" s="7">
-        <v>1.7178488216645547</v>
+        <v>1.717848821664556</v>
       </c>
       <c r="G23" s="7">
-        <v>-19.630707624997687</v>
+        <v>-19.630707624997694</v>
       </c>
       <c r="H23" s="7">
         <v>-4.2238384212720606</v>
       </c>
       <c r="I23" s="7">
-        <v>-5.0104539330019033</v>
+        <v>-5.0104539330019051</v>
       </c>
       <c r="J23" s="7">
-        <v>-5.1744693634238494</v>
+        <v>-5.1744693634238557</v>
       </c>
       <c r="K23" s="7">
-        <v>15.662483853109446</v>
+        <v>15.662483853109457</v>
       </c>
       <c r="L23" s="7">
-        <v>-1.9675746788422999</v>
+        <v>-1.9675746788423087</v>
       </c>
       <c r="M23" s="7">
-        <v>1.5162928108155715</v>
+        <v>1.5162928108155653</v>
       </c>
       <c r="N23" s="7">
-        <v>5.5726604033224048</v>
+        <v>5.5726604033224127</v>
       </c>
       <c r="O23" s="7">
-        <v>5.7995293366838103</v>
+        <v>5.7995293366837979</v>
       </c>
       <c r="P23" s="7">
-        <v>4.6574963983343656</v>
+        <v>4.657496398334362</v>
       </c>
       <c r="Q23" s="7">
-        <v>1.7837009626781455</v>
+        <v>1.7837009626781679</v>
       </c>
       <c r="R23" s="7">
-        <v>-0.45480120030006532</v>
+        <v>-0.45480120030007104</v>
       </c>
       <c r="S23" s="7">
-        <v>2.082940622054664</v>
+        <v>2.0829406220546605</v>
       </c>
       <c r="T23" s="7">
-        <v>4.5529973034640143</v>
+        <v>4.5529973034640214</v>
       </c>
       <c r="U23" s="7">
-        <v>6.7503597667196935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.7503597667196944</v>
+      </c>
+      <c r="V23" s="7">
+        <v>5.8791389948659951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>3.2296031260298763</v>
+        <v>3.2296031260298474</v>
       </c>
       <c r="C24" s="7">
-        <v>3.1158501111100403</v>
+        <v>3.1158501111100305</v>
       </c>
       <c r="D24" s="7">
-        <v>2.7998036550369969</v>
+        <v>2.799803655036996</v>
       </c>
       <c r="E24" s="7">
-        <v>-3.1583030123931022</v>
+        <v>-3.1583030123931066</v>
       </c>
       <c r="F24" s="7">
-        <v>-14.190723765220969</v>
+        <v>-14.190723765220968</v>
       </c>
       <c r="G24" s="7">
         <v>-22.593832664311204</v>
       </c>
       <c r="H24" s="7">
-        <v>-20.629556849277325</v>
+        <v>-20.629556849277328</v>
       </c>
       <c r="I24" s="7">
-        <v>-18.586577155608115</v>
+        <v>-18.586577155608119</v>
       </c>
       <c r="J24" s="7">
-        <v>-9.1223146996609152</v>
+        <v>-9.1223146996609064</v>
       </c>
       <c r="K24" s="7">
-        <v>6.2325247938821802</v>
+        <v>6.2325247938821926</v>
       </c>
       <c r="L24" s="7">
-        <v>2.4954879911148065</v>
+        <v>2.495487991114806</v>
       </c>
       <c r="M24" s="7">
-        <v>5.7616398243045364</v>
+        <v>5.7616398243045426</v>
       </c>
       <c r="N24" s="7">
-        <v>4.2025849464880896</v>
+        <v>4.2025849464880967</v>
       </c>
       <c r="O24" s="7">
-        <v>-5.424830720086387</v>
+        <v>-5.424830720086403</v>
       </c>
       <c r="P24" s="7">
-        <v>-6.6100030476448666</v>
+        <v>-6.6100030476448479</v>
       </c>
       <c r="Q24" s="7">
         <v>-8.3781868119697798</v>
       </c>
       <c r="R24" s="7">
-        <v>-5.4923221982758763</v>
+        <v>-5.4923221982758701</v>
       </c>
       <c r="S24" s="7">
-        <v>2.493964297182556</v>
+        <v>2.4939642971825515</v>
       </c>
       <c r="T24" s="7">
-        <v>8.3698949683938491</v>
+        <v>8.3698949683938402</v>
       </c>
       <c r="U24" s="7">
-        <v>10.434067860121596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>10.434067860121605</v>
+      </c>
+      <c r="V24" s="7">
+        <v>7.7379891917572268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>-0.85942653164163707</v>
+        <v>-0.85942653164163274</v>
       </c>
       <c r="C25" s="7">
-        <v>1.6691455957692944</v>
+        <v>1.6691455957693029</v>
       </c>
       <c r="D25" s="7">
-        <v>3.7110000485224983</v>
+        <v>3.7110000485224828</v>
       </c>
       <c r="E25" s="7">
-        <v>6.9459962756052072</v>
+        <v>6.9459962756052107</v>
       </c>
       <c r="F25" s="7">
-        <v>9.8135138837250384</v>
+        <v>9.8135138837250206</v>
       </c>
       <c r="G25" s="7">
-        <v>-2.6485886942553556</v>
+        <v>-2.6485886942553529</v>
       </c>
       <c r="H25" s="7">
-        <v>7.9386912949498702</v>
+        <v>7.9386912949499031</v>
       </c>
       <c r="I25" s="7">
-        <v>11.061521119532225</v>
+        <v>11.061521119532236</v>
       </c>
       <c r="J25" s="7">
-        <v>5.3173669767276053</v>
+        <v>5.3173669767276222</v>
       </c>
       <c r="K25" s="7">
-        <v>11.411004380537069</v>
+        <v>11.411004380537072</v>
       </c>
       <c r="L25" s="7">
-        <v>-1.3671079209036516</v>
+        <v>-1.3671079209036796</v>
       </c>
       <c r="M25" s="7">
-        <v>-5.8067284444700933</v>
+        <v>-5.8067284444701119</v>
       </c>
       <c r="N25" s="7">
-        <v>-0.78254542993469756</v>
+        <v>-0.78254542993469711</v>
       </c>
       <c r="O25" s="7">
-        <v>2.2330559277805349</v>
+        <v>2.2330559277805269</v>
       </c>
       <c r="P25" s="7">
-        <v>-1.3254113345520915</v>
+        <v>-1.3254113345520961</v>
       </c>
       <c r="Q25" s="7">
-        <v>1.1257117827420211</v>
+        <v>1.1257117827420042</v>
       </c>
       <c r="R25" s="7">
-        <v>-7.2220943220866438</v>
+        <v>-7.2220943220866545</v>
       </c>
       <c r="S25" s="7">
-        <v>-4.6833096192816885</v>
+        <v>-4.6833096192816912</v>
       </c>
       <c r="T25" s="7">
-        <v>0.35450885381407965</v>
+        <v>0.35450885381409108</v>
       </c>
       <c r="U25" s="7">
-        <v>-0.22436869233769835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-0.22436869233769544</v>
+      </c>
+      <c r="V25" s="7">
+        <v>4.8268066060711972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>-6.5510900455291745</v>
+        <v>-6.5510900455291727</v>
       </c>
       <c r="C26" s="7">
-        <v>0.11971900662907169</v>
+        <v>0.11971900662908426</v>
       </c>
       <c r="D26" s="7">
-        <v>3.5768405722944907</v>
+        <v>3.5768405722944903</v>
       </c>
       <c r="E26" s="7">
-        <v>3.914762784132114</v>
+        <v>3.914762784132126</v>
       </c>
       <c r="F26" s="7">
-        <v>9.9630646841556825</v>
+        <v>9.963064684155686</v>
       </c>
       <c r="G26" s="7">
-        <v>0.70757280785840371</v>
+        <v>0.70757280785841303</v>
       </c>
       <c r="H26" s="7">
-        <v>5.205156705712465</v>
+        <v>5.2051567057124712</v>
       </c>
       <c r="I26" s="7">
-        <v>1.1248813710713008</v>
+        <v>1.1248813710712877</v>
       </c>
       <c r="J26" s="7">
-        <v>8.8220939913300676</v>
+        <v>8.8220939913300587</v>
       </c>
       <c r="K26" s="7">
-        <v>5.7807608898309253</v>
+        <v>5.78076088983092</v>
       </c>
       <c r="L26" s="7">
-        <v>-4.5918367346938798</v>
+        <v>-4.5918367346938789</v>
       </c>
       <c r="M26" s="7">
-        <v>-0.12605003358268299</v>
+        <v>-0.1260500335826798</v>
       </c>
       <c r="N26" s="7">
-        <v>-6.1415079406954041</v>
+        <v>-6.141507940695405</v>
       </c>
       <c r="O26" s="7">
-        <v>-3.8470101486113006</v>
+        <v>-3.847010148611298</v>
       </c>
       <c r="P26" s="7">
-        <v>-1.4263404476835011</v>
+        <v>-1.4263404476835055</v>
       </c>
       <c r="Q26" s="7">
-        <v>-3.8240442192537976</v>
+        <v>-3.8240442192538016</v>
       </c>
       <c r="R26" s="7">
-        <v>-3.061817227874907</v>
+        <v>-3.0618172278749052</v>
       </c>
       <c r="S26" s="7">
-        <v>1.1413300402311741</v>
+        <v>1.1413300402311668</v>
       </c>
       <c r="T26" s="7">
-        <v>2.372585167261982</v>
+        <v>2.3725851672619815</v>
       </c>
       <c r="U26" s="7">
-        <v>2.8927480148277231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.8927480148277351</v>
+      </c>
+      <c r="V26" s="7">
+        <v>2.6917054877931004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>-1.9672254946382848</v>
+        <v>-1.9672254946382663</v>
       </c>
       <c r="C27" s="7">
-        <v>-1.965664031435659</v>
+        <v>-1.9656640314356628</v>
       </c>
       <c r="D27" s="7">
-        <v>0.77277413618607649</v>
+        <v>0.77277413618607493</v>
       </c>
       <c r="E27" s="7">
-        <v>-0.74089376766549919</v>
+        <v>-0.7408937676654781</v>
       </c>
       <c r="F27" s="7">
-        <v>1.3788853368254792</v>
+        <v>1.3788853368254874</v>
       </c>
       <c r="G27" s="7">
-        <v>-7.9830890212246244</v>
+        <v>-7.9830890212246093</v>
       </c>
       <c r="H27" s="7">
-        <v>0.46930730242161722</v>
+        <v>0.46930730242164115</v>
       </c>
       <c r="I27" s="7">
-        <v>2.0803375463558749</v>
+        <v>2.0803375463558793</v>
       </c>
       <c r="J27" s="7">
-        <v>2.690817218190801</v>
+        <v>2.6908172181907912</v>
       </c>
       <c r="K27" s="7">
-        <v>15.220029247347505</v>
+        <v>15.220029247347489</v>
       </c>
       <c r="L27" s="7">
-        <v>1.4639387144992577</v>
+        <v>1.4639387144992302</v>
       </c>
       <c r="M27" s="7">
-        <v>2.4475686496204796</v>
+        <v>2.4475686496204894</v>
       </c>
       <c r="N27" s="7">
-        <v>1.8184004365640762</v>
+        <v>1.8184004365640785</v>
       </c>
       <c r="O27" s="7">
-        <v>-4.2549552631105145</v>
+        <v>-4.2549552631105101</v>
       </c>
       <c r="P27" s="7">
-        <v>-2.8929995304170091</v>
+        <v>-2.8929995304169958</v>
       </c>
       <c r="Q27" s="7">
-        <v>-1.6871110146186092</v>
+        <v>-1.6871110146186166</v>
       </c>
       <c r="R27" s="7">
-        <v>-9.5400743075679078</v>
+        <v>-9.5400743075679184</v>
       </c>
       <c r="S27" s="7">
-        <v>-4.7740370603664575</v>
+        <v>-4.774037060366461</v>
       </c>
       <c r="T27" s="7">
-        <v>-2.2045228274783062</v>
+        <v>-2.2045228274783182</v>
       </c>
       <c r="U27" s="7">
-        <v>-3.3355110002852331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-3.3355110002852335</v>
+      </c>
+      <c r="V27" s="7">
+        <v>3.9294644560709333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>-2.9148804696250141</v>
+        <v>-2.9148804696250008</v>
       </c>
       <c r="C28" s="7">
-        <v>-3.2720051175802265</v>
+        <v>-3.2720051175802269</v>
       </c>
       <c r="D28" s="7">
-        <v>-1.7116338676323686</v>
+        <v>-1.7116338676323597</v>
       </c>
       <c r="E28" s="7">
-        <v>-0.29471194125474842</v>
+        <v>-0.29471194125474115</v>
       </c>
       <c r="F28" s="7">
-        <v>-2.8432766799598133</v>
+        <v>-2.8432766799598053</v>
       </c>
       <c r="G28" s="7">
-        <v>-21.525022209061291</v>
+        <v>-21.525022209061294</v>
       </c>
       <c r="H28" s="7">
-        <v>-0.28546593176475288</v>
+        <v>-0.2854659317647486</v>
       </c>
       <c r="I28" s="7">
-        <v>1.4729724386096661</v>
+        <v>1.4729724386096736</v>
       </c>
       <c r="J28" s="7">
-        <v>4.2909492906422102</v>
+        <v>4.2909492906421933</v>
       </c>
       <c r="K28" s="7">
-        <v>34.664100725758765</v>
+        <v>34.664100725758786</v>
       </c>
       <c r="L28" s="7">
-        <v>4.7925189947399218</v>
+        <v>4.792518994739928</v>
       </c>
       <c r="M28" s="7">
-        <v>5.3747832355863912</v>
+        <v>5.3747832355863752</v>
       </c>
       <c r="N28" s="7">
-        <v>5.6249141197024146</v>
+        <v>5.6249141197024173</v>
       </c>
       <c r="O28" s="7">
-        <v>0.47542545440959327</v>
+        <v>0.47542545440958056</v>
       </c>
       <c r="P28" s="7">
-        <v>-7.3733067390125306E-2</v>
+        <v>-7.3733067390138282E-2</v>
       </c>
       <c r="Q28" s="7">
-        <v>-2.3168736074258338</v>
+        <v>-2.3168736074258378</v>
       </c>
       <c r="R28" s="7">
         <v>-3.1324047315944559</v>
       </c>
       <c r="S28" s="7">
-        <v>-0.93798514469512539</v>
+        <v>-0.93798514469511884</v>
       </c>
       <c r="T28" s="7">
-        <v>1.8787425857779247</v>
+        <v>1.8787425857779287</v>
       </c>
       <c r="U28" s="7">
-        <v>3.1403503790567555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.1403503790567631</v>
+      </c>
+      <c r="V28" s="7">
+        <v>4.4826660015732021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>-2.1112330416711091</v>
+        <v>-2.1112330416711163</v>
       </c>
       <c r="C29" s="7">
         <v>-3.1843837743045125</v>
       </c>
       <c r="D29" s="7">
-        <v>-0.66841567159861781</v>
+        <v>-0.66841567159859638</v>
       </c>
       <c r="E29" s="7">
-        <v>-0.87692307692307847</v>
+        <v>-0.87692307692308202</v>
       </c>
       <c r="F29" s="7">
-        <v>-2.1954582882766784</v>
+        <v>-2.1954582882766789</v>
       </c>
       <c r="G29" s="7">
-        <v>-10.930416707908556</v>
+        <v>-10.930416707908552</v>
       </c>
       <c r="H29" s="7">
-        <v>-5.9426130018934842</v>
+        <v>-5.9426130018934815</v>
       </c>
       <c r="I29" s="7">
-        <v>-3.9781545863728196</v>
+        <v>-3.9781545863727947</v>
       </c>
       <c r="J29" s="7">
-        <v>1.1380926297851721</v>
+        <v>1.138092629785163</v>
       </c>
       <c r="K29" s="7">
-        <v>9.8636469712291888</v>
+        <v>9.8636469712291728</v>
       </c>
       <c r="L29" s="7">
-        <v>1.6063593661281281</v>
+        <v>1.6063593661281266</v>
       </c>
       <c r="M29" s="7">
-        <v>1.1385333427621975</v>
+        <v>1.1385333427621827</v>
       </c>
       <c r="N29" s="7">
-        <v>-8.8257712520571102E-2</v>
+        <v>-8.8257712520546483E-2</v>
       </c>
       <c r="O29" s="7">
-        <v>-0.93766120793420782</v>
+        <v>-0.93766120793419516</v>
       </c>
       <c r="P29" s="7">
-        <v>0.18695197163208796</v>
+        <v>0.18695197163207539</v>
       </c>
       <c r="Q29" s="7">
-        <v>-0.56635435603412865</v>
+        <v>-0.56635435603412654</v>
       </c>
       <c r="R29" s="7">
-        <v>-2.3900823127885946</v>
+        <v>-2.3900823127885977</v>
       </c>
       <c r="S29" s="7">
-        <v>0.65042476719488718</v>
+        <v>0.65042476719488529</v>
       </c>
       <c r="T29" s="7">
-        <v>1.5374473911059112</v>
+        <v>1.5374473911059159</v>
       </c>
       <c r="U29" s="7">
-        <v>2.3365847288215638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.3365847288215633</v>
+      </c>
+      <c r="V29" s="7">
+        <v>3.198305206758604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>-4.9191455380315414</v>
+        <v>-4.9191455380315636</v>
       </c>
       <c r="C30" s="7">
-        <v>-1.6152985454175572</v>
+        <v>-1.6152985454175475</v>
       </c>
       <c r="D30" s="7">
-        <v>1.9432452298868512</v>
+        <v>1.9432452298868563</v>
       </c>
       <c r="E30" s="7">
-        <v>5.7242916938350481</v>
+        <v>5.7242916938350534</v>
       </c>
       <c r="F30" s="7">
-        <v>6.8324024692395007</v>
+        <v>6.8324024692395238</v>
       </c>
       <c r="G30" s="7">
-        <v>-8.0901966460577768</v>
+        <v>-8.090196646057775</v>
       </c>
       <c r="H30" s="7">
-        <v>6.6072226510135312</v>
+        <v>6.6072226510135179</v>
       </c>
       <c r="I30" s="7">
-        <v>2.1436600383968907</v>
+        <v>2.1436600383968827</v>
       </c>
       <c r="J30" s="7">
-        <v>-0.18180031446542266</v>
+        <v>-0.18180031446542977</v>
       </c>
       <c r="K30" s="7">
-        <v>12.352497834572592</v>
+        <v>12.352497834572583</v>
       </c>
       <c r="L30" s="7">
-        <v>-5.2127193400270704</v>
+        <v>-5.2127193400270571</v>
       </c>
       <c r="M30" s="7">
-        <v>0.91542986249073599</v>
+        <v>0.91542986249075642</v>
       </c>
       <c r="N30" s="7">
-        <v>1.9876938222987866</v>
+        <v>1.987693822298805</v>
       </c>
       <c r="O30" s="7">
-        <v>0.90109934119626744</v>
+        <v>0.90109934119627999</v>
       </c>
       <c r="P30" s="7">
-        <v>0.71254849148761878</v>
+        <v>0.71254849148761745</v>
       </c>
       <c r="Q30" s="7">
-        <v>-3.6120975835713676</v>
+        <v>-3.6120975835713827</v>
       </c>
       <c r="R30" s="7">
-        <v>-6.4743131841612414</v>
+        <v>-6.4743131841612511</v>
       </c>
       <c r="S30" s="7">
-        <v>-2.7972374923098307</v>
+        <v>-2.7972374923098418</v>
       </c>
       <c r="T30" s="7">
-        <v>-1.126622825837496</v>
+        <v>-1.1266228258374948</v>
       </c>
       <c r="U30" s="7">
-        <v>2.2917271553148297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2917271553148271</v>
+      </c>
+      <c r="V30" s="7">
+        <v>3.649612435104816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>0.7217215898147803</v>
+        <v>0.72172158981478751</v>
       </c>
       <c r="C31" s="7">
-        <v>3.1055148616744259</v>
+        <v>3.1055148616744228</v>
       </c>
       <c r="D31" s="7">
-        <v>6.2945151275339528</v>
+        <v>6.2945151275339493</v>
       </c>
       <c r="E31" s="7">
-        <v>5.0002488676521653</v>
+        <v>5.000248867652167</v>
       </c>
       <c r="F31" s="7">
-        <v>2.3931967996779524</v>
+        <v>2.3931967996779608</v>
       </c>
       <c r="G31" s="7">
-        <v>-5.7147330515108878</v>
+        <v>-5.7147330515108639</v>
       </c>
       <c r="H31" s="7">
-        <v>3.040108432124907</v>
+        <v>3.0401084321249141</v>
       </c>
       <c r="I31" s="7">
-        <v>3.6291928174595762</v>
+        <v>3.6291928174595731</v>
       </c>
       <c r="J31" s="7">
-        <v>4.0828361656330259</v>
+        <v>4.0828361656330321</v>
       </c>
       <c r="K31" s="7">
-        <v>12.149202922617079</v>
+        <v>12.149202922617071</v>
       </c>
       <c r="L31" s="7">
-        <v>-0.78554158831320964</v>
+        <v>-0.78554158831322318</v>
       </c>
       <c r="M31" s="7">
-        <v>2.8552869924798383</v>
+        <v>2.8552869924798419</v>
       </c>
       <c r="N31" s="7">
-        <v>6.8481637817879726</v>
+        <v>6.848163781787945</v>
       </c>
       <c r="O31" s="7">
-        <v>3.6767291639675088</v>
+        <v>3.6767291639674933</v>
       </c>
       <c r="P31" s="7">
-        <v>5.0372071744022131</v>
+        <v>5.0372071744022353</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.22236651338201241</v>
+        <v>0.22236651338201766</v>
       </c>
       <c r="R31" s="7">
-        <v>-1.2744257571874429</v>
+        <v>-1.2744257571874327</v>
       </c>
       <c r="S31" s="7">
-        <v>1.4487061616873749</v>
+        <v>1.4487061616873702</v>
       </c>
       <c r="T31" s="7">
-        <v>2.8596063930025339</v>
+        <v>2.8596063930025419</v>
       </c>
       <c r="U31" s="7">
-        <v>4.850146880019869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.8501468800198539</v>
+      </c>
+      <c r="V31" s="7">
+        <v>5.8125274154708464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>-9.6026752146899312</v>
+        <v>-9.6026752146899437</v>
       </c>
       <c r="C32" s="7">
-        <v>-11.995596093047682</v>
+        <v>-11.995596093047688</v>
       </c>
       <c r="D32" s="7">
-        <v>-10.971295787213293</v>
+        <v>-10.971295787213299</v>
       </c>
       <c r="E32" s="7">
         <v>-14.233103376731151</v>
       </c>
       <c r="F32" s="7">
-        <v>-14.443471598993108</v>
+        <v>-14.443471598993114</v>
       </c>
       <c r="G32" s="7">
-        <v>-19.16971776831522</v>
+        <v>-19.169717768315227</v>
       </c>
       <c r="H32" s="7">
-        <v>-8.0784423392875748</v>
+        <v>-8.0784423392875873</v>
       </c>
       <c r="I32" s="7">
-        <v>-7.4472331418203854</v>
+        <v>-7.4472331418203961</v>
       </c>
       <c r="J32" s="7">
-        <v>4.742046486638583</v>
+        <v>4.7420464866386256</v>
       </c>
       <c r="K32" s="7">
-        <v>18.311679091231802</v>
+        <v>18.311679091231831</v>
       </c>
       <c r="L32" s="7">
-        <v>4.1311733089950122</v>
+        <v>4.1311733089950335</v>
       </c>
       <c r="M32" s="7">
-        <v>10.132256462531702</v>
+        <v>10.132256462531695</v>
       </c>
       <c r="N32" s="7">
-        <v>-0.39203712750364339</v>
+        <v>-0.39203712750366804</v>
       </c>
       <c r="O32" s="7">
-        <v>-8.2524213583610333</v>
+        <v>-8.2524213583610546</v>
       </c>
       <c r="P32" s="7">
-        <v>-9.125104994704607</v>
+        <v>-9.125104994704623</v>
       </c>
       <c r="Q32" s="7">
-        <v>-10.632364633147816</v>
+        <v>-10.632364633147807</v>
       </c>
       <c r="R32" s="7">
-        <v>-10.185264655035011</v>
+        <v>-10.185264655035022</v>
       </c>
       <c r="S32" s="7">
-        <v>-1.9007129308653188</v>
+        <v>-1.9007129308653039</v>
       </c>
       <c r="T32" s="7">
-        <v>3.4667988372560239</v>
+        <v>3.4667988372560394</v>
       </c>
       <c r="U32" s="7">
-        <v>4.0711184289147528</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.071118428914744</v>
+      </c>
+      <c r="V32" s="7">
+        <v>5.935674111287077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>0.97453072392442575</v>
+        <v>0.97453072392442364</v>
       </c>
       <c r="C33" s="7">
-        <v>-1.4700878562891084</v>
+        <v>-1.4700878562891002</v>
       </c>
       <c r="D33" s="7">
-        <v>5.2022820677345989E-2</v>
+        <v>5.2022820677329461E-2</v>
       </c>
       <c r="E33" s="7">
-        <v>2.5922041601118528</v>
+        <v>2.592204160111848</v>
       </c>
       <c r="F33" s="7">
-        <v>1.888900619369368</v>
+        <v>1.8889006193693822</v>
       </c>
       <c r="G33" s="7">
-        <v>-2.2287353675598043</v>
+        <v>-2.2287353675598025</v>
       </c>
       <c r="H33" s="7">
-        <v>5.6424077508362576</v>
+        <v>5.6424077508362709</v>
       </c>
       <c r="I33" s="7">
-        <v>6.7759358015436426</v>
+        <v>6.775935801543632</v>
       </c>
       <c r="J33" s="7">
         <v>18.638125912046338</v>
       </c>
       <c r="K33" s="7">
-        <v>21.176087015586386</v>
+        <v>21.176087015586361</v>
       </c>
       <c r="L33" s="7">
-        <v>11.250563963742271</v>
+        <v>11.250563963742259</v>
       </c>
       <c r="M33" s="7">
-        <v>12.415031115366199</v>
+        <v>12.415031115366221</v>
       </c>
       <c r="N33" s="7">
-        <v>8.0897551602666837</v>
+        <v>8.0897551602666784</v>
       </c>
       <c r="O33" s="7">
-        <v>7.3266616342423925</v>
+        <v>7.3266616342424244</v>
       </c>
       <c r="P33" s="7">
         <v>7.7621294794278066</v>
       </c>
       <c r="Q33" s="7">
-        <v>3.9843578115130267</v>
+        <v>3.9843578115130271</v>
       </c>
       <c r="R33" s="7">
-        <v>-3.2960521442855955</v>
+        <v>-3.2960521442856043</v>
       </c>
       <c r="S33" s="7">
-        <v>1.2075040737594305</v>
+        <v>1.2075040737594167</v>
       </c>
       <c r="T33" s="7">
-        <v>2.6144908893100629</v>
+        <v>2.6144908893100833</v>
       </c>
       <c r="U33" s="7">
-        <v>6.1386206190492523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.1386206190492567</v>
+      </c>
+      <c r="V33" s="7">
+        <v>7.9120710784313788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>3.9980897803247091</v>
+        <v>3.9980897803247286</v>
       </c>
       <c r="C34" s="7">
-        <v>2.5100216448115327</v>
+        <v>2.5100216448115504</v>
       </c>
       <c r="D34" s="7">
-        <v>3.6106554625073115</v>
+        <v>3.6106554625072937</v>
       </c>
       <c r="E34" s="7">
-        <v>-0.86048462343194332</v>
+        <v>-0.86048462343195053</v>
       </c>
       <c r="F34" s="7">
-        <v>1.9626030894697222</v>
+        <v>1.9626030894697128</v>
       </c>
       <c r="G34" s="7">
-        <v>-12.460587238313458</v>
+        <v>-12.460587238313455</v>
       </c>
       <c r="H34" s="7">
-        <v>1.8081491699919512</v>
+        <v>1.8081491699919534</v>
       </c>
       <c r="I34" s="7">
-        <v>6.1564787527331495</v>
+        <v>6.1564787527331442</v>
       </c>
       <c r="J34" s="7">
-        <v>2.3013249506859035</v>
+        <v>2.3013249506859164</v>
       </c>
       <c r="K34" s="7">
-        <v>23.339426519420684</v>
+        <v>23.339426519420677</v>
       </c>
       <c r="L34" s="7">
-        <v>3.8339820304827144</v>
+        <v>3.833982030482721</v>
       </c>
       <c r="M34" s="7">
-        <v>7.1507889599340961</v>
+        <v>7.1507889599340926</v>
       </c>
       <c r="N34" s="7">
-        <v>8.1459437567134358</v>
+        <v>8.1459437567134323</v>
       </c>
       <c r="O34" s="7">
         <v>6.237777446483852</v>
       </c>
       <c r="P34" s="7">
-        <v>5.2469784550709333</v>
+        <v>5.2469784550709342</v>
       </c>
       <c r="Q34" s="7">
-        <v>0.79648310503045672</v>
+        <v>0.7964831050304626</v>
       </c>
       <c r="R34" s="7">
-        <v>-5.1949849385329205</v>
+        <v>-5.1949849385329383</v>
       </c>
       <c r="S34" s="7">
-        <v>-1.7161394703823629</v>
+        <v>-1.7161394703823607</v>
       </c>
       <c r="T34" s="7">
-        <v>2.855098151800354</v>
+        <v>2.8550981518003549</v>
       </c>
       <c r="U34" s="7">
-        <v>6.0561838744983589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.0561838744983749</v>
+      </c>
+      <c r="V34" s="7">
+        <v>9.6840677034581706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>0.62114872951347666</v>
+        <v>0.62114872951346722</v>
       </c>
       <c r="C35" s="7">
-        <v>1.739512058888073</v>
+        <v>1.7395120588880926</v>
       </c>
       <c r="D35" s="7">
-        <v>0.92858118257545263</v>
+        <v>0.92858118257544298</v>
       </c>
       <c r="E35" s="7">
-        <v>0.26913456728364099</v>
+        <v>0.26913456728363039</v>
       </c>
       <c r="F35" s="7">
-        <v>-1.4341744404360399</v>
+        <v>-1.434174440436031</v>
       </c>
       <c r="G35" s="7">
-        <v>-11.552714652653874</v>
+        <v>-11.552714652653876</v>
       </c>
       <c r="H35" s="7">
-        <v>-1.3665268569882203</v>
+        <v>-1.3665268569882316</v>
       </c>
       <c r="I35" s="7">
-        <v>7.8258613636136776</v>
+        <v>7.8258613636136785</v>
       </c>
       <c r="J35" s="7">
-        <v>8.2545476304451846</v>
+        <v>8.2545476304451686</v>
       </c>
       <c r="K35" s="7">
-        <v>21.863707907512925</v>
+        <v>21.863707907512911</v>
       </c>
       <c r="L35" s="7">
-        <v>10.165588869292566</v>
+        <v>10.165588869292574</v>
       </c>
       <c r="M35" s="7">
-        <v>6.9201014232570364</v>
+        <v>6.9201014232570435</v>
       </c>
       <c r="N35" s="7">
-        <v>3.5910049839243081</v>
+        <v>3.5910049839243001</v>
       </c>
       <c r="O35" s="7">
-        <v>-0.31561809301182764</v>
+        <v>-0.31561809301183069</v>
       </c>
       <c r="P35" s="7">
-        <v>-8.6174234001867802</v>
+        <v>-8.6174234001867891</v>
       </c>
       <c r="Q35" s="7">
-        <v>-11.093993422191453</v>
+        <v>-11.093993422191463</v>
       </c>
       <c r="R35" s="7">
-        <v>-7.4257205616868491</v>
+        <v>-7.4257205616868323</v>
       </c>
       <c r="S35" s="7">
-        <v>-3.4499434285922894</v>
+        <v>-3.4499434285922788</v>
       </c>
       <c r="T35" s="7">
-        <v>5.3208884044147666</v>
+        <v>5.3208884044147862</v>
       </c>
       <c r="U35" s="7">
-        <v>6.9926598002375364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.9926598002375391</v>
+      </c>
+      <c r="V35" s="7">
+        <v>3.5524558824942183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>3.6293255974780547</v>
+        <v>3.6293255974780427</v>
       </c>
       <c r="C36" s="7">
-        <v>1.3897259855174968</v>
+        <v>1.3897259855174842</v>
       </c>
       <c r="D36" s="7">
-        <v>-0.47445070279596718</v>
+        <v>-0.47445070279595625</v>
       </c>
       <c r="E36" s="7">
-        <v>-3.7569364595310821</v>
+        <v>-3.7569364595310568</v>
       </c>
       <c r="F36" s="7">
-        <v>1.8070096373847413</v>
+        <v>1.807009637384754</v>
       </c>
       <c r="G36" s="7">
-        <v>-10.465737374433544</v>
+        <v>-10.465737374433548</v>
       </c>
       <c r="H36" s="7">
-        <v>-3.9326654260245926</v>
+        <v>-3.9326654260245886</v>
       </c>
       <c r="I36" s="7">
-        <v>1.2483875715311952</v>
+        <v>1.2483875715311983</v>
       </c>
       <c r="J36" s="7">
         <v>-4.3747712162357768</v>
       </c>
       <c r="K36" s="7">
-        <v>6.209225795277411</v>
+        <v>6.2092257952774021</v>
       </c>
       <c r="L36" s="7">
-        <v>-0.92965246388861322</v>
+        <v>-0.92965246388861977</v>
       </c>
       <c r="M36" s="7">
-        <v>0.16588143752513559</v>
+        <v>0.16588143752513781</v>
       </c>
       <c r="N36" s="7">
-        <v>-6.3206623341946558E-2</v>
+        <v>-6.3206623341939314E-2</v>
       </c>
       <c r="O36" s="7">
-        <v>1.4269018563313554</v>
+        <v>1.4269018563313698</v>
       </c>
       <c r="P36" s="7">
-        <v>0.67409510544454876</v>
+        <v>0.67409510544453966</v>
       </c>
       <c r="Q36" s="7">
-        <v>-1.8148448503990793</v>
+        <v>-1.8148448503990695</v>
       </c>
       <c r="R36" s="7">
-        <v>-2.5948921690020268</v>
+        <v>-2.5948921690020437</v>
       </c>
       <c r="S36" s="7">
-        <v>-1.1781624595816085</v>
+        <v>-1.1781624595816129</v>
       </c>
       <c r="T36" s="7">
-        <v>1.107691761930516</v>
+        <v>1.1076917619305324</v>
       </c>
       <c r="U36" s="7">
-        <v>1.0146149766560386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.0146149766560115</v>
+      </c>
+      <c r="V36" s="7">
+        <v>4.5625811643772938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>11.068922330676122</v>
+        <v>11.068922330676127</v>
       </c>
       <c r="C37" s="7">
-        <v>16.618572540059283</v>
+        <v>16.618572540059269</v>
       </c>
       <c r="D37" s="7">
-        <v>18.343440576161033</v>
+        <v>18.343440576161047</v>
       </c>
       <c r="E37" s="7">
-        <v>11.896581897226648</v>
+        <v>11.896581897226659</v>
       </c>
       <c r="F37" s="7">
-        <v>1.0067834833813674</v>
+        <v>1.0067834833813669</v>
       </c>
       <c r="G37" s="7">
-        <v>-14.411667834913995</v>
+        <v>-14.411667834913985</v>
       </c>
       <c r="H37" s="7">
-        <v>-11.93756262882189</v>
+        <v>-11.937562628821899</v>
       </c>
       <c r="I37" s="7">
-        <v>-9.1879655924599781</v>
+        <v>-9.1879655924599799</v>
       </c>
       <c r="J37" s="7">
-        <v>-5.5560969991228557</v>
+        <v>-5.5560969991228788</v>
       </c>
       <c r="K37" s="7">
-        <v>5.262171175971428</v>
+        <v>5.2621711759714325</v>
       </c>
       <c r="L37" s="7">
-        <v>-3.830924935704108</v>
+        <v>-3.8309249357041009</v>
       </c>
       <c r="M37" s="7">
-        <v>-1.5817191338161374</v>
+        <v>-1.5817191338161618</v>
       </c>
       <c r="N37" s="7">
-        <v>-0.77395024203537099</v>
+        <v>-0.77395024203535212</v>
       </c>
       <c r="O37" s="7">
-        <v>-3.7298812324825006</v>
+        <v>-3.7298812324824993</v>
       </c>
       <c r="P37" s="7">
-        <v>-0.45501332332879352</v>
+        <v>-0.45501332332881633</v>
       </c>
       <c r="Q37" s="7">
-        <v>-4.6841901674372517</v>
+        <v>-4.6841901674372348</v>
       </c>
       <c r="R37" s="7">
-        <v>-7.5748551115144949</v>
+        <v>-7.5748551115144842</v>
       </c>
       <c r="S37" s="7">
-        <v>-2.6981499513145031</v>
+        <v>-2.6981499513145044</v>
       </c>
       <c r="T37" s="7">
-        <v>-0.66099729416312059</v>
+        <v>-0.66099729416311115</v>
       </c>
       <c r="U37" s="7">
-        <v>2.7490047539906488</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.7490047539906697</v>
+      </c>
+      <c r="V37" s="7">
+        <v>8.6365449728413637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>4.5417630429195475</v>
+        <v>4.5417630429195501</v>
       </c>
       <c r="C38" s="7">
-        <v>7.2572258204021773</v>
+        <v>7.2572258204021916</v>
       </c>
       <c r="D38" s="7">
-        <v>9.5972420057389378</v>
+        <v>9.5972420057389396</v>
       </c>
       <c r="E38" s="7">
-        <v>4.6968890990405399</v>
+        <v>4.6968890990405257</v>
       </c>
       <c r="F38" s="7">
-        <v>0.46414207467576163</v>
+        <v>0.4641420746757467</v>
       </c>
       <c r="G38" s="7">
-        <v>-12.217155474487594</v>
+        <v>-12.217155474487599</v>
       </c>
       <c r="H38" s="7">
-        <v>-6.2073836880768658</v>
+        <v>-6.2073836880768605</v>
       </c>
       <c r="I38" s="7">
-        <v>-5.9586759752356961</v>
+        <v>-5.958675975235689</v>
       </c>
       <c r="J38" s="7">
-        <v>-1.140312240003923</v>
+        <v>-1.1403122400039276</v>
       </c>
       <c r="K38" s="7">
-        <v>10.535985739126639</v>
+        <v>10.53598573912662</v>
       </c>
       <c r="L38" s="7">
-        <v>2.5083091506090138</v>
+        <v>2.508309150608997</v>
       </c>
       <c r="M38" s="7">
-        <v>3.9860328767671556</v>
+        <v>3.9860328767671609</v>
       </c>
       <c r="N38" s="7">
-        <v>2.8990099009900803</v>
+        <v>2.8990099009901038</v>
       </c>
       <c r="O38" s="7">
-        <v>0.23250521900012716</v>
+        <v>0.23250521900016066</v>
       </c>
       <c r="P38" s="7">
-        <v>-2.3176310401912019</v>
+        <v>-2.3176310401911948</v>
       </c>
       <c r="Q38" s="7">
-        <v>-3.1173929358336654</v>
+        <v>-3.1173929358336663</v>
       </c>
       <c r="R38" s="7">
-        <v>-5.7559079362635446</v>
+        <v>-5.7559079362635668</v>
       </c>
       <c r="S38" s="7">
-        <v>-1.7599794685513437</v>
+        <v>-1.7599794685513583</v>
       </c>
       <c r="T38" s="7">
         <v>2.0537299064389649</v>
       </c>
       <c r="U38" s="7">
-        <v>2.8621651951972855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.862165195197266</v>
+      </c>
+      <c r="V38" s="7">
+        <v>3.8337451248647185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>-6.3355757815591529</v>
+        <v>-6.3355757815591502</v>
       </c>
       <c r="C39" s="7">
-        <v>-6.7656165528087584</v>
+        <v>-6.7656165528087708</v>
       </c>
       <c r="D39" s="7">
-        <v>-4.1004592594068496</v>
+        <v>-4.1004592594068505</v>
       </c>
       <c r="E39" s="7">
-        <v>-2.9426564418412662</v>
+        <v>-2.9426564418412893</v>
       </c>
       <c r="F39" s="7">
-        <v>1.9540327010012986</v>
+        <v>1.9540327010012943</v>
       </c>
       <c r="G39" s="7">
-        <v>-7.613967022308441</v>
+        <v>-7.6139670223084481</v>
       </c>
       <c r="H39" s="7">
-        <v>-0.23788994733177787</v>
+        <v>-0.23788994733178978</v>
       </c>
       <c r="I39" s="7">
-        <v>-0.55681134775305507</v>
+        <v>-0.5568113477530342</v>
       </c>
       <c r="J39" s="7">
-        <v>-2.2791786668876761</v>
+        <v>-2.2791786668876677</v>
       </c>
       <c r="K39" s="7">
-        <v>5.3588953554718701</v>
+        <v>5.3588953554718772</v>
       </c>
       <c r="L39" s="7">
-        <v>-4.7993418997438626</v>
+        <v>-4.7993418997438475</v>
       </c>
       <c r="M39" s="7">
-        <v>-0.2147958917678939</v>
+        <v>-0.2147958917679034</v>
       </c>
       <c r="N39" s="7">
-        <v>1.1163411996692443</v>
+        <v>1.1163411996692372</v>
       </c>
       <c r="O39" s="7">
-        <v>2.7413729610293971</v>
+        <v>2.7413729610294002</v>
       </c>
       <c r="P39" s="7">
-        <v>4.0568772217664781</v>
+        <v>4.0568772217664915</v>
       </c>
       <c r="Q39" s="7">
-        <v>2.6123574958989704E-2</v>
+        <v>2.6123574959001493E-2</v>
       </c>
       <c r="R39" s="7">
-        <v>-1.7551033246312144</v>
+        <v>-1.7551033246312147</v>
       </c>
       <c r="S39" s="7">
-        <v>0.4448801880725653</v>
+        <v>0.44488018807257501</v>
       </c>
       <c r="T39" s="7">
-        <v>2.3808522715327847</v>
+        <v>2.380852271532778</v>
       </c>
       <c r="U39" s="7">
-        <v>3.5090468430069719</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.509046843006975</v>
+      </c>
+      <c r="V39" s="7">
+        <v>4.640093911744299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>3.2566083941267774</v>
+        <v>3.2566083941267845</v>
       </c>
       <c r="C40" s="7">
-        <v>11.769444772656488</v>
+        <v>11.769444772656477</v>
       </c>
       <c r="D40" s="7">
-        <v>15.358904288560566</v>
+        <v>15.3589042885606</v>
       </c>
       <c r="E40" s="7">
-        <v>13.501224204267217</v>
+        <v>13.501224204267228</v>
       </c>
       <c r="F40" s="7">
-        <v>5.5115991709183758</v>
+        <v>5.511599170918366</v>
       </c>
       <c r="G40" s="7">
         <v>-7.5835623810713688</v>
       </c>
       <c r="H40" s="7">
-        <v>1.1778474083581809</v>
+        <v>1.1778474083581738</v>
       </c>
       <c r="I40" s="7">
-        <v>2.6147452957946273E-2</v>
+        <v>2.6147452957926112E-2</v>
       </c>
       <c r="J40" s="7">
-        <v>3.761699234060226</v>
+        <v>3.7616992340602318</v>
       </c>
       <c r="K40" s="7">
-        <v>10.689142393644119</v>
+        <v>10.689142393644124</v>
       </c>
       <c r="L40" s="7">
-        <v>-0.71359277638893714</v>
+        <v>-0.71359277638894569</v>
       </c>
       <c r="M40" s="7">
-        <v>4.7081119938756313</v>
+        <v>4.7081119938756508</v>
       </c>
       <c r="N40" s="7">
-        <v>3.3185880982287661</v>
+        <v>3.3185880982287763</v>
       </c>
       <c r="O40" s="7">
-        <v>7.6915127487270256</v>
+        <v>7.6915127487270194</v>
       </c>
       <c r="P40" s="7">
-        <v>12.735933257546586</v>
+        <v>12.735933257546593</v>
       </c>
       <c r="Q40" s="7">
-        <v>7.5127500980776629</v>
+        <v>7.5127500980776469</v>
       </c>
       <c r="R40" s="7">
-        <v>7.4291704841778703</v>
+        <v>7.4291704841778579</v>
       </c>
       <c r="S40" s="7">
-        <v>6.9668234041996167</v>
+        <v>6.966823404199614</v>
       </c>
       <c r="T40" s="7">
-        <v>4.5460227509479516</v>
+        <v>4.5460227509479418</v>
       </c>
       <c r="U40" s="7">
-        <v>6.8302068302068406</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.8302068302068637</v>
+      </c>
+      <c r="V40" s="7">
+        <v>4.6889991389560937</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>-0.96427723712317936</v>
+        <v>-0.96427723712318392</v>
       </c>
       <c r="C41" s="7">
-        <v>0.42617869702567401</v>
+        <v>0.42617869702566008</v>
       </c>
       <c r="D41" s="7">
-        <v>1.5123062170369297</v>
+        <v>1.5123062170369295</v>
       </c>
       <c r="E41" s="7">
-        <v>-2.3376547193054416</v>
+        <v>-2.337654719305426</v>
       </c>
       <c r="F41" s="7">
-        <v>-3.9425986398633848</v>
+        <v>-3.9425986398634008</v>
       </c>
       <c r="G41" s="7">
-        <v>-17.487214489915019</v>
+        <v>-17.487214489915015</v>
       </c>
       <c r="H41" s="7">
-        <v>-4.3374726939956219</v>
+        <v>-4.3374726939956245</v>
       </c>
       <c r="I41" s="7">
-        <v>-0.7718413070246507</v>
+        <v>-0.77184130702467579</v>
       </c>
       <c r="J41" s="7">
-        <v>2.2788468535903261</v>
+        <v>2.2788468535903399</v>
       </c>
       <c r="K41" s="7">
-        <v>20.223466366153946</v>
+        <v>20.223466366153961</v>
       </c>
       <c r="L41" s="7">
-        <v>3.2247114731839601</v>
+        <v>3.2247114731839646</v>
       </c>
       <c r="M41" s="7">
-        <v>5.5074656981436503</v>
+        <v>5.5074656981436849</v>
       </c>
       <c r="N41" s="7">
-        <v>5.6281192506683277</v>
+        <v>5.6281192506683126</v>
       </c>
       <c r="O41" s="7">
-        <v>-7.2794718892719421E-2</v>
+        <v>-7.2794718892717936E-2</v>
       </c>
       <c r="P41" s="7">
-        <v>-0.7035165864498194</v>
+        <v>-0.70351658644981629</v>
       </c>
       <c r="Q41" s="7">
-        <v>-4.7131833350863896</v>
+        <v>-4.7131833350863985</v>
       </c>
       <c r="R41" s="7">
-        <v>-7.1806616755518746</v>
+        <v>-7.1806616755518693</v>
       </c>
       <c r="S41" s="7">
-        <v>-1.6804877805386718</v>
+        <v>-1.6804877805386675</v>
       </c>
       <c r="T41" s="7">
-        <v>0.47868977490540815</v>
+        <v>0.47868977490539166</v>
       </c>
       <c r="U41" s="7">
-        <v>2.2127446061214275</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2127446061214302</v>
+      </c>
+      <c r="V41" s="7">
+        <v>4.2195405158828798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>6.4764775334286506</v>
+        <v>6.4764775334287181</v>
       </c>
       <c r="C42" s="7">
-        <v>4.1815773901772326</v>
+        <v>4.1815773901772468</v>
       </c>
       <c r="D42" s="7">
-        <v>5.2825758846218571</v>
+        <v>5.2825758846218429</v>
       </c>
       <c r="E42" s="7">
-        <v>0.51616285796933026</v>
+        <v>0.51616285796933303</v>
       </c>
       <c r="F42" s="7">
-        <v>-8.4805812989073637</v>
+        <v>-8.4805812989073708</v>
       </c>
       <c r="G42" s="7">
-        <v>-16.703179797870508</v>
+        <v>-16.703179797870522</v>
       </c>
       <c r="H42" s="7">
-        <v>-13.49598244309936</v>
+        <v>-13.495982443099367</v>
       </c>
       <c r="I42" s="7">
-        <v>-12.512253248797155</v>
+        <v>-12.512253248797153</v>
       </c>
       <c r="J42" s="7">
-        <v>-9.5107223420707783</v>
+        <v>-9.5107223420708049</v>
       </c>
       <c r="K42" s="7">
-        <v>2.7480734262706696</v>
+        <v>2.7480734262706754</v>
       </c>
       <c r="L42" s="7">
-        <v>-5.9097930498296858</v>
+        <v>-5.9097930498296636</v>
       </c>
       <c r="M42" s="7">
-        <v>-3.5381673896507064</v>
+        <v>-3.5381673896506944</v>
       </c>
       <c r="N42" s="7">
-        <v>4.8224510679062087</v>
+        <v>4.822451067906214</v>
       </c>
       <c r="O42" s="7">
-        <v>-0.85957168891089997</v>
+        <v>-0.85957168891089464</v>
       </c>
       <c r="P42" s="7">
-        <v>4.4239801687396811</v>
+        <v>4.4239801687396669</v>
       </c>
       <c r="Q42" s="7">
-        <v>4.769820971867011</v>
+        <v>4.7698209718669906</v>
       </c>
       <c r="R42" s="7">
-        <v>-0.94296514767581174</v>
+        <v>-0.94296514767581341</v>
       </c>
       <c r="S42" s="7">
-        <v>2.6382617011103613</v>
+        <v>2.6382617011103515</v>
       </c>
       <c r="T42" s="7">
-        <v>3.4921130719974953</v>
+        <v>3.4921130719974922</v>
       </c>
       <c r="U42" s="7">
-        <v>3.6575938809552881</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.6575938809553015</v>
+      </c>
+      <c r="V42" s="7">
+        <v>6.08173278537281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>-3.9192538099791236</v>
+        <v>-3.9192538099791103</v>
       </c>
       <c r="C43" s="7">
-        <v>-4.211869193463583</v>
+        <v>-4.2118691934635581</v>
       </c>
       <c r="D43" s="7">
-        <v>-1.8434707970816793</v>
+        <v>-1.8434707970816639</v>
       </c>
       <c r="E43" s="7">
-        <v>2.7906746522793897</v>
+        <v>2.7906746522793671</v>
       </c>
       <c r="F43" s="7">
-        <v>6.4431288524223955</v>
+        <v>6.4431288524223724</v>
       </c>
       <c r="G43" s="7">
-        <v>1.4507782556094346</v>
+        <v>1.4507782556094253</v>
       </c>
       <c r="H43" s="7">
-        <v>6.0744877476797221</v>
+        <v>6.0744877476797106</v>
       </c>
       <c r="I43" s="7">
-        <v>-0.63274072076585375</v>
+        <v>-0.6327407207658079</v>
       </c>
       <c r="J43" s="7">
-        <v>1.134303867508726</v>
+        <v>1.1343038675087189</v>
       </c>
       <c r="K43" s="7">
-        <v>1.8599430793282083</v>
+        <v>1.8599430793281899</v>
       </c>
       <c r="L43" s="7">
-        <v>-6.4873017508688786</v>
+        <v>-6.4873017508688839</v>
       </c>
       <c r="M43" s="7">
-        <v>2.2030103608362284</v>
+        <v>2.2030103608362186</v>
       </c>
       <c r="N43" s="7">
-        <v>-1.0602673307487087</v>
+        <v>-1.0602673307486832</v>
       </c>
       <c r="O43" s="7">
-        <v>1.8722206918263486</v>
+        <v>1.8722206918263571</v>
       </c>
       <c r="P43" s="7">
-        <v>6.1960289314980859</v>
+        <v>6.1960289314980681</v>
       </c>
       <c r="Q43" s="7">
-        <v>-0.11190137505926193</v>
+        <v>-0.11190137505927823</v>
       </c>
       <c r="R43" s="7">
-        <v>-7.1801081163537965</v>
+        <v>-7.1801081163537992</v>
       </c>
       <c r="S43" s="7">
-        <v>-5.2072971694013246</v>
+        <v>-5.2072971694013255</v>
       </c>
       <c r="T43" s="7">
-        <v>-6.35146735592933</v>
+        <v>-6.3514673559293238</v>
       </c>
       <c r="U43" s="7">
-        <v>-4.9263281813693807</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-4.9263281813693869</v>
+      </c>
+      <c r="V43" s="7">
+        <v>1.0970048070997374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>-6.789829443538338E-2</v>
+        <v>-6.789829443538857E-2</v>
       </c>
       <c r="C44" s="7">
-        <v>2.4253998080104546</v>
+        <v>2.4253998080104555</v>
       </c>
       <c r="D44" s="7">
-        <v>5.0480596616845892</v>
+        <v>5.0480596616846025</v>
       </c>
       <c r="E44" s="7">
-        <v>4.1813474133116735</v>
+        <v>4.1813474133116584</v>
       </c>
       <c r="F44" s="7">
-        <v>2.1143900212960061</v>
+        <v>2.1143900212960136</v>
       </c>
       <c r="G44" s="7">
-        <v>-11.193754548989501</v>
+        <v>-11.193754548989492</v>
       </c>
       <c r="H44" s="7">
-        <v>-4.8298894574430618</v>
+        <v>-4.8298894574430813</v>
       </c>
       <c r="I44" s="7">
-        <v>-2.2640663528356888</v>
+        <v>-2.2640663528356741</v>
       </c>
       <c r="J44" s="7">
-        <v>-4.4878097224291125</v>
+        <v>-4.4878097224291214</v>
       </c>
       <c r="K44" s="7">
-        <v>7.541259683395098</v>
+        <v>7.5412596833950767</v>
       </c>
       <c r="L44" s="7">
-        <v>-0.78187526934679608</v>
+        <v>-0.78187526934679485</v>
       </c>
       <c r="M44" s="7">
-        <v>-0.21140805743916297</v>
+        <v>-0.2114080574391651</v>
       </c>
       <c r="N44" s="7">
-        <v>3.6391615371818373</v>
+        <v>3.6391615371818258</v>
       </c>
       <c r="O44" s="7">
-        <v>1.6787246703623506</v>
+        <v>1.6787246703623573</v>
       </c>
       <c r="P44" s="7">
-        <v>1.1603375527426245</v>
+        <v>1.160337552742617</v>
       </c>
       <c r="Q44" s="7">
-        <v>-0.77747131950273296</v>
+        <v>-0.77747131950272785</v>
       </c>
       <c r="R44" s="7">
-        <v>-3.5695653918696677</v>
+        <v>-3.5695653918696637</v>
       </c>
       <c r="S44" s="7">
-        <v>0.46716977257560904</v>
+        <v>0.46716977257559739</v>
       </c>
       <c r="T44" s="7">
-        <v>2.4862499744423219</v>
+        <v>2.4862499744423361</v>
       </c>
       <c r="U44" s="7">
-        <v>3.0476382314432429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.0476382314432255</v>
+      </c>
+      <c r="V44" s="7">
+        <v>5.3392704800349744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>-4.6191758840048145</v>
+        <v>-4.6191758840048083</v>
       </c>
       <c r="C45" s="7">
-        <v>-7.1698827090427555</v>
+        <v>-7.1698827090427466</v>
       </c>
       <c r="D45" s="7">
-        <v>-4.6733355669363039</v>
+        <v>-4.6733355669362941</v>
       </c>
       <c r="E45" s="7">
-        <v>-1.2588235294117687</v>
+        <v>-1.2588235294117665</v>
       </c>
       <c r="F45" s="7">
-        <v>2.4965450940335239</v>
+        <v>2.4965450940335194</v>
       </c>
       <c r="G45" s="7">
-        <v>-1.9054412064397817</v>
+        <v>-1.905441206439793</v>
       </c>
       <c r="H45" s="7">
-        <v>6.5955032485464491</v>
+        <v>6.5955032485464304</v>
       </c>
       <c r="I45" s="7">
-        <v>5.9692600977004497</v>
+        <v>5.9692600977004631</v>
       </c>
       <c r="J45" s="7">
-        <v>1.3551406434719599</v>
+        <v>1.3551406434719655</v>
       </c>
       <c r="K45" s="7">
-        <v>10.287732419237559</v>
+        <v>10.287732419237566</v>
       </c>
       <c r="L45" s="7">
-        <v>-0.12906143135722503</v>
+        <v>-0.12906143135720624</v>
       </c>
       <c r="M45" s="7">
-        <v>4.4871074132373963</v>
+        <v>4.487107413237398</v>
       </c>
       <c r="N45" s="7">
-        <v>4.7263297923615459</v>
+        <v>4.7263297923615379</v>
       </c>
       <c r="O45" s="7">
-        <v>1.3609734963362117</v>
+        <v>1.3609734963362061</v>
       </c>
       <c r="P45" s="7">
-        <v>1.7922161223989346</v>
+        <v>1.7922161223989421</v>
       </c>
       <c r="Q45" s="7">
-        <v>-2.4390900042146062</v>
+        <v>-2.4390900042146186</v>
       </c>
       <c r="R45" s="7">
-        <v>-3.0991982768936319</v>
+        <v>-3.0991982768936301</v>
       </c>
       <c r="S45" s="7">
-        <v>-0.58818610096730795</v>
+        <v>-0.58818610096729729</v>
       </c>
       <c r="T45" s="7">
-        <v>0.92017717812332023</v>
+        <v>0.92017717812330024</v>
       </c>
       <c r="U45" s="7">
-        <v>2.0570420140261261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.0570420140261279</v>
+      </c>
+      <c r="V45" s="7">
+        <v>5.4885346809278719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>5.5493442479510851</v>
+        <v>5.5493442479510762</v>
       </c>
       <c r="C46" s="7">
-        <v>6.4361107057736158</v>
+        <v>6.4361107057736264</v>
       </c>
       <c r="D46" s="7">
-        <v>6.4112174681889869</v>
+        <v>6.4112174681889913</v>
       </c>
       <c r="E46" s="7">
-        <v>2.6559558645369474</v>
+        <v>2.6559558645369354</v>
       </c>
       <c r="F46" s="7">
-        <v>-4.0518758001971031</v>
+        <v>-4.0518758001971014</v>
       </c>
       <c r="G46" s="7">
-        <v>-16.240597380519336</v>
+        <v>-16.240597380519326</v>
       </c>
       <c r="H46" s="7">
-        <v>-5.9526927557959954</v>
+        <v>-5.9526927557959883</v>
       </c>
       <c r="I46" s="7">
-        <v>-7.1117324521587566</v>
+        <v>-7.111732452158769</v>
       </c>
       <c r="J46" s="7">
-        <v>-2.3644497350433999</v>
+        <v>-2.3644497350433955</v>
       </c>
       <c r="K46" s="7">
-        <v>10.11326684271404</v>
+        <v>10.113266842714037</v>
       </c>
       <c r="L46" s="7">
-        <v>-4.1994775861406719</v>
+        <v>-4.1994775861406808</v>
       </c>
       <c r="M46" s="7">
-        <v>0.79259592267545731</v>
+        <v>0.79259592267548173</v>
       </c>
       <c r="N46" s="7">
-        <v>2.3912295364043104</v>
+        <v>2.3912295364043223</v>
       </c>
       <c r="O46" s="7">
-        <v>2.9541175304727298</v>
+        <v>2.9541175304726961</v>
       </c>
       <c r="P46" s="7">
-        <v>3.7991559658777665</v>
+        <v>3.7991559658777816</v>
       </c>
       <c r="Q46" s="7">
-        <v>0.13865591032939048</v>
+        <v>0.13865591032937605</v>
       </c>
       <c r="R46" s="7">
-        <v>-0.3716258390389659</v>
+        <v>-0.37162583903897528</v>
       </c>
       <c r="S46" s="7">
-        <v>1.9048810772829032</v>
+        <v>1.9048810772829299</v>
       </c>
       <c r="T46" s="7">
-        <v>4.476141730002217</v>
+        <v>4.4761417300022046</v>
       </c>
       <c r="U46" s="7">
-        <v>7.1071691390061478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7.1071691390061629</v>
+      </c>
+      <c r="V46" s="7">
+        <v>5.6645783132530134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>-9.0013465879836652</v>
+        <v>-9.0013465879836687</v>
       </c>
       <c r="C47" s="7">
-        <v>-13.234138627254037</v>
+        <v>-13.234138627254016</v>
       </c>
       <c r="D47" s="7">
-        <v>-12.407680945347124</v>
+        <v>-12.407680945347105</v>
       </c>
       <c r="E47" s="7">
-        <v>-6.3039880412150904</v>
+        <v>-6.3039880412150815</v>
       </c>
       <c r="F47" s="7">
-        <v>-1.3883901855176632</v>
+        <v>-1.3883901855176566</v>
       </c>
       <c r="G47" s="7">
-        <v>0.49864163141786838</v>
+        <v>0.49864163141786122</v>
       </c>
       <c r="H47" s="7">
-        <v>12.79193328559221</v>
+        <v>12.791933285592167</v>
       </c>
       <c r="I47" s="7">
-        <v>13.076774053856926</v>
+        <v>13.076774053856917</v>
       </c>
       <c r="J47" s="7">
         <v>12.598616336934088</v>
       </c>
       <c r="K47" s="7">
-        <v>14.944337987042621</v>
+        <v>14.944337987042601</v>
       </c>
       <c r="L47" s="7">
-        <v>1.0240340798375843E-3</v>
+        <v>1.0240340798583101E-3</v>
       </c>
       <c r="M47" s="7">
-        <v>2.843004857597808</v>
+        <v>2.8430048575978129</v>
       </c>
       <c r="N47" s="7">
-        <v>0.45567238625339129</v>
+        <v>0.45567238625341011</v>
       </c>
       <c r="O47" s="7">
-        <v>0.2302181118145713</v>
+        <v>0.23021811181457907</v>
       </c>
       <c r="P47" s="7">
-        <v>8.2106211727118179</v>
+        <v>8.2106211727118126</v>
       </c>
       <c r="Q47" s="7">
-        <v>2.317559555890929</v>
+        <v>2.3175595558909201</v>
       </c>
       <c r="R47" s="7">
-        <v>-0.81844076791009812</v>
+        <v>-0.81844076791010978</v>
       </c>
       <c r="S47" s="7">
-        <v>1.6286161218145305</v>
+        <v>1.6286161218145223</v>
       </c>
       <c r="T47" s="7">
-        <v>-0.74759633583162632</v>
+        <v>-0.747596335831617</v>
       </c>
       <c r="U47" s="7">
-        <v>3.6413439068306186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.6413439068306208</v>
+      </c>
+      <c r="V47" s="7">
+        <v>4.3098954491359596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>-2.7696793002915392</v>
+        <v>-2.7696793002915445</v>
       </c>
       <c r="C48" s="7">
-        <v>-1.9767335720153807</v>
+        <v>-1.9767335720153714</v>
       </c>
       <c r="D48" s="7">
-        <v>0.88780447797917128</v>
+        <v>0.88780447797917361</v>
       </c>
       <c r="E48" s="7">
-        <v>2.727564003183355</v>
+        <v>2.727564003183359</v>
       </c>
       <c r="F48" s="7">
-        <v>4.346792121180779</v>
+        <v>4.3467921211807869</v>
       </c>
       <c r="G48" s="7">
-        <v>-11.278039897359475</v>
+        <v>-11.278039897359486</v>
       </c>
       <c r="H48" s="7">
-        <v>3.6439386241235625</v>
+        <v>3.6439386241235576</v>
       </c>
       <c r="I48" s="7">
-        <v>4.2609063103670453</v>
+        <v>4.2609063103670328</v>
       </c>
       <c r="J48" s="7">
-        <v>0.16250656467067842</v>
+        <v>0.1625065646706656</v>
       </c>
       <c r="K48" s="7">
-        <v>15.928068293138038</v>
+        <v>15.928068293138036</v>
       </c>
       <c r="L48" s="7">
-        <v>-2.7324600964743619</v>
+        <v>-2.7324600964743655</v>
       </c>
       <c r="M48" s="7">
-        <v>0.15150491667229343</v>
+        <v>0.1515049166723027</v>
       </c>
       <c r="N48" s="7">
-        <v>6.8785057823768723</v>
+        <v>6.8785057823768776</v>
       </c>
       <c r="O48" s="7">
-        <v>6.8688006760155078</v>
+        <v>6.8688006760155256</v>
       </c>
       <c r="P48" s="7">
-        <v>9.3993488493987432</v>
+        <v>9.3993488493987609</v>
       </c>
       <c r="Q48" s="7">
-        <v>5.5933477221922558</v>
+        <v>5.5933477221922274</v>
       </c>
       <c r="R48" s="7">
-        <v>-1.4069384279314447</v>
+        <v>-1.4069384279314321</v>
       </c>
       <c r="S48" s="7">
-        <v>1.8628687614135</v>
+        <v>1.8628687614134798</v>
       </c>
       <c r="T48" s="7">
-        <v>1.9053937015129003</v>
+        <v>1.9053937015128748</v>
       </c>
       <c r="U48" s="7">
-        <v>2.655375995765985</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.6553759957660006</v>
+      </c>
+      <c r="V48" s="7">
+        <v>4.8020954598370125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>-3.6646247672504662</v>
+        <v>-3.6646247672504773</v>
       </c>
       <c r="C49" s="7">
-        <v>-7.0119046559046865</v>
+        <v>-7.0119046559046874</v>
       </c>
       <c r="D49" s="7">
-        <v>-7.2307185292729095</v>
+        <v>-7.230718529272929</v>
       </c>
       <c r="E49" s="7">
-        <v>-9.2184888221465471</v>
+        <v>-9.2184888221465435</v>
       </c>
       <c r="F49" s="7">
-        <v>-9.7575095474196143</v>
+        <v>-9.7575095474196125</v>
       </c>
       <c r="G49" s="7">
-        <v>-15.558151559836826</v>
+        <v>-15.558151559836817</v>
       </c>
       <c r="H49" s="7">
         <v>-8.1812333778191686</v>
       </c>
       <c r="I49" s="7">
-        <v>-2.4419062623079895</v>
+        <v>-2.4419062623079983</v>
       </c>
       <c r="J49" s="7">
-        <v>3.6524672260908249</v>
+        <v>3.6524672260908218</v>
       </c>
       <c r="K49" s="7">
-        <v>15.723584242396766</v>
+        <v>15.723584242396742</v>
       </c>
       <c r="L49" s="7">
-        <v>9.1737075455914248</v>
+        <v>9.1737075455914319</v>
       </c>
       <c r="M49" s="7">
-        <v>9.7587807832054967</v>
+        <v>9.758780783205486</v>
       </c>
       <c r="N49" s="7">
-        <v>6.1730736596224514</v>
+        <v>6.1730736596224709</v>
       </c>
       <c r="O49" s="7">
-        <v>2.1890800768235508</v>
+        <v>2.1890800768235801</v>
       </c>
       <c r="P49" s="7">
-        <v>0.46836837316220187</v>
+        <v>0.46836837316220192</v>
       </c>
       <c r="Q49" s="7">
-        <v>-1.5154162337124997</v>
+        <v>-1.5154162337124879</v>
       </c>
       <c r="R49" s="7">
-        <v>-0.89976589163320453</v>
+        <v>-0.89976589163322751</v>
       </c>
       <c r="S49" s="7">
-        <v>2.655198204936446</v>
+        <v>2.6551982049364296</v>
       </c>
       <c r="T49" s="7">
-        <v>6.0051099204911518</v>
+        <v>6.0051099204911642</v>
       </c>
       <c r="U49" s="7">
-        <v>6.564831327438589</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.5648313274385997</v>
+      </c>
+      <c r="V49" s="7">
+        <v>7.4541763120944253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>8.9576718063144263</v>
+        <v>8.9576718063144298</v>
       </c>
       <c r="C50" s="7">
-        <v>6.408861359895087</v>
+        <v>6.4088613598951136</v>
       </c>
       <c r="D50" s="7">
-        <v>4.7199536425040325</v>
+        <v>4.7199536425040272</v>
       </c>
       <c r="E50" s="7">
-        <v>4.0461245754725415</v>
+        <v>4.0461245754725494</v>
       </c>
       <c r="F50" s="7">
-        <v>-0.91191528464535021</v>
+        <v>-0.91191528464534133</v>
       </c>
       <c r="G50" s="7">
         <v>-5.7318160364990334</v>
       </c>
       <c r="H50" s="7">
-        <v>-0.18416206261511048</v>
+        <v>-0.18416206261510443</v>
       </c>
       <c r="I50" s="7">
-        <v>3.082996522229521</v>
+        <v>3.0829965222295246</v>
       </c>
       <c r="J50" s="7">
-        <v>10.002384674491953</v>
+        <v>10.002384674491939</v>
       </c>
       <c r="K50" s="7">
-        <v>16.62679869455571</v>
+        <v>16.626798694555713</v>
       </c>
       <c r="L50" s="7">
-        <v>10.536527900490283</v>
+        <v>10.536527900490269</v>
       </c>
       <c r="M50" s="7">
-        <v>11.080348483466919</v>
+        <v>11.080348483466921</v>
       </c>
       <c r="N50" s="7">
-        <v>4.5540675081093065</v>
+        <v>4.5540675081093118</v>
       </c>
       <c r="O50" s="7">
-        <v>1.2242723926575405</v>
+        <v>1.2242723926575358</v>
       </c>
       <c r="P50" s="7">
-        <v>-0.34401692657313876</v>
+        <v>-0.34401692657314215</v>
       </c>
       <c r="Q50" s="7">
-        <v>-5.4558072893346203</v>
+        <v>-5.4558072893346328</v>
       </c>
       <c r="R50" s="7">
-        <v>-3.3543234526186407</v>
+        <v>-3.3543234526186385</v>
       </c>
       <c r="S50" s="7">
-        <v>1.2345969889027757</v>
+        <v>1.2345969889027837</v>
       </c>
       <c r="T50" s="7">
-        <v>2.8190389318319338</v>
+        <v>2.8190389318319324</v>
       </c>
       <c r="U50" s="7">
-        <v>5.3507297167167849</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.3507297167167911</v>
+      </c>
+      <c r="V50" s="7">
+        <v>5.5827479897021748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>0.64850843060960484</v>
+        <v>0.64850843060960295</v>
       </c>
       <c r="C51" s="7">
-        <v>-7.9263977353149384</v>
+        <v>-7.9263977353149304</v>
       </c>
       <c r="D51" s="7">
-        <v>0.51998700032500833</v>
+        <v>0.51998700032500167</v>
       </c>
       <c r="E51" s="7">
-        <v>-1.1058030871129121</v>
+        <v>-1.1058030871129303</v>
       </c>
       <c r="F51" s="7">
-        <v>-2.7186874903831453</v>
+        <v>-2.7186874903831373</v>
       </c>
       <c r="G51" s="7">
-        <v>-4.5076661677252359</v>
+        <v>-4.5076661677252572</v>
       </c>
       <c r="H51" s="7">
-        <v>-0.47735874175084209</v>
+        <v>-0.47735874175083381</v>
       </c>
       <c r="I51" s="7">
-        <v>2.7867590454195659</v>
+        <v>2.7867590454195597</v>
       </c>
       <c r="J51" s="7">
-        <v>10.386824441215166</v>
+        <v>10.38682444121515</v>
       </c>
       <c r="K51" s="7">
-        <v>12.384159967803082</v>
+        <v>12.3841599678031</v>
       </c>
       <c r="L51" s="7">
-        <v>1.3242881712211165</v>
+        <v>1.3242881712211056</v>
       </c>
       <c r="M51" s="7">
-        <v>0.78546285200717991</v>
+        <v>0.78546285200718546</v>
       </c>
       <c r="N51" s="7">
-        <v>-4.1356211491617882</v>
+        <v>-4.1356211491617723</v>
       </c>
       <c r="O51" s="7">
-        <v>0.32135856453560219</v>
+        <v>0.32135856453559425</v>
       </c>
       <c r="P51" s="7">
-        <v>-1.951040114667232</v>
+        <v>-1.9510401146672314</v>
       </c>
       <c r="Q51" s="7">
-        <v>-3.5316520365984054</v>
+        <v>-3.5316520365983926</v>
       </c>
       <c r="R51" s="7">
-        <v>-6.2309661267118797</v>
+        <v>-6.2309661267118823</v>
       </c>
       <c r="S51" s="7">
-        <v>-4.5691525837693732</v>
+        <v>-4.5691525837693723</v>
       </c>
       <c r="T51" s="7">
-        <v>-0.45971705280977043</v>
+        <v>-0.45971705280975234</v>
       </c>
       <c r="U51" s="7">
-        <v>1.183403464512341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.1834034645123468</v>
+      </c>
+      <c r="V51" s="7">
+        <v>3.4898780585000408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>-3.0930497240739503</v>
+        <v>-3.0930497240739525</v>
       </c>
       <c r="C52" s="7">
-        <v>-3.5927973643352167</v>
+        <v>-3.5927973643352211</v>
       </c>
       <c r="D52" s="7">
-        <v>-0.65782564278827593</v>
+        <v>-0.65782564278825595</v>
       </c>
       <c r="E52" s="7">
-        <v>-3.2723480898663415</v>
+        <v>-3.272348089866322</v>
       </c>
       <c r="F52" s="7">
-        <v>-0.38688155700087057</v>
+        <v>-0.38688155700088506</v>
       </c>
       <c r="G52" s="7">
-        <v>-8.3911894965286251</v>
+        <v>-8.3911894965286233</v>
       </c>
       <c r="H52" s="7">
-        <v>-1.4473810667948139</v>
+        <v>-1.4473810667948246</v>
       </c>
       <c r="I52" s="7">
-        <v>3.5731786197299025</v>
+        <v>3.573178619729894</v>
       </c>
       <c r="J52" s="7">
-        <v>1.9656993391525064</v>
+        <v>1.9656993391524971</v>
       </c>
       <c r="K52" s="7">
-        <v>9.4588800274419036</v>
+        <v>9.4588800274418929</v>
       </c>
       <c r="L52" s="7">
-        <v>-0.88547355281634232</v>
+        <v>-0.88547355281634443</v>
       </c>
       <c r="M52" s="7">
-        <v>1.6662881798569356</v>
+        <v>1.66628817985693</v>
       </c>
       <c r="N52" s="7">
-        <v>3.6671039207112432</v>
+        <v>3.6671039207112583</v>
       </c>
       <c r="O52" s="7">
-        <v>4.3403321842682461</v>
+        <v>4.3403321842682541</v>
       </c>
       <c r="P52" s="7">
-        <v>6.4455507890904853</v>
+        <v>6.4455507890904826</v>
       </c>
       <c r="Q52" s="7">
-        <v>0.40951184326865953</v>
+        <v>0.40951184326866136</v>
       </c>
       <c r="R52" s="7">
-        <v>-2.2795227249294583</v>
+        <v>-2.2795227249294592</v>
       </c>
       <c r="S52" s="7">
-        <v>-0.33319567502629088</v>
+        <v>-0.33319567502626951</v>
       </c>
       <c r="T52" s="7">
-        <v>0.47695194431863153</v>
+        <v>0.47695194431863397</v>
       </c>
       <c r="U52" s="7">
-        <v>3.2275107753626511</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.2275107753626595</v>
+      </c>
+      <c r="V52" s="7">
+        <v>6.2518583884055836</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>10.181690168390997</v>
+        <v>10.181690168391006</v>
       </c>
       <c r="C53" s="7">
-        <v>6.1732763280750822</v>
+        <v>6.1732763280750973</v>
       </c>
       <c r="D53" s="7">
-        <v>4.5029537185555926</v>
+        <v>4.502953718555629</v>
       </c>
       <c r="E53" s="7">
-        <v>-3.2373932044753082</v>
+        <v>-3.2373932044753246</v>
       </c>
       <c r="F53" s="7">
         <v>-20.083604025773482</v>
       </c>
       <c r="G53" s="7">
-        <v>-22.112269268509429</v>
+        <v>-22.112269268509436</v>
       </c>
       <c r="H53" s="7">
-        <v>-19.597933513027851</v>
+        <v>-19.597933513027865</v>
       </c>
       <c r="I53" s="7">
-        <v>-14.258991829574423</v>
+        <v>-14.258991829574439</v>
       </c>
       <c r="J53" s="7">
-        <v>-7.2907990449219646</v>
+        <v>-7.2907990449219842</v>
       </c>
       <c r="K53" s="7">
-        <v>6.0507018148539853</v>
+        <v>6.0507018148539986</v>
       </c>
       <c r="L53" s="7">
-        <v>4.5257717558318342</v>
+        <v>4.5257717558318324</v>
       </c>
       <c r="M53" s="7">
-        <v>2.2946928163680376</v>
+        <v>2.2946928163680642</v>
       </c>
       <c r="N53" s="7">
-        <v>2.0507906085289695</v>
+        <v>2.0507906085289704</v>
       </c>
       <c r="O53" s="7">
-        <v>-1.6384624005379185</v>
+        <v>-1.6384624005379389</v>
       </c>
       <c r="P53" s="7">
-        <v>-2.2250434317787122</v>
+        <v>-2.2250434317786958</v>
       </c>
       <c r="Q53" s="7">
-        <v>-0.609978451848184</v>
+        <v>-0.60997845184815802</v>
       </c>
       <c r="R53" s="7">
-        <v>1.5999154850220814</v>
+        <v>1.5999154850220985</v>
       </c>
       <c r="S53" s="7">
-        <v>-2.0497219943487486</v>
+        <v>-2.0497219943487446</v>
       </c>
       <c r="T53" s="7">
-        <v>-0.14806715414929855</v>
+        <v>-0.14806715414928129</v>
       </c>
       <c r="U53" s="7">
-        <v>-0.84386778292916853</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-0.84386778292919706</v>
+      </c>
+      <c r="V53" s="7">
+        <v>1.2084801571255099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>-11.080538620280249</v>
+        <v>-11.080538620280242</v>
       </c>
       <c r="C54" s="7">
-        <v>-10.935991665631237</v>
+        <v>-10.935991665631226</v>
       </c>
       <c r="D54" s="7">
-        <v>-7.4628491094676805</v>
+        <v>-7.462849109467677</v>
       </c>
       <c r="E54" s="7">
-        <v>-5.8811259659508686</v>
+        <v>-5.8811259659508481</v>
       </c>
       <c r="F54" s="7">
-        <v>-0.47263787037428118</v>
+        <v>-0.47263787037428617</v>
       </c>
       <c r="G54" s="7">
-        <v>-6.4012448355421991</v>
+        <v>-6.4012448355422054</v>
       </c>
       <c r="H54" s="7">
-        <v>3.5904952444126028</v>
+        <v>3.5904952444125962</v>
       </c>
       <c r="I54" s="7">
-        <v>4.249817955401741</v>
+        <v>4.249817955401709</v>
       </c>
       <c r="J54" s="7">
-        <v>2.5277369620307044</v>
+        <v>2.5277369620306835</v>
       </c>
       <c r="K54" s="7">
-        <v>7.5945883971566026</v>
+        <v>7.594588397156615</v>
       </c>
       <c r="L54" s="7">
-        <v>-2.0914020139426808</v>
+        <v>-2.0914020139426794</v>
       </c>
       <c r="M54" s="7">
-        <v>-2.6279559442825016</v>
+        <v>-2.6279559442824705</v>
       </c>
       <c r="N54" s="7">
-        <v>-0.78926598263615588</v>
+        <v>-0.78926598263614212</v>
       </c>
       <c r="O54" s="7">
-        <v>-0.82796982225822513</v>
+        <v>-0.82796982225823357</v>
       </c>
       <c r="P54" s="7">
-        <v>-0.32383966244727619</v>
+        <v>-0.3238396624472572</v>
       </c>
       <c r="Q54" s="7">
-        <v>-1.9898532041418739</v>
+        <v>-1.9898532041418882</v>
       </c>
       <c r="R54" s="7">
-        <v>-4.1022903320353477</v>
+        <v>-4.1022903320353361</v>
       </c>
       <c r="S54" s="7">
-        <v>0.41045698260393831</v>
+        <v>0.41045698260394992</v>
       </c>
       <c r="T54" s="7">
-        <v>1.1831564242854078</v>
+        <v>1.1831564242854025</v>
       </c>
       <c r="U54" s="7">
-        <v>3.3413242251309949</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3413242251310087</v>
+      </c>
+      <c r="V54" s="7">
+        <v>4.41749533363169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>1.9268244183734526</v>
+        <v>1.926824418373436</v>
       </c>
       <c r="C55" s="7">
-        <v>2.9514866052473328</v>
+        <v>2.9514866052473163</v>
       </c>
       <c r="D55" s="7">
-        <v>2.7205130222677054</v>
+        <v>2.7205130222676801</v>
       </c>
       <c r="E55" s="7">
-        <v>1.2743562555327683</v>
+        <v>1.2743562555327648</v>
       </c>
       <c r="F55" s="7">
-        <v>-1.5460699584463302</v>
+        <v>-1.5460699584463244</v>
       </c>
       <c r="G55" s="7">
-        <v>-11.193170918856717</v>
+        <v>-11.19317091885671</v>
       </c>
       <c r="H55" s="7">
-        <v>-2.116088013941301</v>
+        <v>-2.1160880139412841</v>
       </c>
       <c r="I55" s="7">
-        <v>-0.98744560884477339</v>
+        <v>-0.98744560884474764</v>
       </c>
       <c r="J55" s="7">
-        <v>3.1426788067331701</v>
+        <v>3.1426788067331719</v>
       </c>
       <c r="K55" s="7">
-        <v>12.38470677178961</v>
+        <v>12.38470677178962</v>
       </c>
       <c r="L55" s="7">
-        <v>1.8390264898071051</v>
+        <v>1.8390264898071031</v>
       </c>
       <c r="M55" s="7">
-        <v>3.9901434821835919</v>
+        <v>3.9901434821835773</v>
       </c>
       <c r="N55" s="7">
-        <v>-0.47932375966571367</v>
+        <v>-0.47932375966572688</v>
       </c>
       <c r="O55" s="7">
-        <v>-3.3827613711715623</v>
+        <v>-3.3827613711715827</v>
       </c>
       <c r="P55" s="7">
-        <v>-3.2543128289852987</v>
+        <v>-3.2543128289852845</v>
       </c>
       <c r="Q55" s="7">
-        <v>-6.0816105679528434</v>
+        <v>-6.0816105679528318</v>
       </c>
       <c r="R55" s="7">
-        <v>-6.2013782985541415</v>
+        <v>-6.2013782985541264</v>
       </c>
       <c r="S55" s="7">
-        <v>-2.0052319046719287</v>
+        <v>-2.0052319046719047</v>
       </c>
       <c r="T55" s="7">
-        <v>-0.66620333598092429</v>
+        <v>-0.66620333598092385</v>
       </c>
       <c r="U55" s="7">
-        <v>1.5436114946410746</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.5436114946410517</v>
+      </c>
+      <c r="V55" s="7">
+        <v>4.4216462065630076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -8054,6 +8365,7 @@
       <c r="Q56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
